--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -3147,7 +3147,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5202875</v>
+        <v>5202880</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3159,76 +3159,76 @@
         <v>44948.51041666666</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K30">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L30">
         <v>3.1</v>
       </c>
       <c r="M30">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N30">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O30">
         <v>2.8</v>
       </c>
       <c r="P30">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>1.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3236,7 +3236,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5202880</v>
+        <v>5202875</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3248,76 +3248,76 @@
         <v>44948.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>1</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L31">
         <v>3.1</v>
       </c>
       <c r="M31">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N31">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O31">
         <v>2.8</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
         <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z31">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3770,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5203904</v>
+        <v>5202883</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3782,19 +3782,19 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3806,52 +3806,52 @@
         <v>4.2</v>
       </c>
       <c r="N37">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
         <v>1.75</v>
       </c>
       <c r="U37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y37">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
+        <v>0.5125</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.95</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3859,7 +3859,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5202883</v>
+        <v>5203904</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3871,19 +3871,19 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3895,52 +3895,52 @@
         <v>4.2</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T38">
         <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AB38">
         <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5202893</v>
+        <v>5202894</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4672,10 +4672,10 @@
         <v>44961.51041666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4690,40 +4690,40 @@
         <v>2.05</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P47">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4732,7 +4732,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4749,7 +4749,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5202894</v>
+        <v>5202893</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4761,10 +4761,10 @@
         <v>44961.51041666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4779,40 +4779,40 @@
         <v>2.05</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
+        <v>3.6</v>
+      </c>
+      <c r="N48">
+        <v>2.2</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
         <v>3.75</v>
-      </c>
-      <c r="N48">
-        <v>2.25</v>
-      </c>
-      <c r="O48">
-        <v>2.9</v>
-      </c>
-      <c r="P48">
-        <v>3.8</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4821,7 +4821,7 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4830,7 +4830,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -7063,7 +7063,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5202904</v>
+        <v>5203898</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7075,58 +7075,58 @@
         <v>44976.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>58</v>
       </c>
       <c r="K74">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N74">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
+        <v>1.825</v>
+      </c>
+      <c r="S74">
+        <v>2.025</v>
+      </c>
+      <c r="T74">
+        <v>2</v>
+      </c>
+      <c r="U74">
         <v>1.975</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.875</v>
       </c>
-      <c r="T74">
-        <v>2</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7135,16 +7135,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7152,7 +7152,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5203898</v>
+        <v>5202904</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7164,58 +7164,58 @@
         <v>44976.51041666666</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>58</v>
       </c>
       <c r="K75">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N75">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O75">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P75">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S75">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T75">
         <v>2</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7224,16 +7224,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -8665,7 +8665,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>5202941</v>
+        <v>5202937</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8677,76 +8677,76 @@
         <v>44989.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>58</v>
+      </c>
+      <c r="K92">
+        <v>3.5</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>2.25</v>
+      </c>
+      <c r="N92">
+        <v>3.75</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+      <c r="P92">
+        <v>2.15</v>
+      </c>
+      <c r="Q92">
+        <v>0.25</v>
+      </c>
+      <c r="R92">
+        <v>2</v>
+      </c>
+      <c r="S92">
+        <v>1.85</v>
+      </c>
+      <c r="T92">
+        <v>2</v>
+      </c>
+      <c r="U92">
+        <v>1.9</v>
+      </c>
+      <c r="V92">
+        <v>1.95</v>
+      </c>
+      <c r="W92">
+        <v>2.75</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
         <v>1</v>
       </c>
-      <c r="J92" t="s">
-        <v>60</v>
-      </c>
-      <c r="K92">
-        <v>2.375</v>
-      </c>
-      <c r="L92">
-        <v>2.9</v>
-      </c>
-      <c r="M92">
-        <v>3.4</v>
-      </c>
-      <c r="N92">
-        <v>2.3</v>
-      </c>
-      <c r="O92">
-        <v>2.8</v>
-      </c>
-      <c r="P92">
-        <v>3.75</v>
-      </c>
-      <c r="Q92">
-        <v>-0.25</v>
-      </c>
-      <c r="R92">
-        <v>1.95</v>
-      </c>
-      <c r="S92">
-        <v>1.9</v>
-      </c>
-      <c r="T92">
-        <v>1.75</v>
-      </c>
-      <c r="U92">
-        <v>1.95</v>
-      </c>
-      <c r="V92">
-        <v>1.9</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>2.75</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
       <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB92">
-        <v>-1</v>
-      </c>
       <c r="AC92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8754,7 +8754,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>5202937</v>
+        <v>5202941</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8766,76 +8766,76 @@
         <v>44989.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K93">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M93">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N93">
+        <v>2.3</v>
+      </c>
+      <c r="O93">
+        <v>2.8</v>
+      </c>
+      <c r="P93">
         <v>3.75</v>
       </c>
-      <c r="O93">
-        <v>3</v>
-      </c>
-      <c r="P93">
-        <v>2.15</v>
-      </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U93">
+        <v>1.95</v>
+      </c>
+      <c r="V93">
         <v>1.9</v>
       </c>
-      <c r="V93">
-        <v>1.95</v>
-      </c>
       <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
         <v>2.75</v>
       </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
       <c r="Z93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9644,7 +9644,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>5466871</v>
+        <v>5470778</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9656,10 +9656,10 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9671,61 +9671,61 @@
         <v>59</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>10</v>
+        <v>2.7</v>
       </c>
       <c r="N103">
-        <v>1.4</v>
+        <v>2.375</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>9</v>
+        <v>3.2</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.8500000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9733,7 +9733,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5470778</v>
+        <v>5466871</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9745,10 +9745,10 @@
         <v>44996.60416666666</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9760,61 +9760,61 @@
         <v>59</v>
       </c>
       <c r="K104">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="N104">
-        <v>2.375</v>
+        <v>1.4</v>
       </c>
       <c r="O104">
+        <v>4.2</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104">
+        <v>-1.25</v>
+      </c>
+      <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
+        <v>1.85</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
+        <v>2.05</v>
+      </c>
+      <c r="V104">
+        <v>1.8</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
         <v>3.2</v>
       </c>
-      <c r="P104">
-        <v>3.2</v>
-      </c>
-      <c r="Q104">
-        <v>-0.25</v>
-      </c>
-      <c r="R104">
-        <v>2.025</v>
-      </c>
-      <c r="S104">
-        <v>1.825</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.825</v>
-      </c>
-      <c r="V104">
-        <v>2.025</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>2.2</v>
-      </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.4125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11157,7 +11157,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5495663</v>
+        <v>5499484</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11169,76 +11169,76 @@
         <v>45004.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K120">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M120">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P120">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
+        <v>2.125</v>
+      </c>
+      <c r="S120">
+        <v>1.75</v>
+      </c>
+      <c r="T120">
+        <v>1.75</v>
+      </c>
+      <c r="U120">
         <v>1.975</v>
       </c>
-      <c r="S120">
+      <c r="V120">
         <v>1.875</v>
       </c>
-      <c r="T120">
-        <v>2.25</v>
-      </c>
-      <c r="U120">
-        <v>2.05</v>
-      </c>
-      <c r="V120">
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
         <v>1.8</v>
       </c>
-      <c r="W120">
-        <v>1.3</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB120">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11246,7 +11246,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5499484</v>
+        <v>5495663</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11258,76 +11258,76 @@
         <v>45004.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K121">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N121">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X121">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -17476,7 +17476,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5734289</v>
+        <v>5738352</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17488,58 +17488,58 @@
         <v>45052.5625</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>58</v>
       </c>
       <c r="K191">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L191">
+        <v>3.1</v>
+      </c>
+      <c r="M191">
+        <v>2.4</v>
+      </c>
+      <c r="N191">
+        <v>2.3</v>
+      </c>
+      <c r="O191">
         <v>3</v>
       </c>
-      <c r="M191">
-        <v>4</v>
-      </c>
-      <c r="N191">
-        <v>2</v>
-      </c>
-      <c r="O191">
-        <v>2.9</v>
-      </c>
       <c r="P191">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q191">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W191">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17548,16 +17548,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17565,7 +17565,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5738352</v>
+        <v>5734289</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17577,58 +17577,58 @@
         <v>45052.5625</v>
       </c>
       <c r="F192" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>1</v>
-      </c>
-      <c r="I192">
-        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>58</v>
       </c>
       <c r="K192">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M192">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N192">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O192">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P192">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S192">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W192">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17637,16 +17637,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -18900,7 +18900,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>5750233</v>
+        <v>5750236</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18912,10 +18912,10 @@
         <v>45060.5625</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18927,61 +18927,61 @@
         <v>59</v>
       </c>
       <c r="K207">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="L207">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N207">
+        <v>2.375</v>
+      </c>
+      <c r="O207">
+        <v>2.9</v>
+      </c>
+      <c r="P207">
+        <v>3.4</v>
+      </c>
+      <c r="Q207">
+        <v>-0.25</v>
+      </c>
+      <c r="R207">
+        <v>2.025</v>
+      </c>
+      <c r="S207">
+        <v>1.825</v>
+      </c>
+      <c r="T207">
+        <v>2</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="O207">
-        <v>3.4</v>
-      </c>
-      <c r="P207">
-        <v>4.5</v>
-      </c>
-      <c r="Q207">
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>1.9</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
         <v>-0.5</v>
       </c>
-      <c r="R207">
-        <v>1.85</v>
-      </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
-      <c r="T207">
-        <v>2.25</v>
-      </c>
-      <c r="U207">
-        <v>1.95</v>
-      </c>
-      <c r="V207">
-        <v>1.9</v>
-      </c>
-      <c r="W207">
-        <v>-1</v>
-      </c>
-      <c r="X207">
-        <v>2.4</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
-      <c r="Z207">
-        <v>-1</v>
-      </c>
       <c r="AA207">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB207">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC207">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18989,7 +18989,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>5750236</v>
+        <v>5750233</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -19001,10 +19001,10 @@
         <v>45060.5625</v>
       </c>
       <c r="F208" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19016,61 +19016,61 @@
         <v>59</v>
       </c>
       <c r="K208">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="L208">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O208">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
+        <v>1</v>
+      </c>
+      <c r="AB208">
         <v>-0.5</v>
       </c>
-      <c r="AA208">
-        <v>0.4125</v>
-      </c>
-      <c r="AB208">
-        <v>0</v>
-      </c>
       <c r="AC208">
-        <v>-0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6681002</v>
+        <v>6681004</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20514,46 +20514,46 @@
         <v>45073.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G225" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K225">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L225">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N225">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O225">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P225">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q225">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R225">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
         <v>2.5</v>
@@ -20565,25 +20565,25 @@
         <v>2</v>
       </c>
       <c r="W225">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB225">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20591,7 +20591,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6681004</v>
+        <v>6681002</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20603,46 +20603,46 @@
         <v>45073.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G226" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K226">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L226">
+        <v>3.5</v>
+      </c>
+      <c r="M226">
+        <v>4.5</v>
+      </c>
+      <c r="N226">
+        <v>1.7</v>
+      </c>
+      <c r="O226">
         <v>3.75</v>
       </c>
-      <c r="M226">
-        <v>6.5</v>
-      </c>
-      <c r="N226">
-        <v>1.5</v>
-      </c>
-      <c r="O226">
-        <v>4.2</v>
-      </c>
       <c r="P226">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q226">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
         <v>2.5</v>
@@ -20654,25 +20654,25 @@
         <v>2</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X226">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA226">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20680,7 +20680,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>5794438</v>
+        <v>5794441</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20692,76 +20692,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F227" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>1</v>
       </c>
       <c r="J227" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K227">
-        <v>1.571</v>
+        <v>2.7</v>
       </c>
       <c r="L227">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M227">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="N227">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O227">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P227">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q227">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S227">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U227">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X227">
         <v>-1</v>
       </c>
       <c r="Y227">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z227">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20769,7 +20769,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>5791392</v>
+        <v>5794438</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20781,49 +20781,49 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H228">
         <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>58</v>
       </c>
       <c r="K228">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N228">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O228">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="P228">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R228">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S228">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
         <v>1.925</v>
@@ -20832,7 +20832,7 @@
         <v>1.925</v>
       </c>
       <c r="W228">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20841,16 +20841,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB228">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC228">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20858,7 +20858,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>5794440</v>
+        <v>5791392</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20870,76 +20870,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229">
         <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K229">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M229">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N229">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O229">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T229">
         <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V229">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X229">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>0.875</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
         <v>-0.5</v>
       </c>
-      <c r="AA229">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB229">
-        <v>-1</v>
-      </c>
       <c r="AC229">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20947,7 +20947,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>5794441</v>
+        <v>5794440</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20959,76 +20959,76 @@
         <v>45073.66666666666</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H230">
         <v>0</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K230">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="L230">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="N230">
+        <v>2.1</v>
+      </c>
+      <c r="O230">
+        <v>3.25</v>
+      </c>
+      <c r="P230">
         <v>3.5</v>
       </c>
-      <c r="O230">
-        <v>3.2</v>
-      </c>
-      <c r="P230">
-        <v>2.2</v>
-      </c>
       <c r="Q230">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S230">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y230">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB230">
         <v>-1</v>
       </c>
       <c r="AC230">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -22282,7 +22282,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22294,76 +22294,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G245" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K245">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L245">
         <v>3.1</v>
       </c>
       <c r="M245">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N245">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O245">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P245">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
+        <v>1.85</v>
+      </c>
+      <c r="S245">
+        <v>2</v>
+      </c>
+      <c r="T245">
+        <v>2</v>
+      </c>
+      <c r="U245">
         <v>1.9</v>
       </c>
-      <c r="S245">
+      <c r="V245">
         <v>1.95</v>
       </c>
-      <c r="T245">
-        <v>2.25</v>
-      </c>
-      <c r="U245">
-        <v>1.95</v>
-      </c>
-      <c r="V245">
-        <v>1.9</v>
-      </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA245">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB245">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC245">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22371,7 +22371,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22383,76 +22383,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F246" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G246" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K246">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L246">
         <v>3.1</v>
       </c>
       <c r="M246">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N246">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O246">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P246">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T246">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
         <v>1.9</v>
       </c>
-      <c r="V246">
-        <v>1.95</v>
-      </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y246">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB246">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC246">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -25041,7 +25041,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25053,76 +25053,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G276" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H276">
         <v>1</v>
       </c>
       <c r="I276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K276">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L276">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M276">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N276">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O276">
         <v>3.4</v>
       </c>
       <c r="P276">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S276">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T276">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U276">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V276">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y276">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB276">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC276">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25130,7 +25130,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25142,76 +25142,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G277" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K277">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L277">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M277">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N277">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O277">
         <v>3.4</v>
       </c>
       <c r="P277">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q277">
         <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S277">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T277">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U277">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V277">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y277">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB277">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC277">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -28868,7 +28868,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28880,73 +28880,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G319" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H319">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K319">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L319">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M319">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N319">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P319">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S319">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T319">
         <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -28957,7 +28957,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28969,73 +28969,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G320" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J320" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K320">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L320">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M320">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N320">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P320">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S320">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W320">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X320">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB320">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29135,7 +29135,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6837991</v>
+        <v>6836530</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29147,76 +29147,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F322" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G322" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322" t="s">
+        <v>59</v>
+      </c>
+      <c r="K322">
+        <v>2.35</v>
+      </c>
+      <c r="L322">
+        <v>3.1</v>
+      </c>
+      <c r="M322">
         <v>3</v>
       </c>
-      <c r="I322">
-        <v>0</v>
-      </c>
-      <c r="J322" t="s">
-        <v>58</v>
-      </c>
-      <c r="K322">
-        <v>1.833</v>
-      </c>
-      <c r="L322">
-        <v>3.3</v>
-      </c>
-      <c r="M322">
-        <v>4.2</v>
-      </c>
       <c r="N322">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O322">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P322">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R322">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S322">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T322">
         <v>2.25</v>
       </c>
       <c r="U322">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V322">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W322">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X322">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>-0</v>
+      </c>
+      <c r="AB322">
+        <v>-1</v>
+      </c>
+      <c r="AC322">
         <v>0.825</v>
-      </c>
-      <c r="AA322">
-        <v>-1</v>
-      </c>
-      <c r="AB322">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC322">
-        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29224,7 +29224,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29236,76 +29236,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F323" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G323" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H323">
         <v>0</v>
       </c>
       <c r="I323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J323" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K323">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L323">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M323">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N323">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O323">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P323">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q323">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R323">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U323">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V323">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29313,7 +29313,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6837992</v>
+        <v>6837991</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29325,37 +29325,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F324" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="G324" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I324">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J324" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K324">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L324">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M324">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N324">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O324">
         <v>3.5</v>
       </c>
       <c r="P324">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q324">
         <v>-0.5</v>
@@ -29367,34 +29367,34 @@
         <v>2.025</v>
       </c>
       <c r="T324">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V324">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W324">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA324">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB324">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC324">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -30025,7 +30025,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6837996</v>
+        <v>6837994</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30037,13 +30037,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F332" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332">
         <v>0</v>
@@ -30052,43 +30052,43 @@
         <v>58</v>
       </c>
       <c r="K332">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L332">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M332">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N332">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O332">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P332">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q332">
         <v>-0.25</v>
       </c>
       <c r="R332">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S332">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U332">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V332">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W332">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X332">
         <v>-1</v>
@@ -30097,16 +30097,16 @@
         <v>-1</v>
       </c>
       <c r="Z332">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA332">
         <v>-1</v>
       </c>
       <c r="AB332">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC332">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30114,7 +30114,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6837994</v>
+        <v>6837996</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30126,13 +30126,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F333" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G333" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333">
         <v>0</v>
@@ -30141,43 +30141,43 @@
         <v>58</v>
       </c>
       <c r="K333">
+        <v>2.5</v>
+      </c>
+      <c r="L333">
+        <v>3.1</v>
+      </c>
+      <c r="M333">
+        <v>2.7</v>
+      </c>
+      <c r="N333">
         <v>2.375</v>
       </c>
-      <c r="L333">
+      <c r="O333">
         <v>3</v>
       </c>
-      <c r="M333">
-        <v>3</v>
-      </c>
-      <c r="N333">
-        <v>2.3</v>
-      </c>
-      <c r="O333">
-        <v>2.9</v>
-      </c>
       <c r="P333">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q333">
         <v>-0.25</v>
       </c>
       <c r="R333">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S333">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T333">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V333">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W333">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X333">
         <v>-1</v>
@@ -30186,16 +30186,16 @@
         <v>-1</v>
       </c>
       <c r="Z333">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA333">
         <v>-1</v>
       </c>
       <c r="AB333">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC333">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30203,7 +30203,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30215,52 +30215,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G334" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J334" t="s">
         <v>60</v>
       </c>
       <c r="K334">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L334">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M334">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N334">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O334">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P334">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q334">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R334">
+        <v>2.05</v>
+      </c>
+      <c r="S334">
+        <v>1.8</v>
+      </c>
+      <c r="T334">
+        <v>2</v>
+      </c>
+      <c r="U334">
         <v>1.75</v>
-      </c>
-      <c r="S334">
-        <v>2.125</v>
-      </c>
-      <c r="T334">
-        <v>2</v>
-      </c>
-      <c r="U334">
-        <v>1.8</v>
       </c>
       <c r="V334">
         <v>2.05</v>
@@ -30272,19 +30272,19 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z334">
         <v>-1</v>
       </c>
       <c r="AA334">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB334">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC334">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30292,7 +30292,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30304,52 +30304,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G335" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H335">
+        <v>0</v>
+      </c>
+      <c r="I335">
         <v>1</v>
-      </c>
-      <c r="I335">
-        <v>3</v>
       </c>
       <c r="J335" t="s">
         <v>60</v>
       </c>
       <c r="K335">
+        <v>2.3</v>
+      </c>
+      <c r="L335">
+        <v>3</v>
+      </c>
+      <c r="M335">
         <v>3.1</v>
       </c>
-      <c r="L335">
+      <c r="N335">
+        <v>2.5</v>
+      </c>
+      <c r="O335">
+        <v>3</v>
+      </c>
+      <c r="P335">
         <v>3.1</v>
       </c>
-      <c r="M335">
-        <v>2.25</v>
-      </c>
-      <c r="N335">
-        <v>3.75</v>
-      </c>
-      <c r="O335">
-        <v>3.2</v>
-      </c>
-      <c r="P335">
-        <v>2.1</v>
-      </c>
       <c r="Q335">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R335">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S335">
+        <v>2.125</v>
+      </c>
+      <c r="T335">
+        <v>2</v>
+      </c>
+      <c r="U335">
         <v>1.8</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
-      <c r="U335">
-        <v>1.75</v>
       </c>
       <c r="V335">
         <v>2.05</v>
@@ -30361,19 +30361,19 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB335">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC335">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -33674,7 +33674,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33686,10 +33686,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G373" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H373">
         <v>2</v>
@@ -33701,43 +33701,43 @@
         <v>58</v>
       </c>
       <c r="K373">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L373">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M373">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N373">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O373">
         <v>3.1</v>
       </c>
       <c r="P373">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q373">
         <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S373">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V373">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W373">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33746,16 +33746,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC373">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33763,7 +33763,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33775,10 +33775,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F374" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G374" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33790,43 +33790,43 @@
         <v>58</v>
       </c>
       <c r="K374">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L374">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M374">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N374">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O374">
         <v>3.1</v>
       </c>
       <c r="P374">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q374">
         <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S374">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T374">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U374">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V374">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W374">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33835,16 +33835,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC374">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -36611,7 +36611,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36623,76 +36623,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F406" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G406" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J406" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K406">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L406">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M406">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N406">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O406">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P406">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q406">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R406">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S406">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T406">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U406">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V406">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W406">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z406">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB406">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC406">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36700,7 +36700,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36712,76 +36712,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F407" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G407" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J407" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K407">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L407">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M407">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N407">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O407">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P407">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q407">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R407">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S407">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T407">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U407">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V407">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W407">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA407">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB407">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC407">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36967,7 +36967,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36979,73 +36979,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F410" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G410" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H410">
         <v>2</v>
       </c>
       <c r="I410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J410" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K410">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L410">
+        <v>3.2</v>
+      </c>
+      <c r="M410">
+        <v>3.75</v>
+      </c>
+      <c r="N410">
+        <v>2.1</v>
+      </c>
+      <c r="O410">
         <v>3.1</v>
       </c>
-      <c r="M410">
-        <v>2.625</v>
-      </c>
-      <c r="N410">
-        <v>2.55</v>
-      </c>
-      <c r="O410">
-        <v>2.9</v>
-      </c>
       <c r="P410">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q410">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R410">
+        <v>2.05</v>
+      </c>
+      <c r="S410">
         <v>1.75</v>
       </c>
-      <c r="S410">
-        <v>2.125</v>
-      </c>
       <c r="T410">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U410">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V410">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W410">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X410">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
+        <v>-1</v>
+      </c>
+      <c r="AA410">
         <v>0.75</v>
       </c>
-      <c r="AA410">
-        <v>-1</v>
-      </c>
       <c r="AB410">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC410">
         <v>-1</v>
@@ -37056,7 +37056,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37068,73 +37068,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F411" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G411" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H411">
         <v>2</v>
       </c>
       <c r="I411">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J411" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K411">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L411">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M411">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N411">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O411">
+        <v>2.9</v>
+      </c>
+      <c r="P411">
         <v>3.1</v>
       </c>
-      <c r="P411">
-        <v>3.8</v>
-      </c>
       <c r="Q411">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R411">
+        <v>1.75</v>
+      </c>
+      <c r="S411">
+        <v>2.125</v>
+      </c>
+      <c r="T411">
+        <v>1.75</v>
+      </c>
+      <c r="U411">
+        <v>1.8</v>
+      </c>
+      <c r="V411">
         <v>2.05</v>
       </c>
-      <c r="S411">
-        <v>1.75</v>
-      </c>
-      <c r="T411">
-        <v>2.25</v>
-      </c>
-      <c r="U411">
-        <v>2.025</v>
-      </c>
-      <c r="V411">
-        <v>1.825</v>
-      </c>
       <c r="W411">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X411">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA411">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB411">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC411">
         <v>-1</v>
@@ -39993,7 +39993,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40005,61 +40005,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F444" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G444" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J444" t="s">
         <v>59</v>
       </c>
       <c r="K444">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L444">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M444">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N444">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O444">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P444">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q444">
         <v>-0.75</v>
       </c>
       <c r="R444">
+        <v>1.825</v>
+      </c>
+      <c r="S444">
         <v>2.025</v>
       </c>
-      <c r="S444">
-        <v>1.825</v>
-      </c>
       <c r="T444">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U444">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V444">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W444">
         <v>-1</v>
       </c>
       <c r="X444">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y444">
         <v>-1</v>
@@ -40068,13 +40068,13 @@
         <v>-1</v>
       </c>
       <c r="AA444">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB444">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC444">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40082,7 +40082,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40094,62 +40094,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F445" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G445" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J445" t="s">
         <v>59</v>
       </c>
       <c r="K445">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L445">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M445">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N445">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O445">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P445">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q445">
         <v>-0.75</v>
       </c>
       <c r="R445">
+        <v>2.025</v>
+      </c>
+      <c r="S445">
         <v>1.825</v>
       </c>
-      <c r="S445">
-        <v>2.025</v>
-      </c>
       <c r="T445">
+        <v>2</v>
+      </c>
+      <c r="U445">
+        <v>2.05</v>
+      </c>
+      <c r="V445">
+        <v>1.8</v>
+      </c>
+      <c r="W445">
+        <v>-1</v>
+      </c>
+      <c r="X445">
         <v>2.25</v>
       </c>
-      <c r="U445">
-        <v>1.925</v>
-      </c>
-      <c r="V445">
-        <v>1.925</v>
-      </c>
-      <c r="W445">
-        <v>-1</v>
-      </c>
-      <c r="X445">
-        <v>2.75</v>
-      </c>
       <c r="Y445">
         <v>-1</v>
       </c>
@@ -40157,13 +40157,13 @@
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB445">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC445">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -41773,7 +41773,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41785,10 +41785,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F464" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G464" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -41800,61 +41800,61 @@
         <v>59</v>
       </c>
       <c r="K464">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M464">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N464">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P464">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q464">
+        <v>-0.25</v>
+      </c>
+      <c r="R464">
+        <v>1.975</v>
+      </c>
+      <c r="S464">
+        <v>1.875</v>
+      </c>
+      <c r="T464">
+        <v>1.75</v>
+      </c>
+      <c r="U464">
+        <v>2.05</v>
+      </c>
+      <c r="V464">
+        <v>1.8</v>
+      </c>
+      <c r="W464">
+        <v>-1</v>
+      </c>
+      <c r="X464">
+        <v>1.8</v>
+      </c>
+      <c r="Y464">
+        <v>-1</v>
+      </c>
+      <c r="Z464">
         <v>-0.5</v>
       </c>
-      <c r="R464">
-        <v>1.95</v>
-      </c>
-      <c r="S464">
-        <v>1.9</v>
-      </c>
-      <c r="T464">
-        <v>2.25</v>
-      </c>
-      <c r="U464">
-        <v>1.975</v>
-      </c>
-      <c r="V464">
-        <v>1.875</v>
-      </c>
-      <c r="W464">
-        <v>-1</v>
-      </c>
-      <c r="X464">
-        <v>2.5</v>
-      </c>
-      <c r="Y464">
-        <v>-1</v>
-      </c>
-      <c r="Z464">
-        <v>-1</v>
-      </c>
       <c r="AA464">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB464">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC464">
         <v>-0.5</v>
-      </c>
-      <c r="AC464">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41862,7 +41862,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41874,10 +41874,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F465" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G465" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -41889,61 +41889,61 @@
         <v>59</v>
       </c>
       <c r="K465">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L465">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M465">
+        <v>4.2</v>
+      </c>
+      <c r="N465">
+        <v>1.909</v>
+      </c>
+      <c r="O465">
+        <v>3.5</v>
+      </c>
+      <c r="P465">
         <v>4</v>
       </c>
-      <c r="N465">
-        <v>2.3</v>
-      </c>
-      <c r="O465">
-        <v>2.8</v>
-      </c>
-      <c r="P465">
-        <v>3.6</v>
-      </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
+        <v>1.95</v>
+      </c>
+      <c r="S465">
+        <v>1.9</v>
+      </c>
+      <c r="T465">
+        <v>2.25</v>
+      </c>
+      <c r="U465">
         <v>1.975</v>
       </c>
-      <c r="S465">
+      <c r="V465">
         <v>1.875</v>
       </c>
-      <c r="T465">
-        <v>1.75</v>
-      </c>
-      <c r="U465">
-        <v>2.05</v>
-      </c>
-      <c r="V465">
-        <v>1.8</v>
-      </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y465">
         <v>-1</v>
       </c>
       <c r="Z465">
+        <v>-1</v>
+      </c>
+      <c r="AA465">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB465">
         <v>-0.5</v>
       </c>
-      <c r="AA465">
+      <c r="AC465">
         <v>0.4375</v>
-      </c>
-      <c r="AB465">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC465">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -42129,7 +42129,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42141,55 +42141,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F468" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G468" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
         <v>1</v>
-      </c>
-      <c r="I468">
-        <v>2</v>
       </c>
       <c r="J468" t="s">
         <v>60</v>
       </c>
       <c r="K468">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L468">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M468">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N468">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O468">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P468">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q468">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R468">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S468">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T468">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U468">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V468">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W468">
         <v>-1</v>
@@ -42198,19 +42198,19 @@
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z468">
         <v>-1</v>
       </c>
       <c r="AA468">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB468">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC468">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42218,7 +42218,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42230,56 +42230,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F469" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G469" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J469" t="s">
         <v>60</v>
       </c>
       <c r="K469">
+        <v>2.2</v>
+      </c>
+      <c r="L469">
+        <v>3.2</v>
+      </c>
+      <c r="M469">
+        <v>3.4</v>
+      </c>
+      <c r="N469">
+        <v>2.15</v>
+      </c>
+      <c r="O469">
+        <v>3.1</v>
+      </c>
+      <c r="P469">
+        <v>3.8</v>
+      </c>
+      <c r="Q469">
+        <v>-0.25</v>
+      </c>
+      <c r="R469">
+        <v>1.825</v>
+      </c>
+      <c r="S469">
+        <v>2.025</v>
+      </c>
+      <c r="T469">
+        <v>2</v>
+      </c>
+      <c r="U469">
+        <v>2</v>
+      </c>
+      <c r="V469">
         <v>1.85</v>
       </c>
-      <c r="L469">
-        <v>3.4</v>
-      </c>
-      <c r="M469">
-        <v>4.333</v>
-      </c>
-      <c r="N469">
-        <v>1.8</v>
-      </c>
-      <c r="O469">
-        <v>3.6</v>
-      </c>
-      <c r="P469">
-        <v>4.75</v>
-      </c>
-      <c r="Q469">
-        <v>-0.5</v>
-      </c>
-      <c r="R469">
-        <v>1.875</v>
-      </c>
-      <c r="S469">
-        <v>1.975</v>
-      </c>
-      <c r="T469">
-        <v>2.25</v>
-      </c>
-      <c r="U469">
-        <v>1.95</v>
-      </c>
-      <c r="V469">
-        <v>1.9</v>
-      </c>
       <c r="W469">
         <v>-1</v>
       </c>
@@ -42287,19 +42287,19 @@
         <v>-1</v>
       </c>
       <c r="Y469">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC469">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42574,7 +42574,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>6836563</v>
+        <v>6838056</v>
       </c>
       <c r="C473" t="s">
         <v>28</v>
@@ -42586,76 +42586,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F473" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G473" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I473">
         <v>1</v>
       </c>
       <c r="J473" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K473">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L473">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M473">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N473">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O473">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P473">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q473">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R473">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S473">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T473">
         <v>2</v>
       </c>
       <c r="U473">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V473">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W473">
         <v>-1</v>
       </c>
       <c r="X473">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y473">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z473">
         <v>-1</v>
       </c>
       <c r="AA473">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB473">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC473">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="474" spans="1:29">
@@ -42663,7 +42663,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>6838056</v>
+        <v>6836563</v>
       </c>
       <c r="C474" t="s">
         <v>28</v>
@@ -42675,76 +42675,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F474" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G474" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I474">
         <v>1</v>
       </c>
       <c r="J474" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K474">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L474">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M474">
+        <v>5.5</v>
+      </c>
+      <c r="N474">
+        <v>1.727</v>
+      </c>
+      <c r="O474">
         <v>3.4</v>
       </c>
-      <c r="N474">
-        <v>2</v>
-      </c>
-      <c r="O474">
-        <v>3.1</v>
-      </c>
       <c r="P474">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q474">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R474">
+        <v>1.95</v>
+      </c>
+      <c r="S474">
+        <v>1.9</v>
+      </c>
+      <c r="T474">
+        <v>2</v>
+      </c>
+      <c r="U474">
+        <v>1.825</v>
+      </c>
+      <c r="V474">
         <v>2.025</v>
       </c>
-      <c r="S474">
-        <v>1.825</v>
-      </c>
-      <c r="T474">
-        <v>2</v>
-      </c>
-      <c r="U474">
-        <v>1.975</v>
-      </c>
-      <c r="V474">
-        <v>1.875</v>
-      </c>
       <c r="W474">
         <v>-1</v>
       </c>
       <c r="X474">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y474">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z474">
         <v>-1</v>
       </c>
       <c r="AA474">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB474">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC474">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="475" spans="1:29">
@@ -43375,7 +43375,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43387,70 +43387,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F482" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G482" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J482" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K482">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L482">
         <v>3.1</v>
       </c>
       <c r="M482">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N482">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O482">
         <v>3</v>
       </c>
       <c r="P482">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q482">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R482">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S482">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V482">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W482">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X482">
         <v>-1</v>
       </c>
       <c r="Y482">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z482">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA482">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB482">
         <v>0</v>
@@ -43464,7 +43464,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43476,70 +43476,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F483" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G483" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J483" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K483">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L483">
         <v>3.1</v>
       </c>
       <c r="M483">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N483">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O483">
         <v>3</v>
       </c>
       <c r="P483">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q483">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R483">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S483">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T483">
         <v>2</v>
       </c>
       <c r="U483">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V483">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W483">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z483">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA483">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB483">
         <v>0</v>
@@ -43553,7 +43553,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43565,73 +43565,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F484" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G484" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H484">
+        <v>2</v>
+      </c>
+      <c r="I484">
         <v>1</v>
       </c>
-      <c r="I484">
-        <v>2</v>
-      </c>
       <c r="J484" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K484">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L484">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M484">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N484">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O484">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P484">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q484">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R484">
+        <v>1.95</v>
+      </c>
+      <c r="S484">
+        <v>1.9</v>
+      </c>
+      <c r="T484">
+        <v>2.5</v>
+      </c>
+      <c r="U484">
         <v>1.825</v>
       </c>
-      <c r="S484">
+      <c r="V484">
         <v>2.025</v>
       </c>
-      <c r="T484">
-        <v>1.75</v>
-      </c>
-      <c r="U484">
-        <v>1.8</v>
-      </c>
-      <c r="V484">
-        <v>2.05</v>
-      </c>
       <c r="W484">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z484">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA484">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB484">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC484">
         <v>-1</v>
@@ -43642,7 +43642,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43654,73 +43654,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F485" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G485" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J485" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K485">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L485">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M485">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N485">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O485">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P485">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q485">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R485">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S485">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T485">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U485">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V485">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W485">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z485">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA485">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB485">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC485">
         <v>-1</v>
@@ -47318,22 +47318,22 @@
         <v>4</v>
       </c>
       <c r="N526">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O526">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P526">
         <v>5</v>
       </c>
       <c r="Q526">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R526">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S526">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T526">
         <v>2.25</v>
@@ -47392,31 +47392,31 @@
         <v>4.333</v>
       </c>
       <c r="N527">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="O527">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P527">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q527">
         <v>-0.5</v>
       </c>
       <c r="R527">
+        <v>1.875</v>
+      </c>
+      <c r="S527">
         <v>1.975</v>
       </c>
-      <c r="S527">
-        <v>1.875</v>
-      </c>
       <c r="T527">
         <v>2</v>
       </c>
       <c r="U527">
+        <v>1.825</v>
+      </c>
+      <c r="V527">
         <v>2.025</v>
-      </c>
-      <c r="V527">
-        <v>1.825</v>
       </c>
       <c r="W527">
         <v>0</v>
@@ -47469,28 +47469,28 @@
         <v>2.5</v>
       </c>
       <c r="O528">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P528">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q528">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R528">
+        <v>2.125</v>
+      </c>
+      <c r="S528">
         <v>1.75</v>
       </c>
-      <c r="S528">
-        <v>2.125</v>
-      </c>
       <c r="T528">
         <v>2</v>
       </c>
       <c r="U528">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V528">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W528">
         <v>0</v>
@@ -47540,31 +47540,31 @@
         <v>5.5</v>
       </c>
       <c r="N529">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O529">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P529">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q529">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R529">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S529">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T529">
         <v>2.25</v>
       </c>
       <c r="U529">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V529">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W529">
         <v>0</v>
@@ -47688,31 +47688,31 @@
         <v>3.5</v>
       </c>
       <c r="N531">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O531">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P531">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q531">
         <v>-0.25</v>
       </c>
       <c r="R531">
-        <v>2.1</v>
+        <v>2.125</v>
       </c>
       <c r="S531">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T531">
         <v>2.25</v>
       </c>
       <c r="U531">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V531">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W531">
         <v>0</v>
@@ -47774,19 +47774,19 @@
         <v>-0.75</v>
       </c>
       <c r="R532">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S532">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T532">
         <v>1.75</v>
       </c>
       <c r="U532">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V532">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W532">
         <v>0</v>
@@ -47848,19 +47848,19 @@
         <v>-0.5</v>
       </c>
       <c r="R533">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S533">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T533">
         <v>1.75</v>
       </c>
       <c r="U533">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V533">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W533">
         <v>0</v>
@@ -47910,13 +47910,13 @@
         <v>2.9</v>
       </c>
       <c r="N534">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O534">
         <v>3.1</v>
       </c>
       <c r="P534">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q534">
         <v>-0.25</v>
@@ -47931,10 +47931,10 @@
         <v>2</v>
       </c>
       <c r="U534">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V534">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W534">
         <v>0</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -558,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC535"/>
+  <dimension ref="A1:AC531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3147,7 +3147,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5202880</v>
+        <v>5202875</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3159,76 +3159,76 @@
         <v>44948.51041666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L30">
         <v>3.1</v>
       </c>
       <c r="M30">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N30">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="O30">
         <v>2.8</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
         <v>1.75</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W30">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3236,7 +3236,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5202875</v>
+        <v>5202880</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3248,76 +3248,76 @@
         <v>44948.51041666666</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L31">
         <v>3.1</v>
       </c>
       <c r="M31">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N31">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O31">
         <v>2.8</v>
       </c>
       <c r="P31">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3770,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5202883</v>
+        <v>5203904</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3782,19 +3782,19 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3806,52 +3806,52 @@
         <v>4.2</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>1.75</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3859,7 +3859,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5203904</v>
+        <v>5202883</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3871,19 +3871,19 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3895,52 +3895,52 @@
         <v>4.2</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
+        <v>0.5125</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.95</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>1.05</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5202894</v>
+        <v>5202893</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4672,10 +4672,10 @@
         <v>44961.51041666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4690,40 +4690,40 @@
         <v>2.05</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
+        <v>3.6</v>
+      </c>
+      <c r="N47">
+        <v>2.2</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
         <v>3.75</v>
-      </c>
-      <c r="N47">
-        <v>2.25</v>
-      </c>
-      <c r="O47">
-        <v>2.9</v>
-      </c>
-      <c r="P47">
-        <v>3.8</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4732,7 +4732,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4749,7 +4749,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5202893</v>
+        <v>5202894</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4761,10 +4761,10 @@
         <v>44961.51041666666</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4779,40 +4779,40 @@
         <v>2.05</v>
       </c>
       <c r="L48">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P48">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4821,7 +4821,7 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4830,7 +4830,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -7063,7 +7063,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>5203898</v>
+        <v>5202904</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7075,58 +7075,58 @@
         <v>44976.51041666666</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>58</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="O74">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T74">
         <v>2</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>1.15</v>
+        <v>0.55</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7135,16 +7135,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7152,7 +7152,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>5202904</v>
+        <v>5203898</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7164,58 +7164,58 @@
         <v>44976.51041666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>58</v>
       </c>
       <c r="K75">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="N75">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O75">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P75">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q75">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
+        <v>1.825</v>
+      </c>
+      <c r="S75">
+        <v>2.025</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="U75">
         <v>1.975</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.875</v>
       </c>
-      <c r="T75">
-        <v>2</v>
-      </c>
-      <c r="U75">
-        <v>1.925</v>
-      </c>
-      <c r="V75">
-        <v>1.925</v>
-      </c>
       <c r="W75">
-        <v>0.55</v>
+        <v>1.15</v>
       </c>
       <c r="X75">
         <v>-1</v>
@@ -7224,16 +7224,16 @@
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA75">
         <v>-1</v>
       </c>
       <c r="AB75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -10089,7 +10089,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>5475197</v>
+        <v>5461722</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10101,76 +10101,76 @@
         <v>44997.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K108">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
+        <v>2.025</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.8</v>
+      </c>
+      <c r="V108">
         <v>2.05</v>
       </c>
-      <c r="S108">
-        <v>1.8</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>1.85</v>
-      </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10178,7 +10178,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>5461722</v>
+        <v>5475197</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10190,76 +10190,76 @@
         <v>44997.60416666666</v>
       </c>
       <c r="F109" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K109">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L109">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="N109">
+        <v>2.4</v>
+      </c>
+      <c r="O109">
+        <v>3.1</v>
+      </c>
+      <c r="P109">
+        <v>3.2</v>
+      </c>
+      <c r="Q109">
+        <v>-0.25</v>
+      </c>
+      <c r="R109">
+        <v>2.05</v>
+      </c>
+      <c r="S109">
+        <v>1.8</v>
+      </c>
+      <c r="T109">
+        <v>2.25</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
         <v>1.85</v>
       </c>
-      <c r="O109">
-        <v>3.5</v>
-      </c>
-      <c r="P109">
-        <v>4.5</v>
-      </c>
-      <c r="Q109">
-        <v>-0.5</v>
-      </c>
-      <c r="R109">
-        <v>1.825</v>
-      </c>
-      <c r="S109">
-        <v>2.025</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.8</v>
-      </c>
-      <c r="V109">
-        <v>2.05</v>
-      </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11157,7 +11157,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>5499484</v>
+        <v>5495663</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11169,76 +11169,76 @@
         <v>45004.60416666666</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K120">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="L120">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>2.625</v>
+        <v>3.2</v>
       </c>
       <c r="N120">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>2.125</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X120">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11246,7 +11246,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>5495663</v>
+        <v>5499484</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11258,76 +11258,76 @@
         <v>45004.60416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M121">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O121">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P121">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
+        <v>2.125</v>
+      </c>
+      <c r="S121">
+        <v>1.75</v>
+      </c>
+      <c r="T121">
+        <v>1.75</v>
+      </c>
+      <c r="U121">
         <v>1.975</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>2.05</v>
-      </c>
-      <c r="V121">
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
         <v>1.8</v>
       </c>
-      <c r="W121">
-        <v>1.3</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -17476,7 +17476,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>5738352</v>
+        <v>5734289</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17488,58 +17488,58 @@
         <v>45052.5625</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>58</v>
       </c>
       <c r="K191">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M191">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O191">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P191">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q191">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W191">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17548,16 +17548,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17565,7 +17565,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>5734289</v>
+        <v>5738352</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17577,58 +17577,58 @@
         <v>45052.5625</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>58</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="L192">
+        <v>3.1</v>
+      </c>
+      <c r="M192">
+        <v>2.4</v>
+      </c>
+      <c r="N192">
+        <v>2.3</v>
+      </c>
+      <c r="O192">
         <v>3</v>
       </c>
-      <c r="M192">
-        <v>4</v>
-      </c>
-      <c r="N192">
-        <v>2</v>
-      </c>
-      <c r="O192">
-        <v>2.9</v>
-      </c>
       <c r="P192">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S192">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="X192">
         <v>-1</v>
@@ -17637,16 +17637,16 @@
         <v>-1</v>
       </c>
       <c r="Z192">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -20502,7 +20502,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>6681004</v>
+        <v>6681002</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20514,46 +20514,46 @@
         <v>45073.5625</v>
       </c>
       <c r="F225" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G225" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
         <v>1</v>
       </c>
       <c r="J225" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K225">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L225">
+        <v>3.5</v>
+      </c>
+      <c r="M225">
+        <v>4.5</v>
+      </c>
+      <c r="N225">
+        <v>1.7</v>
+      </c>
+      <c r="O225">
         <v>3.75</v>
       </c>
-      <c r="M225">
-        <v>6.5</v>
-      </c>
-      <c r="N225">
-        <v>1.5</v>
-      </c>
-      <c r="O225">
-        <v>4.2</v>
-      </c>
       <c r="P225">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q225">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T225">
         <v>2.5</v>
@@ -20565,25 +20565,25 @@
         <v>2</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X225">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA225">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20591,7 +20591,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>6681002</v>
+        <v>6681004</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20603,46 +20603,46 @@
         <v>45073.5625</v>
       </c>
       <c r="F226" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K226">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L226">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="N226">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O226">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P226">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q226">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
         <v>2.5</v>
@@ -20654,25 +20654,25 @@
         <v>2</v>
       </c>
       <c r="W226">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X226">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -22282,7 +22282,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22294,76 +22294,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F245" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G245" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>1</v>
       </c>
       <c r="J245" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K245">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L245">
         <v>3.1</v>
       </c>
       <c r="M245">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N245">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O245">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P245">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q245">
         <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T245">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
+        <v>1.95</v>
+      </c>
+      <c r="V245">
         <v>1.9</v>
       </c>
-      <c r="V245">
-        <v>1.95</v>
-      </c>
       <c r="W245">
         <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y245">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA245">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB245">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC245">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="246" spans="1:29">
@@ -22371,7 +22371,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22383,76 +22383,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F246" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G246" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
         <v>1</v>
       </c>
       <c r="J246" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K246">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L246">
         <v>3.1</v>
       </c>
       <c r="M246">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N246">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O246">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P246">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q246">
         <v>-0.25</v>
       </c>
       <c r="R246">
+        <v>1.85</v>
+      </c>
+      <c r="S246">
+        <v>2</v>
+      </c>
+      <c r="T246">
+        <v>2</v>
+      </c>
+      <c r="U246">
         <v>1.9</v>
       </c>
-      <c r="S246">
+      <c r="V246">
         <v>1.95</v>
       </c>
-      <c r="T246">
-        <v>2.25</v>
-      </c>
-      <c r="U246">
-        <v>1.95</v>
-      </c>
-      <c r="V246">
-        <v>1.9</v>
-      </c>
       <c r="W246">
         <v>-1</v>
       </c>
       <c r="X246">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA246">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB246">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -25041,7 +25041,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25053,76 +25053,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G276" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H276">
         <v>1</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K276">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L276">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M276">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N276">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O276">
         <v>3.4</v>
       </c>
       <c r="P276">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q276">
         <v>-0.5</v>
       </c>
       <c r="R276">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S276">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T276">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U276">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V276">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W276">
         <v>-1</v>
       </c>
       <c r="X276">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y276">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z276">
         <v>-1</v>
       </c>
       <c r="AA276">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB276">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC276">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:29">
@@ -25130,7 +25130,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25142,76 +25142,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G277" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H277">
         <v>1</v>
       </c>
       <c r="I277">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K277">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L277">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M277">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N277">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O277">
         <v>3.4</v>
       </c>
       <c r="P277">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q277">
         <v>-0.5</v>
       </c>
       <c r="R277">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S277">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T277">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U277">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V277">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W277">
         <v>-1</v>
       </c>
       <c r="X277">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y277">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z277">
         <v>-1</v>
       </c>
       <c r="AA277">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB277">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC277">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="278" spans="1:29">
@@ -28423,7 +28423,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>6837987</v>
+        <v>6839305</v>
       </c>
       <c r="C314" t="s">
         <v>28</v>
@@ -28435,10 +28435,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G314" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -28450,43 +28450,43 @@
         <v>58</v>
       </c>
       <c r="K314">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L314">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M314">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N314">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O314">
         <v>3</v>
       </c>
       <c r="P314">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q314">
         <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S314">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T314">
         <v>2</v>
       </c>
       <c r="U314">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V314">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W314">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X314">
         <v>-1</v>
@@ -28495,7 +28495,7 @@
         <v>-1</v>
       </c>
       <c r="Z314">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA314">
         <v>-1</v>
@@ -28504,7 +28504,7 @@
         <v>-1</v>
       </c>
       <c r="AC314">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28512,7 +28512,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>6839305</v>
+        <v>6837987</v>
       </c>
       <c r="C315" t="s">
         <v>28</v>
@@ -28524,10 +28524,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F315" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G315" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H315">
         <v>1</v>
@@ -28539,43 +28539,43 @@
         <v>58</v>
       </c>
       <c r="K315">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L315">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M315">
+        <v>2.875</v>
+      </c>
+      <c r="N315">
         <v>2.5</v>
-      </c>
-      <c r="N315">
-        <v>2.25</v>
       </c>
       <c r="O315">
         <v>3</v>
       </c>
       <c r="P315">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q315">
         <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S315">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T315">
         <v>2</v>
       </c>
       <c r="U315">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V315">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W315">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X315">
         <v>-1</v>
@@ -28584,7 +28584,7 @@
         <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA315">
         <v>-1</v>
@@ -28593,7 +28593,7 @@
         <v>-1</v>
       </c>
       <c r="AC315">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28868,7 +28868,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28880,73 +28880,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G319" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K319">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L319">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M319">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N319">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P319">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S319">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T319">
         <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -28957,7 +28957,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28969,73 +28969,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K320">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L320">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M320">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N320">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O320">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P320">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q320">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S320">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29135,7 +29135,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>6836530</v>
+        <v>6837991</v>
       </c>
       <c r="C322" t="s">
         <v>28</v>
@@ -29147,76 +29147,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F322" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G322" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I322">
         <v>0</v>
       </c>
       <c r="J322" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K322">
-        <v>2.35</v>
+        <v>1.833</v>
       </c>
       <c r="L322">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M322">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N322">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O322">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P322">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q322">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S322">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T322">
         <v>2.25</v>
       </c>
       <c r="U322">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W322">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X322">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
         <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA322">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB322">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC322">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="323" spans="1:29">
@@ -29224,7 +29224,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>6837992</v>
+        <v>6836530</v>
       </c>
       <c r="C323" t="s">
         <v>28</v>
@@ -29236,76 +29236,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F323" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G323" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H323">
         <v>0</v>
       </c>
       <c r="I323">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J323" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K323">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L323">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M323">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N323">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O323">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P323">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q323">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R323">
+        <v>1.85</v>
+      </c>
+      <c r="S323">
+        <v>2</v>
+      </c>
+      <c r="T323">
+        <v>2.25</v>
+      </c>
+      <c r="U323">
+        <v>2.025</v>
+      </c>
+      <c r="V323">
         <v>1.825</v>
       </c>
-      <c r="S323">
-        <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
-      <c r="U323">
-        <v>1.8</v>
-      </c>
-      <c r="V323">
-        <v>2.05</v>
-      </c>
       <c r="W323">
         <v>-1</v>
       </c>
       <c r="X323">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y323">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z323">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA323">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB323">
         <v>-1</v>
       </c>
       <c r="AC323">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="324" spans="1:29">
@@ -29313,7 +29313,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>6837991</v>
+        <v>6837992</v>
       </c>
       <c r="C324" t="s">
         <v>28</v>
@@ -29325,37 +29325,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F324" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G324" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H324">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K324">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L324">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M324">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N324">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O324">
         <v>3.5</v>
       </c>
       <c r="P324">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q324">
         <v>-0.5</v>
@@ -29367,34 +29367,34 @@
         <v>2.025</v>
       </c>
       <c r="T324">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U324">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V324">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W324">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X324">
         <v>-1</v>
       </c>
       <c r="Y324">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z324">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB324">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC324">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -30203,7 +30203,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C334" t="s">
         <v>28</v>
@@ -30215,52 +30215,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F334" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="G334" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
         <v>1</v>
-      </c>
-      <c r="I334">
-        <v>3</v>
       </c>
       <c r="J334" t="s">
         <v>60</v>
       </c>
       <c r="K334">
+        <v>2.3</v>
+      </c>
+      <c r="L334">
+        <v>3</v>
+      </c>
+      <c r="M334">
         <v>3.1</v>
       </c>
-      <c r="L334">
+      <c r="N334">
+        <v>2.5</v>
+      </c>
+      <c r="O334">
+        <v>3</v>
+      </c>
+      <c r="P334">
         <v>3.1</v>
       </c>
-      <c r="M334">
-        <v>2.25</v>
-      </c>
-      <c r="N334">
-        <v>3.75</v>
-      </c>
-      <c r="O334">
-        <v>3.2</v>
-      </c>
-      <c r="P334">
-        <v>2.1</v>
-      </c>
       <c r="Q334">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R334">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S334">
+        <v>2.125</v>
+      </c>
+      <c r="T334">
+        <v>2</v>
+      </c>
+      <c r="U334">
         <v>1.8</v>
-      </c>
-      <c r="T334">
-        <v>2</v>
-      </c>
-      <c r="U334">
-        <v>1.75</v>
       </c>
       <c r="V334">
         <v>2.05</v>
@@ -30272,19 +30272,19 @@
         <v>-1</v>
       </c>
       <c r="Y334">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z334">
         <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB334">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC334">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30292,7 +30292,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C335" t="s">
         <v>28</v>
@@ -30304,52 +30304,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F335" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G335" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J335" t="s">
         <v>60</v>
       </c>
       <c r="K335">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L335">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M335">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N335">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O335">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P335">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q335">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R335">
+        <v>2.05</v>
+      </c>
+      <c r="S335">
+        <v>1.8</v>
+      </c>
+      <c r="T335">
+        <v>2</v>
+      </c>
+      <c r="U335">
         <v>1.75</v>
-      </c>
-      <c r="S335">
-        <v>2.125</v>
-      </c>
-      <c r="T335">
-        <v>2</v>
-      </c>
-      <c r="U335">
-        <v>1.8</v>
       </c>
       <c r="V335">
         <v>2.05</v>
@@ -30361,19 +30361,19 @@
         <v>-1</v>
       </c>
       <c r="Y335">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z335">
         <v>-1</v>
       </c>
       <c r="AA335">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB335">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC335">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -33140,7 +33140,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33152,19 +33152,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F367" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G367" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
         <v>3</v>
       </c>
-      <c r="I367">
-        <v>0</v>
-      </c>
       <c r="J367" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K367">
         <v>2.1</v>
@@ -33173,52 +33173,52 @@
         <v>3.2</v>
       </c>
       <c r="M367">
+        <v>3.75</v>
+      </c>
+      <c r="N367">
+        <v>2.15</v>
+      </c>
+      <c r="O367">
+        <v>3.2</v>
+      </c>
+      <c r="P367">
         <v>3.6</v>
       </c>
-      <c r="N367">
-        <v>2.05</v>
-      </c>
-      <c r="O367">
-        <v>3.25</v>
-      </c>
-      <c r="P367">
-        <v>4</v>
-      </c>
       <c r="Q367">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R367">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S367">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T367">
         <v>2.25</v>
       </c>
       <c r="U367">
+        <v>1.975</v>
+      </c>
+      <c r="V367">
         <v>1.875</v>
       </c>
-      <c r="V367">
-        <v>1.975</v>
-      </c>
       <c r="W367">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z367">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA367">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB367">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33229,7 +33229,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33241,19 +33241,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F368" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G368" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I368">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J368" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K368">
         <v>2.1</v>
@@ -33262,52 +33262,52 @@
         <v>3.2</v>
       </c>
       <c r="M368">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N368">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O368">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P368">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q368">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R368">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S368">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T368">
         <v>2.25</v>
       </c>
       <c r="U368">
+        <v>1.875</v>
+      </c>
+      <c r="V368">
         <v>1.975</v>
       </c>
-      <c r="V368">
-        <v>1.875</v>
-      </c>
       <c r="W368">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X368">
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z368">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA368">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB368">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33674,7 +33674,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33686,10 +33686,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F373" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G373" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H373">
         <v>2</v>
@@ -33701,43 +33701,43 @@
         <v>58</v>
       </c>
       <c r="K373">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M373">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N373">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O373">
         <v>3.1</v>
       </c>
       <c r="P373">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q373">
         <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S373">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V373">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W373">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X373">
         <v>-1</v>
@@ -33746,16 +33746,16 @@
         <v>-1</v>
       </c>
       <c r="Z373">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA373">
         <v>-1</v>
       </c>
       <c r="AB373">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC373">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="374" spans="1:29">
@@ -33763,7 +33763,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C374" t="s">
         <v>28</v>
@@ -33775,10 +33775,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F374" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G374" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H374">
         <v>2</v>
@@ -33790,43 +33790,43 @@
         <v>58</v>
       </c>
       <c r="K374">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L374">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M374">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N374">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O374">
         <v>3.1</v>
       </c>
       <c r="P374">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q374">
         <v>-0.25</v>
       </c>
       <c r="R374">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S374">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T374">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U374">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V374">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W374">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X374">
         <v>-1</v>
@@ -33835,16 +33835,16 @@
         <v>-1</v>
       </c>
       <c r="Z374">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA374">
         <v>-1</v>
       </c>
       <c r="AB374">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC374">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="375" spans="1:29">
@@ -36611,7 +36611,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36623,76 +36623,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F406" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G406" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J406" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K406">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L406">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M406">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N406">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O406">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P406">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q406">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S406">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T406">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U406">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V406">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA406">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC406">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36700,7 +36700,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36712,76 +36712,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F407" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J407" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K407">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L407">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M407">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N407">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O407">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P407">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q407">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R407">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S407">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T407">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U407">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V407">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W407">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X407">
         <v>-1</v>
       </c>
       <c r="Y407">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z407">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA407">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB407">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC407">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36967,7 +36967,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36979,73 +36979,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F410" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="G410" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H410">
         <v>2</v>
       </c>
       <c r="I410">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J410" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K410">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L410">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M410">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N410">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O410">
+        <v>2.9</v>
+      </c>
+      <c r="P410">
         <v>3.1</v>
       </c>
-      <c r="P410">
-        <v>3.8</v>
-      </c>
       <c r="Q410">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R410">
+        <v>1.75</v>
+      </c>
+      <c r="S410">
+        <v>2.125</v>
+      </c>
+      <c r="T410">
+        <v>1.75</v>
+      </c>
+      <c r="U410">
+        <v>1.8</v>
+      </c>
+      <c r="V410">
         <v>2.05</v>
       </c>
-      <c r="S410">
-        <v>1.75</v>
-      </c>
-      <c r="T410">
-        <v>2.25</v>
-      </c>
-      <c r="U410">
-        <v>2.025</v>
-      </c>
-      <c r="V410">
-        <v>1.825</v>
-      </c>
       <c r="W410">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X410">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y410">
         <v>-1</v>
       </c>
       <c r="Z410">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA410">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB410">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC410">
         <v>-1</v>
@@ -37056,7 +37056,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37068,73 +37068,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F411" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="G411" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H411">
         <v>2</v>
       </c>
       <c r="I411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J411" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K411">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L411">
+        <v>3.2</v>
+      </c>
+      <c r="M411">
+        <v>3.75</v>
+      </c>
+      <c r="N411">
+        <v>2.1</v>
+      </c>
+      <c r="O411">
         <v>3.1</v>
       </c>
-      <c r="M411">
-        <v>2.625</v>
-      </c>
-      <c r="N411">
-        <v>2.55</v>
-      </c>
-      <c r="O411">
-        <v>2.9</v>
-      </c>
       <c r="P411">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q411">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R411">
+        <v>2.05</v>
+      </c>
+      <c r="S411">
         <v>1.75</v>
       </c>
-      <c r="S411">
-        <v>2.125</v>
-      </c>
       <c r="T411">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V411">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W411">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X411">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y411">
         <v>-1</v>
       </c>
       <c r="Z411">
+        <v>-1</v>
+      </c>
+      <c r="AA411">
         <v>0.75</v>
       </c>
-      <c r="AA411">
-        <v>-1</v>
-      </c>
       <c r="AB411">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC411">
         <v>-1</v>
@@ -39993,7 +39993,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C444" t="s">
         <v>28</v>
@@ -40005,62 +40005,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F444" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G444" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J444" t="s">
         <v>59</v>
       </c>
       <c r="K444">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L444">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M444">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N444">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O444">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P444">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q444">
         <v>-0.75</v>
       </c>
       <c r="R444">
+        <v>2.025</v>
+      </c>
+      <c r="S444">
         <v>1.825</v>
       </c>
-      <c r="S444">
-        <v>2.025</v>
-      </c>
       <c r="T444">
+        <v>2</v>
+      </c>
+      <c r="U444">
+        <v>2.05</v>
+      </c>
+      <c r="V444">
+        <v>1.8</v>
+      </c>
+      <c r="W444">
+        <v>-1</v>
+      </c>
+      <c r="X444">
         <v>2.25</v>
       </c>
-      <c r="U444">
-        <v>1.925</v>
-      </c>
-      <c r="V444">
-        <v>1.925</v>
-      </c>
-      <c r="W444">
-        <v>-1</v>
-      </c>
-      <c r="X444">
-        <v>2.75</v>
-      </c>
       <c r="Y444">
         <v>-1</v>
       </c>
@@ -40068,13 +40068,13 @@
         <v>-1</v>
       </c>
       <c r="AA444">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB444">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC444">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="445" spans="1:29">
@@ -40082,7 +40082,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40094,61 +40094,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F445" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G445" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J445" t="s">
         <v>59</v>
       </c>
       <c r="K445">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L445">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M445">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N445">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O445">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P445">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q445">
         <v>-0.75</v>
       </c>
       <c r="R445">
+        <v>1.825</v>
+      </c>
+      <c r="S445">
         <v>2.025</v>
       </c>
-      <c r="S445">
-        <v>1.825</v>
-      </c>
       <c r="T445">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U445">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V445">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W445">
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y445">
         <v>-1</v>
@@ -40157,13 +40157,13 @@
         <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB445">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC445">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -41773,7 +41773,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41785,10 +41785,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F464" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G464" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -41800,61 +41800,61 @@
         <v>59</v>
       </c>
       <c r="K464">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L464">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M464">
+        <v>4.2</v>
+      </c>
+      <c r="N464">
+        <v>1.909</v>
+      </c>
+      <c r="O464">
+        <v>3.5</v>
+      </c>
+      <c r="P464">
         <v>4</v>
       </c>
-      <c r="N464">
-        <v>2.3</v>
-      </c>
-      <c r="O464">
-        <v>2.8</v>
-      </c>
-      <c r="P464">
-        <v>3.6</v>
-      </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R464">
+        <v>1.95</v>
+      </c>
+      <c r="S464">
+        <v>1.9</v>
+      </c>
+      <c r="T464">
+        <v>2.25</v>
+      </c>
+      <c r="U464">
         <v>1.975</v>
       </c>
-      <c r="S464">
+      <c r="V464">
         <v>1.875</v>
       </c>
-      <c r="T464">
-        <v>1.75</v>
-      </c>
-      <c r="U464">
-        <v>2.05</v>
-      </c>
-      <c r="V464">
-        <v>1.8</v>
-      </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y464">
         <v>-1</v>
       </c>
       <c r="Z464">
+        <v>-1</v>
+      </c>
+      <c r="AA464">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB464">
         <v>-0.5</v>
       </c>
-      <c r="AA464">
+      <c r="AC464">
         <v>0.4375</v>
-      </c>
-      <c r="AB464">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC464">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41862,7 +41862,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41874,10 +41874,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F465" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G465" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -41889,61 +41889,61 @@
         <v>59</v>
       </c>
       <c r="K465">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L465">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M465">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N465">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O465">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P465">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q465">
+        <v>-0.25</v>
+      </c>
+      <c r="R465">
+        <v>1.975</v>
+      </c>
+      <c r="S465">
+        <v>1.875</v>
+      </c>
+      <c r="T465">
+        <v>1.75</v>
+      </c>
+      <c r="U465">
+        <v>2.05</v>
+      </c>
+      <c r="V465">
+        <v>1.8</v>
+      </c>
+      <c r="W465">
+        <v>-1</v>
+      </c>
+      <c r="X465">
+        <v>1.8</v>
+      </c>
+      <c r="Y465">
+        <v>-1</v>
+      </c>
+      <c r="Z465">
         <v>-0.5</v>
       </c>
-      <c r="R465">
-        <v>1.95</v>
-      </c>
-      <c r="S465">
-        <v>1.9</v>
-      </c>
-      <c r="T465">
-        <v>2.25</v>
-      </c>
-      <c r="U465">
-        <v>1.975</v>
-      </c>
-      <c r="V465">
-        <v>1.875</v>
-      </c>
-      <c r="W465">
-        <v>-1</v>
-      </c>
-      <c r="X465">
-        <v>2.5</v>
-      </c>
-      <c r="Y465">
-        <v>-1</v>
-      </c>
-      <c r="Z465">
-        <v>-1</v>
-      </c>
       <c r="AA465">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB465">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC465">
         <v>-0.5</v>
-      </c>
-      <c r="AC465">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41951,7 +41951,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41963,40 +41963,40 @@
         <v>45281.625</v>
       </c>
       <c r="F466" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G466" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K466">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L466">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M466">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N466">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O466">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P466">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q466">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
         <v>2.025</v>
@@ -42005,7 +42005,7 @@
         <v>1.825</v>
       </c>
       <c r="T466">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U466">
         <v>1.95</v>
@@ -42014,25 +42014,25 @@
         <v>1.9</v>
       </c>
       <c r="W466">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X466">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA466">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC466">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -42040,7 +42040,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42052,40 +42052,40 @@
         <v>45281.625</v>
       </c>
       <c r="F467" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G467" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H467">
+        <v>1</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+      <c r="J467" t="s">
+        <v>59</v>
+      </c>
+      <c r="K467">
+        <v>2.6</v>
+      </c>
+      <c r="L467">
+        <v>3.2</v>
+      </c>
+      <c r="M467">
+        <v>2.75</v>
+      </c>
+      <c r="N467">
         <v>3</v>
       </c>
-      <c r="I467">
-        <v>0</v>
-      </c>
-      <c r="J467" t="s">
-        <v>58</v>
-      </c>
-      <c r="K467">
-        <v>2.2</v>
-      </c>
-      <c r="L467">
-        <v>3.1</v>
-      </c>
-      <c r="M467">
-        <v>3.6</v>
-      </c>
-      <c r="N467">
-        <v>2.05</v>
-      </c>
       <c r="O467">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P467">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q467">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R467">
         <v>2.025</v>
@@ -42094,7 +42094,7 @@
         <v>1.825</v>
       </c>
       <c r="T467">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U467">
         <v>1.95</v>
@@ -42103,25 +42103,25 @@
         <v>1.9</v>
       </c>
       <c r="W467">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X467">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y467">
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA467">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB467">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC467">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -43375,7 +43375,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C482" t="s">
         <v>28</v>
@@ -43387,70 +43387,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F482" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="G482" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J482" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K482">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L482">
         <v>3.1</v>
       </c>
       <c r="M482">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N482">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O482">
         <v>3</v>
       </c>
       <c r="P482">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q482">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R482">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S482">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T482">
         <v>2</v>
       </c>
       <c r="U482">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V482">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W482">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X482">
         <v>-1</v>
       </c>
       <c r="Y482">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z482">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA482">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB482">
         <v>0</v>
@@ -43464,7 +43464,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C483" t="s">
         <v>28</v>
@@ -43476,70 +43476,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F483" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G483" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J483" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K483">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L483">
         <v>3.1</v>
       </c>
       <c r="M483">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N483">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O483">
         <v>3</v>
       </c>
       <c r="P483">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q483">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R483">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S483">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T483">
         <v>2</v>
       </c>
       <c r="U483">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V483">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W483">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X483">
         <v>-1</v>
       </c>
       <c r="Y483">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z483">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA483">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB483">
         <v>0</v>
@@ -43553,7 +43553,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C484" t="s">
         <v>28</v>
@@ -43565,73 +43565,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F484" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G484" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J484" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K484">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L484">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M484">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N484">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O484">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P484">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q484">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R484">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S484">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T484">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U484">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V484">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W484">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X484">
         <v>-1</v>
       </c>
       <c r="Y484">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z484">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA484">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB484">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC484">
         <v>-1</v>
@@ -43642,7 +43642,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C485" t="s">
         <v>28</v>
@@ -43654,73 +43654,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F485" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G485" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H485">
+        <v>2</v>
+      </c>
+      <c r="I485">
         <v>1</v>
       </c>
-      <c r="I485">
-        <v>2</v>
-      </c>
       <c r="J485" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K485">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L485">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M485">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N485">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O485">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P485">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q485">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R485">
+        <v>1.95</v>
+      </c>
+      <c r="S485">
+        <v>1.9</v>
+      </c>
+      <c r="T485">
+        <v>2.5</v>
+      </c>
+      <c r="U485">
         <v>1.825</v>
       </c>
-      <c r="S485">
+      <c r="V485">
         <v>2.025</v>
       </c>
-      <c r="T485">
-        <v>1.75</v>
-      </c>
-      <c r="U485">
-        <v>1.8</v>
-      </c>
-      <c r="V485">
-        <v>2.05</v>
-      </c>
       <c r="W485">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X485">
         <v>-1</v>
       </c>
       <c r="Y485">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z485">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA485">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB485">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC485">
         <v>-1</v>
@@ -46312,7 +46312,7 @@
         <v>513</v>
       </c>
       <c r="B515">
-        <v>6839267</v>
+        <v>6836570</v>
       </c>
       <c r="C515" t="s">
         <v>28</v>
@@ -46324,76 +46324,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F515" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G515" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I515">
         <v>0</v>
       </c>
       <c r="J515" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K515">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L515">
+        <v>3</v>
+      </c>
+      <c r="M515">
+        <v>2.2</v>
+      </c>
+      <c r="N515">
+        <v>4.2</v>
+      </c>
+      <c r="O515">
+        <v>3.1</v>
+      </c>
+      <c r="P515">
+        <v>2.05</v>
+      </c>
+      <c r="Q515">
+        <v>0.5</v>
+      </c>
+      <c r="R515">
+        <v>1.825</v>
+      </c>
+      <c r="S515">
+        <v>2.025</v>
+      </c>
+      <c r="T515">
+        <v>2</v>
+      </c>
+      <c r="U515">
+        <v>2.05</v>
+      </c>
+      <c r="V515">
+        <v>1.8</v>
+      </c>
+      <c r="W515">
         <v>3.2</v>
       </c>
-      <c r="M515">
-        <v>3.6</v>
-      </c>
-      <c r="N515">
-        <v>2.1</v>
-      </c>
-      <c r="O515">
-        <v>3</v>
-      </c>
-      <c r="P515">
-        <v>4.2</v>
-      </c>
-      <c r="Q515">
-        <v>-0.25</v>
-      </c>
-      <c r="R515">
-        <v>1.775</v>
-      </c>
-      <c r="S515">
-        <v>2.1</v>
-      </c>
-      <c r="T515">
-        <v>1.75</v>
-      </c>
-      <c r="U515">
-        <v>1.9</v>
-      </c>
-      <c r="V515">
-        <v>1.95</v>
-      </c>
-      <c r="W515">
-        <v>-1</v>
-      </c>
       <c r="X515">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y515">
         <v>-1</v>
       </c>
       <c r="Z515">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA515">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB515">
         <v>-1</v>
       </c>
       <c r="AC515">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="516" spans="1:29">
@@ -46401,7 +46401,7 @@
         <v>514</v>
       </c>
       <c r="B516">
-        <v>6836570</v>
+        <v>6839267</v>
       </c>
       <c r="C516" t="s">
         <v>28</v>
@@ -46413,76 +46413,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F516" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="G516" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516">
         <v>0</v>
       </c>
       <c r="J516" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K516">
+        <v>2.1</v>
+      </c>
+      <c r="L516">
+        <v>3.2</v>
+      </c>
+      <c r="M516">
         <v>3.6</v>
       </c>
-      <c r="L516">
+      <c r="N516">
+        <v>2.1</v>
+      </c>
+      <c r="O516">
         <v>3</v>
       </c>
-      <c r="M516">
-        <v>2.2</v>
-      </c>
-      <c r="N516">
+      <c r="P516">
         <v>4.2</v>
       </c>
-      <c r="O516">
-        <v>3.1</v>
-      </c>
-      <c r="P516">
-        <v>2.05</v>
-      </c>
       <c r="Q516">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R516">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S516">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T516">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U516">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V516">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W516">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X516">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y516">
         <v>-1</v>
       </c>
       <c r="Z516">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA516">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB516">
         <v>-1</v>
       </c>
       <c r="AC516">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="517" spans="1:29">
@@ -47291,7 +47291,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>6838163</v>
+        <v>6838077</v>
       </c>
       <c r="C526" t="s">
         <v>28</v>
@@ -47300,49 +47300,49 @@
         <v>28</v>
       </c>
       <c r="E526" s="2">
-        <v>45339.51041666666</v>
+        <v>45340.41666666666</v>
       </c>
       <c r="F526" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="G526" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K526">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L526">
         <v>3.1</v>
       </c>
       <c r="M526">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N526">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O526">
         <v>3.3</v>
       </c>
       <c r="P526">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q526">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R526">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S526">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T526">
         <v>2.25</v>
       </c>
       <c r="U526">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V526">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W526">
         <v>0</v>
@@ -47365,7 +47365,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>6838080</v>
+        <v>6839266</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47374,49 +47374,49 @@
         <v>28</v>
       </c>
       <c r="E527" s="2">
-        <v>45339.51041666666</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F527" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="G527" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K527">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L527">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M527">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N527">
-        <v>1.833</v>
+        <v>2.4</v>
       </c>
       <c r="O527">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P527">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q527">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R527">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S527">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T527">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U527">
+        <v>2.025</v>
+      </c>
+      <c r="V527">
         <v>1.825</v>
-      </c>
-      <c r="V527">
-        <v>2.025</v>
       </c>
       <c r="W527">
         <v>0</v>
@@ -47439,7 +47439,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>6838079</v>
+        <v>6836571</v>
       </c>
       <c r="C528" t="s">
         <v>28</v>
@@ -47448,49 +47448,49 @@
         <v>28</v>
       </c>
       <c r="E528" s="2">
-        <v>45339.60416666666</v>
+        <v>45340.51041666666</v>
       </c>
       <c r="F528" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G528" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K528">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L528">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M528">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="N528">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O528">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P528">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q528">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R528">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S528">
+        <v>1.925</v>
+      </c>
+      <c r="T528">
         <v>1.75</v>
       </c>
-      <c r="T528">
-        <v>2</v>
-      </c>
       <c r="U528">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V528">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W528">
         <v>0</v>
@@ -47513,7 +47513,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>6838078</v>
+        <v>6838164</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47522,49 +47522,49 @@
         <v>28</v>
       </c>
       <c r="E529" s="2">
-        <v>45339.70833333334</v>
+        <v>45340.60416666666</v>
       </c>
       <c r="F529" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="G529" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K529">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="L529">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M529">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="N529">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O529">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P529">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q529">
         <v>-0.5</v>
       </c>
       <c r="R529">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S529">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T529">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U529">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V529">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W529">
         <v>0</v>
@@ -47587,7 +47587,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>6838077</v>
+        <v>6838165</v>
       </c>
       <c r="C530" t="s">
         <v>28</v>
@@ -47596,49 +47596,49 @@
         <v>28</v>
       </c>
       <c r="E530" s="2">
-        <v>45340.41666666666</v>
+        <v>45340.70833333334</v>
       </c>
       <c r="F530" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G530" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K530">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L530">
         <v>3.1</v>
       </c>
       <c r="M530">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N530">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="O530">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P530">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q530">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R530">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S530">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T530">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U530">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V530">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W530">
         <v>0</v>
@@ -47661,7 +47661,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>6839266</v>
+        <v>6839265</v>
       </c>
       <c r="C531" t="s">
         <v>28</v>
@@ -47670,49 +47670,49 @@
         <v>28</v>
       </c>
       <c r="E531" s="2">
-        <v>45340.51041666666</v>
+        <v>45341.6875</v>
       </c>
       <c r="F531" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G531" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K531">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L531">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M531">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="N531">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O531">
         <v>3.1</v>
       </c>
       <c r="P531">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q531">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R531">
-        <v>2.125</v>
+        <v>1.95</v>
       </c>
       <c r="S531">
+        <v>1.9</v>
+      </c>
+      <c r="T531">
         <v>1.75</v>
       </c>
-      <c r="T531">
-        <v>2.25</v>
-      </c>
       <c r="U531">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V531">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W531">
         <v>0</v>
@@ -47727,302 +47727,6 @@
         <v>0</v>
       </c>
       <c r="AA531">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532" spans="1:27">
-      <c r="A532" s="1">
-        <v>530</v>
-      </c>
-      <c r="B532">
-        <v>6836571</v>
-      </c>
-      <c r="C532" t="s">
-        <v>28</v>
-      </c>
-      <c r="D532" t="s">
-        <v>28</v>
-      </c>
-      <c r="E532" s="2">
-        <v>45340.51041666666</v>
-      </c>
-      <c r="F532" t="s">
-        <v>31</v>
-      </c>
-      <c r="G532" t="s">
-        <v>55</v>
-      </c>
-      <c r="K532">
-        <v>1.5</v>
-      </c>
-      <c r="L532">
-        <v>3.75</v>
-      </c>
-      <c r="M532">
-        <v>7.5</v>
-      </c>
-      <c r="N532">
-        <v>1.727</v>
-      </c>
-      <c r="O532">
-        <v>3.3</v>
-      </c>
-      <c r="P532">
-        <v>6</v>
-      </c>
-      <c r="Q532">
-        <v>-0.75</v>
-      </c>
-      <c r="R532">
-        <v>1.975</v>
-      </c>
-      <c r="S532">
-        <v>1.875</v>
-      </c>
-      <c r="T532">
-        <v>1.75</v>
-      </c>
-      <c r="U532">
-        <v>1.8</v>
-      </c>
-      <c r="V532">
-        <v>2.05</v>
-      </c>
-      <c r="W532">
-        <v>0</v>
-      </c>
-      <c r="X532">
-        <v>0</v>
-      </c>
-      <c r="Y532">
-        <v>0</v>
-      </c>
-      <c r="Z532">
-        <v>0</v>
-      </c>
-      <c r="AA532">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533" spans="1:27">
-      <c r="A533" s="1">
-        <v>531</v>
-      </c>
-      <c r="B533">
-        <v>6838164</v>
-      </c>
-      <c r="C533" t="s">
-        <v>28</v>
-      </c>
-      <c r="D533" t="s">
-        <v>28</v>
-      </c>
-      <c r="E533" s="2">
-        <v>45340.60416666666</v>
-      </c>
-      <c r="F533" t="s">
-        <v>39</v>
-      </c>
-      <c r="G533" t="s">
-        <v>51</v>
-      </c>
-      <c r="K533">
-        <v>1.75</v>
-      </c>
-      <c r="L533">
-        <v>3.3</v>
-      </c>
-      <c r="M533">
-        <v>5.25</v>
-      </c>
-      <c r="N533">
-        <v>1.909</v>
-      </c>
-      <c r="O533">
-        <v>3.1</v>
-      </c>
-      <c r="P533">
-        <v>5.25</v>
-      </c>
-      <c r="Q533">
-        <v>-0.5</v>
-      </c>
-      <c r="R533">
-        <v>1.825</v>
-      </c>
-      <c r="S533">
-        <v>2.025</v>
-      </c>
-      <c r="T533">
-        <v>1.75</v>
-      </c>
-      <c r="U533">
-        <v>1.875</v>
-      </c>
-      <c r="V533">
-        <v>1.975</v>
-      </c>
-      <c r="W533">
-        <v>0</v>
-      </c>
-      <c r="X533">
-        <v>0</v>
-      </c>
-      <c r="Y533">
-        <v>0</v>
-      </c>
-      <c r="Z533">
-        <v>0</v>
-      </c>
-      <c r="AA533">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:27">
-      <c r="A534" s="1">
-        <v>532</v>
-      </c>
-      <c r="B534">
-        <v>6838165</v>
-      </c>
-      <c r="C534" t="s">
-        <v>28</v>
-      </c>
-      <c r="D534" t="s">
-        <v>28</v>
-      </c>
-      <c r="E534" s="2">
-        <v>45340.70833333334</v>
-      </c>
-      <c r="F534" t="s">
-        <v>53</v>
-      </c>
-      <c r="G534" t="s">
-        <v>38</v>
-      </c>
-      <c r="K534">
-        <v>2.5</v>
-      </c>
-      <c r="L534">
-        <v>3.1</v>
-      </c>
-      <c r="M534">
-        <v>2.9</v>
-      </c>
-      <c r="N534">
-        <v>2.4</v>
-      </c>
-      <c r="O534">
-        <v>3.1</v>
-      </c>
-      <c r="P534">
-        <v>3.2</v>
-      </c>
-      <c r="Q534">
-        <v>-0.25</v>
-      </c>
-      <c r="R534">
-        <v>2.025</v>
-      </c>
-      <c r="S534">
-        <v>1.825</v>
-      </c>
-      <c r="T534">
-        <v>2</v>
-      </c>
-      <c r="U534">
-        <v>1.85</v>
-      </c>
-      <c r="V534">
-        <v>2</v>
-      </c>
-      <c r="W534">
-        <v>0</v>
-      </c>
-      <c r="X534">
-        <v>0</v>
-      </c>
-      <c r="Y534">
-        <v>0</v>
-      </c>
-      <c r="Z534">
-        <v>0</v>
-      </c>
-      <c r="AA534">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535" spans="1:27">
-      <c r="A535" s="1">
-        <v>533</v>
-      </c>
-      <c r="B535">
-        <v>6839265</v>
-      </c>
-      <c r="C535" t="s">
-        <v>28</v>
-      </c>
-      <c r="D535" t="s">
-        <v>28</v>
-      </c>
-      <c r="E535" s="2">
-        <v>45341.6875</v>
-      </c>
-      <c r="F535" t="s">
-        <v>45</v>
-      </c>
-      <c r="G535" t="s">
-        <v>57</v>
-      </c>
-      <c r="K535">
-        <v>2</v>
-      </c>
-      <c r="L535">
-        <v>3.1</v>
-      </c>
-      <c r="M535">
-        <v>4.2</v>
-      </c>
-      <c r="N535">
-        <v>1.909</v>
-      </c>
-      <c r="O535">
-        <v>3.1</v>
-      </c>
-      <c r="P535">
-        <v>5</v>
-      </c>
-      <c r="Q535">
-        <v>-0.5</v>
-      </c>
-      <c r="R535">
-        <v>1.925</v>
-      </c>
-      <c r="S535">
-        <v>1.925</v>
-      </c>
-      <c r="T535">
-        <v>1.75</v>
-      </c>
-      <c r="U535">
-        <v>1.775</v>
-      </c>
-      <c r="V535">
-        <v>2.1</v>
-      </c>
-      <c r="W535">
-        <v>0</v>
-      </c>
-      <c r="X535">
-        <v>0</v>
-      </c>
-      <c r="Y535">
-        <v>0</v>
-      </c>
-      <c r="Z535">
-        <v>0</v>
-      </c>
-      <c r="AA535">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -148,10 +148,10 @@
     <t>UD Ibiza</t>
   </si>
   <si>
-    <t>Racing Santander</t>
+    <t>Tenerife</t>
   </si>
   <si>
-    <t>Tenerife</t>
+    <t>Racing Santander</t>
   </si>
   <si>
     <t>Levante</t>
@@ -1026,7 +1026,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5202375</v>
+        <v>5202874</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -2005,73 +2005,73 @@
         <v>44</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>2.625</v>
+        <v>1.65</v>
       </c>
       <c r="L17">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>5.75</v>
       </c>
       <c r="N17">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB17">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2079,7 +2079,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5202874</v>
+        <v>5202375</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2094,73 +2094,73 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>1.65</v>
+        <v>2.625</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M18">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.615</v>
+        <v>2.55</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P18">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X18">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC18">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2702,7 +2702,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5202882</v>
+        <v>5202881</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2714,76 +2714,76 @@
         <v>44947.51041666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2791,7 +2791,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5202881</v>
+        <v>5202882</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2803,76 +2803,76 @@
         <v>44947.51041666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="L26">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V26">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB26">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2984,7 +2984,7 @@
         <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28">
         <v>3</v>
@@ -3162,7 +3162,7 @@
         <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3604,10 +3604,10 @@
         <v>44953.70833333334</v>
       </c>
       <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
         <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3770,7 +3770,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5202883</v>
+        <v>5203904</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3782,19 +3782,19 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -3806,52 +3806,52 @@
         <v>4.2</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>1.75</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3859,7 +3859,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5203904</v>
+        <v>5202883</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3871,19 +3871,19 @@
         <v>44954.60416666666</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -3895,52 +3895,52 @@
         <v>4.2</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P38">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
         <v>1.75</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y38">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
+        <v>0.5125</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.95</v>
-      </c>
-      <c r="AB38">
-        <v>-1</v>
-      </c>
-      <c r="AC38">
-        <v>1.05</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4660,7 +4660,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5202893</v>
+        <v>5202894</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4672,10 +4672,10 @@
         <v>44961.51041666666</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4690,40 +4690,40 @@
         <v>2.05</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N47">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P47">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q47">
         <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S47">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4732,7 +4732,7 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA47">
         <v>-1</v>
@@ -4741,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4749,7 +4749,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5202894</v>
+        <v>5202893</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4761,10 +4761,10 @@
         <v>44961.51041666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4779,40 +4779,40 @@
         <v>2.05</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M48">
+        <v>3.6</v>
+      </c>
+      <c r="N48">
+        <v>2.2</v>
+      </c>
+      <c r="O48">
+        <v>3</v>
+      </c>
+      <c r="P48">
         <v>3.75</v>
-      </c>
-      <c r="N48">
-        <v>2.25</v>
-      </c>
-      <c r="O48">
-        <v>2.9</v>
-      </c>
-      <c r="P48">
-        <v>3.8</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4821,7 +4821,7 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>-1</v>
@@ -4830,7 +4830,7 @@
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4850,7 +4850,7 @@
         <v>44961.60416666666</v>
       </c>
       <c r="F49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>49</v>
@@ -5209,7 +5209,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5565,7 +5565,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -6452,7 +6452,7 @@
         <v>44970.70833333334</v>
       </c>
       <c r="F67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -6707,7 +6707,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>5202926</v>
+        <v>5202906</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6719,10 +6719,10 @@
         <v>44975.60416666666</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6734,61 +6734,61 @@
         <v>59</v>
       </c>
       <c r="K70">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N70">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>1.952</v>
+        <v>2.9</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
         <v>2.05</v>
       </c>
       <c r="V70">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6796,7 +6796,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5202906</v>
+        <v>5202926</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6808,10 +6808,10 @@
         <v>44975.60416666666</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6823,61 +6823,61 @@
         <v>59</v>
       </c>
       <c r="K71">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M71">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.9</v>
+        <v>1.952</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
         <v>2.05</v>
       </c>
       <c r="V71">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6897,7 +6897,7 @@
         <v>44975.70833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G72" t="s">
         <v>47</v>
@@ -7345,7 +7345,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7698,7 +7698,7 @@
         <v>44982.51041666666</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7775,7 +7775,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5202935</v>
+        <v>5202932</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7787,76 +7787,76 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L82">
         <v>3</v>
       </c>
       <c r="M82">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N82">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P82">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U82">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X82">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7864,7 +7864,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5202932</v>
+        <v>5202935</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7876,76 +7876,76 @@
         <v>44982.70833333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K83">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
         <v>3</v>
       </c>
       <c r="M83">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="N83">
-        <v>2.375</v>
+        <v>2.9</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W83">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8677,7 +8677,7 @@
         <v>44989.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -9125,7 +9125,7 @@
         <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9481,7 +9481,7 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -10368,7 +10368,7 @@
         <v>44998.70833333334</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
         <v>39</v>
@@ -10813,7 +10813,7 @@
         <v>45003.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G116" t="s">
         <v>37</v>
@@ -11172,7 +11172,7 @@
         <v>50</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>45010.51041666666</v>
       </c>
       <c r="F125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G125" t="s">
         <v>46</v>
@@ -11706,7 +11706,7 @@
         <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -12507,7 +12507,7 @@
         <v>48</v>
       </c>
       <c r="G135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12593,7 +12593,7 @@
         <v>45017.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s">
         <v>42</v>
@@ -13397,7 +13397,7 @@
         <v>50</v>
       </c>
       <c r="G145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13750,7 +13750,7 @@
         <v>45024.66666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
         <v>49</v>
@@ -14005,7 +14005,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>5603527</v>
+        <v>5608006</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -14017,76 +14017,76 @@
         <v>45025.5625</v>
       </c>
       <c r="F152" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K152">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="L152">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M152">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="N152">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O152">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q152">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R152">
+        <v>1.875</v>
+      </c>
+      <c r="S152">
+        <v>1.975</v>
+      </c>
+      <c r="T152">
+        <v>2.25</v>
+      </c>
+      <c r="U152">
         <v>1.8</v>
       </c>
-      <c r="S152">
+      <c r="V152">
         <v>2.05</v>
       </c>
-      <c r="T152">
-        <v>1.75</v>
-      </c>
-      <c r="U152">
-        <v>1.825</v>
-      </c>
-      <c r="V152">
-        <v>2.025</v>
-      </c>
       <c r="W152">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA152">
+        <v>-1</v>
+      </c>
+      <c r="AB152">
+        <v>-1</v>
+      </c>
+      <c r="AC152">
         <v>1.05</v>
-      </c>
-      <c r="AB152">
-        <v>-1</v>
-      </c>
-      <c r="AC152">
-        <v>1.025</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14094,7 +14094,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>5608006</v>
+        <v>5603527</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14106,76 +14106,76 @@
         <v>45025.5625</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
         <v>1</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
       <c r="J153" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K153">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="L153">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M153">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P153">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R153">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T153">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U153">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V153">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W153">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14643,7 +14643,7 @@
         <v>36</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -15085,7 +15085,7 @@
         <v>45032.5625</v>
       </c>
       <c r="F164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G164" t="s">
         <v>43</v>
@@ -15518,7 +15518,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>5671541</v>
+        <v>5668412</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15530,73 +15530,73 @@
         <v>45038.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
         <v>1</v>
       </c>
-      <c r="I169">
-        <v>4</v>
-      </c>
       <c r="J169" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K169">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M169">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O169">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P169">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="Q169">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S169">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
         <v>2</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X169">
         <v>-1</v>
       </c>
       <c r="Y169">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA169">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC169">
         <v>-1</v>
@@ -15607,7 +15607,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>5668412</v>
+        <v>5671541</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15619,73 +15619,73 @@
         <v>45038.46875</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170" t="s">
+        <v>60</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>2.45</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170">
+        <v>3</v>
+      </c>
+      <c r="P170">
+        <v>2.7</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>2.025</v>
+      </c>
+      <c r="S170">
+        <v>1.825</v>
+      </c>
+      <c r="T170">
+        <v>2</v>
+      </c>
+      <c r="U170">
+        <v>2</v>
+      </c>
+      <c r="V170">
+        <v>1.85</v>
+      </c>
+      <c r="W170">
+        <v>-1</v>
+      </c>
+      <c r="X170">
+        <v>-1</v>
+      </c>
+      <c r="Y170">
+        <v>1.7</v>
+      </c>
+      <c r="Z170">
+        <v>-1</v>
+      </c>
+      <c r="AA170">
+        <v>0.825</v>
+      </c>
+      <c r="AB170">
         <v>1</v>
-      </c>
-      <c r="J170" t="s">
-        <v>58</v>
-      </c>
-      <c r="K170">
-        <v>2.1</v>
-      </c>
-      <c r="L170">
-        <v>3.1</v>
-      </c>
-      <c r="M170">
-        <v>3.75</v>
-      </c>
-      <c r="N170">
-        <v>2</v>
-      </c>
-      <c r="O170">
-        <v>3.2</v>
-      </c>
-      <c r="P170">
-        <v>4.2</v>
-      </c>
-      <c r="Q170">
-        <v>-0.5</v>
-      </c>
-      <c r="R170">
-        <v>1.975</v>
-      </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
-      <c r="V170">
-        <v>2.05</v>
-      </c>
-      <c r="W170">
-        <v>1</v>
-      </c>
-      <c r="X170">
-        <v>-1</v>
-      </c>
-      <c r="Y170">
-        <v>-1</v>
-      </c>
-      <c r="Z170">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA170">
-        <v>-1</v>
-      </c>
-      <c r="AB170">
-        <v>0.8</v>
       </c>
       <c r="AC170">
         <v>-1</v>
@@ -16064,7 +16064,7 @@
         <v>45039.5625</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
         <v>35</v>
@@ -16245,7 +16245,7 @@
         <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>45044.66666666666</v>
       </c>
       <c r="F178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G178" t="s">
         <v>43</v>
@@ -16598,7 +16598,7 @@
         <v>45045.66666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G181" t="s">
         <v>31</v>
@@ -17402,7 +17402,7 @@
         <v>47</v>
       </c>
       <c r="G190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17488,7 +17488,7 @@
         <v>45052.5625</v>
       </c>
       <c r="F191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G191" t="s">
         <v>46</v>
@@ -18734,7 +18734,7 @@
         <v>45060.375</v>
       </c>
       <c r="F205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G205" t="s">
         <v>38</v>
@@ -18826,7 +18826,7 @@
         <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H206">
         <v>1</v>
@@ -19980,7 +19980,7 @@
         <v>45066.66666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G219" t="s">
         <v>48</v>
@@ -20072,7 +20072,7 @@
         <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H220">
         <v>1</v>
@@ -20250,7 +20250,7 @@
         <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H222">
         <v>1</v>
@@ -21137,7 +21137,7 @@
         <v>45074.46875</v>
       </c>
       <c r="F232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G232" t="s">
         <v>41</v>
@@ -21938,7 +21938,7 @@
         <v>45150.58333333334</v>
       </c>
       <c r="F241" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G241" t="s">
         <v>38</v>
@@ -22650,7 +22650,7 @@
         <v>45152.6875</v>
       </c>
       <c r="F249" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G249" t="s">
         <v>40</v>
@@ -23009,7 +23009,7 @@
         <v>54</v>
       </c>
       <c r="G253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H253">
         <v>2</v>
@@ -23632,7 +23632,7 @@
         <v>39</v>
       </c>
       <c r="G260" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>45164.58333333334</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G263" t="s">
         <v>36</v>
@@ -24608,7 +24608,7 @@
         <v>45166.6875</v>
       </c>
       <c r="F271" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G271" t="s">
         <v>39</v>
@@ -25145,7 +25145,7 @@
         <v>53</v>
       </c>
       <c r="G277" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H277">
         <v>1</v>
@@ -25234,7 +25234,7 @@
         <v>32</v>
       </c>
       <c r="G278" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F287" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G287" t="s">
         <v>49</v>
@@ -26210,7 +26210,7 @@
         <v>45179.46875</v>
       </c>
       <c r="F289" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G289" t="s">
         <v>51</v>
@@ -26658,7 +26658,7 @@
         <v>36</v>
       </c>
       <c r="G294" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H294">
         <v>1</v>
@@ -27459,7 +27459,7 @@
         <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27990,7 +27990,7 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F309" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
         <v>49</v>
@@ -28435,7 +28435,7 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F314" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G314" t="s">
         <v>54</v>
@@ -28616,7 +28616,7 @@
         <v>31</v>
       </c>
       <c r="G316" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H316">
         <v>2</v>
@@ -28705,7 +28705,7 @@
         <v>38</v>
       </c>
       <c r="G317" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H317">
         <v>3</v>
@@ -28868,7 +28868,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28880,73 +28880,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F319" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G319" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J319" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K319">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L319">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M319">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N319">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P319">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S319">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T319">
         <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W319">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X319">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
         <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB319">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC319">
         <v>-1</v>
@@ -28957,7 +28957,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28969,73 +28969,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F320" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G320" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H320">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K320">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L320">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M320">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N320">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O320">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P320">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q320">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S320">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T320">
         <v>2.25</v>
       </c>
       <c r="U320">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y320">
         <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC320">
         <v>-1</v>
@@ -29770,10 +29770,10 @@
         <v>45202.6875</v>
       </c>
       <c r="F329" t="s">
+        <v>44</v>
+      </c>
+      <c r="G329" t="s">
         <v>45</v>
-      </c>
-      <c r="G329" t="s">
-        <v>44</v>
       </c>
       <c r="H329">
         <v>2</v>
@@ -30749,7 +30749,7 @@
         <v>45206.5625</v>
       </c>
       <c r="F340" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G340" t="s">
         <v>30</v>
@@ -31194,7 +31194,7 @@
         <v>45207.5625</v>
       </c>
       <c r="F345" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G345" t="s">
         <v>48</v>
@@ -31642,7 +31642,7 @@
         <v>47</v>
       </c>
       <c r="G350" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H350">
         <v>1</v>
@@ -31716,7 +31716,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31728,73 +31728,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F351" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G351" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H351">
         <v>2</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K351">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L351">
         <v>2.875</v>
       </c>
       <c r="M351">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N351">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O351">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P351">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q351">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R351">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S351">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T351">
         <v>2.25</v>
       </c>
       <c r="U351">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V351">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W351">
         <v>-1</v>
       </c>
       <c r="X351">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y351">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
         <v>-1</v>
       </c>
       <c r="AA351">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB351">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31805,7 +31805,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C352" t="s">
         <v>28</v>
@@ -31817,73 +31817,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F352" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G352" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H352">
         <v>2</v>
       </c>
       <c r="I352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J352" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K352">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L352">
         <v>2.875</v>
       </c>
       <c r="M352">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N352">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O352">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P352">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q352">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R352">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S352">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T352">
         <v>2.25</v>
       </c>
       <c r="U352">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V352">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W352">
         <v>-1</v>
       </c>
       <c r="X352">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y352">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z352">
         <v>-1</v>
       </c>
       <c r="AA352">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB352">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC352">
         <v>-1</v>
@@ -32796,7 +32796,7 @@
         <v>45220.5625</v>
       </c>
       <c r="F363" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G363" t="s">
         <v>46</v>
@@ -33140,7 +33140,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33152,19 +33152,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F367" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G367" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I367">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J367" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K367">
         <v>2.1</v>
@@ -33173,52 +33173,52 @@
         <v>3.2</v>
       </c>
       <c r="M367">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N367">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O367">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P367">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R367">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S367">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T367">
         <v>2.25</v>
       </c>
       <c r="U367">
+        <v>1.875</v>
+      </c>
+      <c r="V367">
         <v>1.975</v>
       </c>
-      <c r="V367">
-        <v>1.875</v>
-      </c>
       <c r="W367">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X367">
         <v>-1</v>
       </c>
       <c r="Y367">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z367">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA367">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB367">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC367">
         <v>-1</v>
@@ -33229,7 +33229,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33241,19 +33241,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F368" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G368" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H368">
+        <v>1</v>
+      </c>
+      <c r="I368">
         <v>3</v>
       </c>
-      <c r="I368">
-        <v>0</v>
-      </c>
       <c r="J368" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K368">
         <v>2.1</v>
@@ -33262,52 +33262,52 @@
         <v>3.2</v>
       </c>
       <c r="M368">
+        <v>3.75</v>
+      </c>
+      <c r="N368">
+        <v>2.15</v>
+      </c>
+      <c r="O368">
+        <v>3.2</v>
+      </c>
+      <c r="P368">
         <v>3.6</v>
       </c>
-      <c r="N368">
-        <v>2.05</v>
-      </c>
-      <c r="O368">
-        <v>3.25</v>
-      </c>
-      <c r="P368">
-        <v>4</v>
-      </c>
       <c r="Q368">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R368">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S368">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T368">
         <v>2.25</v>
       </c>
       <c r="U368">
+        <v>1.975</v>
+      </c>
+      <c r="V368">
         <v>1.875</v>
       </c>
-      <c r="V368">
-        <v>1.975</v>
-      </c>
       <c r="W368">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X368">
         <v>-1</v>
       </c>
       <c r="Y368">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z368">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA368">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB368">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC368">
         <v>-1</v>
@@ -33867,7 +33867,7 @@
         <v>53</v>
       </c>
       <c r="G375" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H375">
         <v>2</v>
@@ -34309,7 +34309,7 @@
         <v>45228.70833333334</v>
       </c>
       <c r="F380" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G380" t="s">
         <v>56</v>
@@ -34653,7 +34653,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C384" t="s">
         <v>28</v>
@@ -34665,40 +34665,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F384" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G384" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H384">
         <v>2</v>
       </c>
       <c r="I384">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J384" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K384">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L384">
+        <v>3.3</v>
+      </c>
+      <c r="M384">
+        <v>4.2</v>
+      </c>
+      <c r="N384">
+        <v>2.2</v>
+      </c>
+      <c r="O384">
+        <v>3.1</v>
+      </c>
+      <c r="P384">
         <v>3.6</v>
       </c>
-      <c r="M384">
-        <v>5</v>
-      </c>
-      <c r="N384">
-        <v>1.909</v>
-      </c>
-      <c r="O384">
-        <v>3.4</v>
-      </c>
-      <c r="P384">
-        <v>4.333</v>
-      </c>
       <c r="Q384">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R384">
         <v>1.875</v>
@@ -34707,7 +34707,7 @@
         <v>1.975</v>
       </c>
       <c r="T384">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U384">
         <v>2.025</v>
@@ -34716,25 +34716,25 @@
         <v>1.825</v>
       </c>
       <c r="W384">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X384">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y384">
         <v>-1</v>
       </c>
       <c r="Z384">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA384">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB384">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC384">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="385" spans="1:29">
@@ -34742,7 +34742,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C385" t="s">
         <v>28</v>
@@ -34754,40 +34754,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F385" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G385" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H385">
         <v>2</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J385" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K385">
+        <v>1.666</v>
+      </c>
+      <c r="L385">
+        <v>3.6</v>
+      </c>
+      <c r="M385">
+        <v>5</v>
+      </c>
+      <c r="N385">
         <v>1.909</v>
       </c>
-      <c r="L385">
-        <v>3.3</v>
-      </c>
-      <c r="M385">
-        <v>4.2</v>
-      </c>
-      <c r="N385">
-        <v>2.2</v>
-      </c>
       <c r="O385">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P385">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q385">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R385">
         <v>1.875</v>
@@ -34796,7 +34796,7 @@
         <v>1.975</v>
       </c>
       <c r="T385">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U385">
         <v>2.025</v>
@@ -34805,25 +34805,25 @@
         <v>1.825</v>
       </c>
       <c r="W385">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X385">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y385">
         <v>-1</v>
       </c>
       <c r="Z385">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA385">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB385">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC385">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="386" spans="1:29">
@@ -35202,7 +35202,7 @@
         <v>55</v>
       </c>
       <c r="G390" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H390">
         <v>3</v>
@@ -35555,7 +35555,7 @@
         <v>45241.51041666666</v>
       </c>
       <c r="F394" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G394" t="s">
         <v>52</v>
@@ -36178,7 +36178,7 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F401" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G401" t="s">
         <v>42</v>
@@ -36715,7 +36715,7 @@
         <v>51</v>
       </c>
       <c r="G407" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H407">
         <v>2</v>
@@ -37145,7 +37145,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37157,76 +37157,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F412" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G412" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="s">
         <v>59</v>
       </c>
       <c r="K412">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L412">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M412">
+        <v>2.6</v>
+      </c>
+      <c r="N412">
+        <v>2.6</v>
+      </c>
+      <c r="O412">
+        <v>3.4</v>
+      </c>
+      <c r="P412">
+        <v>2.7</v>
+      </c>
+      <c r="Q412">
+        <v>0</v>
+      </c>
+      <c r="R412">
+        <v>1.85</v>
+      </c>
+      <c r="S412">
+        <v>2</v>
+      </c>
+      <c r="T412">
         <v>2.5</v>
       </c>
-      <c r="N412">
-        <v>3.6</v>
-      </c>
-      <c r="O412">
-        <v>3.2</v>
-      </c>
-      <c r="P412">
-        <v>2.2</v>
-      </c>
-      <c r="Q412">
-        <v>0.25</v>
-      </c>
-      <c r="R412">
-        <v>1.95</v>
-      </c>
-      <c r="S412">
-        <v>1.9</v>
-      </c>
-      <c r="T412">
-        <v>2.25</v>
-      </c>
       <c r="U412">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V412">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W412">
         <v>-1</v>
       </c>
       <c r="X412">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y412">
         <v>-1</v>
       </c>
       <c r="Z412">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA412">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB412">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC412">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37234,7 +37234,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37246,76 +37246,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F413" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G413" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I413">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J413" t="s">
         <v>59</v>
       </c>
       <c r="K413">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L413">
+        <v>3.1</v>
+      </c>
+      <c r="M413">
+        <v>2.5</v>
+      </c>
+      <c r="N413">
+        <v>3.6</v>
+      </c>
+      <c r="O413">
         <v>3.2</v>
       </c>
-      <c r="M413">
-        <v>2.6</v>
-      </c>
-      <c r="N413">
-        <v>2.6</v>
-      </c>
-      <c r="O413">
-        <v>3.4</v>
-      </c>
       <c r="P413">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q413">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R413">
+        <v>1.95</v>
+      </c>
+      <c r="S413">
+        <v>1.9</v>
+      </c>
+      <c r="T413">
+        <v>2.25</v>
+      </c>
+      <c r="U413">
+        <v>2</v>
+      </c>
+      <c r="V413">
         <v>1.85</v>
       </c>
-      <c r="S413">
-        <v>2</v>
-      </c>
-      <c r="T413">
-        <v>2.5</v>
-      </c>
-      <c r="U413">
-        <v>1.85</v>
-      </c>
-      <c r="V413">
-        <v>2</v>
-      </c>
       <c r="W413">
         <v>-1</v>
       </c>
       <c r="X413">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y413">
         <v>-1</v>
       </c>
       <c r="Z413">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA413">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC413">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="414" spans="1:29">
@@ -37338,7 +37338,7 @@
         <v>46</v>
       </c>
       <c r="G414" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H414">
         <v>2</v>
@@ -37501,7 +37501,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37513,76 +37513,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F416" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G416" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416">
         <v>0</v>
       </c>
       <c r="J416" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K416">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L416">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M416">
         <v>3.6</v>
       </c>
       <c r="N416">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O416">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P416">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q416">
+        <v>-0.25</v>
+      </c>
+      <c r="R416">
+        <v>1.975</v>
+      </c>
+      <c r="S416">
+        <v>1.875</v>
+      </c>
+      <c r="T416">
+        <v>2.25</v>
+      </c>
+      <c r="U416">
+        <v>2.1</v>
+      </c>
+      <c r="V416">
+        <v>1.775</v>
+      </c>
+      <c r="W416">
+        <v>-1</v>
+      </c>
+      <c r="X416">
+        <v>2.1</v>
+      </c>
+      <c r="Y416">
+        <v>-1</v>
+      </c>
+      <c r="Z416">
         <v>-0.5</v>
       </c>
-      <c r="R416">
-        <v>1.8</v>
-      </c>
-      <c r="S416">
-        <v>2.05</v>
-      </c>
-      <c r="T416">
-        <v>2.75</v>
-      </c>
-      <c r="U416">
-        <v>1.925</v>
-      </c>
-      <c r="V416">
-        <v>1.925</v>
-      </c>
-      <c r="W416">
-        <v>0.8</v>
-      </c>
-      <c r="X416">
-        <v>-1</v>
-      </c>
-      <c r="Y416">
-        <v>-1</v>
-      </c>
-      <c r="Z416">
-        <v>0.8</v>
-      </c>
       <c r="AA416">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB416">
         <v>-1</v>
       </c>
       <c r="AC416">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:29">
@@ -37590,7 +37590,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37602,76 +37602,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F417" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G417" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417">
         <v>0</v>
       </c>
       <c r="J417" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K417">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L417">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M417">
         <v>3.6</v>
       </c>
       <c r="N417">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O417">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P417">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q417">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R417">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S417">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T417">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U417">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V417">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W417">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X417">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA417">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
         <v>-1</v>
       </c>
       <c r="AC417">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -38136,7 +38136,7 @@
         <v>45256.60416666666</v>
       </c>
       <c r="F423" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G423" t="s">
         <v>41</v>
@@ -38495,7 +38495,7 @@
         <v>57</v>
       </c>
       <c r="G427" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H427">
         <v>0</v>
@@ -39118,7 +39118,7 @@
         <v>47</v>
       </c>
       <c r="G434" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H434">
         <v>0</v>
@@ -39916,7 +39916,7 @@
         <v>45270.51041666666</v>
       </c>
       <c r="F443" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G443" t="s">
         <v>40</v>
@@ -40272,7 +40272,7 @@
         <v>45271.70833333334</v>
       </c>
       <c r="F447" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G447" t="s">
         <v>55</v>
@@ -40453,7 +40453,7 @@
         <v>57</v>
       </c>
       <c r="G449" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H449">
         <v>3</v>
@@ -40616,7 +40616,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C451" t="s">
         <v>28</v>
@@ -40628,76 +40628,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F451" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G451" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J451" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K451">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L451">
         <v>3</v>
       </c>
       <c r="M451">
+        <v>3.4</v>
+      </c>
+      <c r="N451">
+        <v>2.3</v>
+      </c>
+      <c r="O451">
+        <v>2.875</v>
+      </c>
+      <c r="P451">
         <v>3.6</v>
       </c>
-      <c r="N451">
-        <v>2</v>
-      </c>
-      <c r="O451">
-        <v>3</v>
-      </c>
-      <c r="P451">
-        <v>4.5</v>
-      </c>
       <c r="Q451">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R451">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S451">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T451">
         <v>1.75</v>
       </c>
       <c r="U451">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V451">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W451">
         <v>-1</v>
       </c>
       <c r="X451">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y451">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z451">
         <v>-1</v>
       </c>
       <c r="AA451">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB451">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC451">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="452" spans="1:29">
@@ -40705,7 +40705,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40717,76 +40717,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F452" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G452" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I452">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J452" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K452">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L452">
         <v>3</v>
       </c>
       <c r="M452">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N452">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O452">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P452">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q452">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R452">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S452">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T452">
         <v>1.75</v>
       </c>
       <c r="U452">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V452">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W452">
         <v>-1</v>
       </c>
       <c r="X452">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y452">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z452">
         <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB452">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC452">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -41165,7 +41165,7 @@
         <v>56</v>
       </c>
       <c r="G457" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H457">
         <v>3</v>
@@ -41429,7 +41429,7 @@
         <v>45279.625</v>
       </c>
       <c r="F460" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G460" t="s">
         <v>32</v>
@@ -41506,7 +41506,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>6838052</v>
+        <v>6838146</v>
       </c>
       <c r="C461" t="s">
         <v>28</v>
@@ -41518,61 +41518,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F461" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G461" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H461">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J461" t="s">
         <v>59</v>
       </c>
       <c r="K461">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L461">
         <v>3.75</v>
       </c>
       <c r="M461">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N461">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O461">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P461">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q461">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R461">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S461">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T461">
         <v>2.25</v>
       </c>
       <c r="U461">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V461">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W461">
         <v>-1</v>
       </c>
       <c r="X461">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y461">
         <v>-1</v>
@@ -41581,13 +41581,13 @@
         <v>-1</v>
       </c>
       <c r="AA461">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB461">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC461">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="462" spans="1:29">
@@ -41595,7 +41595,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>6838146</v>
+        <v>6838052</v>
       </c>
       <c r="C462" t="s">
         <v>28</v>
@@ -41607,61 +41607,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F462" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G462" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I462">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J462" t="s">
         <v>59</v>
       </c>
       <c r="K462">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L462">
         <v>3.75</v>
       </c>
       <c r="M462">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N462">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O462">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P462">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q462">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R462">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S462">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T462">
         <v>2.25</v>
       </c>
       <c r="U462">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V462">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W462">
         <v>-1</v>
       </c>
       <c r="X462">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y462">
         <v>-1</v>
@@ -41670,13 +41670,13 @@
         <v>-1</v>
       </c>
       <c r="AA462">
+        <v>1.025</v>
+      </c>
+      <c r="AB462">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB462">
-        <v>-1</v>
-      </c>
       <c r="AC462">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="463" spans="1:29">
@@ -41788,7 +41788,7 @@
         <v>31</v>
       </c>
       <c r="G464" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -42129,7 +42129,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42141,55 +42141,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F468" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G468" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
         <v>1</v>
-      </c>
-      <c r="I468">
-        <v>2</v>
       </c>
       <c r="J468" t="s">
         <v>60</v>
       </c>
       <c r="K468">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L468">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M468">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N468">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O468">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P468">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q468">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R468">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S468">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T468">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U468">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V468">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W468">
         <v>-1</v>
@@ -42198,19 +42198,19 @@
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z468">
         <v>-1</v>
       </c>
       <c r="AA468">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB468">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC468">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42218,7 +42218,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42230,56 +42230,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F469" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G469" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J469" t="s">
         <v>60</v>
       </c>
       <c r="K469">
+        <v>2.2</v>
+      </c>
+      <c r="L469">
+        <v>3.2</v>
+      </c>
+      <c r="M469">
+        <v>3.4</v>
+      </c>
+      <c r="N469">
+        <v>2.15</v>
+      </c>
+      <c r="O469">
+        <v>3.1</v>
+      </c>
+      <c r="P469">
+        <v>3.8</v>
+      </c>
+      <c r="Q469">
+        <v>-0.25</v>
+      </c>
+      <c r="R469">
+        <v>1.825</v>
+      </c>
+      <c r="S469">
+        <v>2.025</v>
+      </c>
+      <c r="T469">
+        <v>2</v>
+      </c>
+      <c r="U469">
+        <v>2</v>
+      </c>
+      <c r="V469">
         <v>1.85</v>
       </c>
-      <c r="L469">
-        <v>3.4</v>
-      </c>
-      <c r="M469">
-        <v>4.333</v>
-      </c>
-      <c r="N469">
-        <v>1.8</v>
-      </c>
-      <c r="O469">
-        <v>3.6</v>
-      </c>
-      <c r="P469">
-        <v>4.75</v>
-      </c>
-      <c r="Q469">
-        <v>-0.5</v>
-      </c>
-      <c r="R469">
-        <v>1.875</v>
-      </c>
-      <c r="S469">
-        <v>1.975</v>
-      </c>
-      <c r="T469">
-        <v>2.25</v>
-      </c>
-      <c r="U469">
-        <v>1.95</v>
-      </c>
-      <c r="V469">
-        <v>1.9</v>
-      </c>
       <c r="W469">
         <v>-1</v>
       </c>
@@ -42287,19 +42287,19 @@
         <v>-1</v>
       </c>
       <c r="Y469">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC469">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -42322,7 +42322,7 @@
         <v>38</v>
       </c>
       <c r="G470" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H470">
         <v>2</v>
@@ -42675,7 +42675,7 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F474" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G474" t="s">
         <v>53</v>
@@ -43654,7 +43654,7 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F485" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G485" t="s">
         <v>30</v>
@@ -43832,7 +43832,7 @@
         <v>45312.41666666666</v>
       </c>
       <c r="F487" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G487" t="s">
         <v>41</v>
@@ -44636,7 +44636,7 @@
         <v>46</v>
       </c>
       <c r="G496" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H496">
         <v>0</v>
@@ -45170,7 +45170,7 @@
         <v>52</v>
       </c>
       <c r="G502" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H502">
         <v>3</v>
@@ -45701,7 +45701,7 @@
         <v>45325.70833333334</v>
       </c>
       <c r="F508" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G508" t="s">
         <v>32</v>
@@ -45971,7 +45971,7 @@
         <v>51</v>
       </c>
       <c r="G511" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H511">
         <v>0</v>
@@ -46591,7 +46591,7 @@
         <v>45332.70833333334</v>
       </c>
       <c r="F518" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G518" t="s">
         <v>54</v>
@@ -46683,7 +46683,7 @@
         <v>42</v>
       </c>
       <c r="G519" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H519">
         <v>1</v>
@@ -47662,7 +47662,7 @@
         <v>49</v>
       </c>
       <c r="G530" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H530">
         <v>2</v>
@@ -48104,7 +48104,7 @@
         <v>45341.6875</v>
       </c>
       <c r="F535" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G535" t="s">
         <v>57</v>
@@ -48282,7 +48282,7 @@
         <v>45346.51041666666</v>
       </c>
       <c r="F537" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G537" t="s">
         <v>31</v>
@@ -48297,31 +48297,31 @@
         <v>3.6</v>
       </c>
       <c r="N537">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O537">
         <v>2.9</v>
       </c>
       <c r="P537">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q537">
         <v>-0.25</v>
       </c>
       <c r="R537">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S537">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T537">
         <v>2</v>
       </c>
       <c r="U537">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V537">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W537">
         <v>0</v>
@@ -48344,7 +48344,7 @@
         <v>536</v>
       </c>
       <c r="B538">
-        <v>6838084</v>
+        <v>6838083</v>
       </c>
       <c r="C538" t="s">
         <v>28</v>
@@ -48356,46 +48356,46 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F538" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G538" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K538">
+        <v>2</v>
+      </c>
+      <c r="L538">
+        <v>3.3</v>
+      </c>
+      <c r="M538">
+        <v>3.75</v>
+      </c>
+      <c r="N538">
+        <v>2</v>
+      </c>
+      <c r="O538">
         <v>3.2</v>
       </c>
-      <c r="L538">
-        <v>3</v>
-      </c>
-      <c r="M538">
-        <v>2.45</v>
-      </c>
-      <c r="N538">
-        <v>3.2</v>
-      </c>
-      <c r="O538">
-        <v>2.9</v>
-      </c>
       <c r="P538">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="Q538">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R538">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S538">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T538">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U538">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V538">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W538">
         <v>0</v>
@@ -48418,7 +48418,7 @@
         <v>537</v>
       </c>
       <c r="B539">
-        <v>6838083</v>
+        <v>6838084</v>
       </c>
       <c r="C539" t="s">
         <v>28</v>
@@ -48430,46 +48430,46 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F539" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G539" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="K539">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L539">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M539">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N539">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="O539">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P539">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q539">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R539">
+        <v>1.725</v>
+      </c>
+      <c r="S539">
+        <v>2.15</v>
+      </c>
+      <c r="T539">
+        <v>2</v>
+      </c>
+      <c r="U539">
         <v>2.025</v>
       </c>
-      <c r="S539">
+      <c r="V539">
         <v>1.825</v>
-      </c>
-      <c r="T539">
-        <v>2.25</v>
-      </c>
-      <c r="U539">
-        <v>1.975</v>
-      </c>
-      <c r="V539">
-        <v>1.875</v>
       </c>
       <c r="W539">
         <v>0</v>
@@ -48566,7 +48566,7 @@
         <v>539</v>
       </c>
       <c r="B541">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C541" t="s">
         <v>28</v>
@@ -48578,46 +48578,46 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F541" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G541" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K541">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L541">
         <v>3</v>
       </c>
       <c r="M541">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N541">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O541">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P541">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="Q541">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R541">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S541">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T541">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U541">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V541">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W541">
         <v>0</v>
@@ -48640,7 +48640,7 @@
         <v>540</v>
       </c>
       <c r="B542">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C542" t="s">
         <v>28</v>
@@ -48652,46 +48652,46 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F542" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G542" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K542">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L542">
         <v>3</v>
       </c>
       <c r="M542">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N542">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O542">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P542">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q542">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R542">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S542">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T542">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U542">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V542">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W542">
         <v>0</v>
@@ -48827,10 +48827,10 @@
         <v>0.25</v>
       </c>
       <c r="R544">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S544">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T544">
         <v>2</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -41773,7 +41773,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41785,10 +41785,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F464" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G464" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H464">
         <v>1</v>
@@ -41800,61 +41800,61 @@
         <v>59</v>
       </c>
       <c r="K464">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L464">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M464">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N464">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O464">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P464">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q464">
+        <v>-0.25</v>
+      </c>
+      <c r="R464">
+        <v>1.975</v>
+      </c>
+      <c r="S464">
+        <v>1.875</v>
+      </c>
+      <c r="T464">
+        <v>1.75</v>
+      </c>
+      <c r="U464">
+        <v>2.05</v>
+      </c>
+      <c r="V464">
+        <v>1.8</v>
+      </c>
+      <c r="W464">
+        <v>-1</v>
+      </c>
+      <c r="X464">
+        <v>1.8</v>
+      </c>
+      <c r="Y464">
+        <v>-1</v>
+      </c>
+      <c r="Z464">
         <v>-0.5</v>
       </c>
-      <c r="R464">
-        <v>1.95</v>
-      </c>
-      <c r="S464">
-        <v>1.9</v>
-      </c>
-      <c r="T464">
-        <v>2.25</v>
-      </c>
-      <c r="U464">
-        <v>1.975</v>
-      </c>
-      <c r="V464">
-        <v>1.875</v>
-      </c>
-      <c r="W464">
-        <v>-1</v>
-      </c>
-      <c r="X464">
-        <v>2.5</v>
-      </c>
-      <c r="Y464">
-        <v>-1</v>
-      </c>
-      <c r="Z464">
-        <v>-1</v>
-      </c>
       <c r="AA464">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB464">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC464">
         <v>-0.5</v>
-      </c>
-      <c r="AC464">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="465" spans="1:29">
@@ -41862,7 +41862,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41874,10 +41874,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F465" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G465" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H465">
         <v>1</v>
@@ -41889,61 +41889,61 @@
         <v>59</v>
       </c>
       <c r="K465">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L465">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M465">
+        <v>4.2</v>
+      </c>
+      <c r="N465">
+        <v>1.909</v>
+      </c>
+      <c r="O465">
+        <v>3.5</v>
+      </c>
+      <c r="P465">
         <v>4</v>
       </c>
-      <c r="N465">
-        <v>2.3</v>
-      </c>
-      <c r="O465">
-        <v>2.8</v>
-      </c>
-      <c r="P465">
-        <v>3.6</v>
-      </c>
       <c r="Q465">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R465">
+        <v>1.95</v>
+      </c>
+      <c r="S465">
+        <v>1.9</v>
+      </c>
+      <c r="T465">
+        <v>2.25</v>
+      </c>
+      <c r="U465">
         <v>1.975</v>
       </c>
-      <c r="S465">
+      <c r="V465">
         <v>1.875</v>
       </c>
-      <c r="T465">
-        <v>1.75</v>
-      </c>
-      <c r="U465">
-        <v>2.05</v>
-      </c>
-      <c r="V465">
-        <v>1.8</v>
-      </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y465">
         <v>-1</v>
       </c>
       <c r="Z465">
+        <v>-1</v>
+      </c>
+      <c r="AA465">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB465">
         <v>-0.5</v>
       </c>
-      <c r="AA465">
+      <c r="AC465">
         <v>0.4375</v>
-      </c>
-      <c r="AB465">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC465">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="466" spans="1:29">
@@ -41951,7 +41951,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C466" t="s">
         <v>28</v>
@@ -41963,40 +41963,40 @@
         <v>45281.625</v>
       </c>
       <c r="F466" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G466" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K466">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L466">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M466">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N466">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O466">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P466">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q466">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R466">
         <v>2.025</v>
@@ -42005,7 +42005,7 @@
         <v>1.825</v>
       </c>
       <c r="T466">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U466">
         <v>1.95</v>
@@ -42014,25 +42014,25 @@
         <v>1.9</v>
       </c>
       <c r="W466">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X466">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y466">
         <v>-1</v>
       </c>
       <c r="Z466">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA466">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB466">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC466">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467" spans="1:29">
@@ -42040,7 +42040,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C467" t="s">
         <v>28</v>
@@ -42052,40 +42052,40 @@
         <v>45281.625</v>
       </c>
       <c r="F467" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G467" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H467">
+        <v>1</v>
+      </c>
+      <c r="I467">
+        <v>1</v>
+      </c>
+      <c r="J467" t="s">
+        <v>59</v>
+      </c>
+      <c r="K467">
+        <v>2.6</v>
+      </c>
+      <c r="L467">
+        <v>3.2</v>
+      </c>
+      <c r="M467">
+        <v>2.75</v>
+      </c>
+      <c r="N467">
         <v>3</v>
       </c>
-      <c r="I467">
-        <v>0</v>
-      </c>
-      <c r="J467" t="s">
-        <v>58</v>
-      </c>
-      <c r="K467">
-        <v>2.2</v>
-      </c>
-      <c r="L467">
-        <v>3.1</v>
-      </c>
-      <c r="M467">
-        <v>3.6</v>
-      </c>
-      <c r="N467">
-        <v>2.05</v>
-      </c>
       <c r="O467">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P467">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q467">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R467">
         <v>2.025</v>
@@ -42094,7 +42094,7 @@
         <v>1.825</v>
       </c>
       <c r="T467">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U467">
         <v>1.95</v>
@@ -42103,25 +42103,25 @@
         <v>1.9</v>
       </c>
       <c r="W467">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X467">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y467">
         <v>-1</v>
       </c>
       <c r="Z467">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA467">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB467">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC467">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="468" spans="1:29">
@@ -42129,7 +42129,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C468" t="s">
         <v>28</v>
@@ -42141,55 +42141,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F468" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G468" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H468">
+        <v>0</v>
+      </c>
+      <c r="I468">
         <v>1</v>
-      </c>
-      <c r="I468">
-        <v>2</v>
       </c>
       <c r="J468" t="s">
         <v>60</v>
       </c>
       <c r="K468">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L468">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M468">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N468">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O468">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P468">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q468">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R468">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S468">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T468">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U468">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V468">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W468">
         <v>-1</v>
@@ -42198,19 +42198,19 @@
         <v>-1</v>
       </c>
       <c r="Y468">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z468">
         <v>-1</v>
       </c>
       <c r="AA468">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB468">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC468">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="469" spans="1:29">
@@ -42218,7 +42218,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C469" t="s">
         <v>28</v>
@@ -42230,56 +42230,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F469" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G469" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J469" t="s">
         <v>60</v>
       </c>
       <c r="K469">
+        <v>2.2</v>
+      </c>
+      <c r="L469">
+        <v>3.2</v>
+      </c>
+      <c r="M469">
+        <v>3.4</v>
+      </c>
+      <c r="N469">
+        <v>2.15</v>
+      </c>
+      <c r="O469">
+        <v>3.1</v>
+      </c>
+      <c r="P469">
+        <v>3.8</v>
+      </c>
+      <c r="Q469">
+        <v>-0.25</v>
+      </c>
+      <c r="R469">
+        <v>1.825</v>
+      </c>
+      <c r="S469">
+        <v>2.025</v>
+      </c>
+      <c r="T469">
+        <v>2</v>
+      </c>
+      <c r="U469">
+        <v>2</v>
+      </c>
+      <c r="V469">
         <v>1.85</v>
       </c>
-      <c r="L469">
-        <v>3.4</v>
-      </c>
-      <c r="M469">
-        <v>4.333</v>
-      </c>
-      <c r="N469">
-        <v>1.8</v>
-      </c>
-      <c r="O469">
-        <v>3.6</v>
-      </c>
-      <c r="P469">
-        <v>4.75</v>
-      </c>
-      <c r="Q469">
-        <v>-0.5</v>
-      </c>
-      <c r="R469">
-        <v>1.875</v>
-      </c>
-      <c r="S469">
-        <v>1.975</v>
-      </c>
-      <c r="T469">
-        <v>2.25</v>
-      </c>
-      <c r="U469">
-        <v>1.95</v>
-      </c>
-      <c r="V469">
-        <v>1.9</v>
-      </c>
       <c r="W469">
         <v>-1</v>
       </c>
@@ -42287,19 +42287,19 @@
         <v>-1</v>
       </c>
       <c r="Y469">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z469">
         <v>-1</v>
       </c>
       <c r="AA469">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB469">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC469">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="470" spans="1:29">
@@ -48576,10 +48576,10 @@
         <v>-0.25</v>
       </c>
       <c r="R540">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S540">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T540">
         <v>2</v>
@@ -48659,10 +48659,10 @@
         <v>2</v>
       </c>
       <c r="U541">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V541">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W541">
         <v>0</v>
@@ -48733,10 +48733,10 @@
         <v>1.75</v>
       </c>
       <c r="U542">
+        <v>1.9</v>
+      </c>
+      <c r="V542">
         <v>1.95</v>
-      </c>
-      <c r="V542">
-        <v>1.9</v>
       </c>
       <c r="W542">
         <v>0</v>
@@ -48798,10 +48798,10 @@
         <v>0.25</v>
       </c>
       <c r="R543">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S543">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T543">
         <v>2</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1717,76 +1717,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,76 +1806,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <v>-0</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>2.025</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>1.75</v>
       </c>
-      <c r="S55">
+      <c r="U55">
+        <v>1.8</v>
+      </c>
+      <c r="V55">
         <v>2.05</v>
       </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K57">
+        <v>2.2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3.3</v>
+      </c>
+      <c r="N57">
         <v>1.909</v>
       </c>
-      <c r="L57">
-        <v>3.1</v>
-      </c>
-      <c r="M57">
-        <v>4.2</v>
-      </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6837986</v>
+        <v>6836528</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N78">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6836528</v>
+        <v>6837986</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7502,76 +7502,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O79">
+        <v>3.1</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>3.75</v>
-      </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,73 +8303,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,73 +8392,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837992</v>
+        <v>6836530</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,76 +8659,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2.25</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="S92">
-        <v>2.025</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>1.8</v>
-      </c>
-      <c r="V92">
-        <v>2.05</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,76 +8748,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K93">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,52 +9638,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
+        <v>2.3</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
         <v>3.1</v>
       </c>
-      <c r="L103">
+      <c r="N103">
+        <v>2.5</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
         <v>3.1</v>
       </c>
-      <c r="M103">
-        <v>2.25</v>
-      </c>
-      <c r="N103">
-        <v>3.75</v>
-      </c>
-      <c r="O103">
-        <v>3.2</v>
-      </c>
-      <c r="P103">
-        <v>2.1</v>
-      </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
+        <v>2.125</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.75</v>
       </c>
       <c r="V103">
         <v>2.05</v>
@@ -9695,19 +9695,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,52 +9727,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>53</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.75</v>
-      </c>
-      <c r="S104">
-        <v>2.125</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
       </c>
       <c r="V104">
         <v>2.05</v>
@@ -9784,19 +9784,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6839300</v>
+        <v>6837995</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,76 +9816,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N105">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6837995</v>
+        <v>6839300</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,76 +9905,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K106">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M106">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O106">
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>1.909</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
         <v>4.5</v>
       </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>5.75</v>
-      </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.925</v>
+      </c>
+      <c r="W114">
+        <v>0.75</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.5</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.4</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>1</v>
-      </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6838122</v>
+        <v>6836543</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,46 +11685,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>5.75</v>
+      </c>
+      <c r="N126">
+        <v>1.7</v>
+      </c>
+      <c r="O126">
         <v>3.5</v>
       </c>
-      <c r="M126">
-        <v>6.5</v>
-      </c>
-      <c r="N126">
-        <v>1.6</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>2.25</v>
@@ -11736,25 +11736,25 @@
         <v>1.8</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6836543</v>
+        <v>6838122</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,46 +11774,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K127">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
         <v>2.25</v>
@@ -11825,25 +11825,25 @@
         <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>52</v>
+      </c>
+      <c r="K130">
         <v>3</v>
       </c>
-      <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>2.3</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
+      <c r="T130">
+        <v>1.75</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2.05</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.45</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>3</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.95</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>3</v>
       </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>2.45</v>
-      </c>
-      <c r="N131">
-        <v>3.5</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
-      <c r="P131">
-        <v>2.3</v>
-      </c>
-      <c r="Q131">
-        <v>0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.9</v>
-      </c>
-      <c r="S131">
-        <v>1.95</v>
-      </c>
-      <c r="T131">
-        <v>1.75</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6836546</v>
+        <v>6838126</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,13 +13554,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13569,61 +13569,61 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.75</v>
+      </c>
+      <c r="O147">
         <v>3.75</v>
       </c>
-      <c r="N147">
-        <v>1.8</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
       <c r="P147">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.75</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.5125</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2.05</v>
-      </c>
-      <c r="T147">
-        <v>1.75</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>0.8</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
       <c r="AB147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6838126</v>
+        <v>6836546</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,13 +13643,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13658,43 +13658,43 @@
         <v>54</v>
       </c>
       <c r="K148">
+        <v>2.15</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.3</v>
+      </c>
+      <c r="P148">
+        <v>5</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2.05</v>
+      </c>
+      <c r="T148">
         <v>1.75</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>4.333</v>
-      </c>
-      <c r="N148">
-        <v>1.75</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>4.5</v>
-      </c>
-      <c r="Q148">
-        <v>-0.75</v>
-      </c>
-      <c r="R148">
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
-      <c r="T148">
-        <v>2.25</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13703,16 +13703,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.4125</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,40 +14088,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K153">
+        <v>1.666</v>
+      </c>
+      <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>5</v>
+      </c>
+      <c r="N153">
         <v>1.909</v>
       </c>
-      <c r="L153">
-        <v>3.3</v>
-      </c>
-      <c r="M153">
-        <v>4.2</v>
-      </c>
-      <c r="N153">
-        <v>2.2</v>
-      </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.875</v>
@@ -14130,7 +14130,7 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>2.025</v>
@@ -14139,25 +14139,25 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14177,40 +14177,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K154">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L154">
+        <v>3.3</v>
+      </c>
+      <c r="M154">
+        <v>4.2</v>
+      </c>
+      <c r="N154">
+        <v>2.2</v>
+      </c>
+      <c r="O154">
+        <v>3.1</v>
+      </c>
+      <c r="P154">
         <v>3.6</v>
       </c>
-      <c r="M154">
-        <v>5</v>
-      </c>
-      <c r="N154">
-        <v>1.909</v>
-      </c>
-      <c r="O154">
-        <v>3.4</v>
-      </c>
-      <c r="P154">
-        <v>4.333</v>
-      </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14219,7 +14219,7 @@
         <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14228,25 +14228,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O175">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K176">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N176">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P176">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.75</v>
+      </c>
+      <c r="N179">
+        <v>2.1</v>
+      </c>
+      <c r="O179">
         <v>3.1</v>
       </c>
-      <c r="M179">
-        <v>2.625</v>
-      </c>
-      <c r="N179">
-        <v>2.55</v>
-      </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
         <v>1.75</v>
       </c>
-      <c r="S179">
-        <v>2.125</v>
-      </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.75</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O180">
+        <v>2.9</v>
+      </c>
+      <c r="P180">
         <v>3.1</v>
       </c>
-      <c r="P180">
-        <v>3.8</v>
-      </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
+        <v>2.125</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
         <v>2.05</v>
       </c>
-      <c r="S180">
-        <v>1.75</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>2.025</v>
-      </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.5</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>2.6</v>
-      </c>
-      <c r="N181">
-        <v>2.6</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.85</v>
       </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L182">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
+        <v>2.6</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.7</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
+      <c r="T182">
         <v>2.5</v>
       </c>
-      <c r="N182">
-        <v>3.6</v>
-      </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
-      <c r="P182">
-        <v>2.2</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>1.95</v>
-      </c>
-      <c r="S182">
-        <v>1.9</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6836554</v>
+        <v>6838136</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P190">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6838136</v>
+        <v>6836554</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17470,58 +17470,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>54</v>
       </c>
       <c r="K191">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N191">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O191">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17530,16 +17530,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,61 +19428,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N213">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P213">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
         <v>2.025</v>
       </c>
-      <c r="S213">
-        <v>1.825</v>
-      </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19491,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,62 +19517,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N214">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>2.025</v>
+      </c>
+      <c r="S214">
         <v>1.825</v>
       </c>
-      <c r="S214">
-        <v>2.025</v>
-      </c>
       <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>1.8</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
         <v>2.25</v>
       </c>
-      <c r="U214">
-        <v>1.925</v>
-      </c>
-      <c r="V214">
-        <v>1.925</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>2.75</v>
-      </c>
       <c r="Y214">
         <v>-1</v>
       </c>
@@ -19580,13 +19580,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L220">
         <v>3</v>
       </c>
       <c r="M220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N220">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O220">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
         <v>1.75</v>
       </c>
       <c r="U220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y220">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L221">
         <v>3</v>
       </c>
       <c r="M221">
+        <v>3.4</v>
+      </c>
+      <c r="N221">
+        <v>2.3</v>
+      </c>
+      <c r="O221">
+        <v>2.875</v>
+      </c>
+      <c r="P221">
         <v>3.6</v>
       </c>
-      <c r="N221">
-        <v>2</v>
-      </c>
-      <c r="O221">
-        <v>3</v>
-      </c>
-      <c r="P221">
-        <v>4.5</v>
-      </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB221">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>3.1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
         <v>3.75</v>
       </c>
-      <c r="M228">
-        <v>5.5</v>
-      </c>
-      <c r="N228">
-        <v>1.65</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>5.5</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>2.025</v>
+      </c>
+      <c r="S228">
         <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X228">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
         <v>2.025</v>
-      </c>
-      <c r="S229">
-        <v>1.825</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
         <v>1.025</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6838052</v>
+        <v>6838146</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,61 +20941,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>52</v>
       </c>
       <c r="K230">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L230">
         <v>3.75</v>
       </c>
       <c r="M230">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N230">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21004,13 +21004,13 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6838146</v>
+        <v>6838052</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,61 +21030,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
         <v>52</v>
       </c>
       <c r="K231">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L231">
         <v>3.75</v>
       </c>
       <c r="M231">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N231">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21093,13 +21093,13 @@
         <v>-1</v>
       </c>
       <c r="AA231">
+        <v>1.025</v>
+      </c>
+      <c r="AB231">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
       <c r="AC231">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
+        <v>4.2</v>
+      </c>
+      <c r="N233">
+        <v>1.909</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
         <v>4</v>
       </c>
-      <c r="N233">
-        <v>2.3</v>
-      </c>
-      <c r="O233">
-        <v>2.8</v>
-      </c>
-      <c r="P233">
-        <v>3.6</v>
-      </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
         <v>1.975</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.875</v>
       </c>
-      <c r="T233">
-        <v>1.75</v>
-      </c>
-      <c r="U233">
-        <v>2.05</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AA233">
+      <c r="AC233">
         <v>0.4375</v>
-      </c>
-      <c r="AB233">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N234">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.875</v>
+      </c>
+      <c r="T234">
+        <v>1.75</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>1.8</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
         <v>-0.5</v>
       </c>
-      <c r="R234">
-        <v>1.95</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>2.5</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB234">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC234">
         <v>-0.5</v>
-      </c>
-      <c r="AC234">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K235">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236">
+        <v>2.6</v>
+      </c>
+      <c r="L236">
+        <v>3.2</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236" t="s">
-        <v>54</v>
-      </c>
-      <c r="K236">
-        <v>2.2</v>
-      </c>
-      <c r="L236">
-        <v>3.1</v>
-      </c>
-      <c r="M236">
-        <v>3.6</v>
-      </c>
-      <c r="N236">
-        <v>2.05</v>
-      </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,55 +21564,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>1</v>
-      </c>
-      <c r="I237">
-        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N237">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,56 +21653,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
+        <v>2.2</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>3.4</v>
+      </c>
+      <c r="N238">
+        <v>2.15</v>
+      </c>
+      <c r="O238">
+        <v>3.1</v>
+      </c>
+      <c r="P238">
+        <v>3.8</v>
+      </c>
+      <c r="Q238">
+        <v>-0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>4.333</v>
-      </c>
-      <c r="N238">
-        <v>1.8</v>
-      </c>
-      <c r="O238">
-        <v>3.6</v>
-      </c>
-      <c r="P238">
-        <v>4.75</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.875</v>
-      </c>
-      <c r="S238">
-        <v>1.975</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.95</v>
-      </c>
-      <c r="V238">
-        <v>1.9</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N251">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
         <v>1</v>
       </c>
-      <c r="I253">
-        <v>2</v>
-      </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L253">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P253">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
+        <v>1.9</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
         <v>1.825</v>
       </c>
-      <c r="S253">
+      <c r="V253">
         <v>2.025</v>
       </c>
-      <c r="T253">
-        <v>1.75</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA253">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L254">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M254">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O254">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P254">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W254">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23777,7 +23777,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7729196</v>
+        <v>7729202</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23789,67 +23789,67 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F262" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K262">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M262">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N262">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O262">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P262">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q262">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X262">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA262">
         <v>-0.5</v>
@@ -23858,7 +23858,7 @@
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23866,7 +23866,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7729202</v>
+        <v>7729196</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23878,67 +23878,67 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F263" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K263">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L263">
+        <v>3</v>
+      </c>
+      <c r="M263">
+        <v>2.5</v>
+      </c>
+      <c r="N263">
         <v>3.1</v>
       </c>
-      <c r="M263">
-        <v>4.5</v>
-      </c>
-      <c r="N263">
-        <v>1.8</v>
-      </c>
       <c r="O263">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P263">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
+        <v>2.125</v>
+      </c>
+      <c r="T263">
+        <v>1.75</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="T263">
-        <v>2</v>
-      </c>
-      <c r="U263">
-        <v>1.8</v>
-      </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA263">
         <v>-0.5</v>
@@ -23947,7 +23947,7 @@
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P274">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L275">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P275">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7759323</v>
+        <v>7759317</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,49 +25302,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K279">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M279">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O279">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
         <v>1.975</v>
@@ -25356,22 +25356,22 @@
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7759317</v>
+        <v>7759323</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,49 +25391,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M280">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N280">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P280">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U280">
         <v>1.975</v>
@@ -25445,22 +25445,22 @@
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y280">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC280">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6839267</v>
+        <v>6836570</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K284">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>2.2</v>
+      </c>
+      <c r="N284">
+        <v>4.2</v>
+      </c>
+      <c r="O284">
+        <v>3.1</v>
+      </c>
+      <c r="P284">
+        <v>2.05</v>
+      </c>
+      <c r="Q284">
+        <v>0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
+        <v>2</v>
+      </c>
+      <c r="U284">
+        <v>2.05</v>
+      </c>
+      <c r="V284">
+        <v>1.8</v>
+      </c>
+      <c r="W284">
         <v>3.2</v>
       </c>
-      <c r="M284">
-        <v>3.6</v>
-      </c>
-      <c r="N284">
-        <v>2.1</v>
-      </c>
-      <c r="O284">
-        <v>3</v>
-      </c>
-      <c r="P284">
-        <v>4.2</v>
-      </c>
-      <c r="Q284">
-        <v>-0.25</v>
-      </c>
-      <c r="R284">
-        <v>1.775</v>
-      </c>
-      <c r="S284">
-        <v>2.1</v>
-      </c>
-      <c r="T284">
-        <v>1.75</v>
-      </c>
-      <c r="U284">
-        <v>1.9</v>
-      </c>
-      <c r="V284">
-        <v>1.95</v>
-      </c>
-      <c r="W284">
-        <v>-1</v>
-      </c>
       <c r="X284">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA284">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6836570</v>
+        <v>6839267</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K285">
+        <v>2.1</v>
+      </c>
+      <c r="L285">
+        <v>3.2</v>
+      </c>
+      <c r="M285">
         <v>3.6</v>
       </c>
-      <c r="L285">
+      <c r="N285">
+        <v>2.1</v>
+      </c>
+      <c r="O285">
         <v>3</v>
       </c>
-      <c r="M285">
-        <v>2.2</v>
-      </c>
-      <c r="N285">
+      <c r="P285">
         <v>4.2</v>
       </c>
-      <c r="O285">
-        <v>3.1</v>
-      </c>
-      <c r="P285">
-        <v>2.05</v>
-      </c>
       <c r="Q285">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
+        <v>2.6</v>
+      </c>
+      <c r="L289">
+        <v>2.9</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
         <v>2.25</v>
       </c>
-      <c r="L289">
-        <v>3.1</v>
-      </c>
-      <c r="M289">
-        <v>3.4</v>
-      </c>
-      <c r="N289">
+      <c r="O289">
         <v>3</v>
       </c>
-      <c r="O289">
-        <v>2.875</v>
-      </c>
       <c r="P289">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q289">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L290">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
+        <v>3.4</v>
+      </c>
+      <c r="N290">
         <v>3</v>
       </c>
-      <c r="N290">
-        <v>2.25</v>
-      </c>
       <c r="O290">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P290">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V290">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838163</v>
+        <v>6838080</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,76 +26726,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K295">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L295">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N295">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O295">
         <v>3.3</v>
       </c>
       <c r="P295">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X295">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6838080</v>
+        <v>6838163</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,76 +26815,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H296">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K296">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L296">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M296">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N296">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O296">
         <v>3.3</v>
       </c>
       <c r="P296">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q296">
+        <v>-0.75</v>
+      </c>
+      <c r="R296">
+        <v>2.025</v>
+      </c>
+      <c r="S296">
+        <v>1.825</v>
+      </c>
+      <c r="T296">
+        <v>2.25</v>
+      </c>
+      <c r="U296">
+        <v>1.925</v>
+      </c>
+      <c r="V296">
+        <v>1.925</v>
+      </c>
+      <c r="W296">
+        <v>-1</v>
+      </c>
+      <c r="X296">
+        <v>2.3</v>
+      </c>
+      <c r="Y296">
+        <v>-1</v>
+      </c>
+      <c r="Z296">
+        <v>-1</v>
+      </c>
+      <c r="AA296">
+        <v>0.825</v>
+      </c>
+      <c r="AB296">
         <v>-0.5</v>
       </c>
-      <c r="R296">
-        <v>1.9</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>2</v>
-      </c>
-      <c r="U296">
-        <v>1.8</v>
-      </c>
-      <c r="V296">
-        <v>2.05</v>
-      </c>
-      <c r="W296">
-        <v>0.909</v>
-      </c>
-      <c r="X296">
-        <v>-1</v>
-      </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
-      <c r="Z296">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA296">
-        <v>-1</v>
-      </c>
-      <c r="AB296">
-        <v>0.8</v>
-      </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27159,7 +27159,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6836571</v>
+        <v>6839266</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27171,76 +27171,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F300" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G300" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300" t="s">
+        <v>52</v>
+      </c>
+      <c r="K300">
+        <v>2.3</v>
+      </c>
+      <c r="L300">
+        <v>2.9</v>
+      </c>
+      <c r="M300">
+        <v>3.5</v>
+      </c>
+      <c r="N300">
+        <v>2.4</v>
+      </c>
+      <c r="O300">
         <v>3</v>
       </c>
-      <c r="I300">
-        <v>0</v>
-      </c>
-      <c r="J300" t="s">
-        <v>54</v>
-      </c>
-      <c r="K300">
-        <v>1.5</v>
-      </c>
-      <c r="L300">
-        <v>3.75</v>
-      </c>
-      <c r="M300">
-        <v>7.5</v>
-      </c>
-      <c r="N300">
-        <v>1.85</v>
-      </c>
-      <c r="O300">
-        <v>3.1</v>
-      </c>
       <c r="P300">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q300">
+        <v>-0.25</v>
+      </c>
+      <c r="R300">
+        <v>2.025</v>
+      </c>
+      <c r="S300">
+        <v>1.825</v>
+      </c>
+      <c r="T300">
+        <v>2</v>
+      </c>
+      <c r="U300">
+        <v>1.8</v>
+      </c>
+      <c r="V300">
+        <v>2.05</v>
+      </c>
+      <c r="W300">
+        <v>-1</v>
+      </c>
+      <c r="X300">
+        <v>2</v>
+      </c>
+      <c r="Y300">
+        <v>-1</v>
+      </c>
+      <c r="Z300">
         <v>-0.5</v>
       </c>
-      <c r="R300">
-        <v>1.875</v>
-      </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
-      <c r="T300">
-        <v>1.75</v>
-      </c>
-      <c r="U300">
-        <v>1.825</v>
-      </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
-      <c r="W300">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X300">
-        <v>-1</v>
-      </c>
-      <c r="Y300">
-        <v>-1</v>
-      </c>
-      <c r="Z300">
-        <v>0.875</v>
-      </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB300">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27248,7 +27248,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6839266</v>
+        <v>6836571</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27260,76 +27260,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F301" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I301">
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K301">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L301">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N301">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O301">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P301">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
+        <v>1.875</v>
+      </c>
+      <c r="S301">
+        <v>1.975</v>
+      </c>
+      <c r="T301">
+        <v>1.75</v>
+      </c>
+      <c r="U301">
+        <v>1.825</v>
+      </c>
+      <c r="V301">
         <v>2.025</v>
       </c>
-      <c r="S301">
-        <v>1.825</v>
-      </c>
-      <c r="T301">
-        <v>2</v>
-      </c>
-      <c r="U301">
-        <v>1.8</v>
-      </c>
-      <c r="V301">
-        <v>2.05</v>
-      </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA301">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC301">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838083</v>
+        <v>6838084</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,40 +27794,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F307" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>52</v>
+      </c>
+      <c r="K307">
+        <v>3.2</v>
+      </c>
+      <c r="L307">
         <v>3</v>
       </c>
-      <c r="J307" t="s">
-        <v>53</v>
-      </c>
-      <c r="K307">
-        <v>2</v>
-      </c>
-      <c r="L307">
-        <v>3.3</v>
-      </c>
       <c r="M307">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N307">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O307">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
         <v>1.925</v>
@@ -27836,34 +27836,34 @@
         <v>1.925</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V307">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y307">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA307">
+        <v>-0</v>
+      </c>
+      <c r="AB307">
+        <v>-1</v>
+      </c>
+      <c r="AC307">
         <v>0.925</v>
-      </c>
-      <c r="AB307">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6838084</v>
+        <v>6838083</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,40 +27883,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G308" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
+        <v>3.75</v>
+      </c>
+      <c r="N308">
+        <v>2</v>
+      </c>
+      <c r="O308">
         <v>3.2</v>
       </c>
-      <c r="L308">
-        <v>3</v>
-      </c>
-      <c r="M308">
-        <v>2.45</v>
-      </c>
-      <c r="N308">
-        <v>2.8</v>
-      </c>
-      <c r="O308">
-        <v>2.9</v>
-      </c>
       <c r="P308">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
         <v>1.925</v>
@@ -27925,34 +27925,34 @@
         <v>1.925</v>
       </c>
       <c r="T308">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V308">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K310">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N310">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O310">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P310">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X310">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G311" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K311">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N311">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O311">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P311">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R311">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S311">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T311">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U311">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC311">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28422,6 +28422,15 @@
       <c r="G314" t="s">
         <v>49</v>
       </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>3</v>
+      </c>
+      <c r="J314" t="s">
+        <v>53</v>
+      </c>
       <c r="K314">
         <v>2.1</v>
       </c>
@@ -28432,46 +28441,52 @@
         <v>4</v>
       </c>
       <c r="N314">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O314">
         <v>2.8</v>
       </c>
       <c r="P314">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q314">
         <v>-0.25</v>
       </c>
       <c r="R314">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S314">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T314">
         <v>1.75</v>
       </c>
       <c r="U314">
+        <v>1.975</v>
+      </c>
+      <c r="V314">
         <v>1.875</v>
       </c>
-      <c r="V314">
-        <v>1.975</v>
-      </c>
       <c r="W314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y314">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z314">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA314">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB314">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC314">
+        <v>-1</v>
       </c>
     </row>
     <row r="315" spans="1:29">
@@ -28506,31 +28521,31 @@
         <v>3.25</v>
       </c>
       <c r="N315">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O315">
         <v>3.1</v>
       </c>
       <c r="P315">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q315">
         <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S315">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T315">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U315">
+        <v>2.05</v>
+      </c>
+      <c r="V315">
         <v>1.8</v>
-      </c>
-      <c r="V315">
-        <v>2.05</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28601,10 +28616,10 @@
         <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V316">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28666,19 +28681,19 @@
         <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S317">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V317">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28728,31 +28743,31 @@
         <v>4.75</v>
       </c>
       <c r="N318">
+        <v>1.75</v>
+      </c>
+      <c r="O318">
+        <v>3.25</v>
+      </c>
+      <c r="P318">
+        <v>5</v>
+      </c>
+      <c r="Q318">
+        <v>-0.75</v>
+      </c>
+      <c r="R318">
+        <v>2.05</v>
+      </c>
+      <c r="S318">
         <v>1.8</v>
       </c>
-      <c r="O318">
-        <v>3.3</v>
-      </c>
-      <c r="P318">
-        <v>4.75</v>
-      </c>
-      <c r="Q318">
-        <v>-0.5</v>
-      </c>
-      <c r="R318">
-        <v>1.8</v>
-      </c>
-      <c r="S318">
-        <v>2.05</v>
-      </c>
       <c r="T318">
         <v>2</v>
       </c>
       <c r="U318">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V318">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28802,31 +28817,31 @@
         <v>3.8</v>
       </c>
       <c r="N319">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O319">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P319">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q319">
         <v>-0.5</v>
       </c>
       <c r="R319">
+        <v>2</v>
+      </c>
+      <c r="S319">
+        <v>1.85</v>
+      </c>
+      <c r="T319">
+        <v>2.25</v>
+      </c>
+      <c r="U319">
         <v>2.1</v>
       </c>
-      <c r="S319">
+      <c r="V319">
         <v>1.775</v>
-      </c>
-      <c r="T319">
-        <v>2</v>
-      </c>
-      <c r="U319">
-        <v>1.9</v>
-      </c>
-      <c r="V319">
-        <v>1.95</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28888,19 +28903,19 @@
         <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S320">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T320">
         <v>2</v>
       </c>
       <c r="U320">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V320">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28950,31 +28965,31 @@
         <v>2.5</v>
       </c>
       <c r="N321">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O321">
         <v>3</v>
       </c>
       <c r="P321">
-        <v>2.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q321">
         <v>0</v>
       </c>
       <c r="R321">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S321">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
         <v>2</v>
       </c>
       <c r="U321">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V321">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29024,31 +29039,31 @@
         <v>3.75</v>
       </c>
       <c r="N322">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O322">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P322">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q322">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R322">
+        <v>1.925</v>
+      </c>
+      <c r="S322">
+        <v>1.925</v>
+      </c>
+      <c r="T322">
+        <v>2</v>
+      </c>
+      <c r="U322">
+        <v>2.025</v>
+      </c>
+      <c r="V322">
         <v>1.825</v>
-      </c>
-      <c r="S322">
-        <v>2.025</v>
-      </c>
-      <c r="T322">
-        <v>2</v>
-      </c>
-      <c r="U322">
-        <v>1.975</v>
-      </c>
-      <c r="V322">
-        <v>1.875</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29098,31 +29113,31 @@
         <v>7</v>
       </c>
       <c r="N323">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O323">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P323">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q323">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R323">
+        <v>1.8</v>
+      </c>
+      <c r="S323">
+        <v>2.05</v>
+      </c>
+      <c r="T323">
+        <v>2</v>
+      </c>
+      <c r="U323">
         <v>2.025</v>
       </c>
-      <c r="S323">
+      <c r="V323">
         <v>1.825</v>
-      </c>
-      <c r="T323">
-        <v>2</v>
-      </c>
-      <c r="U323">
-        <v>1.875</v>
-      </c>
-      <c r="V323">
-        <v>1.975</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29172,10 +29187,10 @@
         <v>3.1</v>
       </c>
       <c r="N324">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="O324">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P324">
         <v>3.1</v>
@@ -29193,10 +29208,10 @@
         <v>2</v>
       </c>
       <c r="U324">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V324">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W324">
         <v>0</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC324"/>
+  <dimension ref="A1:AC325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>-0</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3663,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6837969</v>
+        <v>6836522</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3675,76 +3675,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <v>2.3</v>
       </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q36">
         <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6836522</v>
+        <v>6837969</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
         <v>2.3</v>
       </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q37">
         <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7135891</v>
+        <v>6836524</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4832,58 +4832,58 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>54</v>
       </c>
       <c r="K49">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4892,16 +4892,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4909,7 +4909,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6836524</v>
+        <v>7135891</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4921,58 +4921,58 @@
         <v>45172.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L50">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4981,16 +4981,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
         <v>-0</v>
-      </c>
-      <c r="AB50">
-        <v>0.825</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
+        <v>2.025</v>
+      </c>
+      <c r="S56">
+        <v>1.825</v>
+      </c>
+      <c r="T56">
         <v>1.75</v>
       </c>
-      <c r="S56">
+      <c r="U56">
+        <v>1.8</v>
+      </c>
+      <c r="V56">
         <v>2.05</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6838107</v>
+        <v>6837974</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,31 +5722,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59">
+        <v>2.9</v>
+      </c>
+      <c r="L59">
+        <v>2.9</v>
+      </c>
+      <c r="M59">
+        <v>2.5</v>
+      </c>
+      <c r="N59">
         <v>3</v>
-      </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
-      <c r="M59">
-        <v>2.375</v>
-      </c>
-      <c r="N59">
-        <v>2.9</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5758,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6837974</v>
+        <v>6838107</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,31 +5811,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>2.375</v>
+      </c>
+      <c r="N60">
         <v>2.9</v>
-      </c>
-      <c r="L60">
-        <v>2.9</v>
-      </c>
-      <c r="M60">
-        <v>2.5</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5847,37 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
+        <v>1.825</v>
+      </c>
+      <c r="W60">
         <v>1.9</v>
       </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6836526</v>
+        <v>7184008</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,40 +6256,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6298,34 +6298,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7184008</v>
+        <v>6836526</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,40 +6345,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66">
+        <v>3.4</v>
+      </c>
+      <c r="L66">
+        <v>2.9</v>
+      </c>
+      <c r="M66">
         <v>2.2</v>
       </c>
-      <c r="L66">
+      <c r="N66">
+        <v>2.3</v>
+      </c>
+      <c r="O66">
         <v>3</v>
       </c>
-      <c r="M66">
-        <v>3.3</v>
-      </c>
-      <c r="N66">
-        <v>1.75</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6387,34 +6387,34 @@
         <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z66">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6836528</v>
+        <v>6837986</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O78">
+        <v>3.1</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>3.75</v>
-      </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6837986</v>
+        <v>6836528</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7502,76 +7502,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K79">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N79">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6839305</v>
+        <v>6837987</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7858,10 +7858,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7873,43 +7873,43 @@
         <v>54</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
+        <v>2.875</v>
+      </c>
+      <c r="N83">
         <v>2.5</v>
-      </c>
-      <c r="N83">
-        <v>2.25</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7927,7 +7927,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6837987</v>
+        <v>6839305</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,10 +7947,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7962,43 +7962,43 @@
         <v>54</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
         <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -8016,7 +8016,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,73 +8303,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,73 +8392,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,76 +8659,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L92">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6837992</v>
+        <v>6836530</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,76 +8748,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R93">
+        <v>1.85</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>2.25</v>
+      </c>
+      <c r="U93">
+        <v>2.025</v>
+      </c>
+      <c r="V93">
         <v>1.825</v>
       </c>
-      <c r="S93">
-        <v>2.025</v>
-      </c>
-      <c r="T93">
-        <v>2</v>
-      </c>
-      <c r="U93">
-        <v>1.8</v>
-      </c>
-      <c r="V93">
-        <v>2.05</v>
-      </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y93">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y96">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6839301</v>
+        <v>6838118</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,76 +9282,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K99">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>2.025</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838118</v>
+        <v>6839301</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,76 +9371,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K100">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N100">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.95</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.825</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6837996</v>
+        <v>6837994</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9460,13 +9460,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9475,43 +9475,43 @@
         <v>54</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W101">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9520,16 +9520,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6837994</v>
+        <v>6837996</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9549,13 +9549,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9564,43 +9564,43 @@
         <v>54</v>
       </c>
       <c r="K102">
+        <v>2.5</v>
+      </c>
+      <c r="L102">
+        <v>3.1</v>
+      </c>
+      <c r="M102">
+        <v>2.7</v>
+      </c>
+      <c r="N102">
         <v>2.375</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>3</v>
       </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>2.9</v>
-      </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9609,16 +9609,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.925</v>
+      </c>
+      <c r="V113">
+        <v>1.925</v>
+      </c>
+      <c r="W113">
+        <v>0.75</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.5</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.85</v>
-      </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2.05</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.4</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>1</v>
-      </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
+        <v>3.6</v>
+      </c>
+      <c r="N114">
+        <v>1.909</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
         <v>4.5</v>
       </c>
-      <c r="N114">
-        <v>1.75</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>5.75</v>
-      </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6839297</v>
+        <v>6836542</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11507,76 +11507,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2.9</v>
       </c>
       <c r="M124">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P124">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.9</v>
       </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6836542</v>
+        <v>6839297</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,76 +11596,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L125">
         <v>2.9</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N125">
+        <v>3.5</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
         <v>2.2</v>
       </c>
-      <c r="O125">
-        <v>2.9</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>1.95</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>4</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>1.925</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
         <v>3</v>
       </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
-        <v>2.45</v>
-      </c>
-      <c r="N130">
-        <v>3.5</v>
-      </c>
-      <c r="O130">
-        <v>3.1</v>
-      </c>
-      <c r="P130">
-        <v>2.3</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.9</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2.1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
       <c r="Z130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>52</v>
+      </c>
+      <c r="K131">
         <v>3</v>
       </c>
-      <c r="J131" t="s">
-        <v>53</v>
-      </c>
-      <c r="K131">
-        <v>2</v>
-      </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N131">
+        <v>3.5</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>2.3</v>
+      </c>
+      <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
         <v>1.95</v>
       </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>4</v>
-      </c>
-      <c r="Q131">
+      <c r="T131">
+        <v>1.75</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2.05</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.45</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.9</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>3</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,19 +12575,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12596,52 +12596,52 @@
         <v>3.2</v>
       </c>
       <c r="M136">
+        <v>3.75</v>
+      </c>
+      <c r="N136">
+        <v>2.15</v>
+      </c>
+      <c r="O136">
+        <v>3.2</v>
+      </c>
+      <c r="P136">
         <v>3.6</v>
       </c>
-      <c r="N136">
-        <v>2.05</v>
-      </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,19 +12664,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12685,52 +12685,52 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,10 +13109,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13124,43 +13124,43 @@
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,16 +13169,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13198,10 +13198,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,43 +13213,43 @@
         <v>54</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13258,16 +13258,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6838126</v>
+        <v>6836546</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,13 +13554,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13569,43 +13569,43 @@
         <v>54</v>
       </c>
       <c r="K147">
+        <v>2.15</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>3.75</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>5</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
+        <v>2.05</v>
+      </c>
+      <c r="T147">
         <v>1.75</v>
       </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
-      <c r="M147">
-        <v>4.333</v>
-      </c>
-      <c r="N147">
-        <v>1.75</v>
-      </c>
-      <c r="O147">
-        <v>3.75</v>
-      </c>
-      <c r="P147">
-        <v>4.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.75</v>
-      </c>
-      <c r="R147">
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="S147">
-        <v>1.825</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13614,16 +13614,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>0.4125</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6836546</v>
+        <v>6838126</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,13 +13643,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13658,61 +13658,61 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
       <c r="P148">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
+        <v>-0.75</v>
+      </c>
+      <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>0.75</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.5125</v>
+      </c>
+      <c r="AA148">
         <v>-0.5</v>
       </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2.05</v>
-      </c>
-      <c r="T148">
-        <v>1.75</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>0.8</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.8</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,40 +14088,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>4.2</v>
+      </c>
+      <c r="N153">
+        <v>2.2</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
         <v>3.6</v>
       </c>
-      <c r="M153">
-        <v>5</v>
-      </c>
-      <c r="N153">
-        <v>1.909</v>
-      </c>
-      <c r="O153">
-        <v>3.4</v>
-      </c>
-      <c r="P153">
-        <v>4.333</v>
-      </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
         <v>1.875</v>
@@ -14130,7 +14130,7 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U153">
         <v>2.025</v>
@@ -14139,25 +14139,25 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14177,40 +14177,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K154">
+        <v>1.666</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
         <v>1.909</v>
       </c>
-      <c r="L154">
-        <v>3.3</v>
-      </c>
-      <c r="M154">
-        <v>4.2</v>
-      </c>
-      <c r="N154">
-        <v>2.2</v>
-      </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14219,7 +14219,7 @@
         <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14228,25 +14228,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6838024</v>
+        <v>6839289</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
+        <v>3.1</v>
+      </c>
+      <c r="M164">
+        <v>3.1</v>
+      </c>
+      <c r="N164">
+        <v>2.4</v>
+      </c>
+      <c r="O164">
+        <v>3.1</v>
+      </c>
+      <c r="P164">
         <v>3.2</v>
       </c>
-      <c r="M164">
-        <v>3.75</v>
-      </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>3.3</v>
-      </c>
-      <c r="P164">
-        <v>4</v>
-      </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.825</v>
+      </c>
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>2.05</v>
-      </c>
-      <c r="V164">
-        <v>1.8</v>
-      </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6839289</v>
+        <v>6838024</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838026</v>
+        <v>6838028</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
         <v>1.975</v>
       </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
         <v>1.95</v>
       </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y169">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838028</v>
+        <v>6838026</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.975</v>
+      </c>
+      <c r="S170">
         <v>1.875</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
       <c r="T170">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.9</v>
       </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z170">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16924,7 +16924,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16936,76 +16936,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K185">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L185">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.975</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>1.775</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>2.1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
         <v>-0.5</v>
       </c>
-      <c r="R185">
-        <v>1.8</v>
-      </c>
-      <c r="S185">
-        <v>2.05</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.925</v>
-      </c>
-      <c r="V185">
-        <v>1.925</v>
-      </c>
-      <c r="W185">
-        <v>0.8</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>0.8</v>
-      </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA186">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6839284</v>
+        <v>6838037</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>54</v>
+      </c>
+      <c r="K196">
+        <v>3.6</v>
+      </c>
+      <c r="L196">
+        <v>3.25</v>
+      </c>
+      <c r="M196">
+        <v>2.1</v>
+      </c>
+      <c r="N196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>53</v>
-      </c>
-      <c r="K196">
-        <v>2.15</v>
-      </c>
-      <c r="L196">
-        <v>3.1</v>
-      </c>
-      <c r="M196">
-        <v>3.6</v>
-      </c>
-      <c r="N196">
-        <v>2.3</v>
-      </c>
       <c r="O196">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T196">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6838037</v>
+        <v>6839284</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,76 +18004,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
+        <v>2.15</v>
+      </c>
+      <c r="L197">
+        <v>3.1</v>
+      </c>
+      <c r="M197">
         <v>3.6</v>
       </c>
-      <c r="L197">
-        <v>3.25</v>
-      </c>
-      <c r="M197">
+      <c r="N197">
+        <v>2.3</v>
+      </c>
+      <c r="O197">
+        <v>2.9</v>
+      </c>
+      <c r="P197">
+        <v>3.4</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>1.85</v>
+      </c>
+      <c r="T197">
+        <v>1.75</v>
+      </c>
+      <c r="U197">
+        <v>1.775</v>
+      </c>
+      <c r="V197">
         <v>2.1</v>
       </c>
-      <c r="N197">
-        <v>3</v>
-      </c>
-      <c r="O197">
-        <v>3.2</v>
-      </c>
-      <c r="P197">
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>2.4</v>
       </c>
-      <c r="Q197">
-        <v>0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.775</v>
-      </c>
-      <c r="S197">
-        <v>2.1</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.8</v>
-      </c>
-      <c r="V197">
-        <v>2.05</v>
-      </c>
-      <c r="W197">
-        <v>2</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB197">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
       <c r="AC197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,62 +19428,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
         <v>1.825</v>
       </c>
-      <c r="S213">
-        <v>2.025</v>
-      </c>
       <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>2.25</v>
       </c>
-      <c r="U213">
-        <v>1.925</v>
-      </c>
-      <c r="V213">
-        <v>1.925</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.75</v>
-      </c>
       <c r="Y213">
         <v>-1</v>
       </c>
@@ -19491,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,61 +19517,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N214">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
         <v>2.025</v>
       </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -19580,13 +19580,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L220">
         <v>3</v>
       </c>
       <c r="M220">
+        <v>3.4</v>
+      </c>
+      <c r="N220">
+        <v>2.3</v>
+      </c>
+      <c r="O220">
+        <v>2.875</v>
+      </c>
+      <c r="P220">
         <v>3.6</v>
       </c>
-      <c r="N220">
-        <v>2</v>
-      </c>
-      <c r="O220">
-        <v>3</v>
-      </c>
-      <c r="P220">
-        <v>4.5</v>
-      </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>1.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
         <v>3</v>
       </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O221">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P221">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
         <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y221">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N233">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P233">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>1.875</v>
+      </c>
+      <c r="T233">
+        <v>1.75</v>
+      </c>
+      <c r="U233">
+        <v>2.05</v>
+      </c>
+      <c r="V233">
+        <v>1.8</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>1.8</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
         <v>-0.5</v>
       </c>
-      <c r="R233">
-        <v>1.95</v>
-      </c>
-      <c r="S233">
-        <v>1.9</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.875</v>
-      </c>
-      <c r="W233">
-        <v>-1</v>
-      </c>
-      <c r="X233">
-        <v>2.5</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>-1</v>
-      </c>
       <c r="AA233">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB233">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC233">
         <v>-0.5</v>
-      </c>
-      <c r="AC233">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
+        <v>4.2</v>
+      </c>
+      <c r="N234">
+        <v>1.909</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
         <v>4</v>
       </c>
-      <c r="N234">
-        <v>2.3</v>
-      </c>
-      <c r="O234">
-        <v>2.8</v>
-      </c>
-      <c r="P234">
-        <v>3.6</v>
-      </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>1.9</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
         <v>1.975</v>
       </c>
-      <c r="S234">
+      <c r="V234">
         <v>1.875</v>
       </c>
-      <c r="T234">
-        <v>1.75</v>
-      </c>
-      <c r="U234">
-        <v>2.05</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
-      </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB234">
         <v>-0.5</v>
       </c>
-      <c r="AA234">
+      <c r="AC234">
         <v>0.4375</v>
-      </c>
-      <c r="AB234">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC234">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6838054</v>
+        <v>6839275</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,49 +22187,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N244">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O244">
+        <v>3.1</v>
+      </c>
+      <c r="P244">
         <v>2.9</v>
       </c>
-      <c r="P244">
-        <v>2.7</v>
-      </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
         <v>2.05</v>
       </c>
-      <c r="S244">
-        <v>1.8</v>
-      </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
         <v>2.05</v>
@@ -22238,19 +22238,19 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6839275</v>
+        <v>6838054</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,49 +22276,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N245">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O245">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
+        <v>2.05</v>
+      </c>
+      <c r="S245">
         <v>1.8</v>
       </c>
-      <c r="S245">
-        <v>2.05</v>
-      </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>2.05</v>
@@ -22327,19 +22327,19 @@
         <v>1.8</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X245">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K251">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K252">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N252">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L253">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O253">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W253">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
         <v>1</v>
       </c>
-      <c r="I254">
-        <v>2</v>
-      </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L254">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M254">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
+        <v>1.9</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
         <v>1.825</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.025</v>
       </c>
-      <c r="T254">
-        <v>1.75</v>
-      </c>
-      <c r="U254">
-        <v>1.8</v>
-      </c>
-      <c r="V254">
-        <v>2.05</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23777,7 +23777,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7729202</v>
+        <v>7729196</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23789,67 +23789,67 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F262" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G262" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K262">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L262">
+        <v>3</v>
+      </c>
+      <c r="M262">
+        <v>2.5</v>
+      </c>
+      <c r="N262">
         <v>3.1</v>
       </c>
-      <c r="M262">
-        <v>4.5</v>
-      </c>
-      <c r="N262">
-        <v>1.8</v>
-      </c>
       <c r="O262">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P262">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q262">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R262">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S262">
+        <v>2.125</v>
+      </c>
+      <c r="T262">
+        <v>1.75</v>
+      </c>
+      <c r="U262">
         <v>1.85</v>
       </c>
-      <c r="T262">
-        <v>2</v>
-      </c>
-      <c r="U262">
-        <v>1.8</v>
-      </c>
       <c r="V262">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W262">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA262">
         <v>-0.5</v>
@@ -23858,7 +23858,7 @@
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23866,7 +23866,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7729196</v>
+        <v>7729202</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23878,67 +23878,67 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F263" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K263">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L263">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M263">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N263">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O263">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P263">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U263">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V263">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X263">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA263">
         <v>-0.5</v>
@@ -23947,7 +23947,7 @@
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6836570</v>
+        <v>6839267</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K284">
+        <v>2.1</v>
+      </c>
+      <c r="L284">
+        <v>3.2</v>
+      </c>
+      <c r="M284">
         <v>3.6</v>
       </c>
-      <c r="L284">
+      <c r="N284">
+        <v>2.1</v>
+      </c>
+      <c r="O284">
         <v>3</v>
       </c>
-      <c r="M284">
-        <v>2.2</v>
-      </c>
-      <c r="N284">
+      <c r="P284">
         <v>4.2</v>
       </c>
-      <c r="O284">
-        <v>3.1</v>
-      </c>
-      <c r="P284">
-        <v>2.05</v>
-      </c>
       <c r="Q284">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S284">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U284">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V284">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W284">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6839267</v>
+        <v>6836570</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G285" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K285">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L285">
+        <v>3</v>
+      </c>
+      <c r="M285">
+        <v>2.2</v>
+      </c>
+      <c r="N285">
+        <v>4.2</v>
+      </c>
+      <c r="O285">
+        <v>3.1</v>
+      </c>
+      <c r="P285">
+        <v>2.05</v>
+      </c>
+      <c r="Q285">
+        <v>0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.825</v>
+      </c>
+      <c r="S285">
+        <v>2.025</v>
+      </c>
+      <c r="T285">
+        <v>2</v>
+      </c>
+      <c r="U285">
+        <v>2.05</v>
+      </c>
+      <c r="V285">
+        <v>1.8</v>
+      </c>
+      <c r="W285">
         <v>3.2</v>
       </c>
-      <c r="M285">
-        <v>3.6</v>
-      </c>
-      <c r="N285">
-        <v>2.1</v>
-      </c>
-      <c r="O285">
-        <v>3</v>
-      </c>
-      <c r="P285">
-        <v>4.2</v>
-      </c>
-      <c r="Q285">
-        <v>-0.25</v>
-      </c>
-      <c r="R285">
-        <v>1.775</v>
-      </c>
-      <c r="S285">
-        <v>2.1</v>
-      </c>
-      <c r="T285">
-        <v>1.75</v>
-      </c>
-      <c r="U285">
-        <v>1.9</v>
-      </c>
-      <c r="V285">
-        <v>1.95</v>
-      </c>
-      <c r="W285">
-        <v>-1</v>
-      </c>
       <c r="X285">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA285">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G289" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L289">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M289">
+        <v>3.4</v>
+      </c>
+      <c r="N289">
         <v>3</v>
       </c>
-      <c r="N289">
-        <v>2.25</v>
-      </c>
       <c r="O289">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P289">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W289">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
+        <v>2.6</v>
+      </c>
+      <c r="L290">
+        <v>2.9</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
         <v>2.25</v>
       </c>
-      <c r="L290">
-        <v>3.1</v>
-      </c>
-      <c r="M290">
-        <v>3.4</v>
-      </c>
-      <c r="N290">
+      <c r="O290">
         <v>3</v>
       </c>
-      <c r="O290">
-        <v>2.875</v>
-      </c>
       <c r="P290">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W290">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838080</v>
+        <v>6838163</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,76 +26726,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K295">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L295">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M295">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N295">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O295">
         <v>3.3</v>
       </c>
       <c r="P295">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q295">
+        <v>-0.75</v>
+      </c>
+      <c r="R295">
+        <v>2.025</v>
+      </c>
+      <c r="S295">
+        <v>1.825</v>
+      </c>
+      <c r="T295">
+        <v>2.25</v>
+      </c>
+      <c r="U295">
+        <v>1.925</v>
+      </c>
+      <c r="V295">
+        <v>1.925</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>2.3</v>
+      </c>
+      <c r="Y295">
+        <v>-1</v>
+      </c>
+      <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
+        <v>0.825</v>
+      </c>
+      <c r="AB295">
         <v>-0.5</v>
       </c>
-      <c r="R295">
-        <v>1.9</v>
-      </c>
-      <c r="S295">
-        <v>1.95</v>
-      </c>
-      <c r="T295">
-        <v>2</v>
-      </c>
-      <c r="U295">
-        <v>1.8</v>
-      </c>
-      <c r="V295">
-        <v>2.05</v>
-      </c>
-      <c r="W295">
-        <v>0.909</v>
-      </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
-      <c r="Z295">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA295">
-        <v>-1</v>
-      </c>
-      <c r="AB295">
-        <v>0.8</v>
-      </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6838163</v>
+        <v>6838080</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,76 +26815,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K296">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L296">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M296">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N296">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O296">
         <v>3.3</v>
       </c>
       <c r="P296">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q296">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U296">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X296">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA296">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -28524,28 +28524,28 @@
         <v>2.25</v>
       </c>
       <c r="O315">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P315">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q315">
         <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S315">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T315">
         <v>2.25</v>
       </c>
       <c r="U315">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V315">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W315">
         <v>0</v>
@@ -28598,28 +28598,28 @@
         <v>1.95</v>
       </c>
       <c r="O316">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P316">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q316">
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T316">
         <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V316">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28669,31 +28669,31 @@
         <v>3.4</v>
       </c>
       <c r="N317">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O317">
+        <v>3.25</v>
+      </c>
+      <c r="P317">
         <v>3.2</v>
-      </c>
-      <c r="P317">
-        <v>3.4</v>
       </c>
       <c r="Q317">
         <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S317">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V317">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28743,22 +28743,22 @@
         <v>4.75</v>
       </c>
       <c r="N318">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="O318">
         <v>3.25</v>
       </c>
       <c r="P318">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q318">
         <v>-0.75</v>
       </c>
       <c r="R318">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S318">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T318">
         <v>2</v>
@@ -28820,10 +28820,10 @@
         <v>1.95</v>
       </c>
       <c r="O319">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P319">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q319">
         <v>-0.5</v>
@@ -28835,13 +28835,13 @@
         <v>1.85</v>
       </c>
       <c r="T319">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U319">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V319">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28897,16 +28897,16 @@
         <v>3.2</v>
       </c>
       <c r="P320">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q320">
         <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T320">
         <v>2</v>
@@ -28965,22 +28965,22 @@
         <v>2.5</v>
       </c>
       <c r="N321">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O321">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P321">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q321">
         <v>0</v>
       </c>
       <c r="R321">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S321">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T321">
         <v>2</v>
@@ -29042,7 +29042,7 @@
         <v>1.909</v>
       </c>
       <c r="O322">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P322">
         <v>4.5</v>
@@ -29113,13 +29113,13 @@
         <v>7</v>
       </c>
       <c r="N323">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O323">
         <v>3.5</v>
       </c>
       <c r="P323">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q323">
         <v>-0.75</v>
@@ -29134,10 +29134,10 @@
         <v>2</v>
       </c>
       <c r="U323">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29187,22 +29187,22 @@
         <v>3.1</v>
       </c>
       <c r="N324">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="O324">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P324">
         <v>3.1</v>
       </c>
       <c r="Q324">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R324">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="S324">
-        <v>1.775</v>
+        <v>2.125</v>
       </c>
       <c r="T324">
         <v>2</v>
@@ -29226,6 +29226,80 @@
         <v>0</v>
       </c>
       <c r="AA324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>6836575</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45355.6875</v>
+      </c>
+      <c r="F325" t="s">
+        <v>37</v>
+      </c>
+      <c r="G325" t="s">
+        <v>45</v>
+      </c>
+      <c r="K325">
+        <v>1.8</v>
+      </c>
+      <c r="L325">
+        <v>3.25</v>
+      </c>
+      <c r="M325">
+        <v>5</v>
+      </c>
+      <c r="N325">
+        <v>1.571</v>
+      </c>
+      <c r="O325">
+        <v>3.6</v>
+      </c>
+      <c r="P325">
+        <v>7.5</v>
+      </c>
+      <c r="Q325">
+        <v>-1</v>
+      </c>
+      <c r="R325">
+        <v>2.05</v>
+      </c>
+      <c r="S325">
+        <v>1.8</v>
+      </c>
+      <c r="T325">
+        <v>2</v>
+      </c>
+      <c r="U325">
+        <v>1.8</v>
+      </c>
+      <c r="V325">
+        <v>2.05</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1717,76 +1717,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,76 +1806,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <v>-0</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>2.025</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>1.75</v>
       </c>
-      <c r="S55">
+      <c r="U55">
+        <v>1.8</v>
+      </c>
+      <c r="V55">
         <v>2.05</v>
       </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K58">
+        <v>2.2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3.3</v>
+      </c>
+      <c r="N58">
         <v>1.909</v>
       </c>
-      <c r="L58">
-        <v>3.1</v>
-      </c>
-      <c r="M58">
-        <v>4.2</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6837974</v>
+        <v>6838107</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,31 +5722,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>2.375</v>
+      </c>
+      <c r="N59">
         <v>2.9</v>
-      </c>
-      <c r="L59">
-        <v>2.9</v>
-      </c>
-      <c r="M59">
-        <v>2.5</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5758,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
+        <v>1.825</v>
+      </c>
+      <c r="W59">
         <v>1.9</v>
       </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6838107</v>
+        <v>6837974</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,31 +5811,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60">
+        <v>2.9</v>
+      </c>
+      <c r="L60">
+        <v>2.9</v>
+      </c>
+      <c r="M60">
+        <v>2.5</v>
+      </c>
+      <c r="N60">
         <v>3</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>2.375</v>
-      </c>
-      <c r="N60">
-        <v>2.9</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5847,37 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7184008</v>
+        <v>6836526</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,40 +6256,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65">
+        <v>3.4</v>
+      </c>
+      <c r="L65">
+        <v>2.9</v>
+      </c>
+      <c r="M65">
         <v>2.2</v>
       </c>
-      <c r="L65">
+      <c r="N65">
+        <v>2.3</v>
+      </c>
+      <c r="O65">
         <v>3</v>
       </c>
-      <c r="M65">
-        <v>3.3</v>
-      </c>
-      <c r="N65">
-        <v>1.75</v>
-      </c>
-      <c r="O65">
-        <v>3.75</v>
-      </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6298,34 +6298,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z65">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6836526</v>
+        <v>7184008</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,40 +6345,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6387,34 +6387,34 @@
         <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6839307</v>
+        <v>6838110</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,76 +6701,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>54</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70">
-        <v>1.363</v>
-      </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
       <c r="M70">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6838110</v>
+        <v>6839307</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,76 +6790,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>9.5</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <v>-1</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
+        <v>2.025</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>3</v>
       </c>
-      <c r="M71">
-        <v>4.2</v>
-      </c>
-      <c r="N71">
-        <v>1.8</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
-      <c r="P71">
-        <v>5</v>
-      </c>
-      <c r="Q71">
-        <v>-0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.85</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2</v>
-      </c>
-      <c r="U71">
-        <v>1.8</v>
-      </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
-      <c r="W71">
-        <v>0.8</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6837987</v>
+        <v>6839305</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7858,10 +7858,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7873,43 +7873,43 @@
         <v>54</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M83">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7927,7 +7927,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6839305</v>
+        <v>6837987</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,10 +7947,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7962,43 +7962,43 @@
         <v>54</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L84">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
         <v>2.5</v>
-      </c>
-      <c r="N84">
-        <v>2.25</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q84">
         <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -8016,7 +8016,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6837991</v>
+        <v>6836530</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,76 +8570,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>52</v>
+      </c>
+      <c r="K91">
+        <v>2.35</v>
+      </c>
+      <c r="L91">
+        <v>3.1</v>
+      </c>
+      <c r="M91">
         <v>3</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>54</v>
-      </c>
-      <c r="K91">
-        <v>1.833</v>
-      </c>
-      <c r="L91">
-        <v>3.3</v>
-      </c>
-      <c r="M91">
-        <v>4.2</v>
-      </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>-0</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.825</v>
-      </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
-      <c r="AB91">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837992</v>
+        <v>6837991</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,37 +8659,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
         <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
@@ -8701,34 +8701,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,76 +8748,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K93">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6838118</v>
+        <v>6839301</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,76 +9282,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>2.025</v>
+      </c>
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
-      <c r="U99">
-        <v>1.95</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
       <c r="W99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.95</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.825</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6839301</v>
+        <v>6838118</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,76 +9371,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
         <v>1.9</v>
       </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,52 +9638,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.75</v>
-      </c>
-      <c r="S103">
-        <v>2.125</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.8</v>
       </c>
       <c r="V103">
         <v>2.05</v>
@@ -9695,19 +9695,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,52 +9727,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>53</v>
       </c>
       <c r="K104">
+        <v>2.3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
         <v>3.1</v>
       </c>
-      <c r="L104">
+      <c r="N104">
+        <v>2.5</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
         <v>3.1</v>
       </c>
-      <c r="M104">
-        <v>2.25</v>
-      </c>
-      <c r="N104">
-        <v>3.75</v>
-      </c>
-      <c r="O104">
-        <v>3.2</v>
-      </c>
-      <c r="P104">
-        <v>2.1</v>
-      </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
+        <v>2.125</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.75</v>
       </c>
       <c r="V104">
         <v>2.05</v>
@@ -9784,19 +9784,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB104">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6837995</v>
+        <v>6839300</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,76 +9816,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K105">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6839300</v>
+        <v>6837995</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,76 +9905,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N106">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,73 +11151,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
         <v>2.875</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11240,73 +11240,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>2.875</v>
       </c>
       <c r="M121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11495,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6836542</v>
+        <v>6839297</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11507,76 +11507,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
         <v>2.9</v>
       </c>
       <c r="M124">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N124">
+        <v>3.5</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
         <v>2.2</v>
       </c>
-      <c r="O124">
-        <v>2.9</v>
-      </c>
-      <c r="P124">
-        <v>4</v>
-      </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6839297</v>
+        <v>6836542</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,76 +11596,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K125">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>2.9</v>
       </c>
       <c r="M125">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P125">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.9</v>
       </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>52</v>
+      </c>
+      <c r="K130">
         <v>3</v>
       </c>
-      <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>2.3</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
+      <c r="T130">
+        <v>1.75</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2.05</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.45</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>3</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.95</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>3</v>
       </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>2.45</v>
-      </c>
-      <c r="N131">
-        <v>3.5</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
-      <c r="P131">
-        <v>2.3</v>
-      </c>
-      <c r="Q131">
-        <v>0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.9</v>
-      </c>
-      <c r="S131">
-        <v>1.95</v>
-      </c>
-      <c r="T131">
-        <v>1.75</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6836546</v>
+        <v>6838126</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,13 +13554,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13569,61 +13569,61 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.75</v>
+      </c>
+      <c r="O147">
         <v>3.75</v>
       </c>
-      <c r="N147">
-        <v>1.8</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
       <c r="P147">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.75</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.5125</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2.05</v>
-      </c>
-      <c r="T147">
-        <v>1.75</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>0.8</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
       <c r="AB147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6838126</v>
+        <v>6836546</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,13 +13643,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13658,43 +13658,43 @@
         <v>54</v>
       </c>
       <c r="K148">
+        <v>2.15</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.3</v>
+      </c>
+      <c r="P148">
+        <v>5</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2.05</v>
+      </c>
+      <c r="T148">
         <v>1.75</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>4.333</v>
-      </c>
-      <c r="N148">
-        <v>1.75</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>4.5</v>
-      </c>
-      <c r="Q148">
-        <v>-0.75</v>
-      </c>
-      <c r="R148">
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
-      <c r="T148">
-        <v>2.25</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13703,16 +13703,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.4125</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6839289</v>
+        <v>6838024</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6838024</v>
+        <v>6839289</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K165">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
+        <v>3.1</v>
+      </c>
+      <c r="N165">
+        <v>2.4</v>
+      </c>
+      <c r="O165">
+        <v>3.1</v>
+      </c>
+      <c r="P165">
         <v>3.2</v>
       </c>
-      <c r="M165">
-        <v>3.75</v>
-      </c>
-      <c r="N165">
-        <v>2.05</v>
-      </c>
-      <c r="O165">
-        <v>3.3</v>
-      </c>
-      <c r="P165">
-        <v>4</v>
-      </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1.85</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
         <v>2.025</v>
       </c>
-      <c r="S165">
-        <v>1.825</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>2.05</v>
-      </c>
-      <c r="V165">
-        <v>1.8</v>
-      </c>
       <c r="W165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K175">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N175">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U175">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB176">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
+        <v>2.6</v>
+      </c>
+      <c r="N181">
+        <v>2.6</v>
+      </c>
+      <c r="O181">
+        <v>3.4</v>
+      </c>
+      <c r="P181">
+        <v>2.7</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
         <v>2.5</v>
       </c>
-      <c r="N181">
-        <v>3.6</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>2.2</v>
-      </c>
-      <c r="Q181">
-        <v>0.25</v>
-      </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.9</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L182">
+        <v>3.1</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.6</v>
+      </c>
+      <c r="O182">
         <v>3.2</v>
       </c>
-      <c r="M182">
-        <v>2.6</v>
-      </c>
-      <c r="N182">
-        <v>2.6</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>1.9</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
         <v>1.85</v>
       </c>
-      <c r="S182">
-        <v>2</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
-      <c r="U182">
-        <v>1.85</v>
-      </c>
-      <c r="V182">
-        <v>2</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16924,7 +16924,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16936,76 +16936,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K185">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L185">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L186">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.975</v>
+      </c>
+      <c r="S186">
+        <v>1.875</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>1.775</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.8</v>
-      </c>
-      <c r="S186">
-        <v>2.05</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.925</v>
-      </c>
-      <c r="W186">
-        <v>0.8</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>0.8</v>
-      </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6838037</v>
+        <v>6839284</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
+        <v>2.15</v>
+      </c>
+      <c r="L196">
+        <v>3.1</v>
+      </c>
+      <c r="M196">
         <v>3.6</v>
       </c>
-      <c r="L196">
-        <v>3.25</v>
-      </c>
-      <c r="M196">
+      <c r="N196">
+        <v>2.3</v>
+      </c>
+      <c r="O196">
+        <v>2.9</v>
+      </c>
+      <c r="P196">
+        <v>3.4</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>1.85</v>
+      </c>
+      <c r="T196">
+        <v>1.75</v>
+      </c>
+      <c r="U196">
+        <v>1.775</v>
+      </c>
+      <c r="V196">
         <v>2.1</v>
       </c>
-      <c r="N196">
-        <v>3</v>
-      </c>
-      <c r="O196">
-        <v>3.2</v>
-      </c>
-      <c r="P196">
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>2.4</v>
       </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.1</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2.05</v>
-      </c>
-      <c r="W196">
-        <v>2</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB196">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
       <c r="AC196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6839284</v>
+        <v>6838037</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,76 +18004,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>54</v>
+      </c>
+      <c r="K197">
+        <v>3.6</v>
+      </c>
+      <c r="L197">
+        <v>3.25</v>
+      </c>
+      <c r="M197">
+        <v>2.1</v>
+      </c>
+      <c r="N197">
         <v>3</v>
       </c>
-      <c r="J197" t="s">
-        <v>53</v>
-      </c>
-      <c r="K197">
-        <v>2.15</v>
-      </c>
-      <c r="L197">
-        <v>3.1</v>
-      </c>
-      <c r="M197">
-        <v>3.6</v>
-      </c>
-      <c r="N197">
-        <v>2.3</v>
-      </c>
       <c r="O197">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T197">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6839283</v>
+        <v>6838138</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K202">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
+        <v>3.2</v>
+      </c>
+      <c r="M202">
         <v>3</v>
       </c>
-      <c r="M202">
+      <c r="N202">
+        <v>2.375</v>
+      </c>
+      <c r="O202">
+        <v>3.25</v>
+      </c>
+      <c r="P202">
         <v>3.1</v>
       </c>
-      <c r="N202">
-        <v>2.8</v>
-      </c>
-      <c r="O202">
-        <v>3</v>
-      </c>
-      <c r="P202">
-        <v>2.7</v>
-      </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6838138</v>
+        <v>6839283</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,76 +18538,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M203">
+        <v>3.1</v>
+      </c>
+      <c r="N203">
+        <v>2.8</v>
+      </c>
+      <c r="O203">
         <v>3</v>
       </c>
-      <c r="N203">
-        <v>2.375</v>
-      </c>
-      <c r="O203">
-        <v>3.25</v>
-      </c>
       <c r="P203">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X203">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K228">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N228">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P228">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
         <v>2.025</v>
-      </c>
-      <c r="S228">
-        <v>1.825</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
         <v>1.025</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L229">
+        <v>3.2</v>
+      </c>
+      <c r="M229">
+        <v>3.1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>3.75</v>
       </c>
-      <c r="M229">
-        <v>5.5</v>
-      </c>
-      <c r="N229">
-        <v>1.65</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>5.5</v>
-      </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
+        <v>2.025</v>
+      </c>
+      <c r="S229">
         <v>1.825</v>
-      </c>
-      <c r="S229">
-        <v>2.025</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X229">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6838146</v>
+        <v>6838052</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,61 +20941,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
         <v>52</v>
       </c>
       <c r="K230">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L230">
         <v>3.75</v>
       </c>
       <c r="M230">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21004,13 +21004,13 @@
         <v>-1</v>
       </c>
       <c r="AA230">
+        <v>1.025</v>
+      </c>
+      <c r="AB230">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
       <c r="AC230">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6838052</v>
+        <v>6838146</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,61 +21030,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>52</v>
       </c>
       <c r="K231">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L231">
         <v>3.75</v>
       </c>
       <c r="M231">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N231">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21093,13 +21093,13 @@
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235">
+        <v>2.6</v>
+      </c>
+      <c r="L235">
+        <v>3.2</v>
+      </c>
+      <c r="M235">
+        <v>2.75</v>
+      </c>
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235" t="s">
-        <v>54</v>
-      </c>
-      <c r="K235">
-        <v>2.2</v>
-      </c>
-      <c r="L235">
-        <v>3.1</v>
-      </c>
-      <c r="M235">
-        <v>3.6</v>
-      </c>
-      <c r="N235">
-        <v>2.05</v>
-      </c>
       <c r="O235">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G236" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K236">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L274">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P274">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T274">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U274">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC274">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G275" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M275">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S275">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U275">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
+        <v>2.6</v>
+      </c>
+      <c r="L289">
+        <v>2.9</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
         <v>2.25</v>
       </c>
-      <c r="L289">
-        <v>3.1</v>
-      </c>
-      <c r="M289">
-        <v>3.4</v>
-      </c>
-      <c r="N289">
+      <c r="O289">
         <v>3</v>
       </c>
-      <c r="O289">
-        <v>2.875</v>
-      </c>
       <c r="P289">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q289">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L290">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
+        <v>3.4</v>
+      </c>
+      <c r="N290">
         <v>3</v>
       </c>
-      <c r="N290">
-        <v>2.25</v>
-      </c>
       <c r="O290">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P290">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V290">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838084</v>
+        <v>6838083</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,40 +27794,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>3.3</v>
+      </c>
+      <c r="M307">
+        <v>3.75</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307">
         <v>3.2</v>
       </c>
-      <c r="L307">
-        <v>3</v>
-      </c>
-      <c r="M307">
-        <v>2.45</v>
-      </c>
-      <c r="N307">
-        <v>2.8</v>
-      </c>
-      <c r="O307">
-        <v>2.9</v>
-      </c>
       <c r="P307">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
         <v>1.925</v>
@@ -27836,34 +27836,34 @@
         <v>1.925</v>
       </c>
       <c r="T307">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC307">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6838083</v>
+        <v>6838084</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,40 +27883,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308" t="s">
+        <v>52</v>
+      </c>
+      <c r="K308">
+        <v>3.2</v>
+      </c>
+      <c r="L308">
         <v>3</v>
       </c>
-      <c r="J308" t="s">
-        <v>53</v>
-      </c>
-      <c r="K308">
-        <v>2</v>
-      </c>
-      <c r="L308">
-        <v>3.3</v>
-      </c>
       <c r="M308">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N308">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O308">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P308">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R308">
         <v>1.925</v>
@@ -27925,34 +27925,34 @@
         <v>1.925</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V308">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y308">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
+        <v>-0</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
         <v>0.925</v>
-      </c>
-      <c r="AB308">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC308">
-        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N310">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O310">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P310">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T310">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U310">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F311" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K311">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N311">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O311">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P311">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S311">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T311">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X311">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA311">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28511,6 +28511,15 @@
       <c r="G315" t="s">
         <v>30</v>
       </c>
+      <c r="H315">
+        <v>2</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" t="s">
+        <v>54</v>
+      </c>
       <c r="K315">
         <v>2.3</v>
       </c>
@@ -28521,46 +28530,52 @@
         <v>3.25</v>
       </c>
       <c r="N315">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O315">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P315">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q315">
         <v>-0.25</v>
       </c>
       <c r="R315">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S315">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T315">
         <v>2.25</v>
       </c>
       <c r="U315">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V315">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W315">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y315">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z315">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA315">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB315">
+        <v>1.05</v>
+      </c>
+      <c r="AC315">
+        <v>-1</v>
       </c>
     </row>
     <row r="316" spans="1:29">
@@ -28595,10 +28610,10 @@
         <v>4</v>
       </c>
       <c r="N316">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O316">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P316">
         <v>4.2</v>
@@ -28607,19 +28622,19 @@
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S316">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T316">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U316">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V316">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W316">
         <v>0</v>
@@ -28669,31 +28684,31 @@
         <v>3.4</v>
       </c>
       <c r="N317">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O317">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q317">
         <v>-0.25</v>
       </c>
       <c r="R317">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S317">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T317">
         <v>2.25</v>
       </c>
       <c r="U317">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="V317">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W317">
         <v>0</v>
@@ -28743,31 +28758,31 @@
         <v>4.75</v>
       </c>
       <c r="N318">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O318">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P318">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="Q318">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S318">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T318">
         <v>2</v>
       </c>
       <c r="U318">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V318">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28817,31 +28832,31 @@
         <v>3.8</v>
       </c>
       <c r="N319">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O319">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q319">
         <v>-0.5</v>
       </c>
       <c r="R319">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S319">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T319">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V319">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28891,22 +28906,22 @@
         <v>4</v>
       </c>
       <c r="N320">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O320">
         <v>3.2</v>
       </c>
       <c r="P320">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q320">
         <v>-0.5</v>
       </c>
       <c r="R320">
+        <v>1.875</v>
+      </c>
+      <c r="S320">
         <v>1.975</v>
-      </c>
-      <c r="S320">
-        <v>1.875</v>
       </c>
       <c r="T320">
         <v>2</v>
@@ -28965,31 +28980,31 @@
         <v>2.5</v>
       </c>
       <c r="N321">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O321">
         <v>3.1</v>
       </c>
       <c r="P321">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q321">
         <v>0</v>
       </c>
       <c r="R321">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T321">
         <v>2</v>
       </c>
       <c r="U321">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V321">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29039,31 +29054,31 @@
         <v>3.75</v>
       </c>
       <c r="N322">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O322">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P322">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q322">
         <v>-0.5</v>
       </c>
       <c r="R322">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S322">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T322">
         <v>2</v>
       </c>
       <c r="U322">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V322">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29134,10 +29149,10 @@
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V323">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29187,22 +29202,22 @@
         <v>3.1</v>
       </c>
       <c r="N324">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O324">
         <v>3</v>
       </c>
       <c r="P324">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q324">
         <v>0</v>
       </c>
       <c r="R324">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S324">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="T324">
         <v>2</v>
@@ -29261,7 +29276,7 @@
         <v>5</v>
       </c>
       <c r="N325">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="O325">
         <v>3.6</v>
@@ -29273,10 +29288,10 @@
         <v>-1</v>
       </c>
       <c r="R325">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S325">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T325">
         <v>2</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>-0</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
+        <v>2.025</v>
+      </c>
+      <c r="S56">
+        <v>1.825</v>
+      </c>
+      <c r="T56">
         <v>1.75</v>
       </c>
-      <c r="S56">
+      <c r="U56">
+        <v>1.8</v>
+      </c>
+      <c r="V56">
         <v>2.05</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K57">
+        <v>2.2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3.3</v>
+      </c>
+      <c r="N57">
         <v>1.909</v>
       </c>
-      <c r="L57">
-        <v>3.1</v>
-      </c>
-      <c r="M57">
-        <v>4.2</v>
-      </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6838107</v>
+        <v>6837974</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,31 +5722,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59">
+        <v>2.9</v>
+      </c>
+      <c r="L59">
+        <v>2.9</v>
+      </c>
+      <c r="M59">
+        <v>2.5</v>
+      </c>
+      <c r="N59">
         <v>3</v>
-      </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
-      <c r="M59">
-        <v>2.375</v>
-      </c>
-      <c r="N59">
-        <v>2.9</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5758,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6837974</v>
+        <v>6838107</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,31 +5811,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>2.375</v>
+      </c>
+      <c r="N60">
         <v>2.9</v>
-      </c>
-      <c r="L60">
-        <v>2.9</v>
-      </c>
-      <c r="M60">
-        <v>2.5</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5847,37 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
+        <v>1.825</v>
+      </c>
+      <c r="W60">
         <v>1.9</v>
       </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6836526</v>
+        <v>7184008</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,40 +6256,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6298,34 +6298,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7184008</v>
+        <v>6836526</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,40 +6345,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66">
+        <v>3.4</v>
+      </c>
+      <c r="L66">
+        <v>2.9</v>
+      </c>
+      <c r="M66">
         <v>2.2</v>
       </c>
-      <c r="L66">
+      <c r="N66">
+        <v>2.3</v>
+      </c>
+      <c r="O66">
         <v>3</v>
       </c>
-      <c r="M66">
-        <v>3.3</v>
-      </c>
-      <c r="N66">
-        <v>1.75</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6387,34 +6387,34 @@
         <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z66">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6839305</v>
+        <v>6837987</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7858,10 +7858,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7873,43 +7873,43 @@
         <v>54</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
+        <v>2.875</v>
+      </c>
+      <c r="N83">
         <v>2.5</v>
-      </c>
-      <c r="N83">
-        <v>2.25</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7927,7 +7927,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6837987</v>
+        <v>6839305</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,10 +7947,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7962,43 +7962,43 @@
         <v>54</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
         <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -8016,7 +8016,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837991</v>
+        <v>6837992</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,37 +8659,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
@@ -8701,34 +8701,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6837992</v>
+        <v>6837991</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,37 +8748,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K93">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O93">
         <v>3.5</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
         <v>-0.5</v>
@@ -8790,34 +8790,34 @@
         <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6837994</v>
+        <v>6837996</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9460,13 +9460,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9475,43 +9475,43 @@
         <v>54</v>
       </c>
       <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
+        <v>3.1</v>
+      </c>
+      <c r="M101">
+        <v>2.7</v>
+      </c>
+      <c r="N101">
         <v>2.375</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>3</v>
       </c>
-      <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>2.9</v>
-      </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9520,16 +9520,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6837996</v>
+        <v>6837994</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9549,13 +9549,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9564,43 +9564,43 @@
         <v>54</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P102">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W102">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9609,16 +9609,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6839300</v>
+        <v>6837995</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,76 +9816,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F105" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N105">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z105">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6837995</v>
+        <v>6839300</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,76 +9905,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K106">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M106">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O106">
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA106">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,73 +11151,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>2.875</v>
       </c>
       <c r="M120">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11240,73 +11240,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
         <v>2.875</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>1.95</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>4</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>1.925</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
         <v>3</v>
       </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
-        <v>2.45</v>
-      </c>
-      <c r="N130">
-        <v>3.5</v>
-      </c>
-      <c r="O130">
-        <v>3.1</v>
-      </c>
-      <c r="P130">
-        <v>2.3</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.9</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2.1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
       <c r="Z130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>52</v>
+      </c>
+      <c r="K131">
         <v>3</v>
       </c>
-      <c r="J131" t="s">
-        <v>53</v>
-      </c>
-      <c r="K131">
-        <v>2</v>
-      </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N131">
+        <v>3.5</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>2.3</v>
+      </c>
+      <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
         <v>1.95</v>
       </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>4</v>
-      </c>
-      <c r="Q131">
+      <c r="T131">
+        <v>1.75</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2.05</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.45</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.9</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>3</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,10 +13109,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13124,43 +13124,43 @@
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,16 +13169,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13198,10 +13198,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,43 +13213,43 @@
         <v>54</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13258,16 +13258,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6838128</v>
+        <v>6836547</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,73 +14533,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K158">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
+        <v>3.25</v>
+      </c>
+      <c r="P158">
         <v>2.9</v>
       </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
-      </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6836547</v>
+        <v>6838128</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,73 +14622,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P159">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6838024</v>
+        <v>6839289</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
+        <v>3.1</v>
+      </c>
+      <c r="M164">
+        <v>3.1</v>
+      </c>
+      <c r="N164">
+        <v>2.4</v>
+      </c>
+      <c r="O164">
+        <v>3.1</v>
+      </c>
+      <c r="P164">
         <v>3.2</v>
       </c>
-      <c r="M164">
-        <v>3.75</v>
-      </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>3.3</v>
-      </c>
-      <c r="P164">
-        <v>4</v>
-      </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.825</v>
+      </c>
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>2.05</v>
-      </c>
-      <c r="V164">
-        <v>1.8</v>
-      </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6839289</v>
+        <v>6838024</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O175">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K176">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N176">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P176">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N179">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
         <v>3.1</v>
       </c>
-      <c r="P179">
-        <v>3.8</v>
-      </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.75</v>
+      </c>
+      <c r="S179">
+        <v>2.125</v>
+      </c>
+      <c r="T179">
+        <v>1.75</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="S179">
-        <v>1.75</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA179">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K180">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.75</v>
+      </c>
+      <c r="N180">
+        <v>2.1</v>
+      </c>
+      <c r="O180">
         <v>3.1</v>
       </c>
-      <c r="M180">
-        <v>2.625</v>
-      </c>
-      <c r="N180">
-        <v>2.55</v>
-      </c>
-      <c r="O180">
-        <v>2.9</v>
-      </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
         <v>1.75</v>
       </c>
-      <c r="S180">
-        <v>2.125</v>
-      </c>
       <c r="T180">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
         <v>0.75</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
       <c r="AB180">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16924,7 +16924,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16936,76 +16936,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K185">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L185">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.975</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>1.775</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>2.1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
         <v>-0.5</v>
       </c>
-      <c r="R185">
-        <v>1.8</v>
-      </c>
-      <c r="S185">
-        <v>2.05</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.925</v>
-      </c>
-      <c r="V185">
-        <v>1.925</v>
-      </c>
-      <c r="W185">
-        <v>0.8</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>0.8</v>
-      </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA186">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6839284</v>
+        <v>6838037</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>54</v>
+      </c>
+      <c r="K196">
+        <v>3.6</v>
+      </c>
+      <c r="L196">
+        <v>3.25</v>
+      </c>
+      <c r="M196">
+        <v>2.1</v>
+      </c>
+      <c r="N196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>53</v>
-      </c>
-      <c r="K196">
-        <v>2.15</v>
-      </c>
-      <c r="L196">
-        <v>3.1</v>
-      </c>
-      <c r="M196">
-        <v>3.6</v>
-      </c>
-      <c r="N196">
-        <v>2.3</v>
-      </c>
       <c r="O196">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T196">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6838037</v>
+        <v>6839284</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,76 +18004,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
+        <v>2.15</v>
+      </c>
+      <c r="L197">
+        <v>3.1</v>
+      </c>
+      <c r="M197">
         <v>3.6</v>
       </c>
-      <c r="L197">
-        <v>3.25</v>
-      </c>
-      <c r="M197">
+      <c r="N197">
+        <v>2.3</v>
+      </c>
+      <c r="O197">
+        <v>2.9</v>
+      </c>
+      <c r="P197">
+        <v>3.4</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>1.85</v>
+      </c>
+      <c r="T197">
+        <v>1.75</v>
+      </c>
+      <c r="U197">
+        <v>1.775</v>
+      </c>
+      <c r="V197">
         <v>2.1</v>
       </c>
-      <c r="N197">
-        <v>3</v>
-      </c>
-      <c r="O197">
-        <v>3.2</v>
-      </c>
-      <c r="P197">
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>2.4</v>
       </c>
-      <c r="Q197">
-        <v>0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.775</v>
-      </c>
-      <c r="S197">
-        <v>2.1</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.8</v>
-      </c>
-      <c r="V197">
-        <v>2.05</v>
-      </c>
-      <c r="W197">
-        <v>2</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB197">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
       <c r="AC197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,61 +19428,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N213">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P213">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
         <v>2.025</v>
       </c>
-      <c r="S213">
-        <v>1.825</v>
-      </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19491,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,62 +19517,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N214">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>2.025</v>
+      </c>
+      <c r="S214">
         <v>1.825</v>
       </c>
-      <c r="S214">
-        <v>2.025</v>
-      </c>
       <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>1.8</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
         <v>2.25</v>
       </c>
-      <c r="U214">
-        <v>1.925</v>
-      </c>
-      <c r="V214">
-        <v>1.925</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>2.75</v>
-      </c>
       <c r="Y214">
         <v>-1</v>
       </c>
@@ -19580,13 +19580,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L220">
         <v>3</v>
       </c>
       <c r="M220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N220">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O220">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
         <v>1.75</v>
       </c>
       <c r="U220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y220">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L221">
         <v>3</v>
       </c>
       <c r="M221">
+        <v>3.4</v>
+      </c>
+      <c r="N221">
+        <v>2.3</v>
+      </c>
+      <c r="O221">
+        <v>2.875</v>
+      </c>
+      <c r="P221">
         <v>3.6</v>
       </c>
-      <c r="N221">
-        <v>2</v>
-      </c>
-      <c r="O221">
-        <v>3</v>
-      </c>
-      <c r="P221">
-        <v>4.5</v>
-      </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB221">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
+        <v>4.2</v>
+      </c>
+      <c r="N233">
+        <v>1.909</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
         <v>4</v>
       </c>
-      <c r="N233">
-        <v>2.3</v>
-      </c>
-      <c r="O233">
-        <v>2.8</v>
-      </c>
-      <c r="P233">
-        <v>3.6</v>
-      </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
         <v>1.975</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.875</v>
       </c>
-      <c r="T233">
-        <v>1.75</v>
-      </c>
-      <c r="U233">
-        <v>2.05</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AA233">
+      <c r="AC233">
         <v>0.4375</v>
-      </c>
-      <c r="AB233">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N234">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.875</v>
+      </c>
+      <c r="T234">
+        <v>1.75</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>1.8</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
         <v>-0.5</v>
       </c>
-      <c r="R234">
-        <v>1.95</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>2.5</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB234">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC234">
         <v>-0.5</v>
-      </c>
-      <c r="AC234">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K235">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236">
+        <v>2.6</v>
+      </c>
+      <c r="L236">
+        <v>3.2</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236" t="s">
-        <v>54</v>
-      </c>
-      <c r="K236">
-        <v>2.2</v>
-      </c>
-      <c r="L236">
-        <v>3.1</v>
-      </c>
-      <c r="M236">
-        <v>3.6</v>
-      </c>
-      <c r="N236">
-        <v>2.05</v>
-      </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6838056</v>
+        <v>6836563</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K242">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M242">
+        <v>5.5</v>
+      </c>
+      <c r="N242">
+        <v>1.727</v>
+      </c>
+      <c r="O242">
         <v>3.4</v>
       </c>
-      <c r="N242">
-        <v>2</v>
-      </c>
-      <c r="O242">
-        <v>3.1</v>
-      </c>
       <c r="P242">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>1.9</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
+        <v>1.825</v>
+      </c>
+      <c r="V242">
         <v>2.025</v>
       </c>
-      <c r="S242">
-        <v>1.825</v>
-      </c>
-      <c r="T242">
-        <v>2</v>
-      </c>
-      <c r="U242">
-        <v>1.975</v>
-      </c>
-      <c r="V242">
-        <v>1.875</v>
-      </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y242">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC242">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6836563</v>
+        <v>6838056</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L243">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N243">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O243">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P243">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q243">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
         <v>2</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
         <v>1</v>
       </c>
-      <c r="I253">
-        <v>2</v>
-      </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L253">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P253">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
+        <v>1.9</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
         <v>1.825</v>
       </c>
-      <c r="S253">
+      <c r="V253">
         <v>2.025</v>
       </c>
-      <c r="T253">
-        <v>1.75</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA253">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L254">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M254">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O254">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P254">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W254">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -23777,7 +23777,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>7729196</v>
+        <v>7729202</v>
       </c>
       <c r="C262" t="s">
         <v>28</v>
@@ -23789,67 +23789,67 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F262" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G262" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262">
         <v>0</v>
       </c>
       <c r="J262" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K262">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="L262">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M262">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N262">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O262">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P262">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q262">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S262">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="T262">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U262">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V262">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W262">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X262">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y262">
         <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA262">
         <v>-0.5</v>
@@ -23858,7 +23858,7 @@
         <v>-1</v>
       </c>
       <c r="AC262">
-        <v>1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23866,7 +23866,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7729202</v>
+        <v>7729196</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23878,67 +23878,67 @@
         <v>45318.51041666666</v>
       </c>
       <c r="F263" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G263" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K263">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="L263">
+        <v>3</v>
+      </c>
+      <c r="M263">
+        <v>2.5</v>
+      </c>
+      <c r="N263">
         <v>3.1</v>
       </c>
-      <c r="M263">
-        <v>4.5</v>
-      </c>
-      <c r="N263">
-        <v>1.8</v>
-      </c>
       <c r="O263">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="P263">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="S263">
+        <v>2.125</v>
+      </c>
+      <c r="T263">
+        <v>1.75</v>
+      </c>
+      <c r="U263">
         <v>1.85</v>
       </c>
-      <c r="T263">
-        <v>2</v>
-      </c>
-      <c r="U263">
-        <v>1.8</v>
-      </c>
       <c r="V263">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W263">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA263">
         <v>-0.5</v>
@@ -23947,7 +23947,7 @@
         <v>-1</v>
       </c>
       <c r="AC263">
-        <v>1.05</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P274">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L275">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P275">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838163</v>
+        <v>6838080</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,76 +26726,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K295">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L295">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N295">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O295">
         <v>3.3</v>
       </c>
       <c r="P295">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X295">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6838080</v>
+        <v>6838163</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,76 +26815,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H296">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K296">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L296">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M296">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N296">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O296">
         <v>3.3</v>
       </c>
       <c r="P296">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q296">
+        <v>-0.75</v>
+      </c>
+      <c r="R296">
+        <v>2.025</v>
+      </c>
+      <c r="S296">
+        <v>1.825</v>
+      </c>
+      <c r="T296">
+        <v>2.25</v>
+      </c>
+      <c r="U296">
+        <v>1.925</v>
+      </c>
+      <c r="V296">
+        <v>1.925</v>
+      </c>
+      <c r="W296">
+        <v>-1</v>
+      </c>
+      <c r="X296">
+        <v>2.3</v>
+      </c>
+      <c r="Y296">
+        <v>-1</v>
+      </c>
+      <c r="Z296">
+        <v>-1</v>
+      </c>
+      <c r="AA296">
+        <v>0.825</v>
+      </c>
+      <c r="AB296">
         <v>-0.5</v>
       </c>
-      <c r="R296">
-        <v>1.9</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>2</v>
-      </c>
-      <c r="U296">
-        <v>1.8</v>
-      </c>
-      <c r="V296">
-        <v>2.05</v>
-      </c>
-      <c r="W296">
-        <v>0.909</v>
-      </c>
-      <c r="X296">
-        <v>-1</v>
-      </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
-      <c r="Z296">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA296">
-        <v>-1</v>
-      </c>
-      <c r="AB296">
-        <v>0.8</v>
-      </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K310">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N310">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O310">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P310">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X310">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G311" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K311">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N311">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O311">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P311">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R311">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S311">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T311">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U311">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC311">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28600,6 +28600,15 @@
       <c r="G316" t="s">
         <v>48</v>
       </c>
+      <c r="H316">
+        <v>2</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316" t="s">
+        <v>54</v>
+      </c>
       <c r="K316">
         <v>1.95</v>
       </c>
@@ -28610,46 +28619,52 @@
         <v>4</v>
       </c>
       <c r="N316">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="O316">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P316">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q316">
         <v>-0.5</v>
       </c>
       <c r="R316">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S316">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T316">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U316">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V316">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W316">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y316">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z316">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA316">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB316">
+        <v>-0.5</v>
+      </c>
+      <c r="AC316">
+        <v>0.375</v>
       </c>
     </row>
     <row r="317" spans="1:29">
@@ -28657,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6839262</v>
+        <v>6838090</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28669,31 +28684,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317" t="s">
+        <v>52</v>
       </c>
       <c r="K317">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M317">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N317">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P317">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
         <v>1.925</v>
@@ -28702,28 +28726,34 @@
         <v>1.925</v>
       </c>
       <c r="T317">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U317">
+        <v>1.775</v>
+      </c>
+      <c r="V317">
         <v>2.1</v>
       </c>
-      <c r="V317">
-        <v>1.775</v>
-      </c>
       <c r="W317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z317">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB317">
+        <v>-1</v>
+      </c>
+      <c r="AC317">
+        <v>1.1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28731,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6838090</v>
+        <v>6839262</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28743,61 +28773,76 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F318" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>49</v>
+        <v>35</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+      <c r="I318">
+        <v>2</v>
+      </c>
+      <c r="J318" t="s">
+        <v>52</v>
       </c>
       <c r="K318">
+        <v>2.15</v>
+      </c>
+      <c r="L318">
+        <v>3.2</v>
+      </c>
+      <c r="M318">
+        <v>3.4</v>
+      </c>
+      <c r="N318">
+        <v>2.2</v>
+      </c>
+      <c r="O318">
+        <v>3.2</v>
+      </c>
+      <c r="P318">
+        <v>3.5</v>
+      </c>
+      <c r="Q318">
+        <v>-0.25</v>
+      </c>
+      <c r="R318">
+        <v>1.925</v>
+      </c>
+      <c r="S318">
+        <v>1.925</v>
+      </c>
+      <c r="T318">
+        <v>2</v>
+      </c>
+      <c r="U318">
         <v>1.8</v>
       </c>
-      <c r="L318">
-        <v>3.3</v>
-      </c>
-      <c r="M318">
-        <v>4.75</v>
-      </c>
-      <c r="N318">
-        <v>1.909</v>
-      </c>
-      <c r="O318">
-        <v>3</v>
-      </c>
-      <c r="P318">
-        <v>5.25</v>
-      </c>
-      <c r="Q318">
+      <c r="V318">
+        <v>2.05</v>
+      </c>
+      <c r="W318">
+        <v>-1</v>
+      </c>
+      <c r="X318">
+        <v>2.2</v>
+      </c>
+      <c r="Y318">
+        <v>-1</v>
+      </c>
+      <c r="Z318">
         <v>-0.5</v>
       </c>
-      <c r="R318">
-        <v>1.85</v>
-      </c>
-      <c r="S318">
-        <v>2</v>
-      </c>
-      <c r="T318">
-        <v>2</v>
-      </c>
-      <c r="U318">
-        <v>2.1</v>
-      </c>
-      <c r="V318">
-        <v>1.775</v>
-      </c>
-      <c r="W318">
-        <v>0</v>
-      </c>
-      <c r="X318">
-        <v>0</v>
-      </c>
-      <c r="Y318">
-        <v>0</v>
-      </c>
-      <c r="Z318">
-        <v>0</v>
-      </c>
       <c r="AA318">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB318">
+        <v>0.8</v>
+      </c>
+      <c r="AC318">
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28822,6 +28867,15 @@
       <c r="G319" t="s">
         <v>31</v>
       </c>
+      <c r="H319">
+        <v>3</v>
+      </c>
+      <c r="I319">
+        <v>2</v>
+      </c>
+      <c r="J319" t="s">
+        <v>54</v>
+      </c>
       <c r="K319">
         <v>2.05</v>
       </c>
@@ -28853,25 +28907,31 @@
         <v>2.25</v>
       </c>
       <c r="U319">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA319">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB319">
+        <v>0.925</v>
+      </c>
+      <c r="AC319">
+        <v>-1</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28888,7 +28948,7 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45353.70833333334</v>
+        <v>45353.72916666666</v>
       </c>
       <c r="F320" t="s">
         <v>38</v>
@@ -28896,6 +28956,15 @@
       <c r="G320" t="s">
         <v>39</v>
       </c>
+      <c r="H320">
+        <v>3</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320" t="s">
+        <v>54</v>
+      </c>
       <c r="K320">
         <v>1.95</v>
       </c>
@@ -28906,46 +28975,52 @@
         <v>4</v>
       </c>
       <c r="N320">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P320">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q320">
         <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S320">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T320">
         <v>2</v>
       </c>
       <c r="U320">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA320">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB320">
+        <v>0.825</v>
+      </c>
+      <c r="AC320">
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:27">
@@ -28992,19 +29067,19 @@
         <v>0</v>
       </c>
       <c r="R321">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S321">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T321">
         <v>2</v>
       </c>
       <c r="U321">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V321">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29072,13 +29147,13 @@
         <v>1.825</v>
       </c>
       <c r="T322">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U322">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V322">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W322">
         <v>0</v>
@@ -29140,19 +29215,19 @@
         <v>-0.75</v>
       </c>
       <c r="R323">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S323">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T323">
         <v>2</v>
       </c>
       <c r="U323">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V323">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W323">
         <v>0</v>
@@ -29214,19 +29289,19 @@
         <v>0</v>
       </c>
       <c r="R324">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S324">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T324">
         <v>2</v>
       </c>
       <c r="U324">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V324">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W324">
         <v>0</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC325"/>
+  <dimension ref="A1:AC336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3663,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6836522</v>
+        <v>6837969</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3675,76 +3675,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M36">
         <v>2.3</v>
       </c>
       <c r="N36">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q36">
         <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6837969</v>
+        <v>6836522</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L37">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M37">
         <v>2.3</v>
       </c>
       <c r="N37">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q37">
         <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6836524</v>
+        <v>7135891</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4832,58 +4832,58 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>54</v>
       </c>
       <c r="K49">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L49">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N49">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S49">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U49">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4892,16 +4892,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
         <v>-0</v>
-      </c>
-      <c r="AB49">
-        <v>0.825</v>
-      </c>
-      <c r="AC49">
-        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4909,7 +4909,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>7135891</v>
+        <v>6836524</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4921,58 +4921,58 @@
         <v>45172.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
       </c>
       <c r="K50">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N50">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W50">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4981,16 +4981,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>2.025</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>1.75</v>
       </c>
-      <c r="S55">
+      <c r="U55">
+        <v>1.8</v>
+      </c>
+      <c r="V55">
         <v>2.05</v>
       </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6837974</v>
+        <v>6838107</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,31 +5722,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>2.375</v>
+      </c>
+      <c r="N59">
         <v>2.9</v>
-      </c>
-      <c r="L59">
-        <v>2.9</v>
-      </c>
-      <c r="M59">
-        <v>2.5</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5758,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
+        <v>1.825</v>
+      </c>
+      <c r="W59">
         <v>1.9</v>
       </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6838107</v>
+        <v>6837974</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,31 +5811,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60">
+        <v>2.9</v>
+      </c>
+      <c r="L60">
+        <v>2.9</v>
+      </c>
+      <c r="M60">
+        <v>2.5</v>
+      </c>
+      <c r="N60">
         <v>3</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>2.375</v>
-      </c>
-      <c r="N60">
-        <v>2.9</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5847,37 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6838110</v>
+        <v>6839307</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,76 +6701,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>9.5</v>
+      </c>
+      <c r="N70">
+        <v>1.5</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
+        <v>7</v>
+      </c>
+      <c r="Q70">
+        <v>-1</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
         <v>3</v>
       </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
-      <c r="N70">
-        <v>1.8</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2</v>
-      </c>
-      <c r="U70">
-        <v>1.8</v>
-      </c>
-      <c r="V70">
-        <v>2.05</v>
-      </c>
-      <c r="W70">
-        <v>0.8</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6839307</v>
+        <v>6838110</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,76 +6790,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>54</v>
+      </c>
+      <c r="K71">
+        <v>1.909</v>
+      </c>
+      <c r="L71">
         <v>3</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71">
-        <v>1.363</v>
-      </c>
-      <c r="L71">
-        <v>4</v>
-      </c>
       <c r="M71">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6837986</v>
+        <v>6836528</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K78">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L78">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N78">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q78">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z78">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6836528</v>
+        <v>6837986</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7502,76 +7502,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K79">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L79">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M79">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O79">
+        <v>3.1</v>
+      </c>
+      <c r="P79">
         <v>3</v>
       </c>
-      <c r="P79">
-        <v>3.75</v>
-      </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,76 +8570,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O91">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837992</v>
+        <v>6836530</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,76 +8659,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2.25</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="S92">
-        <v>2.025</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>1.8</v>
-      </c>
-      <c r="V92">
-        <v>2.05</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y96">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9804,7 +9804,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6837995</v>
+        <v>6839300</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9816,76 +9816,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K105">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M105">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="O105">
         <v>3.4</v>
       </c>
       <c r="P105">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA105">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9893,7 +9893,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6839300</v>
+        <v>6837995</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9905,76 +9905,76 @@
         <v>45204.6875</v>
       </c>
       <c r="F106" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="L106">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="N106">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="O106">
         <v>3.4</v>
       </c>
       <c r="P106">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R106">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U106">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W106">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z106">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>1.909</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
         <v>4.5</v>
       </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>5.75</v>
-      </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.925</v>
+      </c>
+      <c r="W114">
+        <v>0.75</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.5</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.4</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>1</v>
-      </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6836543</v>
+        <v>6838122</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,46 +11685,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
         <v>2.25</v>
@@ -11736,25 +11736,25 @@
         <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6838122</v>
+        <v>6836543</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,46 +11774,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>5.75</v>
+      </c>
+      <c r="N127">
+        <v>1.7</v>
+      </c>
+      <c r="O127">
         <v>3.5</v>
       </c>
-      <c r="M127">
-        <v>6.5</v>
-      </c>
-      <c r="N127">
-        <v>1.6</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>2.25</v>
@@ -11825,25 +11825,25 @@
         <v>1.8</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC127">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,19 +12575,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12596,52 +12596,52 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.875</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,19 +12664,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12685,52 +12685,52 @@
         <v>3.2</v>
       </c>
       <c r="M137">
+        <v>3.75</v>
+      </c>
+      <c r="N137">
+        <v>2.15</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
         <v>3.6</v>
       </c>
-      <c r="N137">
-        <v>2.05</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.875</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,10 +13109,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13124,43 +13124,43 @@
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,16 +13169,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13198,10 +13198,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,43 +13213,43 @@
         <v>54</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13258,16 +13258,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6838126</v>
+        <v>6836546</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,13 +13554,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13569,43 +13569,43 @@
         <v>54</v>
       </c>
       <c r="K147">
+        <v>2.15</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>3.75</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>5</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
+        <v>2.05</v>
+      </c>
+      <c r="T147">
         <v>1.75</v>
       </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
-      <c r="M147">
-        <v>4.333</v>
-      </c>
-      <c r="N147">
-        <v>1.75</v>
-      </c>
-      <c r="O147">
-        <v>3.75</v>
-      </c>
-      <c r="P147">
-        <v>4.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.75</v>
-      </c>
-      <c r="R147">
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="S147">
-        <v>1.825</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13614,16 +13614,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>0.4125</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6836546</v>
+        <v>6838126</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,13 +13643,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13658,61 +13658,61 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
       <c r="P148">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
+        <v>-0.75</v>
+      </c>
+      <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>0.75</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.5125</v>
+      </c>
+      <c r="AA148">
         <v>-0.5</v>
       </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2.05</v>
-      </c>
-      <c r="T148">
-        <v>1.75</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>0.8</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.8</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,40 +14088,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K153">
+        <v>1.666</v>
+      </c>
+      <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>5</v>
+      </c>
+      <c r="N153">
         <v>1.909</v>
       </c>
-      <c r="L153">
-        <v>3.3</v>
-      </c>
-      <c r="M153">
-        <v>4.2</v>
-      </c>
-      <c r="N153">
-        <v>2.2</v>
-      </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.875</v>
@@ -14130,7 +14130,7 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>2.025</v>
@@ -14139,25 +14139,25 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14177,40 +14177,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K154">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L154">
+        <v>3.3</v>
+      </c>
+      <c r="M154">
+        <v>4.2</v>
+      </c>
+      <c r="N154">
+        <v>2.2</v>
+      </c>
+      <c r="O154">
+        <v>3.1</v>
+      </c>
+      <c r="P154">
         <v>3.6</v>
       </c>
-      <c r="M154">
-        <v>5</v>
-      </c>
-      <c r="N154">
-        <v>1.909</v>
-      </c>
-      <c r="O154">
-        <v>3.4</v>
-      </c>
-      <c r="P154">
-        <v>4.333</v>
-      </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14219,7 +14219,7 @@
         <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14228,25 +14228,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838028</v>
+        <v>6838026</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N169">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
         <v>1.875</v>
       </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.9</v>
       </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z169">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838026</v>
+        <v>6838028</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
         <v>1.975</v>
       </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y170">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K175">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N175">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U175">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB176">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.75</v>
+      </c>
+      <c r="N179">
+        <v>2.1</v>
+      </c>
+      <c r="O179">
         <v>3.1</v>
       </c>
-      <c r="M179">
-        <v>2.625</v>
-      </c>
-      <c r="N179">
-        <v>2.55</v>
-      </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
         <v>1.75</v>
       </c>
-      <c r="S179">
-        <v>2.125</v>
-      </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.75</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O180">
+        <v>2.9</v>
+      </c>
+      <c r="P180">
         <v>3.1</v>
       </c>
-      <c r="P180">
-        <v>3.8</v>
-      </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
+        <v>2.125</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
         <v>2.05</v>
       </c>
-      <c r="S180">
-        <v>1.75</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>2.025</v>
-      </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.5</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>2.6</v>
-      </c>
-      <c r="N181">
-        <v>2.6</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.85</v>
       </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L182">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
+        <v>2.6</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.7</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
+      <c r="T182">
         <v>2.5</v>
       </c>
-      <c r="N182">
-        <v>3.6</v>
-      </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
-      <c r="P182">
-        <v>2.2</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>1.95</v>
-      </c>
-      <c r="S182">
-        <v>1.9</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16924,7 +16924,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16936,76 +16936,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K185">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L185">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L186">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.975</v>
+      </c>
+      <c r="S186">
+        <v>1.875</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>1.775</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.8</v>
-      </c>
-      <c r="S186">
-        <v>2.05</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.925</v>
-      </c>
-      <c r="W186">
-        <v>0.8</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>0.8</v>
-      </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6838037</v>
+        <v>6839284</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
+        <v>2.15</v>
+      </c>
+      <c r="L196">
+        <v>3.1</v>
+      </c>
+      <c r="M196">
         <v>3.6</v>
       </c>
-      <c r="L196">
-        <v>3.25</v>
-      </c>
-      <c r="M196">
+      <c r="N196">
+        <v>2.3</v>
+      </c>
+      <c r="O196">
+        <v>2.9</v>
+      </c>
+      <c r="P196">
+        <v>3.4</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>1.85</v>
+      </c>
+      <c r="T196">
+        <v>1.75</v>
+      </c>
+      <c r="U196">
+        <v>1.775</v>
+      </c>
+      <c r="V196">
         <v>2.1</v>
       </c>
-      <c r="N196">
-        <v>3</v>
-      </c>
-      <c r="O196">
-        <v>3.2</v>
-      </c>
-      <c r="P196">
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>2.4</v>
       </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.1</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2.05</v>
-      </c>
-      <c r="W196">
-        <v>2</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB196">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
       <c r="AC196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6839284</v>
+        <v>6838037</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,76 +18004,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>54</v>
+      </c>
+      <c r="K197">
+        <v>3.6</v>
+      </c>
+      <c r="L197">
+        <v>3.25</v>
+      </c>
+      <c r="M197">
+        <v>2.1</v>
+      </c>
+      <c r="N197">
         <v>3</v>
       </c>
-      <c r="J197" t="s">
-        <v>53</v>
-      </c>
-      <c r="K197">
-        <v>2.15</v>
-      </c>
-      <c r="L197">
-        <v>3.1</v>
-      </c>
-      <c r="M197">
-        <v>3.6</v>
-      </c>
-      <c r="N197">
-        <v>2.3</v>
-      </c>
       <c r="O197">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T197">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6838138</v>
+        <v>6839283</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L202">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M202">
+        <v>3.1</v>
+      </c>
+      <c r="N202">
+        <v>2.8</v>
+      </c>
+      <c r="O202">
         <v>3</v>
       </c>
-      <c r="N202">
-        <v>2.375</v>
-      </c>
-      <c r="O202">
-        <v>3.25</v>
-      </c>
       <c r="P202">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X202">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA202">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6839283</v>
+        <v>6838138</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,76 +18538,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K203">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L203">
+        <v>3.2</v>
+      </c>
+      <c r="M203">
         <v>3</v>
       </c>
-      <c r="M203">
+      <c r="N203">
+        <v>2.375</v>
+      </c>
+      <c r="O203">
+        <v>3.25</v>
+      </c>
+      <c r="P203">
         <v>3.1</v>
       </c>
-      <c r="N203">
-        <v>2.8</v>
-      </c>
-      <c r="O203">
-        <v>3</v>
-      </c>
-      <c r="P203">
-        <v>2.7</v>
-      </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,62 +19428,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
         <v>1.825</v>
       </c>
-      <c r="S213">
-        <v>2.025</v>
-      </c>
       <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>2.25</v>
       </c>
-      <c r="U213">
-        <v>1.925</v>
-      </c>
-      <c r="V213">
-        <v>1.925</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.75</v>
-      </c>
       <c r="Y213">
         <v>-1</v>
       </c>
@@ -19491,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,61 +19517,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N214">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
         <v>2.025</v>
       </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -19580,13 +19580,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L220">
         <v>3</v>
       </c>
       <c r="M220">
+        <v>3.4</v>
+      </c>
+      <c r="N220">
+        <v>2.3</v>
+      </c>
+      <c r="O220">
+        <v>2.875</v>
+      </c>
+      <c r="P220">
         <v>3.6</v>
       </c>
-      <c r="N220">
-        <v>2</v>
-      </c>
-      <c r="O220">
-        <v>3</v>
-      </c>
-      <c r="P220">
-        <v>4.5</v>
-      </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>1.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
         <v>3</v>
       </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O221">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P221">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
         <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y221">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N233">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P233">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>1.875</v>
+      </c>
+      <c r="T233">
+        <v>1.75</v>
+      </c>
+      <c r="U233">
+        <v>2.05</v>
+      </c>
+      <c r="V233">
+        <v>1.8</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>1.8</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
         <v>-0.5</v>
       </c>
-      <c r="R233">
-        <v>1.95</v>
-      </c>
-      <c r="S233">
-        <v>1.9</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.875</v>
-      </c>
-      <c r="W233">
-        <v>-1</v>
-      </c>
-      <c r="X233">
-        <v>2.5</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>-1</v>
-      </c>
       <c r="AA233">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB233">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC233">
         <v>-0.5</v>
-      </c>
-      <c r="AC233">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
+        <v>4.2</v>
+      </c>
+      <c r="N234">
+        <v>1.909</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
         <v>4</v>
       </c>
-      <c r="N234">
-        <v>2.3</v>
-      </c>
-      <c r="O234">
-        <v>2.8</v>
-      </c>
-      <c r="P234">
-        <v>3.6</v>
-      </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>1.9</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
         <v>1.975</v>
       </c>
-      <c r="S234">
+      <c r="V234">
         <v>1.875</v>
       </c>
-      <c r="T234">
-        <v>1.75</v>
-      </c>
-      <c r="U234">
-        <v>2.05</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
-      </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB234">
         <v>-0.5</v>
       </c>
-      <c r="AA234">
+      <c r="AC234">
         <v>0.4375</v>
-      </c>
-      <c r="AB234">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC234">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235">
+        <v>2.6</v>
+      </c>
+      <c r="L235">
+        <v>3.2</v>
+      </c>
+      <c r="M235">
+        <v>2.75</v>
+      </c>
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235" t="s">
-        <v>54</v>
-      </c>
-      <c r="K235">
-        <v>2.2</v>
-      </c>
-      <c r="L235">
-        <v>3.1</v>
-      </c>
-      <c r="M235">
-        <v>3.6</v>
-      </c>
-      <c r="N235">
-        <v>2.05</v>
-      </c>
       <c r="O235">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G236" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K236">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,56 +21564,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
+        <v>2.2</v>
+      </c>
+      <c r="L237">
+        <v>3.2</v>
+      </c>
+      <c r="M237">
+        <v>3.4</v>
+      </c>
+      <c r="N237">
+        <v>2.15</v>
+      </c>
+      <c r="O237">
+        <v>3.1</v>
+      </c>
+      <c r="P237">
+        <v>3.8</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.85</v>
       </c>
-      <c r="L237">
-        <v>3.4</v>
-      </c>
-      <c r="M237">
-        <v>4.333</v>
-      </c>
-      <c r="N237">
-        <v>1.8</v>
-      </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.75</v>
-      </c>
-      <c r="Q237">
-        <v>-0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.875</v>
-      </c>
-      <c r="S237">
-        <v>1.975</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.95</v>
-      </c>
-      <c r="V237">
-        <v>1.9</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,55 +21653,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N238">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6836563</v>
+        <v>6838056</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G242" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K242">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L242">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N242">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P242">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T242">
         <v>2</v>
       </c>
       <c r="U242">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V242">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC242">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6838056</v>
+        <v>6836563</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G243" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K243">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L243">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M243">
+        <v>5.5</v>
+      </c>
+      <c r="N243">
+        <v>1.727</v>
+      </c>
+      <c r="O243">
         <v>3.4</v>
       </c>
-      <c r="N243">
-        <v>2</v>
-      </c>
-      <c r="O243">
-        <v>3.1</v>
-      </c>
       <c r="P243">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R243">
+        <v>1.95</v>
+      </c>
+      <c r="S243">
+        <v>1.9</v>
+      </c>
+      <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>1.825</v>
+      </c>
+      <c r="V243">
         <v>2.025</v>
       </c>
-      <c r="S243">
-        <v>1.825</v>
-      </c>
-      <c r="T243">
-        <v>2</v>
-      </c>
-      <c r="U243">
-        <v>1.975</v>
-      </c>
-      <c r="V243">
-        <v>1.875</v>
-      </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y243">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC243">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6839275</v>
+        <v>6838054</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,49 +22187,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K244">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N244">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
+        <v>2.05</v>
+      </c>
+      <c r="S244">
         <v>1.8</v>
       </c>
-      <c r="S244">
-        <v>2.05</v>
-      </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U244">
         <v>2.05</v>
@@ -22238,19 +22238,19 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6838054</v>
+        <v>6839275</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,49 +22276,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L245">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
+        <v>3.1</v>
+      </c>
+      <c r="P245">
         <v>2.9</v>
       </c>
-      <c r="P245">
-        <v>2.7</v>
-      </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
+        <v>1.8</v>
+      </c>
+      <c r="S245">
         <v>2.05</v>
       </c>
-      <c r="S245">
-        <v>1.8</v>
-      </c>
       <c r="T245">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
         <v>2.05</v>
@@ -22327,19 +22327,19 @@
         <v>1.8</v>
       </c>
       <c r="W245">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6838057</v>
+        <v>6838151</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,76 +22454,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K247">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N247">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
+        <v>1.75</v>
+      </c>
+      <c r="V247">
         <v>2.05</v>
       </c>
-      <c r="V247">
-        <v>1.8</v>
-      </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X247">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6838151</v>
+        <v>6838057</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
         <v>2</v>
       </c>
       <c r="U248">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V248">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W248">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB248">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L253">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O253">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W253">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
         <v>1</v>
       </c>
-      <c r="I254">
-        <v>2</v>
-      </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L254">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M254">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
+        <v>1.9</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
         <v>1.825</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.025</v>
       </c>
-      <c r="T254">
-        <v>1.75</v>
-      </c>
-      <c r="U254">
-        <v>1.8</v>
-      </c>
-      <c r="V254">
-        <v>2.05</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L274">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P274">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T274">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U274">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC274">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G275" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M275">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S275">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U275">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N310">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O310">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P310">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T310">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U310">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F311" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K311">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N311">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O311">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P311">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S311">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T311">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X311">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA311">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6838090</v>
+        <v>6839262</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,40 +28684,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F317" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>52</v>
       </c>
       <c r="K317">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L317">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N317">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O317">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
         <v>1.925</v>
@@ -28726,34 +28726,34 @@
         <v>1.925</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U317">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V317">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC317">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6839262</v>
+        <v>6838090</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,40 +28773,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G318" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
         <v>52</v>
       </c>
       <c r="K318">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L318">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M318">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N318">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P318">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
         <v>1.925</v>
@@ -28815,34 +28815,34 @@
         <v>1.925</v>
       </c>
       <c r="T318">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V318">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB318">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29023,7 +29023,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="321" spans="1:27">
+    <row r="321" spans="1:29">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -29045,6 +29045,15 @@
       <c r="G321" t="s">
         <v>34</v>
       </c>
+      <c r="H321">
+        <v>2</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321" t="s">
+        <v>54</v>
+      </c>
       <c r="K321">
         <v>3</v>
       </c>
@@ -29055,49 +29064,55 @@
         <v>2.5</v>
       </c>
       <c r="N321">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="O321">
         <v>3.1</v>
       </c>
       <c r="P321">
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
       <c r="Q321">
         <v>0</v>
       </c>
       <c r="R321">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S321">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T321">
         <v>2</v>
       </c>
       <c r="U321">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V321">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W321">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y321">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z321">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB321">
+        <v>1</v>
+      </c>
+      <c r="AC321">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -29119,6 +29134,15 @@
       <c r="G322" t="s">
         <v>41</v>
       </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" t="s">
+        <v>54</v>
+      </c>
       <c r="K322">
         <v>2.1</v>
       </c>
@@ -29129,49 +29153,55 @@
         <v>3.75</v>
       </c>
       <c r="N322">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="O322">
         <v>3.2</v>
       </c>
       <c r="P322">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q322">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R322">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S322">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T322">
         <v>1.75</v>
       </c>
       <c r="U322">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V322">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W322">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y322">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z322">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB322">
+        <v>0.825</v>
+      </c>
+      <c r="AC322">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -29193,6 +29223,15 @@
       <c r="G323" t="s">
         <v>33</v>
       </c>
+      <c r="H323">
+        <v>0</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>53</v>
+      </c>
       <c r="K323">
         <v>1.533</v>
       </c>
@@ -29224,28 +29263,34 @@
         <v>2</v>
       </c>
       <c r="U323">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V323">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y323">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z323">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB323">
+        <v>-1</v>
+      </c>
+      <c r="AC323">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -29267,6 +29312,15 @@
       <c r="G324" t="s">
         <v>29</v>
       </c>
+      <c r="H324">
+        <v>0</v>
+      </c>
+      <c r="I324">
+        <v>2</v>
+      </c>
+      <c r="J324" t="s">
+        <v>53</v>
+      </c>
       <c r="K324">
         <v>2.4</v>
       </c>
@@ -29277,49 +29331,55 @@
         <v>3.1</v>
       </c>
       <c r="N324">
-        <v>2.625</v>
+        <v>2.5</v>
       </c>
       <c r="O324">
         <v>3</v>
       </c>
       <c r="P324">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q324">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R324">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="S324">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T324">
         <v>2</v>
       </c>
       <c r="U324">
+        <v>2</v>
+      </c>
+      <c r="V324">
+        <v>1.85</v>
+      </c>
+      <c r="W324">
+        <v>-1</v>
+      </c>
+      <c r="X324">
+        <v>-1</v>
+      </c>
+      <c r="Y324">
         <v>2.1</v>
       </c>
-      <c r="V324">
-        <v>1.775</v>
-      </c>
-      <c r="W324">
-        <v>0</v>
-      </c>
-      <c r="X324">
-        <v>0</v>
-      </c>
-      <c r="Y324">
-        <v>0</v>
-      </c>
       <c r="Z324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:27">
+        <v>0.75</v>
+      </c>
+      <c r="AB324">
+        <v>0</v>
+      </c>
+      <c r="AC324">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -29341,6 +29401,15 @@
       <c r="G325" t="s">
         <v>45</v>
       </c>
+      <c r="H325">
+        <v>3</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325" t="s">
+        <v>54</v>
+      </c>
       <c r="K325">
         <v>1.8</v>
       </c>
@@ -29351,45 +29420,865 @@
         <v>5</v>
       </c>
       <c r="N325">
-        <v>1.55</v>
+        <v>1.533</v>
       </c>
       <c r="O325">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P325">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q325">
         <v>-1</v>
       </c>
       <c r="R325">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S325">
+        <v>1.925</v>
+      </c>
+      <c r="T325">
+        <v>2.25</v>
+      </c>
+      <c r="U325">
+        <v>2.025</v>
+      </c>
+      <c r="V325">
+        <v>1.825</v>
+      </c>
+      <c r="W325">
+        <v>0.5329999999999999</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
+        <v>-1</v>
+      </c>
+      <c r="Z325">
+        <v>0.925</v>
+      </c>
+      <c r="AA325">
+        <v>-1</v>
+      </c>
+      <c r="AB325">
+        <v>1.025</v>
+      </c>
+      <c r="AC325">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>6838173</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45359.6875</v>
+      </c>
+      <c r="F326" t="s">
+        <v>49</v>
+      </c>
+      <c r="G326" t="s">
+        <v>43</v>
+      </c>
+      <c r="K326">
+        <v>2.4</v>
+      </c>
+      <c r="L326">
+        <v>2.875</v>
+      </c>
+      <c r="M326">
+        <v>3.3</v>
+      </c>
+      <c r="N326">
+        <v>2.3</v>
+      </c>
+      <c r="O326">
+        <v>2.875</v>
+      </c>
+      <c r="P326">
+        <v>3.5</v>
+      </c>
+      <c r="Q326">
+        <v>-0.25</v>
+      </c>
+      <c r="R326">
+        <v>1.975</v>
+      </c>
+      <c r="S326">
+        <v>1.875</v>
+      </c>
+      <c r="T326">
+        <v>1.75</v>
+      </c>
+      <c r="U326">
         <v>1.85</v>
       </c>
-      <c r="T325">
-        <v>2</v>
-      </c>
-      <c r="U325">
+      <c r="V326">
+        <v>2</v>
+      </c>
+      <c r="W326">
+        <v>0</v>
+      </c>
+      <c r="X326">
+        <v>0</v>
+      </c>
+      <c r="Y326">
+        <v>0</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>6838093</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45360.51041666666</v>
+      </c>
+      <c r="F327" t="s">
+        <v>30</v>
+      </c>
+      <c r="G327" t="s">
+        <v>46</v>
+      </c>
+      <c r="K327">
+        <v>2.4</v>
+      </c>
+      <c r="L327">
+        <v>3</v>
+      </c>
+      <c r="M327">
+        <v>3.2</v>
+      </c>
+      <c r="N327">
+        <v>2.35</v>
+      </c>
+      <c r="O327">
+        <v>3</v>
+      </c>
+      <c r="P327">
+        <v>3.25</v>
+      </c>
+      <c r="Q327">
+        <v>-0.25</v>
+      </c>
+      <c r="R327">
+        <v>1.975</v>
+      </c>
+      <c r="S327">
+        <v>1.875</v>
+      </c>
+      <c r="T327">
+        <v>2</v>
+      </c>
+      <c r="U327">
+        <v>1.85</v>
+      </c>
+      <c r="V327">
+        <v>2</v>
+      </c>
+      <c r="W327">
+        <v>0</v>
+      </c>
+      <c r="X327">
+        <v>0</v>
+      </c>
+      <c r="Y327">
+        <v>0</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>6873347</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45360.60416666666</v>
+      </c>
+      <c r="F328" t="s">
+        <v>41</v>
+      </c>
+      <c r="G328" t="s">
+        <v>51</v>
+      </c>
+      <c r="K328">
+        <v>2.25</v>
+      </c>
+      <c r="L328">
+        <v>3.1</v>
+      </c>
+      <c r="M328">
+        <v>3.3</v>
+      </c>
+      <c r="N328">
+        <v>2.4</v>
+      </c>
+      <c r="O328">
+        <v>3</v>
+      </c>
+      <c r="P328">
+        <v>3.1</v>
+      </c>
+      <c r="Q328">
+        <v>-0.25</v>
+      </c>
+      <c r="R328">
+        <v>2.125</v>
+      </c>
+      <c r="S328">
+        <v>1.75</v>
+      </c>
+      <c r="T328">
+        <v>2</v>
+      </c>
+      <c r="U328">
+        <v>1.925</v>
+      </c>
+      <c r="V328">
+        <v>1.925</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>6838094</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45360.60416666666</v>
+      </c>
+      <c r="F329" t="s">
+        <v>34</v>
+      </c>
+      <c r="G329" t="s">
+        <v>36</v>
+      </c>
+      <c r="K329">
+        <v>1.95</v>
+      </c>
+      <c r="L329">
+        <v>3.1</v>
+      </c>
+      <c r="M329">
+        <v>4.333</v>
+      </c>
+      <c r="N329">
+        <v>1.95</v>
+      </c>
+      <c r="O329">
+        <v>3</v>
+      </c>
+      <c r="P329">
+        <v>4.5</v>
+      </c>
+      <c r="Q329">
+        <v>-0.5</v>
+      </c>
+      <c r="R329">
+        <v>1.975</v>
+      </c>
+      <c r="S329">
+        <v>1.875</v>
+      </c>
+      <c r="T329">
+        <v>2</v>
+      </c>
+      <c r="U329">
+        <v>2.025</v>
+      </c>
+      <c r="V329">
+        <v>1.825</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>6839261</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45360.70833333334</v>
+      </c>
+      <c r="F330" t="s">
+        <v>39</v>
+      </c>
+      <c r="G330" t="s">
+        <v>50</v>
+      </c>
+      <c r="K330">
+        <v>2.625</v>
+      </c>
+      <c r="L330">
+        <v>3.1</v>
+      </c>
+      <c r="M330">
+        <v>2.75</v>
+      </c>
+      <c r="N330">
+        <v>2.5</v>
+      </c>
+      <c r="O330">
+        <v>3.1</v>
+      </c>
+      <c r="P330">
+        <v>3</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>1.75</v>
+      </c>
+      <c r="S330">
+        <v>2.125</v>
+      </c>
+      <c r="T330">
+        <v>2</v>
+      </c>
+      <c r="U330">
+        <v>2.025</v>
+      </c>
+      <c r="V330">
+        <v>1.825</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7025487</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45361.41666666666</v>
+      </c>
+      <c r="F331" t="s">
+        <v>35</v>
+      </c>
+      <c r="G331" t="s">
+        <v>42</v>
+      </c>
+      <c r="K331">
+        <v>2.3</v>
+      </c>
+      <c r="L331">
+        <v>3</v>
+      </c>
+      <c r="M331">
+        <v>3.5</v>
+      </c>
+      <c r="N331">
+        <v>2.4</v>
+      </c>
+      <c r="O331">
+        <v>2.9</v>
+      </c>
+      <c r="P331">
+        <v>3.4</v>
+      </c>
+      <c r="Q331">
+        <v>-0.25</v>
+      </c>
+      <c r="R331">
+        <v>2.025</v>
+      </c>
+      <c r="S331">
+        <v>1.825</v>
+      </c>
+      <c r="T331">
+        <v>2</v>
+      </c>
+      <c r="U331">
+        <v>2.05</v>
+      </c>
+      <c r="V331">
         <v>1.8</v>
       </c>
-      <c r="V325">
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>6838172</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45361.51041666666</v>
+      </c>
+      <c r="F332" t="s">
+        <v>31</v>
+      </c>
+      <c r="G332" t="s">
+        <v>47</v>
+      </c>
+      <c r="K332">
+        <v>2.15</v>
+      </c>
+      <c r="L332">
+        <v>3.1</v>
+      </c>
+      <c r="M332">
+        <v>3.75</v>
+      </c>
+      <c r="N332">
         <v>2.05</v>
       </c>
-      <c r="W325">
-        <v>0</v>
-      </c>
-      <c r="X325">
-        <v>0</v>
-      </c>
-      <c r="Y325">
-        <v>0</v>
-      </c>
-      <c r="Z325">
-        <v>0</v>
-      </c>
-      <c r="AA325">
+      <c r="O332">
+        <v>3.2</v>
+      </c>
+      <c r="P332">
+        <v>3.8</v>
+      </c>
+      <c r="Q332">
+        <v>-0.5</v>
+      </c>
+      <c r="R332">
+        <v>2.05</v>
+      </c>
+      <c r="S332">
+        <v>1.8</v>
+      </c>
+      <c r="T332">
+        <v>2.25</v>
+      </c>
+      <c r="U332">
+        <v>1.975</v>
+      </c>
+      <c r="V332">
+        <v>1.875</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>6838174</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45361.51041666666</v>
+      </c>
+      <c r="F333" t="s">
+        <v>48</v>
+      </c>
+      <c r="G333" t="s">
+        <v>37</v>
+      </c>
+      <c r="K333">
+        <v>3.2</v>
+      </c>
+      <c r="L333">
+        <v>3.25</v>
+      </c>
+      <c r="M333">
+        <v>2.3</v>
+      </c>
+      <c r="N333">
+        <v>3.2</v>
+      </c>
+      <c r="O333">
+        <v>3.25</v>
+      </c>
+      <c r="P333">
+        <v>2.3</v>
+      </c>
+      <c r="Q333">
+        <v>0.25</v>
+      </c>
+      <c r="R333">
+        <v>1.825</v>
+      </c>
+      <c r="S333">
+        <v>2.025</v>
+      </c>
+      <c r="T333">
+        <v>2</v>
+      </c>
+      <c r="U333">
+        <v>1.775</v>
+      </c>
+      <c r="V333">
+        <v>2.1</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7023450</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45361.60416666666</v>
+      </c>
+      <c r="F334" t="s">
+        <v>29</v>
+      </c>
+      <c r="G334" t="s">
+        <v>38</v>
+      </c>
+      <c r="K334">
+        <v>1.8</v>
+      </c>
+      <c r="L334">
+        <v>3.4</v>
+      </c>
+      <c r="M334">
+        <v>4.75</v>
+      </c>
+      <c r="N334">
+        <v>1.8</v>
+      </c>
+      <c r="O334">
+        <v>3.4</v>
+      </c>
+      <c r="P334">
+        <v>5</v>
+      </c>
+      <c r="Q334">
+        <v>-0.75</v>
+      </c>
+      <c r="R334">
+        <v>2</v>
+      </c>
+      <c r="S334">
+        <v>1.85</v>
+      </c>
+      <c r="T334">
+        <v>2.25</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>1.85</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:29">
+      <c r="A335" s="1">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>6836576</v>
+      </c>
+      <c r="C335" t="s">
+        <v>28</v>
+      </c>
+      <c r="D335" t="s">
+        <v>28</v>
+      </c>
+      <c r="E335" s="2">
+        <v>45361.70833333334</v>
+      </c>
+      <c r="F335" t="s">
+        <v>45</v>
+      </c>
+      <c r="G335" t="s">
+        <v>44</v>
+      </c>
+      <c r="K335">
+        <v>3.5</v>
+      </c>
+      <c r="L335">
+        <v>3.25</v>
+      </c>
+      <c r="M335">
+        <v>2</v>
+      </c>
+      <c r="N335">
+        <v>3.3</v>
+      </c>
+      <c r="O335">
+        <v>3.1</v>
+      </c>
+      <c r="P335">
+        <v>2.15</v>
+      </c>
+      <c r="Q335">
+        <v>0.25</v>
+      </c>
+      <c r="R335">
+        <v>2</v>
+      </c>
+      <c r="S335">
+        <v>1.85</v>
+      </c>
+      <c r="T335">
+        <v>2</v>
+      </c>
+      <c r="U335">
+        <v>1.95</v>
+      </c>
+      <c r="V335">
+        <v>1.9</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>0</v>
+      </c>
+      <c r="Y335">
+        <v>0</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:29">
+      <c r="A336" s="1">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>7025486</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>28</v>
+      </c>
+      <c r="E336" s="2">
+        <v>45362.6875</v>
+      </c>
+      <c r="F336" t="s">
+        <v>33</v>
+      </c>
+      <c r="G336" t="s">
+        <v>40</v>
+      </c>
+      <c r="K336">
+        <v>3.1</v>
+      </c>
+      <c r="L336">
+        <v>3.1</v>
+      </c>
+      <c r="M336">
+        <v>2.25</v>
+      </c>
+      <c r="N336">
+        <v>3</v>
+      </c>
+      <c r="O336">
+        <v>3.2</v>
+      </c>
+      <c r="P336">
+        <v>2.375</v>
+      </c>
+      <c r="Q336">
+        <v>0.25</v>
+      </c>
+      <c r="R336">
+        <v>1.8</v>
+      </c>
+      <c r="S336">
+        <v>2.05</v>
+      </c>
+      <c r="T336">
+        <v>2</v>
+      </c>
+      <c r="U336">
+        <v>2.05</v>
+      </c>
+      <c r="V336">
+        <v>1.8</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>0</v>
+      </c>
+      <c r="Y336">
+        <v>0</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1717,76 +1717,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,76 +1806,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <v>-0</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6838107</v>
+        <v>6837974</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,31 +5722,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59">
+        <v>2.9</v>
+      </c>
+      <c r="L59">
+        <v>2.9</v>
+      </c>
+      <c r="M59">
+        <v>2.5</v>
+      </c>
+      <c r="N59">
         <v>3</v>
-      </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
-      <c r="M59">
-        <v>2.375</v>
-      </c>
-      <c r="N59">
-        <v>2.9</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5758,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6837974</v>
+        <v>6838107</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,31 +5811,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>2.375</v>
+      </c>
+      <c r="N60">
         <v>2.9</v>
-      </c>
-      <c r="L60">
-        <v>2.9</v>
-      </c>
-      <c r="M60">
-        <v>2.5</v>
-      </c>
-      <c r="N60">
-        <v>3</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5847,37 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
+        <v>1.825</v>
+      </c>
+      <c r="W60">
         <v>1.9</v>
       </c>
-      <c r="W60">
-        <v>-1</v>
-      </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6837992</v>
+        <v>6836530</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,76 +8570,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K91">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N91">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R91">
+        <v>1.85</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
+        <v>2.025</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="S91">
-        <v>2.025</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>1.8</v>
-      </c>
-      <c r="V91">
-        <v>2.05</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,76 +8659,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L92">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q92">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.925</v>
+      </c>
+      <c r="V113">
+        <v>1.925</v>
+      </c>
+      <c r="W113">
+        <v>0.75</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.5</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.85</v>
-      </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2.05</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.4</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>1</v>
-      </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
+        <v>3.6</v>
+      </c>
+      <c r="N114">
+        <v>1.909</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
         <v>4.5</v>
       </c>
-      <c r="N114">
-        <v>1.75</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>5.75</v>
-      </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6839297</v>
+        <v>6836542</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11507,76 +11507,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2.9</v>
       </c>
       <c r="M124">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P124">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.9</v>
       </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6836542</v>
+        <v>6839297</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,76 +11596,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L125">
         <v>2.9</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N125">
+        <v>3.5</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
         <v>2.2</v>
       </c>
-      <c r="O125">
-        <v>2.9</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6838122</v>
+        <v>6836543</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,46 +11685,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>5.75</v>
+      </c>
+      <c r="N126">
+        <v>1.7</v>
+      </c>
+      <c r="O126">
         <v>3.5</v>
       </c>
-      <c r="M126">
-        <v>6.5</v>
-      </c>
-      <c r="N126">
-        <v>1.6</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>2.25</v>
@@ -11736,25 +11736,25 @@
         <v>1.8</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6836543</v>
+        <v>6838122</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,46 +11774,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K127">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
         <v>2.25</v>
@@ -11825,25 +11825,25 @@
         <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6836547</v>
+        <v>6838128</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,73 +14533,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6838128</v>
+        <v>6836547</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,73 +14622,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K159">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N159">
+        <v>2.5</v>
+      </c>
+      <c r="O159">
+        <v>3.25</v>
+      </c>
+      <c r="P159">
         <v>2.9</v>
       </c>
-      <c r="O159">
-        <v>3</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
-      </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838026</v>
+        <v>6838028</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
         <v>1.975</v>
       </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
         <v>1.95</v>
       </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y169">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838028</v>
+        <v>6838026</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.975</v>
+      </c>
+      <c r="S170">
         <v>1.875</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
       <c r="T170">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.9</v>
       </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z170">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N179">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
         <v>3.1</v>
       </c>
-      <c r="P179">
-        <v>3.8</v>
-      </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.75</v>
+      </c>
+      <c r="S179">
+        <v>2.125</v>
+      </c>
+      <c r="T179">
+        <v>1.75</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="S179">
-        <v>1.75</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA179">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K180">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.75</v>
+      </c>
+      <c r="N180">
+        <v>2.1</v>
+      </c>
+      <c r="O180">
         <v>3.1</v>
       </c>
-      <c r="M180">
-        <v>2.625</v>
-      </c>
-      <c r="N180">
-        <v>2.55</v>
-      </c>
-      <c r="O180">
-        <v>2.9</v>
-      </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
         <v>1.75</v>
       </c>
-      <c r="S180">
-        <v>2.125</v>
-      </c>
       <c r="T180">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
         <v>0.75</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
       <c r="AB180">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
+        <v>2.6</v>
+      </c>
+      <c r="N181">
+        <v>2.6</v>
+      </c>
+      <c r="O181">
+        <v>3.4</v>
+      </c>
+      <c r="P181">
+        <v>2.7</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
         <v>2.5</v>
       </c>
-      <c r="N181">
-        <v>3.6</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>2.2</v>
-      </c>
-      <c r="Q181">
-        <v>0.25</v>
-      </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.9</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L182">
+        <v>3.1</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.6</v>
+      </c>
+      <c r="O182">
         <v>3.2</v>
       </c>
-      <c r="M182">
-        <v>2.6</v>
-      </c>
-      <c r="N182">
-        <v>2.6</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>1.9</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
         <v>1.85</v>
       </c>
-      <c r="S182">
-        <v>2</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
-      <c r="U182">
-        <v>1.85</v>
-      </c>
-      <c r="V182">
-        <v>2</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6838136</v>
+        <v>6836554</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O190">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6836554</v>
+        <v>6838136</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17470,58 +17470,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>54</v>
       </c>
       <c r="K191">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N191">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O191">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P191">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q191">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17530,16 +17530,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6839284</v>
+        <v>6838037</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F196" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>54</v>
+      </c>
+      <c r="K196">
+        <v>3.6</v>
+      </c>
+      <c r="L196">
+        <v>3.25</v>
+      </c>
+      <c r="M196">
+        <v>2.1</v>
+      </c>
+      <c r="N196">
         <v>3</v>
       </c>
-      <c r="J196" t="s">
-        <v>53</v>
-      </c>
-      <c r="K196">
-        <v>2.15</v>
-      </c>
-      <c r="L196">
-        <v>3.1</v>
-      </c>
-      <c r="M196">
-        <v>3.6</v>
-      </c>
-      <c r="N196">
-        <v>2.3</v>
-      </c>
       <c r="O196">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P196">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T196">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U196">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA196">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6838037</v>
+        <v>6839284</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,76 +18004,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F197" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G197" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J197" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K197">
+        <v>2.15</v>
+      </c>
+      <c r="L197">
+        <v>3.1</v>
+      </c>
+      <c r="M197">
         <v>3.6</v>
       </c>
-      <c r="L197">
-        <v>3.25</v>
-      </c>
-      <c r="M197">
+      <c r="N197">
+        <v>2.3</v>
+      </c>
+      <c r="O197">
+        <v>2.9</v>
+      </c>
+      <c r="P197">
+        <v>3.4</v>
+      </c>
+      <c r="Q197">
+        <v>-0.25</v>
+      </c>
+      <c r="R197">
+        <v>2</v>
+      </c>
+      <c r="S197">
+        <v>1.85</v>
+      </c>
+      <c r="T197">
+        <v>1.75</v>
+      </c>
+      <c r="U197">
+        <v>1.775</v>
+      </c>
+      <c r="V197">
         <v>2.1</v>
       </c>
-      <c r="N197">
-        <v>3</v>
-      </c>
-      <c r="O197">
-        <v>3.2</v>
-      </c>
-      <c r="P197">
+      <c r="W197">
+        <v>-1</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
         <v>2.4</v>
       </c>
-      <c r="Q197">
-        <v>0.25</v>
-      </c>
-      <c r="R197">
-        <v>1.775</v>
-      </c>
-      <c r="S197">
-        <v>2.1</v>
-      </c>
-      <c r="T197">
-        <v>2</v>
-      </c>
-      <c r="U197">
-        <v>1.8</v>
-      </c>
-      <c r="V197">
-        <v>2.05</v>
-      </c>
-      <c r="W197">
-        <v>2</v>
-      </c>
-      <c r="X197">
-        <v>-1</v>
-      </c>
-      <c r="Y197">
-        <v>-1</v>
-      </c>
       <c r="Z197">
+        <v>-1</v>
+      </c>
+      <c r="AA197">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB197">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
       <c r="AC197">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6839283</v>
+        <v>6838138</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K202">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
+        <v>3.2</v>
+      </c>
+      <c r="M202">
         <v>3</v>
       </c>
-      <c r="M202">
+      <c r="N202">
+        <v>2.375</v>
+      </c>
+      <c r="O202">
+        <v>3.25</v>
+      </c>
+      <c r="P202">
         <v>3.1</v>
       </c>
-      <c r="N202">
-        <v>2.8</v>
-      </c>
-      <c r="O202">
-        <v>3</v>
-      </c>
-      <c r="P202">
-        <v>2.7</v>
-      </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6838138</v>
+        <v>6839283</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,76 +18538,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M203">
+        <v>3.1</v>
+      </c>
+      <c r="N203">
+        <v>2.8</v>
+      </c>
+      <c r="O203">
         <v>3</v>
       </c>
-      <c r="N203">
-        <v>2.375</v>
-      </c>
-      <c r="O203">
-        <v>3.25</v>
-      </c>
       <c r="P203">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X203">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,61 +19428,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L213">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M213">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N213">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P213">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>1.825</v>
+      </c>
+      <c r="S213">
         <v>2.025</v>
       </c>
-      <c r="S213">
-        <v>1.825</v>
-      </c>
       <c r="T213">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y213">
         <v>-1</v>
@@ -19491,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB213">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC213">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,62 +19517,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G214" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L214">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M214">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N214">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O214">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P214">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>2.025</v>
+      </c>
+      <c r="S214">
         <v>1.825</v>
       </c>
-      <c r="S214">
-        <v>2.025</v>
-      </c>
       <c r="T214">
+        <v>2</v>
+      </c>
+      <c r="U214">
+        <v>2.05</v>
+      </c>
+      <c r="V214">
+        <v>1.8</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
         <v>2.25</v>
       </c>
-      <c r="U214">
-        <v>1.925</v>
-      </c>
-      <c r="V214">
-        <v>1.925</v>
-      </c>
-      <c r="W214">
-        <v>-1</v>
-      </c>
-      <c r="X214">
-        <v>2.75</v>
-      </c>
       <c r="Y214">
         <v>-1</v>
       </c>
@@ -19580,13 +19580,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC214">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6838052</v>
+        <v>6838146</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,61 +20941,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>52</v>
       </c>
       <c r="K230">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L230">
         <v>3.75</v>
       </c>
       <c r="M230">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N230">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S230">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21004,13 +21004,13 @@
         <v>-1</v>
       </c>
       <c r="AA230">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB230">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC230">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6838146</v>
+        <v>6838052</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,61 +21030,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I231">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J231" t="s">
         <v>52</v>
       </c>
       <c r="K231">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L231">
         <v>3.75</v>
       </c>
       <c r="M231">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N231">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V231">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21093,13 +21093,13 @@
         <v>-1</v>
       </c>
       <c r="AA231">
+        <v>1.025</v>
+      </c>
+      <c r="AB231">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB231">
-        <v>-1</v>
-      </c>
       <c r="AC231">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
+        <v>4.2</v>
+      </c>
+      <c r="N233">
+        <v>1.909</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
         <v>4</v>
       </c>
-      <c r="N233">
-        <v>2.3</v>
-      </c>
-      <c r="O233">
-        <v>2.8</v>
-      </c>
-      <c r="P233">
-        <v>3.6</v>
-      </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
         <v>1.975</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.875</v>
       </c>
-      <c r="T233">
-        <v>1.75</v>
-      </c>
-      <c r="U233">
-        <v>2.05</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AA233">
+      <c r="AC233">
         <v>0.4375</v>
-      </c>
-      <c r="AB233">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N234">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.875</v>
+      </c>
+      <c r="T234">
+        <v>1.75</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>1.8</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
         <v>-0.5</v>
       </c>
-      <c r="R234">
-        <v>1.95</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>2.5</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB234">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC234">
         <v>-0.5</v>
-      </c>
-      <c r="AC234">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6838054</v>
+        <v>6839275</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,49 +22187,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N244">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O244">
+        <v>3.1</v>
+      </c>
+      <c r="P244">
         <v>2.9</v>
       </c>
-      <c r="P244">
-        <v>2.7</v>
-      </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
         <v>2.05</v>
       </c>
-      <c r="S244">
-        <v>1.8</v>
-      </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
         <v>2.05</v>
@@ -22238,19 +22238,19 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6839275</v>
+        <v>6838054</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,49 +22276,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N245">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O245">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
+        <v>2.05</v>
+      </c>
+      <c r="S245">
         <v>1.8</v>
       </c>
-      <c r="S245">
-        <v>2.05</v>
-      </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>2.05</v>
@@ -22327,19 +22327,19 @@
         <v>1.8</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X245">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6838151</v>
+        <v>6838057</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,76 +22454,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V247">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W247">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6838057</v>
+        <v>6838151</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K248">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
         <v>2</v>
       </c>
       <c r="U248">
+        <v>1.75</v>
+      </c>
+      <c r="V248">
         <v>2.05</v>
       </c>
-      <c r="V248">
-        <v>1.8</v>
-      </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC248">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N251">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
         <v>1</v>
       </c>
-      <c r="I253">
-        <v>2</v>
-      </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L253">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P253">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
+        <v>1.9</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
         <v>1.825</v>
       </c>
-      <c r="S253">
+      <c r="V253">
         <v>2.025</v>
       </c>
-      <c r="T253">
-        <v>1.75</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA253">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L254">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M254">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O254">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P254">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W254">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7729197</v>
+        <v>7729226</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K267">
+        <v>2.6</v>
+      </c>
+      <c r="L267">
+        <v>3.1</v>
+      </c>
+      <c r="M267">
         <v>2.8</v>
       </c>
-      <c r="L267">
-        <v>3.2</v>
-      </c>
-      <c r="M267">
-        <v>2.5</v>
-      </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O267">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P267">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y267">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC267">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7729226</v>
+        <v>7729197</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G268" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L268">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N268">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O268">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P268">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S268">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T268">
         <v>2</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7759317</v>
+        <v>7759323</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,49 +25302,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L279">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M279">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N279">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O279">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P279">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S279">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U279">
         <v>1.975</v>
@@ -25356,22 +25356,22 @@
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y279">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC279">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7759323</v>
+        <v>7759317</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,49 +25391,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G280" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K280">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L280">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M280">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N280">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O280">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R280">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S280">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T280">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
         <v>1.975</v>
@@ -25445,22 +25445,22 @@
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G289" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L289">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M289">
+        <v>3.4</v>
+      </c>
+      <c r="N289">
         <v>3</v>
       </c>
-      <c r="N289">
-        <v>2.25</v>
-      </c>
       <c r="O289">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P289">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W289">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
+        <v>2.6</v>
+      </c>
+      <c r="L290">
+        <v>2.9</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
         <v>2.25</v>
       </c>
-      <c r="L290">
-        <v>3.1</v>
-      </c>
-      <c r="M290">
-        <v>3.4</v>
-      </c>
-      <c r="N290">
+      <c r="O290">
         <v>3</v>
       </c>
-      <c r="O290">
-        <v>2.875</v>
-      </c>
       <c r="P290">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W290">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838083</v>
+        <v>6838084</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,40 +27794,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F307" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G307" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307" t="s">
+        <v>52</v>
+      </c>
+      <c r="K307">
+        <v>3.2</v>
+      </c>
+      <c r="L307">
         <v>3</v>
       </c>
-      <c r="J307" t="s">
-        <v>53</v>
-      </c>
-      <c r="K307">
-        <v>2</v>
-      </c>
-      <c r="L307">
-        <v>3.3</v>
-      </c>
       <c r="M307">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N307">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O307">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P307">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q307">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R307">
         <v>1.925</v>
@@ -27836,34 +27836,34 @@
         <v>1.925</v>
       </c>
       <c r="T307">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U307">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V307">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y307">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA307">
+        <v>-0</v>
+      </c>
+      <c r="AB307">
+        <v>-1</v>
+      </c>
+      <c r="AC307">
         <v>0.925</v>
-      </c>
-      <c r="AB307">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC307">
-        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6838084</v>
+        <v>6838083</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,40 +27883,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G308" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J308" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K308">
+        <v>2</v>
+      </c>
+      <c r="L308">
+        <v>3.3</v>
+      </c>
+      <c r="M308">
+        <v>3.75</v>
+      </c>
+      <c r="N308">
+        <v>2</v>
+      </c>
+      <c r="O308">
         <v>3.2</v>
       </c>
-      <c r="L308">
-        <v>3</v>
-      </c>
-      <c r="M308">
-        <v>2.45</v>
-      </c>
-      <c r="N308">
-        <v>2.8</v>
-      </c>
-      <c r="O308">
-        <v>2.9</v>
-      </c>
       <c r="P308">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q308">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R308">
         <v>1.925</v>
@@ -27925,34 +27925,34 @@
         <v>1.925</v>
       </c>
       <c r="T308">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U308">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V308">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y308">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z308">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA308">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB308">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC308">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G310" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K310">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N310">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O310">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P310">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q310">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R310">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S310">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T310">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U310">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V310">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X310">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA310">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB310">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC310">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F311" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G311" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K311">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N311">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O311">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P311">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q311">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R311">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S311">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T311">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U311">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V311">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W311">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X311">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA311">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB311">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC311">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6839262</v>
+        <v>6838090</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,40 +28684,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F317" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J317" t="s">
         <v>52</v>
       </c>
       <c r="K317">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L317">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M317">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N317">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O317">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P317">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q317">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R317">
         <v>1.925</v>
@@ -28726,34 +28726,34 @@
         <v>1.925</v>
       </c>
       <c r="T317">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U317">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V317">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA317">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB317">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC317">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6838090</v>
+        <v>6839262</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,40 +28773,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F318" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G318" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>52</v>
       </c>
       <c r="K318">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L318">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M318">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N318">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O318">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P318">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
         <v>1.925</v>
@@ -28815,34 +28815,34 @@
         <v>1.925</v>
       </c>
       <c r="T318">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U318">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V318">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA318">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB318">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC318">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -29490,6 +29490,15 @@
       <c r="G326" t="s">
         <v>43</v>
       </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326" t="s">
+        <v>54</v>
+      </c>
       <c r="K326">
         <v>2.4</v>
       </c>
@@ -29503,43 +29512,49 @@
         <v>2.3</v>
       </c>
       <c r="O326">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="P326">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q326">
         <v>-0.25</v>
       </c>
       <c r="R326">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S326">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T326">
         <v>1.75</v>
       </c>
       <c r="U326">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V326">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W326">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y326">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA326">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB326">
+        <v>0.475</v>
+      </c>
+      <c r="AC326">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="327" spans="1:29">
@@ -29574,22 +29589,22 @@
         <v>3.2</v>
       </c>
       <c r="N327">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O327">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P327">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q327">
         <v>-0.25</v>
       </c>
       <c r="R327">
-        <v>1.975</v>
+        <v>2.125</v>
       </c>
       <c r="S327">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T327">
         <v>2</v>
@@ -29621,7 +29636,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6873347</v>
+        <v>6838094</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29633,46 +29648,46 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F328" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G328" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="K328">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L328">
         <v>3.1</v>
       </c>
       <c r="M328">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N328">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O328">
         <v>3</v>
       </c>
       <c r="P328">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R328">
-        <v>2.125</v>
+        <v>1.925</v>
       </c>
       <c r="S328">
+        <v>1.925</v>
+      </c>
+      <c r="T328">
         <v>1.75</v>
       </c>
-      <c r="T328">
-        <v>2</v>
-      </c>
       <c r="U328">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V328">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W328">
         <v>0</v>
@@ -29695,7 +29710,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6838094</v>
+        <v>6873347</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29707,46 +29722,46 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F329" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G329" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="K329">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L329">
         <v>3.1</v>
       </c>
       <c r="M329">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N329">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O329">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P329">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R329">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S329">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T329">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U329">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V329">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29805,22 +29820,22 @@
         <v>3</v>
       </c>
       <c r="Q330">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R330">
+        <v>2.125</v>
+      </c>
+      <c r="S330">
         <v>1.75</v>
       </c>
-      <c r="S330">
-        <v>2.125</v>
-      </c>
       <c r="T330">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U330">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V330">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29917,7 +29932,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6838172</v>
+        <v>6838174</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29929,46 +29944,46 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F332" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K332">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L332">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M332">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N332">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="O332">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P332">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R332">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S332">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T332">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U332">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V332">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -29991,7 +30006,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6838174</v>
+        <v>6838172</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30003,46 +30018,46 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F333" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K333">
+        <v>2.15</v>
+      </c>
+      <c r="L333">
+        <v>3.1</v>
+      </c>
+      <c r="M333">
+        <v>3.75</v>
+      </c>
+      <c r="N333">
+        <v>2.05</v>
+      </c>
+      <c r="O333">
         <v>3.2</v>
       </c>
-      <c r="L333">
-        <v>3.25</v>
-      </c>
-      <c r="M333">
-        <v>2.3</v>
-      </c>
-      <c r="N333">
-        <v>3.2</v>
-      </c>
-      <c r="O333">
-        <v>3.25</v>
-      </c>
       <c r="P333">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R333">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="S333">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="T333">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V333">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30092,13 +30107,13 @@
         <v>4.75</v>
       </c>
       <c r="N334">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O334">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P334">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q334">
         <v>-0.75</v>
@@ -30113,10 +30128,10 @@
         <v>2.25</v>
       </c>
       <c r="U334">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V334">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W334">
         <v>0</v>
@@ -30166,10 +30181,10 @@
         <v>2</v>
       </c>
       <c r="N335">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O335">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P335">
         <v>2.15</v>
@@ -30178,19 +30193,19 @@
         <v>0.25</v>
       </c>
       <c r="R335">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S335">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T335">
         <v>2</v>
       </c>
       <c r="U335">
+        <v>1.9</v>
+      </c>
+      <c r="V335">
         <v>1.95</v>
-      </c>
-      <c r="V335">
-        <v>1.9</v>
       </c>
       <c r="W335">
         <v>0</v>
@@ -30240,31 +30255,31 @@
         <v>2.25</v>
       </c>
       <c r="N336">
+        <v>3.2</v>
+      </c>
+      <c r="O336">
         <v>3</v>
       </c>
-      <c r="O336">
-        <v>3.2</v>
-      </c>
       <c r="P336">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="Q336">
         <v>0.25</v>
       </c>
       <c r="R336">
+        <v>1.75</v>
+      </c>
+      <c r="S336">
+        <v>2.125</v>
+      </c>
+      <c r="T336">
+        <v>1.75</v>
+      </c>
+      <c r="U336">
         <v>1.8</v>
       </c>
-      <c r="S336">
+      <c r="V336">
         <v>2.05</v>
-      </c>
-      <c r="T336">
-        <v>2</v>
-      </c>
-      <c r="U336">
-        <v>2.05</v>
-      </c>
-      <c r="V336">
-        <v>1.8</v>
       </c>
       <c r="W336">
         <v>0</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC336"/>
+  <dimension ref="A1:AC345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1717,76 +1717,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,76 +1806,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>-0</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N55">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S55">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V55">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N56">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
+        <v>2.025</v>
+      </c>
+      <c r="S56">
+        <v>1.825</v>
+      </c>
+      <c r="T56">
         <v>1.75</v>
       </c>
-      <c r="S56">
+      <c r="U56">
+        <v>1.8</v>
+      </c>
+      <c r="V56">
         <v>2.05</v>
       </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.95</v>
-      </c>
-      <c r="V56">
-        <v>1.9</v>
-      </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K58">
+        <v>2.2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3.3</v>
+      </c>
+      <c r="N58">
         <v>1.909</v>
       </c>
-      <c r="L58">
-        <v>3.1</v>
-      </c>
-      <c r="M58">
-        <v>4.2</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7184008</v>
+        <v>6836526</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,40 +6256,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65">
+        <v>3.4</v>
+      </c>
+      <c r="L65">
+        <v>2.9</v>
+      </c>
+      <c r="M65">
         <v>2.2</v>
       </c>
-      <c r="L65">
+      <c r="N65">
+        <v>2.3</v>
+      </c>
+      <c r="O65">
         <v>3</v>
       </c>
-      <c r="M65">
-        <v>3.3</v>
-      </c>
-      <c r="N65">
-        <v>1.75</v>
-      </c>
-      <c r="O65">
-        <v>3.75</v>
-      </c>
       <c r="P65">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6298,34 +6298,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U65">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z65">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6836526</v>
+        <v>7184008</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,40 +6345,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K66">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M66">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N66">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6387,34 +6387,34 @@
         <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA66">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6839307</v>
+        <v>6838110</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,76 +6701,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>54</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70">
-        <v>1.363</v>
-      </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
       <c r="M70">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6838110</v>
+        <v>6839307</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,76 +6790,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>9.5</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <v>-1</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
+        <v>2.025</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>3</v>
       </c>
-      <c r="M71">
-        <v>4.2</v>
-      </c>
-      <c r="N71">
-        <v>1.8</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
-      <c r="P71">
-        <v>5</v>
-      </c>
-      <c r="Q71">
-        <v>-0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.85</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2</v>
-      </c>
-      <c r="U71">
-        <v>1.8</v>
-      </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
-      <c r="W71">
-        <v>0.8</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6836528</v>
+        <v>6837986</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7413,76 +7413,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K78">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L78">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M78">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O78">
+        <v>3.1</v>
+      </c>
+      <c r="P78">
         <v>3</v>
       </c>
-      <c r="P78">
-        <v>3.75</v>
-      </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W78">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X78">
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7490,7 +7490,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6837986</v>
+        <v>6836528</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7502,76 +7502,76 @@
         <v>45192.66666666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K79">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="L79">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N79">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6836530</v>
+        <v>6837992</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,76 +8570,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="L91">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>2.625</v>
+        <v>1.8</v>
       </c>
       <c r="O91">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837992</v>
+        <v>6837991</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,37 +8659,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O92">
         <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
@@ -8701,34 +8701,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6837991</v>
+        <v>6836530</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,76 +8748,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>52</v>
+      </c>
+      <c r="K93">
+        <v>2.35</v>
+      </c>
+      <c r="L93">
+        <v>3.1</v>
+      </c>
+      <c r="M93">
         <v>3</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93" t="s">
-        <v>54</v>
-      </c>
-      <c r="K93">
-        <v>1.833</v>
-      </c>
-      <c r="L93">
-        <v>3.3</v>
-      </c>
-      <c r="M93">
-        <v>4.2</v>
-      </c>
       <c r="N93">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O93">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W93">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>-0</v>
+      </c>
+      <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.825</v>
-      </c>
-      <c r="AA93">
-        <v>-1</v>
-      </c>
-      <c r="AB93">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6839301</v>
+        <v>6838118</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,76 +9282,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K99">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M99">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P99">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
+        <v>1.825</v>
+      </c>
+      <c r="S99">
+        <v>2.025</v>
+      </c>
+      <c r="T99">
+        <v>1.75</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
         <v>1.9</v>
       </c>
-      <c r="S99">
-        <v>1.95</v>
-      </c>
-      <c r="T99">
-        <v>2.25</v>
-      </c>
-      <c r="U99">
-        <v>2.025</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6838118</v>
+        <v>6839301</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,76 +9371,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G100" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
       <c r="J100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K100">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N100">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
-      <c r="V100">
-        <v>1.9</v>
-      </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z100">
+        <v>-1</v>
+      </c>
+      <c r="AA100">
+        <v>0.95</v>
+      </c>
+      <c r="AB100">
+        <v>-1</v>
+      </c>
+      <c r="AC100">
         <v>0.825</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>-1</v>
-      </c>
-      <c r="AC100">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,52 +9638,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
+        <v>2.3</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
         <v>3.1</v>
       </c>
-      <c r="L103">
+      <c r="N103">
+        <v>2.5</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
         <v>3.1</v>
       </c>
-      <c r="M103">
-        <v>2.25</v>
-      </c>
-      <c r="N103">
-        <v>3.75</v>
-      </c>
-      <c r="O103">
-        <v>3.2</v>
-      </c>
-      <c r="P103">
-        <v>2.1</v>
-      </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
+        <v>2.125</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.75</v>
       </c>
       <c r="V103">
         <v>2.05</v>
@@ -9695,19 +9695,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,52 +9727,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>53</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.75</v>
-      </c>
-      <c r="S104">
-        <v>2.125</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
       </c>
       <c r="V104">
         <v>2.05</v>
@@ -9784,19 +9784,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,73 +11151,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
         <v>2.875</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11240,73 +11240,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>2.875</v>
       </c>
       <c r="M121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,19 +12575,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12596,52 +12596,52 @@
         <v>3.2</v>
       </c>
       <c r="M136">
+        <v>3.75</v>
+      </c>
+      <c r="N136">
+        <v>2.15</v>
+      </c>
+      <c r="O136">
+        <v>3.2</v>
+      </c>
+      <c r="P136">
         <v>3.6</v>
       </c>
-      <c r="N136">
-        <v>2.05</v>
-      </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,19 +12664,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12685,52 +12685,52 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6836546</v>
+        <v>6838126</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,13 +13554,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13569,61 +13569,61 @@
         <v>54</v>
       </c>
       <c r="K147">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L147">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
+        <v>4.333</v>
+      </c>
+      <c r="N147">
+        <v>1.75</v>
+      </c>
+      <c r="O147">
         <v>3.75</v>
       </c>
-      <c r="N147">
-        <v>1.8</v>
-      </c>
-      <c r="O147">
-        <v>3.3</v>
-      </c>
       <c r="P147">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q147">
+        <v>-0.75</v>
+      </c>
+      <c r="R147">
+        <v>2.025</v>
+      </c>
+      <c r="S147">
+        <v>1.825</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>1.9</v>
+      </c>
+      <c r="V147">
+        <v>1.95</v>
+      </c>
+      <c r="W147">
+        <v>0.75</v>
+      </c>
+      <c r="X147">
+        <v>-1</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0.5125</v>
+      </c>
+      <c r="AA147">
         <v>-0.5</v>
       </c>
-      <c r="R147">
-        <v>1.8</v>
-      </c>
-      <c r="S147">
-        <v>2.05</v>
-      </c>
-      <c r="T147">
-        <v>1.75</v>
-      </c>
-      <c r="U147">
-        <v>1.825</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>0.8</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
-      <c r="Y147">
-        <v>-1</v>
-      </c>
-      <c r="Z147">
-        <v>0.8</v>
-      </c>
-      <c r="AA147">
-        <v>-1</v>
-      </c>
       <c r="AB147">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6838126</v>
+        <v>6836546</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,13 +13643,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13658,43 +13658,43 @@
         <v>54</v>
       </c>
       <c r="K148">
+        <v>2.15</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>3.75</v>
+      </c>
+      <c r="N148">
+        <v>1.8</v>
+      </c>
+      <c r="O148">
+        <v>3.3</v>
+      </c>
+      <c r="P148">
+        <v>5</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.8</v>
+      </c>
+      <c r="S148">
+        <v>2.05</v>
+      </c>
+      <c r="T148">
         <v>1.75</v>
       </c>
-      <c r="L148">
-        <v>3.75</v>
-      </c>
-      <c r="M148">
-        <v>4.333</v>
-      </c>
-      <c r="N148">
-        <v>1.75</v>
-      </c>
-      <c r="O148">
-        <v>3.75</v>
-      </c>
-      <c r="P148">
-        <v>4.5</v>
-      </c>
-      <c r="Q148">
-        <v>-0.75</v>
-      </c>
-      <c r="R148">
+      <c r="U148">
+        <v>1.825</v>
+      </c>
+      <c r="V148">
         <v>2.025</v>
       </c>
-      <c r="S148">
-        <v>1.825</v>
-      </c>
-      <c r="T148">
-        <v>2.25</v>
-      </c>
-      <c r="U148">
-        <v>1.9</v>
-      </c>
-      <c r="V148">
-        <v>1.95</v>
-      </c>
       <c r="W148">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13703,16 +13703,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.4125</v>
+      </c>
+      <c r="AC148">
         <v>-0.5</v>
-      </c>
-      <c r="AB148">
-        <v>-1</v>
-      </c>
-      <c r="AC148">
-        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,40 +14088,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>4.2</v>
+      </c>
+      <c r="N153">
+        <v>2.2</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
         <v>3.6</v>
       </c>
-      <c r="M153">
-        <v>5</v>
-      </c>
-      <c r="N153">
-        <v>1.909</v>
-      </c>
-      <c r="O153">
-        <v>3.4</v>
-      </c>
-      <c r="P153">
-        <v>4.333</v>
-      </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
         <v>1.875</v>
@@ -14130,7 +14130,7 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U153">
         <v>2.025</v>
@@ -14139,25 +14139,25 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14177,40 +14177,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K154">
+        <v>1.666</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
         <v>1.909</v>
       </c>
-      <c r="L154">
-        <v>3.3</v>
-      </c>
-      <c r="M154">
-        <v>4.2</v>
-      </c>
-      <c r="N154">
-        <v>2.2</v>
-      </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14219,7 +14219,7 @@
         <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14228,25 +14228,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6838128</v>
+        <v>6836547</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,73 +14533,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K158">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
+        <v>3.25</v>
+      </c>
+      <c r="P158">
         <v>2.9</v>
       </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
-      </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6836547</v>
+        <v>6838128</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,73 +14622,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P159">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6839289</v>
+        <v>6838024</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6838024</v>
+        <v>6839289</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K165">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
+        <v>3.1</v>
+      </c>
+      <c r="N165">
+        <v>2.4</v>
+      </c>
+      <c r="O165">
+        <v>3.1</v>
+      </c>
+      <c r="P165">
         <v>3.2</v>
       </c>
-      <c r="M165">
-        <v>3.75</v>
-      </c>
-      <c r="N165">
-        <v>2.05</v>
-      </c>
-      <c r="O165">
-        <v>3.3</v>
-      </c>
-      <c r="P165">
-        <v>4</v>
-      </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1.85</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
         <v>2.025</v>
       </c>
-      <c r="S165">
-        <v>1.825</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>2.05</v>
-      </c>
-      <c r="V165">
-        <v>1.8</v>
-      </c>
       <c r="W165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838028</v>
+        <v>6838026</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N169">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
         <v>1.875</v>
       </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.9</v>
       </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z169">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838026</v>
+        <v>6838028</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
         <v>1.975</v>
       </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y170">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6836554</v>
+        <v>6838136</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P190">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6838136</v>
+        <v>6836554</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17470,58 +17470,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>54</v>
       </c>
       <c r="K191">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N191">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O191">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17530,16 +17530,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17903,7 +17903,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6838037</v>
+        <v>6839284</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17915,76 +17915,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G196" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K196">
+        <v>2.15</v>
+      </c>
+      <c r="L196">
+        <v>3.1</v>
+      </c>
+      <c r="M196">
         <v>3.6</v>
       </c>
-      <c r="L196">
-        <v>3.25</v>
-      </c>
-      <c r="M196">
+      <c r="N196">
+        <v>2.3</v>
+      </c>
+      <c r="O196">
+        <v>2.9</v>
+      </c>
+      <c r="P196">
+        <v>3.4</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>1.85</v>
+      </c>
+      <c r="T196">
+        <v>1.75</v>
+      </c>
+      <c r="U196">
+        <v>1.775</v>
+      </c>
+      <c r="V196">
         <v>2.1</v>
       </c>
-      <c r="N196">
-        <v>3</v>
-      </c>
-      <c r="O196">
-        <v>3.2</v>
-      </c>
-      <c r="P196">
+      <c r="W196">
+        <v>-1</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
         <v>2.4</v>
       </c>
-      <c r="Q196">
-        <v>0.25</v>
-      </c>
-      <c r="R196">
-        <v>1.775</v>
-      </c>
-      <c r="S196">
-        <v>2.1</v>
-      </c>
-      <c r="T196">
-        <v>2</v>
-      </c>
-      <c r="U196">
-        <v>1.8</v>
-      </c>
-      <c r="V196">
-        <v>2.05</v>
-      </c>
-      <c r="W196">
-        <v>2</v>
-      </c>
-      <c r="X196">
-        <v>-1</v>
-      </c>
-      <c r="Y196">
-        <v>-1</v>
-      </c>
       <c r="Z196">
+        <v>-1</v>
+      </c>
+      <c r="AA196">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB196">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA196">
-        <v>-1</v>
-      </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
       <c r="AC196">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17992,7 +17992,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6839284</v>
+        <v>6838037</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -18004,76 +18004,76 @@
         <v>45262.51041666666</v>
       </c>
       <c r="F197" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>54</v>
+      </c>
+      <c r="K197">
+        <v>3.6</v>
+      </c>
+      <c r="L197">
+        <v>3.25</v>
+      </c>
+      <c r="M197">
+        <v>2.1</v>
+      </c>
+      <c r="N197">
         <v>3</v>
       </c>
-      <c r="J197" t="s">
-        <v>53</v>
-      </c>
-      <c r="K197">
-        <v>2.15</v>
-      </c>
-      <c r="L197">
-        <v>3.1</v>
-      </c>
-      <c r="M197">
-        <v>3.6</v>
-      </c>
-      <c r="N197">
-        <v>2.3</v>
-      </c>
       <c r="O197">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P197">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q197">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T197">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U197">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V197">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA197">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC197">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>3.1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
         <v>3.75</v>
       </c>
-      <c r="M228">
-        <v>5.5</v>
-      </c>
-      <c r="N228">
-        <v>1.65</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>5.5</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>2.025</v>
+      </c>
+      <c r="S228">
         <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X228">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
         <v>2.025</v>
-      </c>
-      <c r="S229">
-        <v>1.825</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
         <v>1.025</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K235">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236">
+        <v>2.6</v>
+      </c>
+      <c r="L236">
+        <v>3.2</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236" t="s">
-        <v>54</v>
-      </c>
-      <c r="K236">
-        <v>2.2</v>
-      </c>
-      <c r="L236">
-        <v>3.1</v>
-      </c>
-      <c r="M236">
-        <v>3.6</v>
-      </c>
-      <c r="N236">
-        <v>2.05</v>
-      </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,55 +21564,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>1</v>
-      </c>
-      <c r="I237">
-        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N237">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,56 +21653,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
+        <v>2.2</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>3.4</v>
+      </c>
+      <c r="N238">
+        <v>2.15</v>
+      </c>
+      <c r="O238">
+        <v>3.1</v>
+      </c>
+      <c r="P238">
+        <v>3.8</v>
+      </c>
+      <c r="Q238">
+        <v>-0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>4.333</v>
-      </c>
-      <c r="N238">
-        <v>1.8</v>
-      </c>
-      <c r="O238">
-        <v>3.6</v>
-      </c>
-      <c r="P238">
-        <v>4.75</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.875</v>
-      </c>
-      <c r="S238">
-        <v>1.975</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.95</v>
-      </c>
-      <c r="V238">
-        <v>1.9</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6839275</v>
+        <v>6838054</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,49 +22187,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K244">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N244">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
+        <v>2.05</v>
+      </c>
+      <c r="S244">
         <v>1.8</v>
       </c>
-      <c r="S244">
-        <v>2.05</v>
-      </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U244">
         <v>2.05</v>
@@ -22238,19 +22238,19 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6838054</v>
+        <v>6839275</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,49 +22276,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L245">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
+        <v>3.1</v>
+      </c>
+      <c r="P245">
         <v>2.9</v>
       </c>
-      <c r="P245">
-        <v>2.7</v>
-      </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
+        <v>1.8</v>
+      </c>
+      <c r="S245">
         <v>2.05</v>
       </c>
-      <c r="S245">
-        <v>1.8</v>
-      </c>
       <c r="T245">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
         <v>2.05</v>
@@ -22327,19 +22327,19 @@
         <v>1.8</v>
       </c>
       <c r="W245">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6838057</v>
+        <v>6838151</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,76 +22454,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K247">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N247">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
+        <v>1.75</v>
+      </c>
+      <c r="V247">
         <v>2.05</v>
       </c>
-      <c r="V247">
-        <v>1.8</v>
-      </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X247">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6838151</v>
+        <v>6838057</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
         <v>2</v>
       </c>
       <c r="U248">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V248">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W248">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB248">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K251">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K252">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N252">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L253">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O253">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W253">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
         <v>1</v>
       </c>
-      <c r="I254">
-        <v>2</v>
-      </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L254">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M254">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
+        <v>1.9</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
         <v>1.825</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.025</v>
       </c>
-      <c r="T254">
-        <v>1.75</v>
-      </c>
-      <c r="U254">
-        <v>1.8</v>
-      </c>
-      <c r="V254">
-        <v>2.05</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P274">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L275">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P275">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7759323</v>
+        <v>7759317</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,49 +25302,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K279">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M279">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O279">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
         <v>1.975</v>
@@ -25356,22 +25356,22 @@
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7759317</v>
+        <v>7759323</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,49 +25391,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M280">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N280">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P280">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U280">
         <v>1.975</v>
@@ -25445,22 +25445,22 @@
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y280">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC280">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6839267</v>
+        <v>6836570</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K284">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>2.2</v>
+      </c>
+      <c r="N284">
+        <v>4.2</v>
+      </c>
+      <c r="O284">
+        <v>3.1</v>
+      </c>
+      <c r="P284">
+        <v>2.05</v>
+      </c>
+      <c r="Q284">
+        <v>0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
+        <v>2</v>
+      </c>
+      <c r="U284">
+        <v>2.05</v>
+      </c>
+      <c r="V284">
+        <v>1.8</v>
+      </c>
+      <c r="W284">
         <v>3.2</v>
       </c>
-      <c r="M284">
-        <v>3.6</v>
-      </c>
-      <c r="N284">
-        <v>2.1</v>
-      </c>
-      <c r="O284">
-        <v>3</v>
-      </c>
-      <c r="P284">
-        <v>4.2</v>
-      </c>
-      <c r="Q284">
-        <v>-0.25</v>
-      </c>
-      <c r="R284">
-        <v>1.775</v>
-      </c>
-      <c r="S284">
-        <v>2.1</v>
-      </c>
-      <c r="T284">
-        <v>1.75</v>
-      </c>
-      <c r="U284">
-        <v>1.9</v>
-      </c>
-      <c r="V284">
-        <v>1.95</v>
-      </c>
-      <c r="W284">
-        <v>-1</v>
-      </c>
       <c r="X284">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA284">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6836570</v>
+        <v>6839267</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K285">
+        <v>2.1</v>
+      </c>
+      <c r="L285">
+        <v>3.2</v>
+      </c>
+      <c r="M285">
         <v>3.6</v>
       </c>
-      <c r="L285">
+      <c r="N285">
+        <v>2.1</v>
+      </c>
+      <c r="O285">
         <v>3</v>
       </c>
-      <c r="M285">
-        <v>2.2</v>
-      </c>
-      <c r="N285">
+      <c r="P285">
         <v>4.2</v>
       </c>
-      <c r="O285">
-        <v>3.1</v>
-      </c>
-      <c r="P285">
-        <v>2.05</v>
-      </c>
       <c r="Q285">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838080</v>
+        <v>6838163</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,76 +26726,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I295">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J295" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K295">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L295">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M295">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N295">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O295">
         <v>3.3</v>
       </c>
       <c r="P295">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q295">
+        <v>-0.75</v>
+      </c>
+      <c r="R295">
+        <v>2.025</v>
+      </c>
+      <c r="S295">
+        <v>1.825</v>
+      </c>
+      <c r="T295">
+        <v>2.25</v>
+      </c>
+      <c r="U295">
+        <v>1.925</v>
+      </c>
+      <c r="V295">
+        <v>1.925</v>
+      </c>
+      <c r="W295">
+        <v>-1</v>
+      </c>
+      <c r="X295">
+        <v>2.3</v>
+      </c>
+      <c r="Y295">
+        <v>-1</v>
+      </c>
+      <c r="Z295">
+        <v>-1</v>
+      </c>
+      <c r="AA295">
+        <v>0.825</v>
+      </c>
+      <c r="AB295">
         <v>-0.5</v>
       </c>
-      <c r="R295">
-        <v>1.9</v>
-      </c>
-      <c r="S295">
-        <v>1.95</v>
-      </c>
-      <c r="T295">
-        <v>2</v>
-      </c>
-      <c r="U295">
-        <v>1.8</v>
-      </c>
-      <c r="V295">
-        <v>2.05</v>
-      </c>
-      <c r="W295">
-        <v>0.909</v>
-      </c>
-      <c r="X295">
-        <v>-1</v>
-      </c>
-      <c r="Y295">
-        <v>-1</v>
-      </c>
-      <c r="Z295">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA295">
-        <v>-1</v>
-      </c>
-      <c r="AB295">
-        <v>0.8</v>
-      </c>
       <c r="AC295">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6838163</v>
+        <v>6838080</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,76 +26815,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F296" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G296" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K296">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L296">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M296">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N296">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O296">
         <v>3.3</v>
       </c>
       <c r="P296">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q296">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T296">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U296">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V296">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W296">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X296">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
         <v>-1</v>
       </c>
       <c r="Z296">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA296">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB296">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC296">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -27159,7 +27159,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6839266</v>
+        <v>6836571</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27171,76 +27171,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G300" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I300">
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K300">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L300">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M300">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N300">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P300">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
+        <v>1.875</v>
+      </c>
+      <c r="S300">
+        <v>1.975</v>
+      </c>
+      <c r="T300">
+        <v>1.75</v>
+      </c>
+      <c r="U300">
+        <v>1.825</v>
+      </c>
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="S300">
-        <v>1.825</v>
-      </c>
-      <c r="T300">
-        <v>2</v>
-      </c>
-      <c r="U300">
-        <v>1.8</v>
-      </c>
-      <c r="V300">
-        <v>2.05</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X300">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA300">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27248,7 +27248,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6836571</v>
+        <v>6839266</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27260,76 +27260,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G301" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301" t="s">
+        <v>52</v>
+      </c>
+      <c r="K301">
+        <v>2.3</v>
+      </c>
+      <c r="L301">
+        <v>2.9</v>
+      </c>
+      <c r="M301">
+        <v>3.5</v>
+      </c>
+      <c r="N301">
+        <v>2.4</v>
+      </c>
+      <c r="O301">
         <v>3</v>
       </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
-      <c r="J301" t="s">
-        <v>54</v>
-      </c>
-      <c r="K301">
-        <v>1.5</v>
-      </c>
-      <c r="L301">
-        <v>3.75</v>
-      </c>
-      <c r="M301">
-        <v>7.5</v>
-      </c>
-      <c r="N301">
-        <v>1.85</v>
-      </c>
-      <c r="O301">
-        <v>3.1</v>
-      </c>
       <c r="P301">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q301">
+        <v>-0.25</v>
+      </c>
+      <c r="R301">
+        <v>2.025</v>
+      </c>
+      <c r="S301">
+        <v>1.825</v>
+      </c>
+      <c r="T301">
+        <v>2</v>
+      </c>
+      <c r="U301">
+        <v>1.8</v>
+      </c>
+      <c r="V301">
+        <v>2.05</v>
+      </c>
+      <c r="W301">
+        <v>-1</v>
+      </c>
+      <c r="X301">
+        <v>2</v>
+      </c>
+      <c r="Y301">
+        <v>-1</v>
+      </c>
+      <c r="Z301">
         <v>-0.5</v>
       </c>
-      <c r="R301">
-        <v>1.875</v>
-      </c>
-      <c r="S301">
-        <v>1.975</v>
-      </c>
-      <c r="T301">
-        <v>1.75</v>
-      </c>
-      <c r="U301">
-        <v>1.825</v>
-      </c>
-      <c r="V301">
-        <v>2.025</v>
-      </c>
-      <c r="W301">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X301">
-        <v>-1</v>
-      </c>
-      <c r="Y301">
-        <v>-1</v>
-      </c>
-      <c r="Z301">
-        <v>0.875</v>
-      </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB301">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -29579,6 +29579,15 @@
       <c r="G327" t="s">
         <v>46</v>
       </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>2</v>
+      </c>
+      <c r="J327" t="s">
+        <v>53</v>
+      </c>
       <c r="K327">
         <v>2.4</v>
       </c>
@@ -29589,7 +29598,7 @@
         <v>3.2</v>
       </c>
       <c r="N327">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O327">
         <v>2.9</v>
@@ -29598,37 +29607,43 @@
         <v>3.1</v>
       </c>
       <c r="Q327">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R327">
+        <v>1.75</v>
+      </c>
+      <c r="S327">
         <v>2.125</v>
       </c>
-      <c r="S327">
-        <v>1.75</v>
-      </c>
       <c r="T327">
         <v>2</v>
       </c>
       <c r="U327">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V327">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA327">
-        <v>0</v>
+        <v>1.125</v>
+      </c>
+      <c r="AB327">
+        <v>0.925</v>
+      </c>
+      <c r="AC327">
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29636,7 +29651,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6838094</v>
+        <v>6873347</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29648,61 +29663,76 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G328" t="s">
-        <v>36</v>
+        <v>51</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" t="s">
+        <v>54</v>
       </c>
       <c r="K328">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L328">
         <v>3.1</v>
       </c>
       <c r="M328">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N328">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P328">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q328">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R328">
-        <v>1.925</v>
+        <v>2.125</v>
       </c>
       <c r="S328">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T328">
         <v>1.75</v>
       </c>
       <c r="U328">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V328">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W328">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y328">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA328">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB328">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC328">
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29710,7 +29740,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6873347</v>
+        <v>6838094</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29722,61 +29752,76 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F329" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G329" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="H329">
+        <v>2</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329" t="s">
+        <v>54</v>
       </c>
       <c r="K329">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L329">
         <v>3.1</v>
       </c>
       <c r="M329">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N329">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O329">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S329">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T329">
         <v>1.75</v>
       </c>
       <c r="U329">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W329">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="X329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA329">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB329">
+        <v>0.4125</v>
+      </c>
+      <c r="AC329">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29801,6 +29846,15 @@
       <c r="G330" t="s">
         <v>50</v>
       </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330" t="s">
+        <v>54</v>
+      </c>
       <c r="K330">
         <v>2.625</v>
       </c>
@@ -29811,22 +29865,22 @@
         <v>2.75</v>
       </c>
       <c r="N330">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O330">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P330">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q330">
         <v>-0.25</v>
       </c>
       <c r="R330">
-        <v>2.125</v>
+        <v>2</v>
       </c>
       <c r="S330">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T330">
         <v>1.75</v>
@@ -29838,19 +29892,25 @@
         <v>2.1</v>
       </c>
       <c r="W330">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y330">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA330">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB330">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC330">
+        <v>-1</v>
       </c>
     </row>
     <row r="331" spans="1:29">
@@ -29875,6 +29935,15 @@
       <c r="G331" t="s">
         <v>42</v>
       </c>
+      <c r="H331">
+        <v>4</v>
+      </c>
+      <c r="I331">
+        <v>2</v>
+      </c>
+      <c r="J331" t="s">
+        <v>54</v>
+      </c>
       <c r="K331">
         <v>2.3</v>
       </c>
@@ -29885,22 +29954,22 @@
         <v>3.5</v>
       </c>
       <c r="N331">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O331">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P331">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q331">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R331">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S331">
-        <v>1.825</v>
+        <v>2.125</v>
       </c>
       <c r="T331">
         <v>2</v>
@@ -29912,19 +29981,25 @@
         <v>1.8</v>
       </c>
       <c r="W331">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X331">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y331">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA331">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB331">
+        <v>1.05</v>
+      </c>
+      <c r="AC331">
+        <v>-1</v>
       </c>
     </row>
     <row r="332" spans="1:29">
@@ -29932,7 +30007,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6838174</v>
+        <v>6838172</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29944,61 +30019,76 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332" t="s">
+        <v>54</v>
       </c>
       <c r="K332">
+        <v>2.15</v>
+      </c>
+      <c r="L332">
+        <v>3.1</v>
+      </c>
+      <c r="M332">
+        <v>3.75</v>
+      </c>
+      <c r="N332">
+        <v>2</v>
+      </c>
+      <c r="O332">
         <v>3.2</v>
       </c>
-      <c r="L332">
-        <v>3.25</v>
-      </c>
-      <c r="M332">
-        <v>2.3</v>
-      </c>
-      <c r="N332">
-        <v>3.5</v>
-      </c>
-      <c r="O332">
-        <v>3</v>
-      </c>
       <c r="P332">
+        <v>3.8</v>
+      </c>
+      <c r="Q332">
+        <v>-0.5</v>
+      </c>
+      <c r="R332">
+        <v>2.025</v>
+      </c>
+      <c r="S332">
+        <v>1.825</v>
+      </c>
+      <c r="T332">
         <v>2.25</v>
       </c>
-      <c r="Q332">
-        <v>0.25</v>
-      </c>
-      <c r="R332">
-        <v>1.95</v>
-      </c>
-      <c r="S332">
-        <v>1.9</v>
-      </c>
-      <c r="T332">
-        <v>2</v>
-      </c>
       <c r="U332">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="W332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y332">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA332">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB332">
+        <v>-1</v>
+      </c>
+      <c r="AC332">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30006,7 +30096,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6838172</v>
+        <v>6838174</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30018,61 +30108,76 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G333" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
+        <v>1</v>
+      </c>
+      <c r="J333" t="s">
+        <v>53</v>
       </c>
       <c r="K333">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L333">
+        <v>3.25</v>
+      </c>
+      <c r="M333">
+        <v>2.3</v>
+      </c>
+      <c r="N333">
+        <v>4</v>
+      </c>
+      <c r="O333">
         <v>3.1</v>
       </c>
-      <c r="M333">
-        <v>3.75</v>
-      </c>
-      <c r="N333">
+      <c r="P333">
         <v>2.05</v>
       </c>
-      <c r="O333">
-        <v>3.2</v>
-      </c>
-      <c r="P333">
-        <v>4</v>
-      </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R333">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S333">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y333">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB333">
+        <v>-1</v>
+      </c>
+      <c r="AC333">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30097,6 +30202,15 @@
       <c r="G334" t="s">
         <v>38</v>
       </c>
+      <c r="H334">
+        <v>0</v>
+      </c>
+      <c r="I334">
+        <v>1</v>
+      </c>
+      <c r="J334" t="s">
+        <v>53</v>
+      </c>
       <c r="K334">
         <v>1.8</v>
       </c>
@@ -30107,13 +30221,13 @@
         <v>4.75</v>
       </c>
       <c r="N334">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O334">
         <v>3.5</v>
       </c>
       <c r="P334">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q334">
         <v>-0.75</v>
@@ -30128,25 +30242,31 @@
         <v>2.25</v>
       </c>
       <c r="U334">
+        <v>1.875</v>
+      </c>
+      <c r="V334">
         <v>1.975</v>
       </c>
-      <c r="V334">
-        <v>1.875</v>
-      </c>
       <c r="W334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y334">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z334">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA334">
-        <v>0</v>
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB334">
+        <v>-1</v>
+      </c>
+      <c r="AC334">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="335" spans="1:29">
@@ -30171,6 +30291,15 @@
       <c r="G335" t="s">
         <v>44</v>
       </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335" t="s">
+        <v>52</v>
+      </c>
       <c r="K335">
         <v>3.5</v>
       </c>
@@ -30184,43 +30313,49 @@
         <v>3.6</v>
       </c>
       <c r="O335">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P335">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="Q335">
         <v>0.25</v>
       </c>
       <c r="R335">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S335">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T335">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U335">
+        <v>1.85</v>
+      </c>
+      <c r="V335">
+        <v>2</v>
+      </c>
+      <c r="W335">
+        <v>-1</v>
+      </c>
+      <c r="X335">
         <v>1.9</v>
       </c>
-      <c r="V335">
-        <v>1.95</v>
-      </c>
-      <c r="W335">
-        <v>0</v>
-      </c>
-      <c r="X335">
-        <v>0</v>
-      </c>
       <c r="Y335">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z335">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA335">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB335">
+        <v>0.425</v>
+      </c>
+      <c r="AC335">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="336" spans="1:29">
@@ -30245,6 +30380,15 @@
       <c r="G336" t="s">
         <v>40</v>
       </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>1</v>
+      </c>
+      <c r="J336" t="s">
+        <v>53</v>
+      </c>
       <c r="K336">
         <v>3.1</v>
       </c>
@@ -30255,45 +30399,717 @@
         <v>2.25</v>
       </c>
       <c r="N336">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O336">
         <v>3</v>
       </c>
       <c r="P336">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q336">
         <v>0.25</v>
       </c>
       <c r="R336">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S336">
-        <v>2.125</v>
+        <v>2.025</v>
       </c>
       <c r="T336">
         <v>1.75</v>
       </c>
       <c r="U336">
+        <v>1.9</v>
+      </c>
+      <c r="V336">
+        <v>1.95</v>
+      </c>
+      <c r="W336">
+        <v>-1</v>
+      </c>
+      <c r="X336">
+        <v>-1</v>
+      </c>
+      <c r="Y336">
+        <v>1.3</v>
+      </c>
+      <c r="Z336">
+        <v>-1</v>
+      </c>
+      <c r="AA336">
+        <v>1.025</v>
+      </c>
+      <c r="AB336">
+        <v>-1</v>
+      </c>
+      <c r="AC336">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
+      <c r="A337" s="1">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>7900088</v>
+      </c>
+      <c r="C337" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" t="s">
+        <v>28</v>
+      </c>
+      <c r="E337" s="2">
+        <v>45364.625</v>
+      </c>
+      <c r="F337" t="s">
+        <v>31</v>
+      </c>
+      <c r="G337" t="s">
+        <v>43</v>
+      </c>
+      <c r="K337">
+        <v>2</v>
+      </c>
+      <c r="L337">
+        <v>3.1</v>
+      </c>
+      <c r="M337">
+        <v>4.2</v>
+      </c>
+      <c r="N337">
+        <v>1.909</v>
+      </c>
+      <c r="O337">
+        <v>3.25</v>
+      </c>
+      <c r="P337">
+        <v>4.333</v>
+      </c>
+      <c r="Q337">
+        <v>-0.5</v>
+      </c>
+      <c r="R337">
+        <v>1.925</v>
+      </c>
+      <c r="S337">
+        <v>1.925</v>
+      </c>
+      <c r="T337">
+        <v>2.25</v>
+      </c>
+      <c r="U337">
+        <v>1.95</v>
+      </c>
+      <c r="V337">
+        <v>1.9</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>0</v>
+      </c>
+      <c r="Y337">
+        <v>0</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
+      <c r="A338" s="1">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>7066160</v>
+      </c>
+      <c r="C338" t="s">
+        <v>28</v>
+      </c>
+      <c r="D338" t="s">
+        <v>28</v>
+      </c>
+      <c r="E338" s="2">
+        <v>45366.6875</v>
+      </c>
+      <c r="F338" t="s">
+        <v>51</v>
+      </c>
+      <c r="G338" t="s">
+        <v>39</v>
+      </c>
+      <c r="K338">
+        <v>2.1</v>
+      </c>
+      <c r="L338">
+        <v>3.25</v>
+      </c>
+      <c r="M338">
+        <v>3.5</v>
+      </c>
+      <c r="N338">
+        <v>2.05</v>
+      </c>
+      <c r="O338">
+        <v>3</v>
+      </c>
+      <c r="P338">
+        <v>4.2</v>
+      </c>
+      <c r="Q338">
+        <v>-0.5</v>
+      </c>
+      <c r="R338">
+        <v>2.05</v>
+      </c>
+      <c r="S338">
         <v>1.8</v>
       </c>
-      <c r="V336">
+      <c r="T338">
+        <v>2</v>
+      </c>
+      <c r="U338">
+        <v>2.025</v>
+      </c>
+      <c r="V338">
+        <v>1.825</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>0</v>
+      </c>
+      <c r="Y338">
+        <v>0</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
+      <c r="A339" s="1">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>7060549</v>
+      </c>
+      <c r="C339" t="s">
+        <v>28</v>
+      </c>
+      <c r="D339" t="s">
+        <v>28</v>
+      </c>
+      <c r="E339" s="2">
+        <v>45367.51041666666</v>
+      </c>
+      <c r="F339" t="s">
+        <v>29</v>
+      </c>
+      <c r="G339" t="s">
+        <v>48</v>
+      </c>
+      <c r="K339">
+        <v>1.333</v>
+      </c>
+      <c r="L339">
+        <v>5</v>
+      </c>
+      <c r="M339">
+        <v>9</v>
+      </c>
+      <c r="N339">
+        <v>1.4</v>
+      </c>
+      <c r="O339">
+        <v>4.5</v>
+      </c>
+      <c r="P339">
+        <v>7</v>
+      </c>
+      <c r="Q339">
+        <v>-1.25</v>
+      </c>
+      <c r="R339">
+        <v>2.025</v>
+      </c>
+      <c r="S339">
+        <v>1.825</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
+        <v>1.875</v>
+      </c>
+      <c r="V339">
+        <v>1.975</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>0</v>
+      </c>
+      <c r="Y339">
+        <v>0</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
+      <c r="A340" s="1">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>7066161</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>28</v>
+      </c>
+      <c r="E340" s="2">
+        <v>45367.60416666666</v>
+      </c>
+      <c r="F340" t="s">
+        <v>42</v>
+      </c>
+      <c r="G340" t="s">
+        <v>49</v>
+      </c>
+      <c r="K340">
+        <v>1.909</v>
+      </c>
+      <c r="L340">
+        <v>3</v>
+      </c>
+      <c r="M340">
+        <v>4.75</v>
+      </c>
+      <c r="N340">
+        <v>1.909</v>
+      </c>
+      <c r="O340">
+        <v>2.9</v>
+      </c>
+      <c r="P340">
+        <v>5</v>
+      </c>
+      <c r="Q340">
+        <v>-0.5</v>
+      </c>
+      <c r="R340">
+        <v>1.925</v>
+      </c>
+      <c r="S340">
+        <v>1.925</v>
+      </c>
+      <c r="T340">
+        <v>1.75</v>
+      </c>
+      <c r="U340">
+        <v>1.875</v>
+      </c>
+      <c r="V340">
+        <v>1.975</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>0</v>
+      </c>
+      <c r="Y340">
+        <v>0</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27">
+      <c r="A341" s="1">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>7060552</v>
+      </c>
+      <c r="C341" t="s">
+        <v>28</v>
+      </c>
+      <c r="D341" t="s">
+        <v>28</v>
+      </c>
+      <c r="E341" s="2">
+        <v>45367.60416666666</v>
+      </c>
+      <c r="F341" t="s">
+        <v>46</v>
+      </c>
+      <c r="G341" t="s">
+        <v>35</v>
+      </c>
+      <c r="K341">
+        <v>1.909</v>
+      </c>
+      <c r="L341">
+        <v>3.1</v>
+      </c>
+      <c r="M341">
+        <v>4.5</v>
+      </c>
+      <c r="N341">
+        <v>1.75</v>
+      </c>
+      <c r="O341">
+        <v>3.25</v>
+      </c>
+      <c r="P341">
+        <v>5.25</v>
+      </c>
+      <c r="Q341">
+        <v>-0.75</v>
+      </c>
+      <c r="R341">
+        <v>2.025</v>
+      </c>
+      <c r="S341">
+        <v>1.825</v>
+      </c>
+      <c r="T341">
+        <v>2.25</v>
+      </c>
+      <c r="U341">
+        <v>1.875</v>
+      </c>
+      <c r="V341">
+        <v>1.975</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>0</v>
+      </c>
+      <c r="Y341">
+        <v>0</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27">
+      <c r="A342" s="1">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>7055149</v>
+      </c>
+      <c r="C342" t="s">
+        <v>28</v>
+      </c>
+      <c r="D342" t="s">
+        <v>28</v>
+      </c>
+      <c r="E342" s="2">
+        <v>45367.70833333334</v>
+      </c>
+      <c r="F342" t="s">
+        <v>47</v>
+      </c>
+      <c r="G342" t="s">
+        <v>45</v>
+      </c>
+      <c r="K342">
+        <v>1.5</v>
+      </c>
+      <c r="L342">
+        <v>4</v>
+      </c>
+      <c r="M342">
+        <v>7</v>
+      </c>
+      <c r="N342">
+        <v>1.666</v>
+      </c>
+      <c r="O342">
+        <v>4</v>
+      </c>
+      <c r="P342">
+        <v>5</v>
+      </c>
+      <c r="Q342">
+        <v>-0.75</v>
+      </c>
+      <c r="R342">
+        <v>1.875</v>
+      </c>
+      <c r="S342">
+        <v>1.975</v>
+      </c>
+      <c r="T342">
+        <v>2</v>
+      </c>
+      <c r="U342">
+        <v>1.8</v>
+      </c>
+      <c r="V342">
         <v>2.05</v>
       </c>
-      <c r="W336">
-        <v>0</v>
-      </c>
-      <c r="X336">
-        <v>0</v>
-      </c>
-      <c r="Y336">
-        <v>0</v>
-      </c>
-      <c r="Z336">
-        <v>0</v>
-      </c>
-      <c r="AA336">
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>0</v>
+      </c>
+      <c r="Y342">
+        <v>0</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27">
+      <c r="A343" s="1">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>7055148</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
+        <v>28</v>
+      </c>
+      <c r="E343" s="2">
+        <v>45368.51041666666</v>
+      </c>
+      <c r="F343" t="s">
+        <v>50</v>
+      </c>
+      <c r="G343" t="s">
+        <v>34</v>
+      </c>
+      <c r="K343">
+        <v>2.625</v>
+      </c>
+      <c r="L343">
+        <v>3.25</v>
+      </c>
+      <c r="M343">
+        <v>2.5</v>
+      </c>
+      <c r="N343">
+        <v>2.8</v>
+      </c>
+      <c r="O343">
+        <v>3.25</v>
+      </c>
+      <c r="P343">
+        <v>2.375</v>
+      </c>
+      <c r="Q343">
+        <v>0.25</v>
+      </c>
+      <c r="R343">
+        <v>1.775</v>
+      </c>
+      <c r="S343">
+        <v>2.1</v>
+      </c>
+      <c r="T343">
+        <v>2</v>
+      </c>
+      <c r="U343">
+        <v>1.9</v>
+      </c>
+      <c r="V343">
+        <v>1.95</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>0</v>
+      </c>
+      <c r="Y343">
+        <v>0</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27">
+      <c r="A344" s="1">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>7060713</v>
+      </c>
+      <c r="C344" t="s">
+        <v>28</v>
+      </c>
+      <c r="D344" t="s">
+        <v>28</v>
+      </c>
+      <c r="E344" s="2">
+        <v>45368.60416666666</v>
+      </c>
+      <c r="F344" t="s">
+        <v>37</v>
+      </c>
+      <c r="G344" t="s">
+        <v>30</v>
+      </c>
+      <c r="K344">
+        <v>1.8</v>
+      </c>
+      <c r="L344">
+        <v>3.25</v>
+      </c>
+      <c r="M344">
+        <v>4.5</v>
+      </c>
+      <c r="N344">
+        <v>1.8</v>
+      </c>
+      <c r="O344">
+        <v>3.2</v>
+      </c>
+      <c r="P344">
+        <v>4.5</v>
+      </c>
+      <c r="Q344">
+        <v>-0.5</v>
+      </c>
+      <c r="R344">
+        <v>1.825</v>
+      </c>
+      <c r="S344">
+        <v>2.025</v>
+      </c>
+      <c r="T344">
+        <v>2.25</v>
+      </c>
+      <c r="U344">
+        <v>2.05</v>
+      </c>
+      <c r="V344">
+        <v>1.8</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>0</v>
+      </c>
+      <c r="Y344">
+        <v>0</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27">
+      <c r="A345" s="1">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>7060550</v>
+      </c>
+      <c r="C345" t="s">
+        <v>28</v>
+      </c>
+      <c r="D345" t="s">
+        <v>28</v>
+      </c>
+      <c r="E345" s="2">
+        <v>45368.60416666666</v>
+      </c>
+      <c r="F345" t="s">
+        <v>36</v>
+      </c>
+      <c r="G345" t="s">
+        <v>44</v>
+      </c>
+      <c r="K345">
+        <v>2.8</v>
+      </c>
+      <c r="L345">
+        <v>3.25</v>
+      </c>
+      <c r="M345">
+        <v>2.3</v>
+      </c>
+      <c r="N345">
+        <v>2.375</v>
+      </c>
+      <c r="O345">
+        <v>3.25</v>
+      </c>
+      <c r="P345">
+        <v>2.75</v>
+      </c>
+      <c r="Q345">
+        <v>0</v>
+      </c>
+      <c r="R345">
+        <v>1.775</v>
+      </c>
+      <c r="S345">
+        <v>2.1</v>
+      </c>
+      <c r="T345">
+        <v>2</v>
+      </c>
+      <c r="U345">
+        <v>2.025</v>
+      </c>
+      <c r="V345">
+        <v>1.825</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC345"/>
+  <dimension ref="A1:AC348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1717,76 +1717,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>1.9</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.95</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.9</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,76 +1806,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.9</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <v>-0</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4820,7 +4820,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7135891</v>
+        <v>6836524</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4832,58 +4832,58 @@
         <v>45172.5625</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>54</v>
       </c>
       <c r="K49">
-        <v>1.75</v>
+        <v>1.533</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N49">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W49">
-        <v>0.8</v>
+        <v>0.55</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4892,16 +4892,16 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4909,7 +4909,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6836524</v>
+        <v>7135891</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4921,58 +4921,58 @@
         <v>45172.5625</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>54</v>
       </c>
       <c r="K50">
-        <v>1.533</v>
+        <v>1.75</v>
       </c>
       <c r="L50">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U50">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4981,16 +4981,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
         <v>-0</v>
-      </c>
-      <c r="AB50">
-        <v>0.825</v>
-      </c>
-      <c r="AC50">
-        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5710,7 +5710,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6837974</v>
+        <v>6838107</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5722,31 +5722,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I59">
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>2.375</v>
+      </c>
+      <c r="N59">
         <v>2.9</v>
-      </c>
-      <c r="L59">
-        <v>2.9</v>
-      </c>
-      <c r="M59">
-        <v>2.5</v>
-      </c>
-      <c r="N59">
-        <v>3</v>
       </c>
       <c r="O59">
         <v>3</v>
@@ -5758,37 +5758,37 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
+        <v>1.825</v>
+      </c>
+      <c r="W59">
         <v>1.9</v>
       </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5799,7 +5799,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6838107</v>
+        <v>6837974</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5811,31 +5811,31 @@
         <v>45179.5625</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60">
+        <v>2.9</v>
+      </c>
+      <c r="L60">
+        <v>2.9</v>
+      </c>
+      <c r="M60">
+        <v>2.5</v>
+      </c>
+      <c r="N60">
         <v>3</v>
-      </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60">
-        <v>2.375</v>
-      </c>
-      <c r="N60">
-        <v>2.9</v>
       </c>
       <c r="O60">
         <v>3</v>
@@ -5847,37 +5847,37 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB60">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,73 +8303,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M88">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O88">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X88">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,73 +8392,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K89">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N89">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R89">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6837992</v>
+        <v>6837991</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,37 +8570,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K91">
-        <v>1.75</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="N91">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
         <v>3.5</v>
       </c>
       <c r="P91">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q91">
         <v>-0.5</v>
@@ -8612,34 +8612,34 @@
         <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837991</v>
+        <v>6837992</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,37 +8659,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K92">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.5</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q92">
         <v>-0.5</v>
@@ -8701,34 +8701,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6837996</v>
+        <v>6837994</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9460,13 +9460,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F101" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9475,43 +9475,43 @@
         <v>54</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P101">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W101">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9520,16 +9520,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6837994</v>
+        <v>6837996</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9549,13 +9549,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9564,43 +9564,43 @@
         <v>54</v>
       </c>
       <c r="K102">
+        <v>2.5</v>
+      </c>
+      <c r="L102">
+        <v>3.1</v>
+      </c>
+      <c r="M102">
+        <v>2.7</v>
+      </c>
+      <c r="N102">
         <v>2.375</v>
       </c>
-      <c r="L102">
+      <c r="O102">
         <v>3</v>
       </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>2.9</v>
-      </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9609,16 +9609,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,52 +9638,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.75</v>
-      </c>
-      <c r="S103">
-        <v>2.125</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.8</v>
       </c>
       <c r="V103">
         <v>2.05</v>
@@ -9695,19 +9695,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,52 +9727,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>53</v>
       </c>
       <c r="K104">
+        <v>2.3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
         <v>3.1</v>
       </c>
-      <c r="L104">
+      <c r="N104">
+        <v>2.5</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
         <v>3.1</v>
       </c>
-      <c r="M104">
-        <v>2.25</v>
-      </c>
-      <c r="N104">
-        <v>3.75</v>
-      </c>
-      <c r="O104">
-        <v>3.2</v>
-      </c>
-      <c r="P104">
-        <v>2.1</v>
-      </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
+        <v>2.125</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.75</v>
       </c>
       <c r="V104">
         <v>2.05</v>
@@ -9784,19 +9784,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB104">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6836543</v>
+        <v>6838122</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,46 +11685,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K126">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N126">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P126">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R126">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
         <v>2.25</v>
@@ -11736,25 +11736,25 @@
         <v>1.8</v>
       </c>
       <c r="W126">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6838122</v>
+        <v>6836543</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,46 +11774,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K127">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>5.75</v>
+      </c>
+      <c r="N127">
+        <v>1.7</v>
+      </c>
+      <c r="O127">
         <v>3.5</v>
       </c>
-      <c r="M127">
-        <v>6.5</v>
-      </c>
-      <c r="N127">
-        <v>1.6</v>
-      </c>
-      <c r="O127">
-        <v>3.6</v>
-      </c>
       <c r="P127">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q127">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T127">
         <v>2.25</v>
@@ -11825,25 +11825,25 @@
         <v>1.8</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X127">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC127">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>52</v>
+      </c>
+      <c r="K130">
         <v>3</v>
       </c>
-      <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>2.3</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
+      <c r="T130">
+        <v>1.75</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2.05</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.45</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>3</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.95</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>3</v>
       </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>2.45</v>
-      </c>
-      <c r="N131">
-        <v>3.5</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
-      <c r="P131">
-        <v>2.3</v>
-      </c>
-      <c r="Q131">
-        <v>0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.9</v>
-      </c>
-      <c r="S131">
-        <v>1.95</v>
-      </c>
-      <c r="T131">
-        <v>1.75</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,10 +13109,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13124,43 +13124,43 @@
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M142">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N142">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W142">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,16 +13169,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC142">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13198,10 +13198,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,43 +13213,43 @@
         <v>54</v>
       </c>
       <c r="K143">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13258,16 +13258,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,40 +14088,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K153">
+        <v>1.666</v>
+      </c>
+      <c r="L153">
+        <v>3.6</v>
+      </c>
+      <c r="M153">
+        <v>5</v>
+      </c>
+      <c r="N153">
         <v>1.909</v>
       </c>
-      <c r="L153">
-        <v>3.3</v>
-      </c>
-      <c r="M153">
-        <v>4.2</v>
-      </c>
-      <c r="N153">
-        <v>2.2</v>
-      </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.875</v>
@@ -14130,7 +14130,7 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
         <v>2.025</v>
@@ -14139,25 +14139,25 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14177,40 +14177,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K154">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L154">
+        <v>3.3</v>
+      </c>
+      <c r="M154">
+        <v>4.2</v>
+      </c>
+      <c r="N154">
+        <v>2.2</v>
+      </c>
+      <c r="O154">
+        <v>3.1</v>
+      </c>
+      <c r="P154">
         <v>3.6</v>
       </c>
-      <c r="M154">
-        <v>5</v>
-      </c>
-      <c r="N154">
-        <v>1.909</v>
-      </c>
-      <c r="O154">
-        <v>3.4</v>
-      </c>
-      <c r="P154">
-        <v>4.333</v>
-      </c>
       <c r="Q154">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14219,7 +14219,7 @@
         <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14228,25 +14228,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X154">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA154">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6836547</v>
+        <v>6838128</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,73 +14533,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6838128</v>
+        <v>6836547</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,73 +14622,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K159">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N159">
+        <v>2.5</v>
+      </c>
+      <c r="O159">
+        <v>3.25</v>
+      </c>
+      <c r="P159">
         <v>2.9</v>
       </c>
-      <c r="O159">
-        <v>3</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
-      </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.75</v>
+      </c>
+      <c r="N179">
+        <v>2.1</v>
+      </c>
+      <c r="O179">
         <v>3.1</v>
       </c>
-      <c r="M179">
-        <v>2.625</v>
-      </c>
-      <c r="N179">
-        <v>2.55</v>
-      </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
         <v>1.75</v>
       </c>
-      <c r="S179">
-        <v>2.125</v>
-      </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.75</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O180">
+        <v>2.9</v>
+      </c>
+      <c r="P180">
         <v>3.1</v>
       </c>
-      <c r="P180">
-        <v>3.8</v>
-      </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
+        <v>2.125</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
         <v>2.05</v>
       </c>
-      <c r="S180">
-        <v>1.75</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>2.025</v>
-      </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.5</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>2.6</v>
-      </c>
-      <c r="N181">
-        <v>2.6</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.85</v>
       </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L182">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
+        <v>2.6</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.7</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
+      <c r="T182">
         <v>2.5</v>
       </c>
-      <c r="N182">
-        <v>3.6</v>
-      </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
-      <c r="P182">
-        <v>2.2</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>1.95</v>
-      </c>
-      <c r="S182">
-        <v>1.9</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6838136</v>
+        <v>6836554</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O190">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6836554</v>
+        <v>6838136</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17470,58 +17470,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>54</v>
       </c>
       <c r="K191">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N191">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O191">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P191">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q191">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17530,16 +17530,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K220">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L220">
         <v>3</v>
       </c>
       <c r="M220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N220">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O220">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R220">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S220">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T220">
         <v>1.75</v>
       </c>
       <c r="U220">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V220">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y220">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB220">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L221">
         <v>3</v>
       </c>
       <c r="M221">
+        <v>3.4</v>
+      </c>
+      <c r="N221">
+        <v>2.3</v>
+      </c>
+      <c r="O221">
+        <v>2.875</v>
+      </c>
+      <c r="P221">
         <v>3.6</v>
       </c>
-      <c r="N221">
-        <v>2</v>
-      </c>
-      <c r="O221">
-        <v>3</v>
-      </c>
-      <c r="P221">
-        <v>4.5</v>
-      </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S221">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T221">
         <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V221">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB221">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,56 +21564,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
+        <v>2.2</v>
+      </c>
+      <c r="L237">
+        <v>3.2</v>
+      </c>
+      <c r="M237">
+        <v>3.4</v>
+      </c>
+      <c r="N237">
+        <v>2.15</v>
+      </c>
+      <c r="O237">
+        <v>3.1</v>
+      </c>
+      <c r="P237">
+        <v>3.8</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.85</v>
       </c>
-      <c r="L237">
-        <v>3.4</v>
-      </c>
-      <c r="M237">
-        <v>4.333</v>
-      </c>
-      <c r="N237">
-        <v>1.8</v>
-      </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.75</v>
-      </c>
-      <c r="Q237">
-        <v>-0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.875</v>
-      </c>
-      <c r="S237">
-        <v>1.975</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.95</v>
-      </c>
-      <c r="V237">
-        <v>1.9</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,55 +21653,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N238">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6838151</v>
+        <v>6838057</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,76 +22454,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V247">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W247">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6838057</v>
+        <v>6838151</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K248">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
         <v>2</v>
       </c>
       <c r="U248">
+        <v>1.75</v>
+      </c>
+      <c r="V248">
         <v>2.05</v>
       </c>
-      <c r="V248">
-        <v>1.8</v>
-      </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC248">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N251">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7729226</v>
+        <v>7729197</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G267" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K267">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L267">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N267">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7729197</v>
+        <v>7729226</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K268">
+        <v>2.6</v>
+      </c>
+      <c r="L268">
+        <v>3.1</v>
+      </c>
+      <c r="M268">
         <v>2.8</v>
       </c>
-      <c r="L268">
-        <v>3.2</v>
-      </c>
-      <c r="M268">
-        <v>2.5</v>
-      </c>
       <c r="N268">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O268">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P268">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T268">
         <v>2</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y268">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC268">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
+        <v>2.6</v>
+      </c>
+      <c r="L289">
+        <v>2.9</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
         <v>2.25</v>
       </c>
-      <c r="L289">
-        <v>3.1</v>
-      </c>
-      <c r="M289">
-        <v>3.4</v>
-      </c>
-      <c r="N289">
+      <c r="O289">
         <v>3</v>
       </c>
-      <c r="O289">
-        <v>2.875</v>
-      </c>
       <c r="P289">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q289">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L290">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
+        <v>3.4</v>
+      </c>
+      <c r="N290">
         <v>3</v>
       </c>
-      <c r="N290">
-        <v>2.25</v>
-      </c>
       <c r="O290">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P290">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V290">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27159,7 +27159,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6836571</v>
+        <v>6839266</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27171,76 +27171,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F300" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G300" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H300">
+        <v>0</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300" t="s">
+        <v>52</v>
+      </c>
+      <c r="K300">
+        <v>2.3</v>
+      </c>
+      <c r="L300">
+        <v>2.9</v>
+      </c>
+      <c r="M300">
+        <v>3.5</v>
+      </c>
+      <c r="N300">
+        <v>2.4</v>
+      </c>
+      <c r="O300">
         <v>3</v>
       </c>
-      <c r="I300">
-        <v>0</v>
-      </c>
-      <c r="J300" t="s">
-        <v>54</v>
-      </c>
-      <c r="K300">
-        <v>1.5</v>
-      </c>
-      <c r="L300">
-        <v>3.75</v>
-      </c>
-      <c r="M300">
-        <v>7.5</v>
-      </c>
-      <c r="N300">
-        <v>1.85</v>
-      </c>
-      <c r="O300">
-        <v>3.1</v>
-      </c>
       <c r="P300">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q300">
+        <v>-0.25</v>
+      </c>
+      <c r="R300">
+        <v>2.025</v>
+      </c>
+      <c r="S300">
+        <v>1.825</v>
+      </c>
+      <c r="T300">
+        <v>2</v>
+      </c>
+      <c r="U300">
+        <v>1.8</v>
+      </c>
+      <c r="V300">
+        <v>2.05</v>
+      </c>
+      <c r="W300">
+        <v>-1</v>
+      </c>
+      <c r="X300">
+        <v>2</v>
+      </c>
+      <c r="Y300">
+        <v>-1</v>
+      </c>
+      <c r="Z300">
         <v>-0.5</v>
       </c>
-      <c r="R300">
-        <v>1.875</v>
-      </c>
-      <c r="S300">
-        <v>1.975</v>
-      </c>
-      <c r="T300">
-        <v>1.75</v>
-      </c>
-      <c r="U300">
-        <v>1.825</v>
-      </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
-      <c r="W300">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X300">
-        <v>-1</v>
-      </c>
-      <c r="Y300">
-        <v>-1</v>
-      </c>
-      <c r="Z300">
-        <v>0.875</v>
-      </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB300">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27248,7 +27248,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6839266</v>
+        <v>6836571</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27260,76 +27260,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F301" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G301" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I301">
         <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K301">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L301">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N301">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O301">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P301">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R301">
+        <v>1.875</v>
+      </c>
+      <c r="S301">
+        <v>1.975</v>
+      </c>
+      <c r="T301">
+        <v>1.75</v>
+      </c>
+      <c r="U301">
+        <v>1.825</v>
+      </c>
+      <c r="V301">
         <v>2.025</v>
       </c>
-      <c r="S301">
-        <v>1.825</v>
-      </c>
-      <c r="T301">
-        <v>2</v>
-      </c>
-      <c r="U301">
-        <v>1.8</v>
-      </c>
-      <c r="V301">
-        <v>2.05</v>
-      </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y301">
         <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA301">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC301">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -28672,7 +28672,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>6838090</v>
+        <v>6839262</v>
       </c>
       <c r="C317" t="s">
         <v>28</v>
@@ -28684,40 +28684,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F317" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G317" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>52</v>
       </c>
       <c r="K317">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="L317">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M317">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N317">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O317">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P317">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q317">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R317">
         <v>1.925</v>
@@ -28726,34 +28726,34 @@
         <v>1.925</v>
       </c>
       <c r="T317">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U317">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V317">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W317">
         <v>-1</v>
       </c>
       <c r="X317">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y317">
         <v>-1</v>
       </c>
       <c r="Z317">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA317">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB317">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC317">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318" spans="1:29">
@@ -28761,7 +28761,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>6839262</v>
+        <v>6838090</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28773,40 +28773,40 @@
         <v>45353.51041666666</v>
       </c>
       <c r="F318" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G318" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J318" t="s">
         <v>52</v>
       </c>
       <c r="K318">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="L318">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M318">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N318">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O318">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P318">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
         <v>1.925</v>
@@ -28815,34 +28815,34 @@
         <v>1.925</v>
       </c>
       <c r="T318">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U318">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V318">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W318">
         <v>-1</v>
       </c>
       <c r="X318">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y318">
         <v>-1</v>
       </c>
       <c r="Z318">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB318">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC318">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -30007,7 +30007,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6838172</v>
+        <v>6838174</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30019,76 +30019,76 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F332" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G332" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
         <v>1</v>
       </c>
-      <c r="I332">
-        <v>0</v>
-      </c>
       <c r="J332" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K332">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L332">
+        <v>3.25</v>
+      </c>
+      <c r="M332">
+        <v>2.3</v>
+      </c>
+      <c r="N332">
+        <v>4</v>
+      </c>
+      <c r="O332">
         <v>3.1</v>
       </c>
-      <c r="M332">
-        <v>3.75</v>
-      </c>
-      <c r="N332">
-        <v>2</v>
-      </c>
-      <c r="O332">
-        <v>3.2</v>
-      </c>
       <c r="P332">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R332">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S332">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V332">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W332">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z332">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA332">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB332">
         <v>-1</v>
       </c>
       <c r="AC332">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30096,7 +30096,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6838174</v>
+        <v>6838172</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30108,76 +30108,76 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F333" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G333" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K333">
+        <v>2.15</v>
+      </c>
+      <c r="L333">
+        <v>3.1</v>
+      </c>
+      <c r="M333">
+        <v>3.75</v>
+      </c>
+      <c r="N333">
+        <v>2</v>
+      </c>
+      <c r="O333">
         <v>3.2</v>
       </c>
-      <c r="L333">
-        <v>3.25</v>
-      </c>
-      <c r="M333">
-        <v>2.3</v>
-      </c>
-      <c r="N333">
-        <v>4</v>
-      </c>
-      <c r="O333">
-        <v>3.1</v>
-      </c>
       <c r="P333">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q333">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R333">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S333">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V333">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W333">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z333">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA333">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -30447,7 +30447,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="337" spans="1:27">
+    <row r="337" spans="1:29">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -30469,6 +30469,15 @@
       <c r="G337" t="s">
         <v>43</v>
       </c>
+      <c r="H337">
+        <v>0</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337" t="s">
+        <v>52</v>
+      </c>
       <c r="K337">
         <v>2</v>
       </c>
@@ -30479,7 +30488,7 @@
         <v>4.2</v>
       </c>
       <c r="N337">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O337">
         <v>3.25</v>
@@ -30491,37 +30500,43 @@
         <v>-0.5</v>
       </c>
       <c r="R337">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S337">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T337">
         <v>2.25</v>
       </c>
       <c r="U337">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V337">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X337">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z337">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:27">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB337">
+        <v>-1</v>
+      </c>
+      <c r="AC337">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="338" spans="1:29">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -30543,6 +30558,15 @@
       <c r="G338" t="s">
         <v>39</v>
       </c>
+      <c r="H338">
+        <v>0</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338" t="s">
+        <v>52</v>
+      </c>
       <c r="K338">
         <v>2.1</v>
       </c>
@@ -30553,22 +30577,22 @@
         <v>3.5</v>
       </c>
       <c r="N338">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O338">
         <v>3</v>
       </c>
       <c r="P338">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q338">
         <v>-0.5</v>
       </c>
       <c r="R338">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S338">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T338">
         <v>2</v>
@@ -30580,27 +30604,33 @@
         <v>1.825</v>
       </c>
       <c r="W338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X338">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z338">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:27">
+        <v>1.025</v>
+      </c>
+      <c r="AB338">
+        <v>-1</v>
+      </c>
+      <c r="AC338">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="339" spans="1:29">
       <c r="A339" s="1">
         <v>337</v>
       </c>
       <c r="B339">
-        <v>7060549</v>
+        <v>7055147</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30609,72 +30639,87 @@
         <v>28</v>
       </c>
       <c r="E339" s="2">
-        <v>45367.51041666666</v>
+        <v>45367.41666666666</v>
       </c>
       <c r="F339" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G339" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="H339">
+        <v>1</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339" t="s">
+        <v>52</v>
       </c>
       <c r="K339">
-        <v>1.333</v>
+        <v>2.25</v>
       </c>
       <c r="L339">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M339">
-        <v>9</v>
+        <v>3.25</v>
       </c>
       <c r="N339">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O339">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P339">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q339">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R339">
+        <v>1.825</v>
+      </c>
+      <c r="S339">
         <v>2.025</v>
       </c>
-      <c r="S339">
+      <c r="T339">
+        <v>2.25</v>
+      </c>
+      <c r="U339">
+        <v>2.025</v>
+      </c>
+      <c r="V339">
         <v>1.825</v>
       </c>
-      <c r="T339">
-        <v>2.5</v>
-      </c>
-      <c r="U339">
-        <v>1.875</v>
-      </c>
-      <c r="V339">
-        <v>1.975</v>
-      </c>
       <c r="W339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X339">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y339">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:27">
+        <v>0.5125</v>
+      </c>
+      <c r="AB339">
+        <v>-0.5</v>
+      </c>
+      <c r="AC339">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="340" spans="1:29">
       <c r="A340" s="1">
         <v>338</v>
       </c>
       <c r="B340">
-        <v>7066161</v>
+        <v>7060549</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30683,67 +30728,82 @@
         <v>28</v>
       </c>
       <c r="E340" s="2">
-        <v>45367.60416666666</v>
+        <v>45367.51041666666</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G340" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="H340">
+        <v>2</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340" t="s">
+        <v>54</v>
       </c>
       <c r="K340">
-        <v>1.909</v>
+        <v>1.333</v>
       </c>
       <c r="L340">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M340">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="N340">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="O340">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P340">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q340">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R340">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S340">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T340">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U340">
+        <v>1.975</v>
+      </c>
+      <c r="V340">
         <v>1.875</v>
       </c>
-      <c r="V340">
-        <v>1.975</v>
-      </c>
       <c r="W340">
-        <v>0</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y340">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB340">
+        <v>-1</v>
+      </c>
+      <c r="AC340">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="341" spans="1:29">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -30765,6 +30825,15 @@
       <c r="G341" t="s">
         <v>35</v>
       </c>
+      <c r="H341">
+        <v>1</v>
+      </c>
+      <c r="I341">
+        <v>1</v>
+      </c>
+      <c r="J341" t="s">
+        <v>52</v>
+      </c>
       <c r="K341">
         <v>1.909</v>
       </c>
@@ -30775,54 +30844,60 @@
         <v>4.5</v>
       </c>
       <c r="N341">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O341">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P341">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q341">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R341">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S341">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T341">
         <v>2.25</v>
       </c>
       <c r="U341">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V341">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X341">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z341">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:27">
+        <v>1.05</v>
+      </c>
+      <c r="AB341">
+        <v>-0.5</v>
+      </c>
+      <c r="AC341">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:29">
       <c r="A342" s="1">
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7055149</v>
+        <v>7066161</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30831,43 +30906,52 @@
         <v>28</v>
       </c>
       <c r="E342" s="2">
-        <v>45367.70833333334</v>
+        <v>45367.60416666666</v>
       </c>
       <c r="F342" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G342" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="H342">
+        <v>0</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342" t="s">
+        <v>52</v>
       </c>
       <c r="K342">
+        <v>1.909</v>
+      </c>
+      <c r="L342">
+        <v>3</v>
+      </c>
+      <c r="M342">
+        <v>4.75</v>
+      </c>
+      <c r="N342">
+        <v>2</v>
+      </c>
+      <c r="O342">
+        <v>2.875</v>
+      </c>
+      <c r="P342">
+        <v>5.25</v>
+      </c>
+      <c r="Q342">
+        <v>-0.5</v>
+      </c>
+      <c r="R342">
+        <v>2</v>
+      </c>
+      <c r="S342">
+        <v>1.85</v>
+      </c>
+      <c r="T342">
         <v>1.5</v>
-      </c>
-      <c r="L342">
-        <v>4</v>
-      </c>
-      <c r="M342">
-        <v>7</v>
-      </c>
-      <c r="N342">
-        <v>1.666</v>
-      </c>
-      <c r="O342">
-        <v>4</v>
-      </c>
-      <c r="P342">
-        <v>5</v>
-      </c>
-      <c r="Q342">
-        <v>-0.75</v>
-      </c>
-      <c r="R342">
-        <v>1.875</v>
-      </c>
-      <c r="S342">
-        <v>1.975</v>
-      </c>
-      <c r="T342">
-        <v>2</v>
       </c>
       <c r="U342">
         <v>1.8</v>
@@ -30876,27 +30960,33 @@
         <v>2.05</v>
       </c>
       <c r="W342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X342">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Y342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z342">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:27">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB342">
+        <v>-1</v>
+      </c>
+      <c r="AC342">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="343" spans="1:29">
       <c r="A343" s="1">
         <v>341</v>
       </c>
       <c r="B343">
-        <v>7055148</v>
+        <v>7055149</v>
       </c>
       <c r="C343" t="s">
         <v>28</v>
@@ -30905,72 +30995,87 @@
         <v>28</v>
       </c>
       <c r="E343" s="2">
-        <v>45368.51041666666</v>
+        <v>45367.70833333334</v>
       </c>
       <c r="F343" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G343" t="s">
-        <v>34</v>
+        <v>45</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343" t="s">
+        <v>54</v>
       </c>
       <c r="K343">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L343">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M343">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="N343">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O343">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P343">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q343">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R343">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S343">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T343">
         <v>2</v>
       </c>
       <c r="U343">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V343">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W343">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y343">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z343">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB343">
+        <v>-1</v>
+      </c>
+      <c r="AC343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:29">
       <c r="A344" s="1">
         <v>342</v>
       </c>
       <c r="B344">
-        <v>7060713</v>
+        <v>7065220</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -30979,22 +31084,22 @@
         <v>28</v>
       </c>
       <c r="E344" s="2">
-        <v>45368.60416666666</v>
+        <v>45368.41666666666</v>
       </c>
       <c r="F344" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G344" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K344">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L344">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M344">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N344">
         <v>1.8</v>
@@ -31003,7 +31108,7 @@
         <v>3.2</v>
       </c>
       <c r="P344">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q344">
         <v>-0.5</v>
@@ -31015,7 +31120,7 @@
         <v>2.025</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U344">
         <v>2.05</v>
@@ -31039,12 +31144,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:27">
+    <row r="345" spans="1:29">
       <c r="A345" s="1">
         <v>343</v>
       </c>
       <c r="B345">
-        <v>7060550</v>
+        <v>7055148</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31053,63 +31158,285 @@
         <v>28</v>
       </c>
       <c r="E345" s="2">
-        <v>45368.60416666666</v>
+        <v>45368.51041666666</v>
       </c>
       <c r="F345" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G345" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K345">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="L345">
         <v>3.25</v>
       </c>
       <c r="M345">
+        <v>2.5</v>
+      </c>
+      <c r="N345">
+        <v>3.1</v>
+      </c>
+      <c r="O345">
+        <v>2.9</v>
+      </c>
+      <c r="P345">
+        <v>2.5</v>
+      </c>
+      <c r="Q345">
+        <v>0</v>
+      </c>
+      <c r="R345">
+        <v>2.125</v>
+      </c>
+      <c r="S345">
+        <v>1.75</v>
+      </c>
+      <c r="T345">
+        <v>2</v>
+      </c>
+      <c r="U345">
+        <v>2.05</v>
+      </c>
+      <c r="V345">
+        <v>1.8</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>0</v>
+      </c>
+      <c r="Y345">
+        <v>0</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:29">
+      <c r="A346" s="1">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>7060713</v>
+      </c>
+      <c r="C346" t="s">
+        <v>28</v>
+      </c>
+      <c r="D346" t="s">
+        <v>28</v>
+      </c>
+      <c r="E346" s="2">
+        <v>45368.60416666666</v>
+      </c>
+      <c r="F346" t="s">
+        <v>37</v>
+      </c>
+      <c r="G346" t="s">
+        <v>30</v>
+      </c>
+      <c r="K346">
+        <v>1.8</v>
+      </c>
+      <c r="L346">
+        <v>3.25</v>
+      </c>
+      <c r="M346">
+        <v>4.5</v>
+      </c>
+      <c r="N346">
+        <v>1.666</v>
+      </c>
+      <c r="O346">
+        <v>3.5</v>
+      </c>
+      <c r="P346">
+        <v>6</v>
+      </c>
+      <c r="Q346">
+        <v>-0.75</v>
+      </c>
+      <c r="R346">
+        <v>1.85</v>
+      </c>
+      <c r="S346">
+        <v>2</v>
+      </c>
+      <c r="T346">
+        <v>2.25</v>
+      </c>
+      <c r="U346">
+        <v>2.025</v>
+      </c>
+      <c r="V346">
+        <v>1.825</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>0</v>
+      </c>
+      <c r="Y346">
+        <v>0</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:29">
+      <c r="A347" s="1">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>7060550</v>
+      </c>
+      <c r="C347" t="s">
+        <v>28</v>
+      </c>
+      <c r="D347" t="s">
+        <v>28</v>
+      </c>
+      <c r="E347" s="2">
+        <v>45368.60416666666</v>
+      </c>
+      <c r="F347" t="s">
+        <v>36</v>
+      </c>
+      <c r="G347" t="s">
+        <v>44</v>
+      </c>
+      <c r="K347">
+        <v>2.8</v>
+      </c>
+      <c r="L347">
+        <v>3.25</v>
+      </c>
+      <c r="M347">
         <v>2.3</v>
       </c>
-      <c r="N345">
-        <v>2.375</v>
-      </c>
-      <c r="O345">
-        <v>3.25</v>
-      </c>
-      <c r="P345">
-        <v>2.75</v>
-      </c>
-      <c r="Q345">
-        <v>0</v>
-      </c>
-      <c r="R345">
+      <c r="N347">
+        <v>2.6</v>
+      </c>
+      <c r="O347">
+        <v>2.9</v>
+      </c>
+      <c r="P347">
+        <v>3</v>
+      </c>
+      <c r="Q347">
+        <v>0</v>
+      </c>
+      <c r="R347">
         <v>1.775</v>
       </c>
-      <c r="S345">
+      <c r="S347">
         <v>2.1</v>
       </c>
-      <c r="T345">
-        <v>2</v>
-      </c>
-      <c r="U345">
+      <c r="T347">
+        <v>1.75</v>
+      </c>
+      <c r="U347">
+        <v>1.825</v>
+      </c>
+      <c r="V347">
         <v>2.025</v>
       </c>
-      <c r="V345">
-        <v>1.825</v>
-      </c>
-      <c r="W345">
-        <v>0</v>
-      </c>
-      <c r="X345">
-        <v>0</v>
-      </c>
-      <c r="Y345">
-        <v>0</v>
-      </c>
-      <c r="Z345">
-        <v>0</v>
-      </c>
-      <c r="AA345">
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>0</v>
+      </c>
+      <c r="Y347">
+        <v>0</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:29">
+      <c r="A348" s="1">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>7055150</v>
+      </c>
+      <c r="C348" t="s">
+        <v>28</v>
+      </c>
+      <c r="D348" t="s">
+        <v>28</v>
+      </c>
+      <c r="E348" s="2">
+        <v>45369.6875</v>
+      </c>
+      <c r="F348" t="s">
+        <v>43</v>
+      </c>
+      <c r="G348" t="s">
+        <v>33</v>
+      </c>
+      <c r="K348">
+        <v>2.4</v>
+      </c>
+      <c r="L348">
+        <v>3.4</v>
+      </c>
+      <c r="M348">
+        <v>2.625</v>
+      </c>
+      <c r="N348">
+        <v>1.8</v>
+      </c>
+      <c r="O348">
+        <v>3.2</v>
+      </c>
+      <c r="P348">
+        <v>5.25</v>
+      </c>
+      <c r="Q348">
+        <v>-0.75</v>
+      </c>
+      <c r="R348">
+        <v>2.05</v>
+      </c>
+      <c r="S348">
+        <v>1.8</v>
+      </c>
+      <c r="T348">
+        <v>2</v>
+      </c>
+      <c r="U348">
+        <v>1.875</v>
+      </c>
+      <c r="V348">
+        <v>1.975</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>0</v>
+      </c>
+      <c r="Y348">
+        <v>0</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC348"/>
+  <dimension ref="A1:AC370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W34">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
         <v>-0</v>
-      </c>
-      <c r="AB34">
-        <v>-1</v>
-      </c>
-      <c r="AC34">
-        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5354,7 +5354,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7164524</v>
+        <v>6838108</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5366,10 +5366,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -5381,43 +5381,43 @@
         <v>54</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L55">
         <v>3.1</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="N55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O55">
         <v>3.2</v>
       </c>
       <c r="P55">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
+        <v>2.025</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
         <v>1.75</v>
       </c>
-      <c r="S55">
+      <c r="U55">
+        <v>1.8</v>
+      </c>
+      <c r="V55">
         <v>2.05</v>
       </c>
-      <c r="T55">
-        <v>2</v>
-      </c>
-      <c r="U55">
-        <v>1.95</v>
-      </c>
-      <c r="V55">
-        <v>1.9</v>
-      </c>
       <c r="W55">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5426,16 +5426,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6838108</v>
+        <v>7164524</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5455,10 +5455,10 @@
         <v>45178.66666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5470,43 +5470,43 @@
         <v>54</v>
       </c>
       <c r="K56">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
         <v>3.1</v>
       </c>
       <c r="M56">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
         <v>3.2</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5515,16 +5515,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6838110</v>
+        <v>6839307</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,76 +6701,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>9.5</v>
+      </c>
+      <c r="N70">
+        <v>1.5</v>
+      </c>
+      <c r="O70">
+        <v>4</v>
+      </c>
+      <c r="P70">
+        <v>7</v>
+      </c>
+      <c r="Q70">
+        <v>-1</v>
+      </c>
+      <c r="R70">
+        <v>1.95</v>
+      </c>
+      <c r="S70">
+        <v>1.9</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
+        <v>2.025</v>
+      </c>
+      <c r="W70">
+        <v>-1</v>
+      </c>
+      <c r="X70">
         <v>3</v>
       </c>
-      <c r="M70">
-        <v>4.2</v>
-      </c>
-      <c r="N70">
-        <v>1.8</v>
-      </c>
-      <c r="O70">
-        <v>3.4</v>
-      </c>
-      <c r="P70">
-        <v>5</v>
-      </c>
-      <c r="Q70">
-        <v>-0.5</v>
-      </c>
-      <c r="R70">
-        <v>1.85</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
-      </c>
-      <c r="T70">
-        <v>2</v>
-      </c>
-      <c r="U70">
-        <v>1.8</v>
-      </c>
-      <c r="V70">
-        <v>2.05</v>
-      </c>
-      <c r="W70">
-        <v>0.8</v>
-      </c>
-      <c r="X70">
-        <v>-1</v>
-      </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6839307</v>
+        <v>6838110</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,76 +6790,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G71" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>54</v>
+      </c>
+      <c r="K71">
+        <v>1.909</v>
+      </c>
+      <c r="L71">
         <v>3</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71" t="s">
-        <v>52</v>
-      </c>
-      <c r="K71">
-        <v>1.363</v>
-      </c>
-      <c r="L71">
-        <v>4</v>
-      </c>
       <c r="M71">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N71">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X71">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6837987</v>
+        <v>6839305</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7858,10 +7858,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7873,43 +7873,43 @@
         <v>54</v>
       </c>
       <c r="K83">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M83">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N83">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V83">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W83">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7927,7 +7927,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6839305</v>
+        <v>6837987</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,10 +7947,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7962,43 +7962,43 @@
         <v>54</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L84">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M84">
+        <v>2.875</v>
+      </c>
+      <c r="N84">
         <v>2.5</v>
-      </c>
-      <c r="N84">
-        <v>2.25</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q84">
         <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -8016,7 +8016,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8558,7 +8558,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6837991</v>
+        <v>6837992</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8570,37 +8570,37 @@
         <v>45200.5625</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.75</v>
       </c>
       <c r="L91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O91">
         <v>3.5</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q91">
         <v>-0.5</v>
@@ -8612,34 +8612,34 @@
         <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8647,7 +8647,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6837992</v>
+        <v>6836530</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8659,76 +8659,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K92">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="N92">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P92">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R92">
+        <v>1.85</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>2.25</v>
+      </c>
+      <c r="U92">
+        <v>2.025</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="S92">
-        <v>2.025</v>
-      </c>
-      <c r="T92">
-        <v>2</v>
-      </c>
-      <c r="U92">
-        <v>1.8</v>
-      </c>
-      <c r="V92">
-        <v>2.05</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y92">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8736,7 +8736,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6836530</v>
+        <v>6837991</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8748,76 +8748,76 @@
         <v>45200.5625</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K93">
-        <v>2.35</v>
+        <v>1.833</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P93">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V93">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X93">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>1.909</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
         <v>4.5</v>
       </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>5.75</v>
-      </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.925</v>
+      </c>
+      <c r="W114">
+        <v>0.75</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.5</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.4</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>1</v>
-      </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,73 +11151,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>2.875</v>
       </c>
       <c r="M120">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11240,73 +11240,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
         <v>2.875</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3.4</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>1.95</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>4</v>
+      </c>
+      <c r="Q130">
+        <v>-0.5</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.9</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>1.925</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
         <v>3</v>
       </c>
-      <c r="L130">
-        <v>3</v>
-      </c>
-      <c r="M130">
-        <v>2.45</v>
-      </c>
-      <c r="N130">
-        <v>3.5</v>
-      </c>
-      <c r="O130">
-        <v>3.1</v>
-      </c>
-      <c r="P130">
-        <v>2.3</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.9</v>
-      </c>
-      <c r="S130">
-        <v>1.95</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2.05</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>2.1</v>
-      </c>
-      <c r="Y130">
-        <v>-1</v>
-      </c>
       <c r="Z130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>52</v>
+      </c>
+      <c r="K131">
         <v>3</v>
       </c>
-      <c r="J131" t="s">
-        <v>53</v>
-      </c>
-      <c r="K131">
-        <v>2</v>
-      </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N131">
+        <v>3.5</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>2.3</v>
+      </c>
+      <c r="Q131">
+        <v>0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.9</v>
+      </c>
+      <c r="S131">
         <v>1.95</v>
       </c>
-      <c r="O131">
-        <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>4</v>
-      </c>
-      <c r="Q131">
+      <c r="T131">
+        <v>1.75</v>
+      </c>
+      <c r="U131">
+        <v>1.8</v>
+      </c>
+      <c r="V131">
+        <v>2.05</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0.45</v>
+      </c>
+      <c r="AA131">
         <v>-0.5</v>
       </c>
-      <c r="R131">
-        <v>1.95</v>
-      </c>
-      <c r="S131">
-        <v>1.9</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.925</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
-      <c r="Y131">
-        <v>3</v>
-      </c>
-      <c r="Z131">
-        <v>-1</v>
-      </c>
-      <c r="AA131">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -13542,7 +13542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6838126</v>
+        <v>6836546</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13554,13 +13554,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13569,43 +13569,43 @@
         <v>54</v>
       </c>
       <c r="K147">
+        <v>2.15</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+      <c r="M147">
+        <v>3.75</v>
+      </c>
+      <c r="N147">
+        <v>1.8</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>5</v>
+      </c>
+      <c r="Q147">
+        <v>-0.5</v>
+      </c>
+      <c r="R147">
+        <v>1.8</v>
+      </c>
+      <c r="S147">
+        <v>2.05</v>
+      </c>
+      <c r="T147">
         <v>1.75</v>
       </c>
-      <c r="L147">
-        <v>3.75</v>
-      </c>
-      <c r="M147">
-        <v>4.333</v>
-      </c>
-      <c r="N147">
-        <v>1.75</v>
-      </c>
-      <c r="O147">
-        <v>3.75</v>
-      </c>
-      <c r="P147">
-        <v>4.5</v>
-      </c>
-      <c r="Q147">
-        <v>-0.75</v>
-      </c>
-      <c r="R147">
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
         <v>2.025</v>
       </c>
-      <c r="S147">
-        <v>1.825</v>
-      </c>
-      <c r="T147">
-        <v>2.25</v>
-      </c>
-      <c r="U147">
-        <v>1.9</v>
-      </c>
-      <c r="V147">
-        <v>1.95</v>
-      </c>
       <c r="W147">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13614,16 +13614,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.5125</v>
+        <v>0.8</v>
       </c>
       <c r="AA147">
+        <v>-1</v>
+      </c>
+      <c r="AB147">
+        <v>0.4125</v>
+      </c>
+      <c r="AC147">
         <v>-0.5</v>
-      </c>
-      <c r="AB147">
-        <v>-1</v>
-      </c>
-      <c r="AC147">
-        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13631,7 +13631,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6836546</v>
+        <v>6838126</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13643,13 +13643,13 @@
         <v>45228.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -13658,61 +13658,61 @@
         <v>54</v>
       </c>
       <c r="K148">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
+        <v>4.333</v>
+      </c>
+      <c r="N148">
+        <v>1.75</v>
+      </c>
+      <c r="O148">
         <v>3.75</v>
       </c>
-      <c r="N148">
-        <v>1.8</v>
-      </c>
-      <c r="O148">
-        <v>3.3</v>
-      </c>
       <c r="P148">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q148">
+        <v>-0.75</v>
+      </c>
+      <c r="R148">
+        <v>2.025</v>
+      </c>
+      <c r="S148">
+        <v>1.825</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.9</v>
+      </c>
+      <c r="V148">
+        <v>1.95</v>
+      </c>
+      <c r="W148">
+        <v>0.75</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.5125</v>
+      </c>
+      <c r="AA148">
         <v>-0.5</v>
       </c>
-      <c r="R148">
-        <v>1.8</v>
-      </c>
-      <c r="S148">
-        <v>2.05</v>
-      </c>
-      <c r="T148">
-        <v>1.75</v>
-      </c>
-      <c r="U148">
-        <v>1.825</v>
-      </c>
-      <c r="V148">
-        <v>2.025</v>
-      </c>
-      <c r="W148">
-        <v>0.8</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
-        <v>0.8</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
       <c r="AB148">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14076,7 +14076,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6838129</v>
+        <v>6838023</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14088,40 +14088,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H153">
         <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K153">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L153">
+        <v>3.3</v>
+      </c>
+      <c r="M153">
+        <v>4.2</v>
+      </c>
+      <c r="N153">
+        <v>2.2</v>
+      </c>
+      <c r="O153">
+        <v>3.1</v>
+      </c>
+      <c r="P153">
         <v>3.6</v>
       </c>
-      <c r="M153">
-        <v>5</v>
-      </c>
-      <c r="N153">
-        <v>1.909</v>
-      </c>
-      <c r="O153">
-        <v>3.4</v>
-      </c>
-      <c r="P153">
-        <v>4.333</v>
-      </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
         <v>1.875</v>
@@ -14130,7 +14130,7 @@
         <v>1.975</v>
       </c>
       <c r="T153">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U153">
         <v>2.025</v>
@@ -14139,25 +14139,25 @@
         <v>1.825</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA153">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14165,7 +14165,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6838023</v>
+        <v>6838129</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14177,40 +14177,40 @@
         <v>45234.60416666666</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G154" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H154">
         <v>2</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K154">
+        <v>1.666</v>
+      </c>
+      <c r="L154">
+        <v>3.6</v>
+      </c>
+      <c r="M154">
+        <v>5</v>
+      </c>
+      <c r="N154">
         <v>1.909</v>
       </c>
-      <c r="L154">
-        <v>3.3</v>
-      </c>
-      <c r="M154">
-        <v>4.2</v>
-      </c>
-      <c r="N154">
-        <v>2.2</v>
-      </c>
       <c r="O154">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P154">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R154">
         <v>1.875</v>
@@ -14219,7 +14219,7 @@
         <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
         <v>2.025</v>
@@ -14228,25 +14228,25 @@
         <v>1.825</v>
       </c>
       <c r="W154">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6838128</v>
+        <v>6836547</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,73 +14533,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K158">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L158">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M158">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N158">
+        <v>2.5</v>
+      </c>
+      <c r="O158">
+        <v>3.25</v>
+      </c>
+      <c r="P158">
         <v>2.9</v>
       </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
-      </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V158">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA158">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6836547</v>
+        <v>6838128</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,73 +14622,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
         <v>3</v>
       </c>
-      <c r="I159">
-        <v>1</v>
-      </c>
       <c r="J159" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K159">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M159">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N159">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P159">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T159">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z159">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB159">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838026</v>
+        <v>6838028</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G169" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L169">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M169">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N169">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P169">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R169">
+        <v>1.875</v>
+      </c>
+      <c r="S169">
         <v>1.975</v>
       </c>
-      <c r="S169">
-        <v>1.875</v>
-      </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U169">
+        <v>1.9</v>
+      </c>
+      <c r="V169">
         <v>1.95</v>
       </c>
-      <c r="V169">
-        <v>1.9</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y169">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA169">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC169">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838028</v>
+        <v>6838026</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G170" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L170">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N170">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O170">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P170">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q170">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R170">
+        <v>1.975</v>
+      </c>
+      <c r="S170">
         <v>1.875</v>
       </c>
-      <c r="S170">
-        <v>1.975</v>
-      </c>
       <c r="T170">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U170">
+        <v>1.95</v>
+      </c>
+      <c r="V170">
         <v>1.9</v>
       </c>
-      <c r="V170">
-        <v>1.95</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y170">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z170">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB170">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC170">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G175" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K175">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M175">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N175">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O175">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q175">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T175">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V175">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W175">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z175">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K176">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L176">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M176">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N176">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P176">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U176">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V176">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC176">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K179">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M179">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N179">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
+        <v>2.9</v>
+      </c>
+      <c r="P179">
         <v>3.1</v>
       </c>
-      <c r="P179">
-        <v>3.8</v>
-      </c>
       <c r="Q179">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R179">
+        <v>1.75</v>
+      </c>
+      <c r="S179">
+        <v>2.125</v>
+      </c>
+      <c r="T179">
+        <v>1.75</v>
+      </c>
+      <c r="U179">
+        <v>1.8</v>
+      </c>
+      <c r="V179">
         <v>2.05</v>
       </c>
-      <c r="S179">
-        <v>1.75</v>
-      </c>
-      <c r="T179">
-        <v>2.25</v>
-      </c>
-      <c r="U179">
-        <v>2.025</v>
-      </c>
-      <c r="V179">
-        <v>1.825</v>
-      </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA179">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K180">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>3.75</v>
+      </c>
+      <c r="N180">
+        <v>2.1</v>
+      </c>
+      <c r="O180">
         <v>3.1</v>
       </c>
-      <c r="M180">
-        <v>2.625</v>
-      </c>
-      <c r="N180">
-        <v>2.55</v>
-      </c>
-      <c r="O180">
-        <v>2.9</v>
-      </c>
       <c r="P180">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
         <v>1.75</v>
       </c>
-      <c r="S180">
-        <v>2.125</v>
-      </c>
       <c r="T180">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
         <v>0.75</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
       <c r="AB180">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G181" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L181">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M181">
+        <v>2.6</v>
+      </c>
+      <c r="N181">
+        <v>2.6</v>
+      </c>
+      <c r="O181">
+        <v>3.4</v>
+      </c>
+      <c r="P181">
+        <v>2.7</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
+        <v>2</v>
+      </c>
+      <c r="T181">
         <v>2.5</v>
       </c>
-      <c r="N181">
-        <v>3.6</v>
-      </c>
-      <c r="O181">
-        <v>3.2</v>
-      </c>
-      <c r="P181">
-        <v>2.2</v>
-      </c>
-      <c r="Q181">
-        <v>0.25</v>
-      </c>
-      <c r="R181">
-        <v>1.95</v>
-      </c>
-      <c r="S181">
-        <v>1.9</v>
-      </c>
-      <c r="T181">
-        <v>2.25</v>
-      </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V181">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L182">
+        <v>3.1</v>
+      </c>
+      <c r="M182">
+        <v>2.5</v>
+      </c>
+      <c r="N182">
+        <v>3.6</v>
+      </c>
+      <c r="O182">
         <v>3.2</v>
       </c>
-      <c r="M182">
-        <v>2.6</v>
-      </c>
-      <c r="N182">
-        <v>2.6</v>
-      </c>
-      <c r="O182">
-        <v>3.4</v>
-      </c>
       <c r="P182">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q182">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R182">
+        <v>1.95</v>
+      </c>
+      <c r="S182">
+        <v>1.9</v>
+      </c>
+      <c r="T182">
+        <v>2.25</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
         <v>1.85</v>
       </c>
-      <c r="S182">
-        <v>2</v>
-      </c>
-      <c r="T182">
-        <v>2.5</v>
-      </c>
-      <c r="U182">
-        <v>1.85</v>
-      </c>
-      <c r="V182">
-        <v>2</v>
-      </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA182">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC182">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16924,7 +16924,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16936,76 +16936,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K185">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L185">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O185">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P185">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.975</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>1.775</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>2.1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
         <v>-0.5</v>
       </c>
-      <c r="R185">
-        <v>1.8</v>
-      </c>
-      <c r="S185">
-        <v>2.05</v>
-      </c>
-      <c r="T185">
-        <v>2.75</v>
-      </c>
-      <c r="U185">
-        <v>1.925</v>
-      </c>
-      <c r="V185">
-        <v>1.925</v>
-      </c>
-      <c r="W185">
-        <v>0.8</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>0.8</v>
-      </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T186">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U186">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X186">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA186">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6836554</v>
+        <v>6838136</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N190">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O190">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P190">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q190">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R190">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S190">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC190">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6838136</v>
+        <v>6836554</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17470,58 +17470,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="s">
         <v>54</v>
       </c>
       <c r="K191">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M191">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N191">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O191">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P191">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R191">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S191">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U191">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W191">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17530,16 +17530,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235">
+        <v>2.6</v>
+      </c>
+      <c r="L235">
+        <v>3.2</v>
+      </c>
+      <c r="M235">
+        <v>2.75</v>
+      </c>
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235" t="s">
-        <v>54</v>
-      </c>
-      <c r="K235">
-        <v>2.2</v>
-      </c>
-      <c r="L235">
-        <v>3.1</v>
-      </c>
-      <c r="M235">
-        <v>3.6</v>
-      </c>
-      <c r="N235">
-        <v>2.05</v>
-      </c>
       <c r="O235">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G236" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K236">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,55 +21564,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>1</v>
-      </c>
-      <c r="I237">
-        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N237">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,56 +21653,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
+        <v>2.2</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>3.4</v>
+      </c>
+      <c r="N238">
+        <v>2.15</v>
+      </c>
+      <c r="O238">
+        <v>3.1</v>
+      </c>
+      <c r="P238">
+        <v>3.8</v>
+      </c>
+      <c r="Q238">
+        <v>-0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>4.333</v>
-      </c>
-      <c r="N238">
-        <v>1.8</v>
-      </c>
-      <c r="O238">
-        <v>3.6</v>
-      </c>
-      <c r="P238">
-        <v>4.75</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.875</v>
-      </c>
-      <c r="S238">
-        <v>1.975</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.95</v>
-      </c>
-      <c r="V238">
-        <v>1.9</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6838054</v>
+        <v>6839275</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,49 +22187,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K244">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N244">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O244">
+        <v>3.1</v>
+      </c>
+      <c r="P244">
         <v>2.9</v>
       </c>
-      <c r="P244">
-        <v>2.7</v>
-      </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
+        <v>1.8</v>
+      </c>
+      <c r="S244">
         <v>2.05</v>
       </c>
-      <c r="S244">
-        <v>1.8</v>
-      </c>
       <c r="T244">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
         <v>2.05</v>
@@ -22238,19 +22238,19 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X244">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA244">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6839275</v>
+        <v>6838054</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,49 +22276,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G245" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K245">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L245">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M245">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N245">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O245">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P245">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
+        <v>2.05</v>
+      </c>
+      <c r="S245">
         <v>1.8</v>
       </c>
-      <c r="S245">
-        <v>2.05</v>
-      </c>
       <c r="T245">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U245">
         <v>2.05</v>
@@ -22327,19 +22327,19 @@
         <v>1.8</v>
       </c>
       <c r="W245">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X245">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA245">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6838057</v>
+        <v>6838151</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,76 +22454,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J247" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K247">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L247">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N247">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O247">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q247">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
+        <v>1.75</v>
+      </c>
+      <c r="V247">
         <v>2.05</v>
       </c>
-      <c r="V247">
-        <v>1.8</v>
-      </c>
       <c r="W247">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X247">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA247">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB247">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC247">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6838151</v>
+        <v>6838057</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H248">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J248" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K248">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L248">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M248">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N248">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O248">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P248">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q248">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R248">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T248">
         <v>2</v>
       </c>
       <c r="U248">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V248">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W248">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X248">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA248">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB248">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC248">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K251">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N251">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S251">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W251">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z251">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K252">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N252">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q252">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S252">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V252">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W252">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA252">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7729197</v>
+        <v>7729226</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K267">
+        <v>2.6</v>
+      </c>
+      <c r="L267">
+        <v>3.1</v>
+      </c>
+      <c r="M267">
         <v>2.8</v>
       </c>
-      <c r="L267">
-        <v>3.2</v>
-      </c>
-      <c r="M267">
-        <v>2.5</v>
-      </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O267">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P267">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y267">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC267">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7729226</v>
+        <v>7729197</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G268" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L268">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N268">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O268">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P268">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S268">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T268">
         <v>2</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L274">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M274">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P274">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S274">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T274">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U274">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V274">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC274">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G275" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L275">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M275">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P275">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S275">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T275">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U275">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V275">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC275">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6836570</v>
+        <v>6839267</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F284" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K284">
+        <v>2.1</v>
+      </c>
+      <c r="L284">
+        <v>3.2</v>
+      </c>
+      <c r="M284">
         <v>3.6</v>
       </c>
-      <c r="L284">
+      <c r="N284">
+        <v>2.1</v>
+      </c>
+      <c r="O284">
         <v>3</v>
       </c>
-      <c r="M284">
-        <v>2.2</v>
-      </c>
-      <c r="N284">
+      <c r="P284">
         <v>4.2</v>
       </c>
-      <c r="O284">
-        <v>3.1</v>
-      </c>
-      <c r="P284">
-        <v>2.05</v>
-      </c>
       <c r="Q284">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S284">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T284">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U284">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V284">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W284">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA284">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6839267</v>
+        <v>6836570</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G285" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K285">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L285">
+        <v>3</v>
+      </c>
+      <c r="M285">
+        <v>2.2</v>
+      </c>
+      <c r="N285">
+        <v>4.2</v>
+      </c>
+      <c r="O285">
+        <v>3.1</v>
+      </c>
+      <c r="P285">
+        <v>2.05</v>
+      </c>
+      <c r="Q285">
+        <v>0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.825</v>
+      </c>
+      <c r="S285">
+        <v>2.025</v>
+      </c>
+      <c r="T285">
+        <v>2</v>
+      </c>
+      <c r="U285">
+        <v>2.05</v>
+      </c>
+      <c r="V285">
+        <v>1.8</v>
+      </c>
+      <c r="W285">
         <v>3.2</v>
       </c>
-      <c r="M285">
-        <v>3.6</v>
-      </c>
-      <c r="N285">
-        <v>2.1</v>
-      </c>
-      <c r="O285">
-        <v>3</v>
-      </c>
-      <c r="P285">
-        <v>4.2</v>
-      </c>
-      <c r="Q285">
-        <v>-0.25</v>
-      </c>
-      <c r="R285">
-        <v>1.775</v>
-      </c>
-      <c r="S285">
-        <v>2.1</v>
-      </c>
-      <c r="T285">
-        <v>1.75</v>
-      </c>
-      <c r="U285">
-        <v>1.9</v>
-      </c>
-      <c r="V285">
-        <v>1.95</v>
-      </c>
-      <c r="W285">
-        <v>-1</v>
-      </c>
       <c r="X285">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA285">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G289" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L289">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M289">
+        <v>3.4</v>
+      </c>
+      <c r="N289">
         <v>3</v>
       </c>
-      <c r="N289">
-        <v>2.25</v>
-      </c>
       <c r="O289">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P289">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q289">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V289">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W289">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G290" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
+        <v>2.6</v>
+      </c>
+      <c r="L290">
+        <v>2.9</v>
+      </c>
+      <c r="M290">
+        <v>3</v>
+      </c>
+      <c r="N290">
         <v>2.25</v>
       </c>
-      <c r="L290">
-        <v>3.1</v>
-      </c>
-      <c r="M290">
-        <v>3.4</v>
-      </c>
-      <c r="N290">
+      <c r="O290">
         <v>3</v>
       </c>
-      <c r="O290">
-        <v>2.875</v>
-      </c>
       <c r="P290">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q290">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R290">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S290">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V290">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W290">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -27159,7 +27159,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6839266</v>
+        <v>6836571</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27171,76 +27171,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F300" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G300" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I300">
         <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K300">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="L300">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M300">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N300">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="O300">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P300">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q300">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R300">
+        <v>1.875</v>
+      </c>
+      <c r="S300">
+        <v>1.975</v>
+      </c>
+      <c r="T300">
+        <v>1.75</v>
+      </c>
+      <c r="U300">
+        <v>1.825</v>
+      </c>
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="S300">
-        <v>1.825</v>
-      </c>
-      <c r="T300">
-        <v>2</v>
-      </c>
-      <c r="U300">
-        <v>1.8</v>
-      </c>
-      <c r="V300">
-        <v>2.05</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X300">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA300">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC300">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27248,7 +27248,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6836571</v>
+        <v>6839266</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27260,76 +27260,76 @@
         <v>45340.51041666666</v>
       </c>
       <c r="F301" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G301" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H301">
+        <v>0</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301" t="s">
+        <v>52</v>
+      </c>
+      <c r="K301">
+        <v>2.3</v>
+      </c>
+      <c r="L301">
+        <v>2.9</v>
+      </c>
+      <c r="M301">
+        <v>3.5</v>
+      </c>
+      <c r="N301">
+        <v>2.4</v>
+      </c>
+      <c r="O301">
         <v>3</v>
       </c>
-      <c r="I301">
-        <v>0</v>
-      </c>
-      <c r="J301" t="s">
-        <v>54</v>
-      </c>
-      <c r="K301">
-        <v>1.5</v>
-      </c>
-      <c r="L301">
-        <v>3.75</v>
-      </c>
-      <c r="M301">
-        <v>7.5</v>
-      </c>
-      <c r="N301">
-        <v>1.85</v>
-      </c>
-      <c r="O301">
-        <v>3.1</v>
-      </c>
       <c r="P301">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="Q301">
+        <v>-0.25</v>
+      </c>
+      <c r="R301">
+        <v>2.025</v>
+      </c>
+      <c r="S301">
+        <v>1.825</v>
+      </c>
+      <c r="T301">
+        <v>2</v>
+      </c>
+      <c r="U301">
+        <v>1.8</v>
+      </c>
+      <c r="V301">
+        <v>2.05</v>
+      </c>
+      <c r="W301">
+        <v>-1</v>
+      </c>
+      <c r="X301">
+        <v>2</v>
+      </c>
+      <c r="Y301">
+        <v>-1</v>
+      </c>
+      <c r="Z301">
         <v>-0.5</v>
       </c>
-      <c r="R301">
-        <v>1.875</v>
-      </c>
-      <c r="S301">
-        <v>1.975</v>
-      </c>
-      <c r="T301">
-        <v>1.75</v>
-      </c>
-      <c r="U301">
-        <v>1.825</v>
-      </c>
-      <c r="V301">
-        <v>2.025</v>
-      </c>
-      <c r="W301">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X301">
-        <v>-1</v>
-      </c>
-      <c r="Y301">
-        <v>-1</v>
-      </c>
-      <c r="Z301">
-        <v>0.875</v>
-      </c>
       <c r="AA301">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB301">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27782,7 +27782,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>6838084</v>
+        <v>6838083</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27794,40 +27794,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F307" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J307" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K307">
+        <v>2</v>
+      </c>
+      <c r="L307">
+        <v>3.3</v>
+      </c>
+      <c r="M307">
+        <v>3.75</v>
+      </c>
+      <c r="N307">
+        <v>2</v>
+      </c>
+      <c r="O307">
         <v>3.2</v>
       </c>
-      <c r="L307">
-        <v>3</v>
-      </c>
-      <c r="M307">
-        <v>2.45</v>
-      </c>
-      <c r="N307">
-        <v>2.8</v>
-      </c>
-      <c r="O307">
-        <v>2.9</v>
-      </c>
       <c r="P307">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q307">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R307">
         <v>1.925</v>
@@ -27836,34 +27836,34 @@
         <v>1.925</v>
       </c>
       <c r="T307">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V307">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W307">
         <v>-1</v>
       </c>
       <c r="X307">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z307">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA307">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
       <c r="AB307">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC307">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -27871,7 +27871,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>6838083</v>
+        <v>6838084</v>
       </c>
       <c r="C308" t="s">
         <v>28</v>
@@ -27883,40 +27883,40 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F308" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G308" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308" t="s">
+        <v>52</v>
+      </c>
+      <c r="K308">
+        <v>3.2</v>
+      </c>
+      <c r="L308">
         <v>3</v>
       </c>
-      <c r="J308" t="s">
-        <v>53</v>
-      </c>
-      <c r="K308">
-        <v>2</v>
-      </c>
-      <c r="L308">
-        <v>3.3</v>
-      </c>
       <c r="M308">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N308">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="O308">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P308">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q308">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R308">
         <v>1.925</v>
@@ -27925,34 +27925,34 @@
         <v>1.925</v>
       </c>
       <c r="T308">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U308">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V308">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W308">
         <v>-1</v>
       </c>
       <c r="X308">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y308">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z308">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA308">
+        <v>-0</v>
+      </c>
+      <c r="AB308">
+        <v>-1</v>
+      </c>
+      <c r="AC308">
         <v>0.925</v>
-      </c>
-      <c r="AB308">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC308">
-        <v>-1</v>
       </c>
     </row>
     <row r="309" spans="1:29">
@@ -29651,7 +29651,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6873347</v>
+        <v>6838094</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29663,58 +29663,58 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F328" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G328" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>54</v>
       </c>
       <c r="K328">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L328">
         <v>3.1</v>
       </c>
       <c r="M328">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N328">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O328">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P328">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q328">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R328">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S328">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T328">
         <v>1.75</v>
       </c>
       <c r="U328">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V328">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W328">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29723,16 +29723,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>1.125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29740,7 +29740,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6838094</v>
+        <v>6873347</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29752,58 +29752,58 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F329" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G329" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="s">
         <v>54</v>
       </c>
       <c r="K329">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L329">
         <v>3.1</v>
       </c>
       <c r="M329">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N329">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O329">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P329">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q329">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R329">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S329">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T329">
         <v>1.75</v>
       </c>
       <c r="U329">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V329">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W329">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29812,16 +29812,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0.8500000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC329">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -30808,7 +30808,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>7060552</v>
+        <v>7066161</v>
       </c>
       <c r="C341" t="s">
         <v>28</v>
@@ -30820,16 +30820,16 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F341" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G341" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J341" t="s">
         <v>52</v>
@@ -30838,43 +30838,43 @@
         <v>1.909</v>
       </c>
       <c r="L341">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M341">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N341">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O341">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P341">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q341">
         <v>-0.5</v>
       </c>
       <c r="R341">
+        <v>2</v>
+      </c>
+      <c r="S341">
+        <v>1.85</v>
+      </c>
+      <c r="T341">
+        <v>1.5</v>
+      </c>
+      <c r="U341">
         <v>1.8</v>
       </c>
-      <c r="S341">
+      <c r="V341">
         <v>2.05</v>
       </c>
-      <c r="T341">
-        <v>2.25</v>
-      </c>
-      <c r="U341">
-        <v>1.85</v>
-      </c>
-      <c r="V341">
-        <v>2</v>
-      </c>
       <c r="W341">
         <v>-1</v>
       </c>
       <c r="X341">
-        <v>2.4</v>
+        <v>1.875</v>
       </c>
       <c r="Y341">
         <v>-1</v>
@@ -30883,13 +30883,13 @@
         <v>-1</v>
       </c>
       <c r="AA341">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB341">
+        <v>-1</v>
+      </c>
+      <c r="AC341">
         <v>1.05</v>
-      </c>
-      <c r="AB341">
-        <v>-0.5</v>
-      </c>
-      <c r="AC341">
-        <v>0.5</v>
       </c>
     </row>
     <row r="342" spans="1:29">
@@ -30897,7 +30897,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>7066161</v>
+        <v>7060552</v>
       </c>
       <c r="C342" t="s">
         <v>28</v>
@@ -30909,16 +30909,16 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F342" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G342" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J342" t="s">
         <v>52</v>
@@ -30927,43 +30927,43 @@
         <v>1.909</v>
       </c>
       <c r="L342">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M342">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N342">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O342">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P342">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q342">
         <v>-0.5</v>
       </c>
       <c r="R342">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S342">
+        <v>2.05</v>
+      </c>
+      <c r="T342">
+        <v>2.25</v>
+      </c>
+      <c r="U342">
         <v>1.85</v>
       </c>
-      <c r="T342">
-        <v>1.5</v>
-      </c>
-      <c r="U342">
-        <v>1.8</v>
-      </c>
       <c r="V342">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W342">
         <v>-1</v>
       </c>
       <c r="X342">
-        <v>1.875</v>
+        <v>2.4</v>
       </c>
       <c r="Y342">
         <v>-1</v>
@@ -30972,13 +30972,13 @@
         <v>-1</v>
       </c>
       <c r="AA342">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB342">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC342">
-        <v>1.05</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="343" spans="1:29">
@@ -31092,6 +31092,15 @@
       <c r="G344" t="s">
         <v>41</v>
       </c>
+      <c r="H344">
+        <v>4</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344" t="s">
+        <v>54</v>
+      </c>
       <c r="K344">
         <v>1.4</v>
       </c>
@@ -31114,10 +31123,10 @@
         <v>-0.5</v>
       </c>
       <c r="R344">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
         <v>2</v>
@@ -31129,19 +31138,25 @@
         <v>1.8</v>
       </c>
       <c r="W344">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y344">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA344">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB344">
+        <v>1.05</v>
+      </c>
+      <c r="AC344">
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:29">
@@ -31166,6 +31181,15 @@
       <c r="G345" t="s">
         <v>34</v>
       </c>
+      <c r="H345">
+        <v>2</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345" t="s">
+        <v>54</v>
+      </c>
       <c r="K345">
         <v>2.625</v>
       </c>
@@ -31182,7 +31206,7 @@
         <v>2.9</v>
       </c>
       <c r="P345">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Q345">
         <v>0</v>
@@ -31197,25 +31221,31 @@
         <v>2</v>
       </c>
       <c r="U345">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V345">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W345">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>0</v>
+        <v>1.125</v>
       </c>
       <c r="AA345">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB345">
+        <v>0</v>
+      </c>
+      <c r="AC345">
+        <v>-0</v>
       </c>
     </row>
     <row r="346" spans="1:29">
@@ -31240,6 +31270,15 @@
       <c r="G346" t="s">
         <v>30</v>
       </c>
+      <c r="H346">
+        <v>3</v>
+      </c>
+      <c r="I346">
+        <v>2</v>
+      </c>
+      <c r="J346" t="s">
+        <v>54</v>
+      </c>
       <c r="K346">
         <v>1.8</v>
       </c>
@@ -31250,22 +31289,22 @@
         <v>4.5</v>
       </c>
       <c r="N346">
-        <v>1.666</v>
+        <v>1.7</v>
       </c>
       <c r="O346">
         <v>3.5</v>
       </c>
       <c r="P346">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q346">
         <v>-0.75</v>
       </c>
       <c r="R346">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S346">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T346">
         <v>2.25</v>
@@ -31277,19 +31316,25 @@
         <v>1.825</v>
       </c>
       <c r="W346">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X346">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y346">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA346">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB346">
+        <v>1.025</v>
+      </c>
+      <c r="AC346">
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31314,6 +31359,15 @@
       <c r="G347" t="s">
         <v>44</v>
       </c>
+      <c r="H347">
+        <v>0</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347" t="s">
+        <v>53</v>
+      </c>
       <c r="K347">
         <v>2.8</v>
       </c>
@@ -31324,46 +31378,52 @@
         <v>2.3</v>
       </c>
       <c r="N347">
-        <v>2.6</v>
+        <v>2.875</v>
       </c>
       <c r="O347">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="P347">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q347">
         <v>0</v>
       </c>
       <c r="R347">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S347">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T347">
         <v>1.75</v>
       </c>
       <c r="U347">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y347">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z347">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB347">
+        <v>-1</v>
+      </c>
+      <c r="AC347">
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31388,6 +31448,15 @@
       <c r="G348" t="s">
         <v>33</v>
       </c>
+      <c r="H348">
+        <v>0</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348" t="s">
+        <v>53</v>
+      </c>
       <c r="K348">
         <v>2.4</v>
       </c>
@@ -31398,10 +31467,10 @@
         <v>2.625</v>
       </c>
       <c r="N348">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O348">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P348">
         <v>5.25</v>
@@ -31410,33 +31479,1832 @@
         <v>-0.75</v>
       </c>
       <c r="R348">
+        <v>1.975</v>
+      </c>
+      <c r="S348">
+        <v>1.875</v>
+      </c>
+      <c r="T348">
+        <v>2.25</v>
+      </c>
+      <c r="U348">
         <v>2.05</v>
       </c>
-      <c r="S348">
+      <c r="V348">
+        <v>1.75</v>
+      </c>
+      <c r="W348">
+        <v>-1</v>
+      </c>
+      <c r="X348">
+        <v>-1</v>
+      </c>
+      <c r="Y348">
+        <v>4.25</v>
+      </c>
+      <c r="Z348">
+        <v>-1</v>
+      </c>
+      <c r="AA348">
+        <v>0.875</v>
+      </c>
+      <c r="AB348">
+        <v>-1</v>
+      </c>
+      <c r="AC348">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="349" spans="1:29">
+      <c r="A349" s="1">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>7093625</v>
+      </c>
+      <c r="C349" t="s">
+        <v>28</v>
+      </c>
+      <c r="D349" t="s">
+        <v>28</v>
+      </c>
+      <c r="E349" s="2">
+        <v>45374.51041666666</v>
+      </c>
+      <c r="F349" t="s">
+        <v>45</v>
+      </c>
+      <c r="G349" t="s">
+        <v>46</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349" t="s">
+        <v>54</v>
+      </c>
+      <c r="K349">
+        <v>3.1</v>
+      </c>
+      <c r="L349">
+        <v>2.875</v>
+      </c>
+      <c r="M349">
+        <v>2.25</v>
+      </c>
+      <c r="N349">
+        <v>3.75</v>
+      </c>
+      <c r="O349">
+        <v>2.9</v>
+      </c>
+      <c r="P349">
+        <v>2.2</v>
+      </c>
+      <c r="Q349">
+        <v>0.25</v>
+      </c>
+      <c r="R349">
+        <v>1.95</v>
+      </c>
+      <c r="S349">
+        <v>1.9</v>
+      </c>
+      <c r="T349">
+        <v>2</v>
+      </c>
+      <c r="U349">
+        <v>1.975</v>
+      </c>
+      <c r="V349">
+        <v>1.875</v>
+      </c>
+      <c r="W349">
+        <v>2.75</v>
+      </c>
+      <c r="X349">
+        <v>-1</v>
+      </c>
+      <c r="Y349">
+        <v>-1</v>
+      </c>
+      <c r="Z349">
+        <v>0.95</v>
+      </c>
+      <c r="AA349">
+        <v>-1</v>
+      </c>
+      <c r="AB349">
+        <v>-1</v>
+      </c>
+      <c r="AC349">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="350" spans="1:29">
+      <c r="A350" s="1">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>7093629</v>
+      </c>
+      <c r="C350" t="s">
+        <v>28</v>
+      </c>
+      <c r="D350" t="s">
+        <v>28</v>
+      </c>
+      <c r="E350" s="2">
+        <v>45374.60416666666</v>
+      </c>
+      <c r="F350" t="s">
+        <v>48</v>
+      </c>
+      <c r="G350" t="s">
+        <v>40</v>
+      </c>
+      <c r="H350">
+        <v>1</v>
+      </c>
+      <c r="I350">
+        <v>2</v>
+      </c>
+      <c r="J350" t="s">
+        <v>53</v>
+      </c>
+      <c r="K350">
+        <v>2.625</v>
+      </c>
+      <c r="L350">
+        <v>3</v>
+      </c>
+      <c r="M350">
+        <v>2.5</v>
+      </c>
+      <c r="N350">
+        <v>3.2</v>
+      </c>
+      <c r="O350">
+        <v>3</v>
+      </c>
+      <c r="P350">
+        <v>2.4</v>
+      </c>
+      <c r="Q350">
+        <v>0.25</v>
+      </c>
+      <c r="R350">
+        <v>1.825</v>
+      </c>
+      <c r="S350">
+        <v>2.025</v>
+      </c>
+      <c r="T350">
+        <v>2</v>
+      </c>
+      <c r="U350">
+        <v>1.875</v>
+      </c>
+      <c r="V350">
+        <v>1.975</v>
+      </c>
+      <c r="W350">
+        <v>-1</v>
+      </c>
+      <c r="X350">
+        <v>-1</v>
+      </c>
+      <c r="Y350">
+        <v>1.4</v>
+      </c>
+      <c r="Z350">
+        <v>-1</v>
+      </c>
+      <c r="AA350">
+        <v>1.025</v>
+      </c>
+      <c r="AB350">
+        <v>0.875</v>
+      </c>
+      <c r="AC350">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:29">
+      <c r="A351" s="1">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>7088593</v>
+      </c>
+      <c r="C351" t="s">
+        <v>28</v>
+      </c>
+      <c r="D351" t="s">
+        <v>28</v>
+      </c>
+      <c r="E351" s="2">
+        <v>45374.60416666666</v>
+      </c>
+      <c r="F351" t="s">
+        <v>39</v>
+      </c>
+      <c r="G351" t="s">
+        <v>43</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351" t="s">
+        <v>54</v>
+      </c>
+      <c r="K351">
+        <v>2.1</v>
+      </c>
+      <c r="L351">
+        <v>2.875</v>
+      </c>
+      <c r="M351">
+        <v>3.4</v>
+      </c>
+      <c r="N351">
+        <v>2.8</v>
+      </c>
+      <c r="O351">
+        <v>2.875</v>
+      </c>
+      <c r="P351">
+        <v>2.75</v>
+      </c>
+      <c r="Q351">
+        <v>0</v>
+      </c>
+      <c r="R351">
+        <v>1.925</v>
+      </c>
+      <c r="S351">
+        <v>1.925</v>
+      </c>
+      <c r="T351">
+        <v>2</v>
+      </c>
+      <c r="U351">
+        <v>2.025</v>
+      </c>
+      <c r="V351">
+        <v>1.825</v>
+      </c>
+      <c r="W351">
         <v>1.8</v>
       </c>
-      <c r="T348">
-        <v>2</v>
-      </c>
-      <c r="U348">
+      <c r="X351">
+        <v>-1</v>
+      </c>
+      <c r="Y351">
+        <v>-1</v>
+      </c>
+      <c r="Z351">
+        <v>0.925</v>
+      </c>
+      <c r="AA351">
+        <v>-1</v>
+      </c>
+      <c r="AB351">
+        <v>-1</v>
+      </c>
+      <c r="AC351">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="352" spans="1:29">
+      <c r="A352" s="1">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>7093626</v>
+      </c>
+      <c r="C352" t="s">
+        <v>28</v>
+      </c>
+      <c r="D352" t="s">
+        <v>28</v>
+      </c>
+      <c r="E352" s="2">
+        <v>45374.70833333334</v>
+      </c>
+      <c r="F352" t="s">
+        <v>44</v>
+      </c>
+      <c r="G352" t="s">
+        <v>42</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>1</v>
+      </c>
+      <c r="J352" t="s">
+        <v>52</v>
+      </c>
+      <c r="K352">
+        <v>1.8</v>
+      </c>
+      <c r="L352">
+        <v>3</v>
+      </c>
+      <c r="M352">
+        <v>4.333</v>
+      </c>
+      <c r="N352">
+        <v>1.95</v>
+      </c>
+      <c r="O352">
+        <v>3</v>
+      </c>
+      <c r="P352">
+        <v>4.75</v>
+      </c>
+      <c r="Q352">
+        <v>-0.5</v>
+      </c>
+      <c r="R352">
+        <v>1.925</v>
+      </c>
+      <c r="S352">
+        <v>1.925</v>
+      </c>
+      <c r="T352">
+        <v>1.75</v>
+      </c>
+      <c r="U352">
+        <v>1.825</v>
+      </c>
+      <c r="V352">
+        <v>2.025</v>
+      </c>
+      <c r="W352">
+        <v>-1</v>
+      </c>
+      <c r="X352">
+        <v>2</v>
+      </c>
+      <c r="Y352">
+        <v>-1</v>
+      </c>
+      <c r="Z352">
+        <v>-1</v>
+      </c>
+      <c r="AA352">
+        <v>0.925</v>
+      </c>
+      <c r="AB352">
+        <v>0.4125</v>
+      </c>
+      <c r="AC352">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:29">
+      <c r="A353" s="1">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>7097466</v>
+      </c>
+      <c r="C353" t="s">
+        <v>28</v>
+      </c>
+      <c r="D353" t="s">
+        <v>28</v>
+      </c>
+      <c r="E353" s="2">
+        <v>45375.41666666666</v>
+      </c>
+      <c r="F353" t="s">
+        <v>33</v>
+      </c>
+      <c r="G353" t="s">
+        <v>47</v>
+      </c>
+      <c r="H353">
+        <v>3</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353" t="s">
+        <v>54</v>
+      </c>
+      <c r="K353">
+        <v>3.1</v>
+      </c>
+      <c r="L353">
+        <v>2.8</v>
+      </c>
+      <c r="M353">
+        <v>2.3</v>
+      </c>
+      <c r="N353">
+        <v>2.8</v>
+      </c>
+      <c r="O353">
+        <v>2.9</v>
+      </c>
+      <c r="P353">
+        <v>2.7</v>
+      </c>
+      <c r="Q353">
+        <v>0</v>
+      </c>
+      <c r="R353">
+        <v>1.975</v>
+      </c>
+      <c r="S353">
         <v>1.875</v>
       </c>
-      <c r="V348">
+      <c r="T353">
+        <v>2</v>
+      </c>
+      <c r="U353">
+        <v>2</v>
+      </c>
+      <c r="V353">
+        <v>1.85</v>
+      </c>
+      <c r="W353">
+        <v>1.8</v>
+      </c>
+      <c r="X353">
+        <v>-1</v>
+      </c>
+      <c r="Y353">
+        <v>-1</v>
+      </c>
+      <c r="Z353">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA353">
+        <v>-1</v>
+      </c>
+      <c r="AB353">
+        <v>1</v>
+      </c>
+      <c r="AC353">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:29">
+      <c r="A354" s="1">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>7093627</v>
+      </c>
+      <c r="C354" t="s">
+        <v>28</v>
+      </c>
+      <c r="D354" t="s">
+        <v>28</v>
+      </c>
+      <c r="E354" s="2">
+        <v>45375.51041666666</v>
+      </c>
+      <c r="F354" t="s">
+        <v>49</v>
+      </c>
+      <c r="G354" t="s">
+        <v>38</v>
+      </c>
+      <c r="H354">
+        <v>3</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354" t="s">
+        <v>54</v>
+      </c>
+      <c r="K354">
+        <v>2.5</v>
+      </c>
+      <c r="L354">
+        <v>2.875</v>
+      </c>
+      <c r="M354">
+        <v>2.75</v>
+      </c>
+      <c r="N354">
+        <v>2.25</v>
+      </c>
+      <c r="O354">
+        <v>2.9</v>
+      </c>
+      <c r="P354">
+        <v>3.8</v>
+      </c>
+      <c r="Q354">
+        <v>-0.25</v>
+      </c>
+      <c r="R354">
+        <v>1.875</v>
+      </c>
+      <c r="S354">
         <v>1.975</v>
       </c>
-      <c r="W348">
-        <v>0</v>
-      </c>
-      <c r="X348">
-        <v>0</v>
-      </c>
-      <c r="Y348">
-        <v>0</v>
-      </c>
-      <c r="Z348">
-        <v>0</v>
-      </c>
-      <c r="AA348">
+      <c r="T354">
+        <v>1.75</v>
+      </c>
+      <c r="U354">
+        <v>1.85</v>
+      </c>
+      <c r="V354">
+        <v>2</v>
+      </c>
+      <c r="W354">
+        <v>1.25</v>
+      </c>
+      <c r="X354">
+        <v>-1</v>
+      </c>
+      <c r="Y354">
+        <v>-1</v>
+      </c>
+      <c r="Z354">
+        <v>0.875</v>
+      </c>
+      <c r="AA354">
+        <v>-1</v>
+      </c>
+      <c r="AB354">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC354">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:29">
+      <c r="A355" s="1">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <v>7089359</v>
+      </c>
+      <c r="C355" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" t="s">
+        <v>28</v>
+      </c>
+      <c r="E355" s="2">
+        <v>45375.51041666666</v>
+      </c>
+      <c r="F355" t="s">
+        <v>34</v>
+      </c>
+      <c r="G355" t="s">
+        <v>29</v>
+      </c>
+      <c r="H355">
+        <v>3</v>
+      </c>
+      <c r="I355">
+        <v>1</v>
+      </c>
+      <c r="J355" t="s">
+        <v>54</v>
+      </c>
+      <c r="K355">
+        <v>2.2</v>
+      </c>
+      <c r="L355">
+        <v>3</v>
+      </c>
+      <c r="M355">
+        <v>3.1</v>
+      </c>
+      <c r="N355">
+        <v>2.6</v>
+      </c>
+      <c r="O355">
+        <v>3.1</v>
+      </c>
+      <c r="P355">
+        <v>2.875</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
+        <v>1.825</v>
+      </c>
+      <c r="S355">
+        <v>2.025</v>
+      </c>
+      <c r="T355">
+        <v>2.25</v>
+      </c>
+      <c r="U355">
+        <v>2.05</v>
+      </c>
+      <c r="V355">
+        <v>1.8</v>
+      </c>
+      <c r="W355">
+        <v>1.6</v>
+      </c>
+      <c r="X355">
+        <v>-1</v>
+      </c>
+      <c r="Y355">
+        <v>-1</v>
+      </c>
+      <c r="Z355">
+        <v>0.825</v>
+      </c>
+      <c r="AA355">
+        <v>-1</v>
+      </c>
+      <c r="AB355">
+        <v>1.05</v>
+      </c>
+      <c r="AC355">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:29">
+      <c r="A356" s="1">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <v>7089358</v>
+      </c>
+      <c r="C356" t="s">
+        <v>28</v>
+      </c>
+      <c r="D356" t="s">
+        <v>28</v>
+      </c>
+      <c r="E356" s="2">
+        <v>45375.60416666666</v>
+      </c>
+      <c r="F356" t="s">
+        <v>41</v>
+      </c>
+      <c r="G356" t="s">
+        <v>36</v>
+      </c>
+      <c r="H356">
+        <v>0</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356" t="s">
+        <v>52</v>
+      </c>
+      <c r="K356">
+        <v>2.6</v>
+      </c>
+      <c r="L356">
+        <v>2.875</v>
+      </c>
+      <c r="M356">
+        <v>2.6</v>
+      </c>
+      <c r="N356">
+        <v>2.55</v>
+      </c>
+      <c r="O356">
+        <v>2.8</v>
+      </c>
+      <c r="P356">
+        <v>3.3</v>
+      </c>
+      <c r="Q356">
+        <v>-0.25</v>
+      </c>
+      <c r="R356">
+        <v>2.125</v>
+      </c>
+      <c r="S356">
+        <v>1.75</v>
+      </c>
+      <c r="T356">
+        <v>1.75</v>
+      </c>
+      <c r="U356">
+        <v>2</v>
+      </c>
+      <c r="V356">
+        <v>1.85</v>
+      </c>
+      <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
+        <v>1.8</v>
+      </c>
+      <c r="Y356">
+        <v>-1</v>
+      </c>
+      <c r="Z356">
+        <v>-0.5</v>
+      </c>
+      <c r="AA356">
+        <v>0.375</v>
+      </c>
+      <c r="AB356">
+        <v>-1</v>
+      </c>
+      <c r="AC356">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:29">
+      <c r="A357" s="1">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <v>7092412</v>
+      </c>
+      <c r="C357" t="s">
+        <v>28</v>
+      </c>
+      <c r="D357" t="s">
+        <v>28</v>
+      </c>
+      <c r="E357" s="2">
+        <v>45375.60416666666</v>
+      </c>
+      <c r="F357" t="s">
+        <v>31</v>
+      </c>
+      <c r="G357" t="s">
+        <v>37</v>
+      </c>
+      <c r="H357">
+        <v>3</v>
+      </c>
+      <c r="I357">
+        <v>2</v>
+      </c>
+      <c r="J357" t="s">
+        <v>54</v>
+      </c>
+      <c r="K357">
+        <v>2.25</v>
+      </c>
+      <c r="L357">
+        <v>2.875</v>
+      </c>
+      <c r="M357">
+        <v>3.1</v>
+      </c>
+      <c r="N357">
+        <v>3</v>
+      </c>
+      <c r="O357">
+        <v>2.9</v>
+      </c>
+      <c r="P357">
+        <v>2.625</v>
+      </c>
+      <c r="Q357">
+        <v>0</v>
+      </c>
+      <c r="R357">
+        <v>2.05</v>
+      </c>
+      <c r="S357">
+        <v>1.8</v>
+      </c>
+      <c r="T357">
+        <v>2.25</v>
+      </c>
+      <c r="U357">
+        <v>2.1</v>
+      </c>
+      <c r="V357">
+        <v>1.775</v>
+      </c>
+      <c r="W357">
+        <v>2</v>
+      </c>
+      <c r="X357">
+        <v>-1</v>
+      </c>
+      <c r="Y357">
+        <v>-1</v>
+      </c>
+      <c r="Z357">
+        <v>1.05</v>
+      </c>
+      <c r="AA357">
+        <v>-1</v>
+      </c>
+      <c r="AB357">
+        <v>1.1</v>
+      </c>
+      <c r="AC357">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:29">
+      <c r="A358" s="1">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <v>7093628</v>
+      </c>
+      <c r="C358" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" t="s">
+        <v>28</v>
+      </c>
+      <c r="E358" s="2">
+        <v>45375.70833333334</v>
+      </c>
+      <c r="F358" t="s">
+        <v>35</v>
+      </c>
+      <c r="G358" t="s">
+        <v>51</v>
+      </c>
+      <c r="H358">
+        <v>2</v>
+      </c>
+      <c r="I358">
+        <v>1</v>
+      </c>
+      <c r="J358" t="s">
+        <v>54</v>
+      </c>
+      <c r="K358">
+        <v>2.1</v>
+      </c>
+      <c r="L358">
+        <v>3.2</v>
+      </c>
+      <c r="M358">
+        <v>3.1</v>
+      </c>
+      <c r="N358">
+        <v>1.95</v>
+      </c>
+      <c r="O358">
+        <v>3.3</v>
+      </c>
+      <c r="P358">
+        <v>4.333</v>
+      </c>
+      <c r="Q358">
+        <v>-0.5</v>
+      </c>
+      <c r="R358">
+        <v>2</v>
+      </c>
+      <c r="S358">
+        <v>1.85</v>
+      </c>
+      <c r="T358">
+        <v>2.25</v>
+      </c>
+      <c r="U358">
+        <v>1.925</v>
+      </c>
+      <c r="V358">
+        <v>1.925</v>
+      </c>
+      <c r="W358">
+        <v>0.95</v>
+      </c>
+      <c r="X358">
+        <v>-1</v>
+      </c>
+      <c r="Y358">
+        <v>-1</v>
+      </c>
+      <c r="Z358">
+        <v>1</v>
+      </c>
+      <c r="AA358">
+        <v>-1</v>
+      </c>
+      <c r="AB358">
+        <v>0.925</v>
+      </c>
+      <c r="AC358">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:29">
+      <c r="A359" s="1">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <v>7096963</v>
+      </c>
+      <c r="C359" t="s">
+        <v>28</v>
+      </c>
+      <c r="D359" t="s">
+        <v>28</v>
+      </c>
+      <c r="E359" s="2">
+        <v>45376.6875</v>
+      </c>
+      <c r="F359" t="s">
+        <v>30</v>
+      </c>
+      <c r="G359" t="s">
+        <v>50</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>1</v>
+      </c>
+      <c r="J359" t="s">
+        <v>52</v>
+      </c>
+      <c r="K359">
+        <v>2.375</v>
+      </c>
+      <c r="L359">
+        <v>3</v>
+      </c>
+      <c r="M359">
+        <v>2.75</v>
+      </c>
+      <c r="N359">
+        <v>2.05</v>
+      </c>
+      <c r="O359">
+        <v>3.2</v>
+      </c>
+      <c r="P359">
+        <v>3.8</v>
+      </c>
+      <c r="Q359">
+        <v>-0.5</v>
+      </c>
+      <c r="R359">
+        <v>2.05</v>
+      </c>
+      <c r="S359">
+        <v>1.8</v>
+      </c>
+      <c r="T359">
+        <v>2</v>
+      </c>
+      <c r="U359">
+        <v>1.75</v>
+      </c>
+      <c r="V359">
+        <v>2.05</v>
+      </c>
+      <c r="W359">
+        <v>-1</v>
+      </c>
+      <c r="X359">
+        <v>2.2</v>
+      </c>
+      <c r="Y359">
+        <v>-1</v>
+      </c>
+      <c r="Z359">
+        <v>-1</v>
+      </c>
+      <c r="AA359">
+        <v>0.8</v>
+      </c>
+      <c r="AB359">
+        <v>0</v>
+      </c>
+      <c r="AC359">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:29">
+      <c r="A360" s="1">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <v>7128453</v>
+      </c>
+      <c r="C360" t="s">
+        <v>28</v>
+      </c>
+      <c r="D360" t="s">
+        <v>28</v>
+      </c>
+      <c r="E360" s="2">
+        <v>45380.6875</v>
+      </c>
+      <c r="F360" t="s">
+        <v>38</v>
+      </c>
+      <c r="G360" t="s">
+        <v>44</v>
+      </c>
+      <c r="K360">
+        <v>2.5</v>
+      </c>
+      <c r="L360">
+        <v>3.1</v>
+      </c>
+      <c r="M360">
+        <v>2.9</v>
+      </c>
+      <c r="N360">
+        <v>2.5</v>
+      </c>
+      <c r="O360">
+        <v>3.1</v>
+      </c>
+      <c r="P360">
+        <v>2.875</v>
+      </c>
+      <c r="Q360">
+        <v>0</v>
+      </c>
+      <c r="R360">
+        <v>1.8</v>
+      </c>
+      <c r="S360">
+        <v>2.05</v>
+      </c>
+      <c r="T360">
+        <v>2.25</v>
+      </c>
+      <c r="U360">
+        <v>2.1</v>
+      </c>
+      <c r="V360">
+        <v>1.775</v>
+      </c>
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360">
+        <v>0</v>
+      </c>
+      <c r="Y360">
+        <v>0</v>
+      </c>
+      <c r="Z360">
+        <v>0</v>
+      </c>
+      <c r="AA360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:29">
+      <c r="A361" s="1">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <v>7124295</v>
+      </c>
+      <c r="C361" t="s">
+        <v>28</v>
+      </c>
+      <c r="D361" t="s">
+        <v>28</v>
+      </c>
+      <c r="E361" s="2">
+        <v>45381.41666666666</v>
+      </c>
+      <c r="F361" t="s">
+        <v>34</v>
+      </c>
+      <c r="G361" t="s">
+        <v>31</v>
+      </c>
+      <c r="K361">
+        <v>1.85</v>
+      </c>
+      <c r="L361">
+        <v>3.3</v>
+      </c>
+      <c r="M361">
+        <v>4.5</v>
+      </c>
+      <c r="N361">
+        <v>1.833</v>
+      </c>
+      <c r="O361">
+        <v>3.3</v>
+      </c>
+      <c r="P361">
+        <v>4.5</v>
+      </c>
+      <c r="Q361">
+        <v>-0.5</v>
+      </c>
+      <c r="R361">
+        <v>1.85</v>
+      </c>
+      <c r="S361">
+        <v>2</v>
+      </c>
+      <c r="T361">
+        <v>2.25</v>
+      </c>
+      <c r="U361">
+        <v>1.95</v>
+      </c>
+      <c r="V361">
+        <v>1.9</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>0</v>
+      </c>
+      <c r="Y361">
+        <v>0</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AA361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:29">
+      <c r="A362" s="1">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <v>7137690</v>
+      </c>
+      <c r="C362" t="s">
+        <v>28</v>
+      </c>
+      <c r="D362" t="s">
+        <v>28</v>
+      </c>
+      <c r="E362" s="2">
+        <v>45381.51041666666</v>
+      </c>
+      <c r="F362" t="s">
+        <v>29</v>
+      </c>
+      <c r="G362" t="s">
+        <v>51</v>
+      </c>
+      <c r="K362">
+        <v>1.727</v>
+      </c>
+      <c r="L362">
+        <v>3.75</v>
+      </c>
+      <c r="M362">
+        <v>4.5</v>
+      </c>
+      <c r="N362">
+        <v>1.7</v>
+      </c>
+      <c r="O362">
+        <v>3.75</v>
+      </c>
+      <c r="P362">
+        <v>4.75</v>
+      </c>
+      <c r="Q362">
+        <v>-0.75</v>
+      </c>
+      <c r="R362">
+        <v>1.95</v>
+      </c>
+      <c r="S362">
+        <v>1.9</v>
+      </c>
+      <c r="T362">
+        <v>2.25</v>
+      </c>
+      <c r="U362">
+        <v>1.975</v>
+      </c>
+      <c r="V362">
+        <v>1.875</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>0</v>
+      </c>
+      <c r="Y362">
+        <v>0</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AA362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:29">
+      <c r="A363" s="1">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <v>7133797</v>
+      </c>
+      <c r="C363" t="s">
+        <v>28</v>
+      </c>
+      <c r="D363" t="s">
+        <v>28</v>
+      </c>
+      <c r="E363" s="2">
+        <v>45381.51041666666</v>
+      </c>
+      <c r="F363" t="s">
+        <v>43</v>
+      </c>
+      <c r="G363" t="s">
+        <v>41</v>
+      </c>
+      <c r="K363">
+        <v>1.909</v>
+      </c>
+      <c r="L363">
+        <v>3.1</v>
+      </c>
+      <c r="M363">
+        <v>4.5</v>
+      </c>
+      <c r="N363">
+        <v>1.909</v>
+      </c>
+      <c r="O363">
+        <v>3.1</v>
+      </c>
+      <c r="P363">
+        <v>4.5</v>
+      </c>
+      <c r="Q363">
+        <v>-0.5</v>
+      </c>
+      <c r="R363">
+        <v>1.925</v>
+      </c>
+      <c r="S363">
+        <v>1.925</v>
+      </c>
+      <c r="T363">
+        <v>2</v>
+      </c>
+      <c r="U363">
+        <v>1.875</v>
+      </c>
+      <c r="V363">
+        <v>1.975</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>0</v>
+      </c>
+      <c r="Y363">
+        <v>0</v>
+      </c>
+      <c r="Z363">
+        <v>0</v>
+      </c>
+      <c r="AA363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:29">
+      <c r="A364" s="1">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <v>7124294</v>
+      </c>
+      <c r="C364" t="s">
+        <v>28</v>
+      </c>
+      <c r="D364" t="s">
+        <v>28</v>
+      </c>
+      <c r="E364" s="2">
+        <v>45381.51041666666</v>
+      </c>
+      <c r="F364" t="s">
+        <v>40</v>
+      </c>
+      <c r="G364" t="s">
+        <v>39</v>
+      </c>
+      <c r="K364">
+        <v>1.666</v>
+      </c>
+      <c r="L364">
+        <v>3.5</v>
+      </c>
+      <c r="M364">
+        <v>5.5</v>
+      </c>
+      <c r="N364">
+        <v>1.666</v>
+      </c>
+      <c r="O364">
+        <v>3.5</v>
+      </c>
+      <c r="P364">
+        <v>5.5</v>
+      </c>
+      <c r="Q364">
+        <v>-0.75</v>
+      </c>
+      <c r="R364">
+        <v>1.875</v>
+      </c>
+      <c r="S364">
+        <v>1.975</v>
+      </c>
+      <c r="T364">
+        <v>2</v>
+      </c>
+      <c r="U364">
+        <v>1.95</v>
+      </c>
+      <c r="V364">
+        <v>1.9</v>
+      </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>0</v>
+      </c>
+      <c r="Y364">
+        <v>0</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AA364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:29">
+      <c r="A365" s="1">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <v>7133796</v>
+      </c>
+      <c r="C365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D365" t="s">
+        <v>28</v>
+      </c>
+      <c r="E365" s="2">
+        <v>45381.60416666666</v>
+      </c>
+      <c r="F365" t="s">
+        <v>30</v>
+      </c>
+      <c r="G365" t="s">
+        <v>49</v>
+      </c>
+      <c r="K365">
+        <v>2.25</v>
+      </c>
+      <c r="L365">
+        <v>2.8</v>
+      </c>
+      <c r="M365">
+        <v>3.75</v>
+      </c>
+      <c r="N365">
+        <v>2</v>
+      </c>
+      <c r="O365">
+        <v>3</v>
+      </c>
+      <c r="P365">
+        <v>4.5</v>
+      </c>
+      <c r="Q365">
+        <v>-0.5</v>
+      </c>
+      <c r="R365">
+        <v>2.05</v>
+      </c>
+      <c r="S365">
+        <v>1.8</v>
+      </c>
+      <c r="T365">
+        <v>2</v>
+      </c>
+      <c r="U365">
+        <v>2.05</v>
+      </c>
+      <c r="V365">
+        <v>1.8</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>0</v>
+      </c>
+      <c r="Y365">
+        <v>0</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AA365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:29">
+      <c r="A366" s="1">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <v>7133055</v>
+      </c>
+      <c r="C366" t="s">
+        <v>28</v>
+      </c>
+      <c r="D366" t="s">
+        <v>28</v>
+      </c>
+      <c r="E366" s="2">
+        <v>45381.60416666666</v>
+      </c>
+      <c r="F366" t="s">
+        <v>47</v>
+      </c>
+      <c r="G366" t="s">
+        <v>35</v>
+      </c>
+      <c r="K366">
+        <v>2.15</v>
+      </c>
+      <c r="L366">
+        <v>3.25</v>
+      </c>
+      <c r="M366">
+        <v>3.4</v>
+      </c>
+      <c r="N366">
+        <v>2.2</v>
+      </c>
+      <c r="O366">
+        <v>3.25</v>
+      </c>
+      <c r="P366">
+        <v>3.3</v>
+      </c>
+      <c r="Q366">
+        <v>-0.25</v>
+      </c>
+      <c r="R366">
+        <v>1.9</v>
+      </c>
+      <c r="S366">
+        <v>1.95</v>
+      </c>
+      <c r="T366">
+        <v>2.25</v>
+      </c>
+      <c r="U366">
+        <v>1.825</v>
+      </c>
+      <c r="V366">
+        <v>2.025</v>
+      </c>
+      <c r="W366">
+        <v>0</v>
+      </c>
+      <c r="X366">
+        <v>0</v>
+      </c>
+      <c r="Y366">
+        <v>0</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AA366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:29">
+      <c r="A367" s="1">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <v>7129606</v>
+      </c>
+      <c r="C367" t="s">
+        <v>28</v>
+      </c>
+      <c r="D367" t="s">
+        <v>28</v>
+      </c>
+      <c r="E367" s="2">
+        <v>45382.375</v>
+      </c>
+      <c r="F367" t="s">
+        <v>45</v>
+      </c>
+      <c r="G367" t="s">
+        <v>33</v>
+      </c>
+      <c r="K367">
+        <v>2</v>
+      </c>
+      <c r="L367">
+        <v>3</v>
+      </c>
+      <c r="M367">
+        <v>4.333</v>
+      </c>
+      <c r="N367">
+        <v>2.15</v>
+      </c>
+      <c r="O367">
+        <v>2.9</v>
+      </c>
+      <c r="P367">
+        <v>4</v>
+      </c>
+      <c r="Q367">
+        <v>-0.25</v>
+      </c>
+      <c r="R367">
+        <v>1.85</v>
+      </c>
+      <c r="S367">
+        <v>2</v>
+      </c>
+      <c r="T367">
+        <v>2</v>
+      </c>
+      <c r="U367">
+        <v>2.1</v>
+      </c>
+      <c r="V367">
+        <v>1.775</v>
+      </c>
+      <c r="W367">
+        <v>0</v>
+      </c>
+      <c r="X367">
+        <v>0</v>
+      </c>
+      <c r="Y367">
+        <v>0</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AA367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:29">
+      <c r="A368" s="1">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <v>7129607</v>
+      </c>
+      <c r="C368" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" t="s">
+        <v>28</v>
+      </c>
+      <c r="E368" s="2">
+        <v>45382.46875</v>
+      </c>
+      <c r="F368" t="s">
+        <v>50</v>
+      </c>
+      <c r="G368" t="s">
+        <v>37</v>
+      </c>
+      <c r="K368">
+        <v>2.5</v>
+      </c>
+      <c r="L368">
+        <v>2.8</v>
+      </c>
+      <c r="M368">
+        <v>3.2</v>
+      </c>
+      <c r="N368">
+        <v>2.9</v>
+      </c>
+      <c r="O368">
+        <v>2.8</v>
+      </c>
+      <c r="P368">
+        <v>2.6</v>
+      </c>
+      <c r="Q368">
+        <v>0</v>
+      </c>
+      <c r="R368">
+        <v>2.1</v>
+      </c>
+      <c r="S368">
+        <v>1.775</v>
+      </c>
+      <c r="T368">
+        <v>2</v>
+      </c>
+      <c r="U368">
+        <v>1.9</v>
+      </c>
+      <c r="V368">
+        <v>1.95</v>
+      </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AA368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27">
+      <c r="A369" s="1">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <v>7129608</v>
+      </c>
+      <c r="C369" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" t="s">
+        <v>28</v>
+      </c>
+      <c r="E369" s="2">
+        <v>45382.46875</v>
+      </c>
+      <c r="F369" t="s">
+        <v>36</v>
+      </c>
+      <c r="G369" t="s">
+        <v>42</v>
+      </c>
+      <c r="K369">
+        <v>2.3</v>
+      </c>
+      <c r="L369">
+        <v>2.75</v>
+      </c>
+      <c r="M369">
+        <v>3.75</v>
+      </c>
+      <c r="N369">
+        <v>2.25</v>
+      </c>
+      <c r="O369">
+        <v>2.75</v>
+      </c>
+      <c r="P369">
+        <v>3.8</v>
+      </c>
+      <c r="Q369">
+        <v>-0.25</v>
+      </c>
+      <c r="R369">
+        <v>1.95</v>
+      </c>
+      <c r="S369">
+        <v>1.9</v>
+      </c>
+      <c r="T369">
+        <v>1.75</v>
+      </c>
+      <c r="U369">
+        <v>2.05</v>
+      </c>
+      <c r="V369">
+        <v>1.8</v>
+      </c>
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369">
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <v>0</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AA369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27">
+      <c r="A370" s="1">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <v>7128454</v>
+      </c>
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>28</v>
+      </c>
+      <c r="E370" s="2">
+        <v>45382.5625</v>
+      </c>
+      <c r="F370" t="s">
+        <v>46</v>
+      </c>
+      <c r="G370" t="s">
+        <v>48</v>
+      </c>
+      <c r="K370">
+        <v>1.533</v>
+      </c>
+      <c r="L370">
+        <v>4</v>
+      </c>
+      <c r="M370">
+        <v>6</v>
+      </c>
+      <c r="N370">
+        <v>1.5</v>
+      </c>
+      <c r="O370">
+        <v>4</v>
+      </c>
+      <c r="P370">
+        <v>6</v>
+      </c>
+      <c r="Q370">
+        <v>-1</v>
+      </c>
+      <c r="R370">
+        <v>1.925</v>
+      </c>
+      <c r="S370">
+        <v>1.925</v>
+      </c>
+      <c r="T370">
+        <v>2.5</v>
+      </c>
+      <c r="U370">
+        <v>2.05</v>
+      </c>
+      <c r="V370">
+        <v>1.8</v>
+      </c>
+      <c r="W370">
+        <v>0</v>
+      </c>
+      <c r="X370">
+        <v>0</v>
+      </c>
+      <c r="Y370">
+        <v>0</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AA370">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -3396,7 +3396,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6838100</v>
+        <v>6836523</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3408,19 +3408,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>1.7</v>
@@ -3432,52 +3432,52 @@
         <v>5.25</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W33">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <v>-0</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3485,7 +3485,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6836523</v>
+        <v>6838100</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3497,19 +3497,19 @@
         <v>45164.6875</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>1.7</v>
@@ -3521,52 +3521,52 @@
         <v>5.25</v>
       </c>
       <c r="N34">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O34">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R34">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K57">
+        <v>2.2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3.3</v>
+      </c>
+      <c r="N57">
         <v>1.909</v>
       </c>
-      <c r="L57">
-        <v>3.1</v>
-      </c>
-      <c r="M57">
-        <v>4.2</v>
-      </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -7846,7 +7846,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6839305</v>
+        <v>6837987</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7858,10 +7858,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7873,43 +7873,43 @@
         <v>54</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M83">
+        <v>2.875</v>
+      </c>
+      <c r="N83">
         <v>2.5</v>
-      </c>
-      <c r="N83">
-        <v>2.25</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.875</v>
+        <v>2.125</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T83">
         <v>2</v>
       </c>
       <c r="U83">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W83">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.875</v>
+        <v>1.125</v>
       </c>
       <c r="AA83">
         <v>-1</v>
@@ -7927,7 +7927,7 @@
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7935,7 +7935,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6837987</v>
+        <v>6839305</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7947,10 +7947,10 @@
         <v>45194.66666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7962,43 +7962,43 @@
         <v>54</v>
       </c>
       <c r="K84">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L84">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M84">
-        <v>2.875</v>
+        <v>2.5</v>
       </c>
       <c r="N84">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="O84">
         <v>3</v>
       </c>
       <c r="P84">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q84">
         <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>2.125</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -8007,7 +8007,7 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
         <v>-1</v>
@@ -8016,7 +8016,7 @@
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K96">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S96">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y96">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N97">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O97">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S97">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V97">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9270,7 +9270,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6838118</v>
+        <v>6839301</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9282,76 +9282,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G99" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K99">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M99">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="N99">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="O99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>5.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
+        <v>1.9</v>
+      </c>
+      <c r="S99">
+        <v>1.95</v>
+      </c>
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>2.025</v>
+      </c>
+      <c r="V99">
         <v>1.825</v>
       </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
-      <c r="T99">
-        <v>1.75</v>
-      </c>
-      <c r="U99">
-        <v>1.95</v>
-      </c>
-      <c r="V99">
-        <v>1.9</v>
-      </c>
       <c r="W99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.95</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.825</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9359,7 +9359,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6839301</v>
+        <v>6838118</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9371,76 +9371,76 @@
         <v>45203.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K100">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O100">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
         <v>1.9</v>
       </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9448,7 +9448,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6837994</v>
+        <v>6837996</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9460,13 +9460,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9475,43 +9475,43 @@
         <v>54</v>
       </c>
       <c r="K101">
+        <v>2.5</v>
+      </c>
+      <c r="L101">
+        <v>3.1</v>
+      </c>
+      <c r="M101">
+        <v>2.7</v>
+      </c>
+      <c r="N101">
         <v>2.375</v>
       </c>
-      <c r="L101">
+      <c r="O101">
         <v>3</v>
       </c>
-      <c r="M101">
-        <v>3</v>
-      </c>
-      <c r="N101">
-        <v>2.3</v>
-      </c>
-      <c r="O101">
-        <v>2.9</v>
-      </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.3</v>
+        <v>1.375</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9520,16 +9520,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>1.1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9537,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6837996</v>
+        <v>6837994</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9549,13 +9549,13 @@
         <v>45203.6875</v>
       </c>
       <c r="F102" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -9564,43 +9564,43 @@
         <v>54</v>
       </c>
       <c r="K102">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P102">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="W102">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9609,16 +9609,16 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4125</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,52 +9638,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
+        <v>2.3</v>
+      </c>
+      <c r="L103">
+        <v>3</v>
+      </c>
+      <c r="M103">
         <v>3.1</v>
       </c>
-      <c r="L103">
+      <c r="N103">
+        <v>2.5</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
         <v>3.1</v>
       </c>
-      <c r="M103">
-        <v>2.25</v>
-      </c>
-      <c r="N103">
-        <v>3.75</v>
-      </c>
-      <c r="O103">
-        <v>3.2</v>
-      </c>
-      <c r="P103">
-        <v>2.1</v>
-      </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S103">
+        <v>2.125</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.8</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.75</v>
       </c>
       <c r="V103">
         <v>2.05</v>
@@ -9695,19 +9695,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB103">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,52 +9727,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>53</v>
       </c>
       <c r="K104">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
+        <v>2.05</v>
+      </c>
+      <c r="S104">
+        <v>1.8</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.75</v>
-      </c>
-      <c r="S104">
-        <v>2.125</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.8</v>
       </c>
       <c r="V104">
         <v>2.05</v>
@@ -9784,19 +9784,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC104">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N113">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O113">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
+        <v>-0.75</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>2</v>
+      </c>
+      <c r="U113">
+        <v>1.925</v>
+      </c>
+      <c r="V113">
+        <v>1.925</v>
+      </c>
+      <c r="W113">
+        <v>0.75</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>-1</v>
+      </c>
+      <c r="Z113">
+        <v>0.5</v>
+      </c>
+      <c r="AA113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.85</v>
-      </c>
-      <c r="S113">
-        <v>2</v>
-      </c>
-      <c r="T113">
-        <v>2</v>
-      </c>
-      <c r="U113">
-        <v>1.8</v>
-      </c>
-      <c r="V113">
-        <v>2.05</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
-      <c r="X113">
-        <v>2.4</v>
-      </c>
-      <c r="Y113">
-        <v>-1</v>
-      </c>
-      <c r="Z113">
-        <v>-1</v>
-      </c>
-      <c r="AA113">
-        <v>1</v>
-      </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K114">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
+        <v>3.6</v>
+      </c>
+      <c r="N114">
+        <v>1.909</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
         <v>4.5</v>
       </c>
-      <c r="N114">
-        <v>1.75</v>
-      </c>
-      <c r="O114">
-        <v>3.2</v>
-      </c>
-      <c r="P114">
-        <v>5.75</v>
-      </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S114">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T114">
         <v>2</v>
       </c>
       <c r="U114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB114">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6836542</v>
+        <v>6839297</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11507,76 +11507,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G124" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
         <v>2.9</v>
       </c>
       <c r="M124">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N124">
+        <v>3.5</v>
+      </c>
+      <c r="O124">
+        <v>3.1</v>
+      </c>
+      <c r="P124">
         <v>2.2</v>
       </c>
-      <c r="O124">
-        <v>2.9</v>
-      </c>
-      <c r="P124">
-        <v>4</v>
-      </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6839297</v>
+        <v>6836542</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,76 +11596,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K125">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L125">
         <v>2.9</v>
       </c>
       <c r="M125">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P125">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>2</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.9</v>
       </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.925</v>
-      </c>
-      <c r="V125">
-        <v>1.925</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X125">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC125">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12029,7 +12029,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6838124</v>
+        <v>6836545</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12041,76 +12041,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F130" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>52</v>
+      </c>
+      <c r="K130">
         <v>3</v>
       </c>
-      <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130">
-        <v>2</v>
-      </c>
       <c r="L130">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N130">
+        <v>3.5</v>
+      </c>
+      <c r="O130">
+        <v>3.1</v>
+      </c>
+      <c r="P130">
+        <v>2.3</v>
+      </c>
+      <c r="Q130">
+        <v>0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.9</v>
+      </c>
+      <c r="S130">
         <v>1.95</v>
       </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>4</v>
-      </c>
-      <c r="Q130">
+      <c r="T130">
+        <v>1.75</v>
+      </c>
+      <c r="U130">
+        <v>1.8</v>
+      </c>
+      <c r="V130">
+        <v>2.05</v>
+      </c>
+      <c r="W130">
+        <v>-1</v>
+      </c>
+      <c r="X130">
+        <v>2.1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.45</v>
+      </c>
+      <c r="AA130">
         <v>-0.5</v>
       </c>
-      <c r="R130">
-        <v>1.95</v>
-      </c>
-      <c r="S130">
-        <v>1.9</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.925</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
-      <c r="X130">
-        <v>-1</v>
-      </c>
-      <c r="Y130">
-        <v>3</v>
-      </c>
-      <c r="Z130">
-        <v>-1</v>
-      </c>
-      <c r="AA130">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6836545</v>
+        <v>6838124</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12130,76 +12130,76 @@
         <v>45220.46875</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>1.95</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>4</v>
+      </c>
+      <c r="Q131">
+        <v>-0.5</v>
+      </c>
+      <c r="R131">
+        <v>1.95</v>
+      </c>
+      <c r="S131">
+        <v>1.9</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.925</v>
+      </c>
+      <c r="V131">
+        <v>1.925</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
         <v>3</v>
       </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>2.45</v>
-      </c>
-      <c r="N131">
-        <v>3.5</v>
-      </c>
-      <c r="O131">
-        <v>3.1</v>
-      </c>
-      <c r="P131">
-        <v>2.3</v>
-      </c>
-      <c r="Q131">
-        <v>0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.9</v>
-      </c>
-      <c r="S131">
-        <v>1.95</v>
-      </c>
-      <c r="T131">
-        <v>1.75</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
-      <c r="V131">
-        <v>2.05</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
-      <c r="X131">
-        <v>2.1</v>
-      </c>
-      <c r="Y131">
-        <v>-1</v>
-      </c>
       <c r="Z131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,19 +12575,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12596,52 +12596,52 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.875</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,19 +12664,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12685,52 +12685,52 @@
         <v>3.2</v>
       </c>
       <c r="M137">
+        <v>3.75</v>
+      </c>
+      <c r="N137">
+        <v>2.15</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
         <v>3.6</v>
       </c>
-      <c r="N137">
-        <v>2.05</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.875</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -13097,7 +13097,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6838125</v>
+        <v>6838018</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13109,10 +13109,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F142" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -13124,43 +13124,43 @@
         <v>54</v>
       </c>
       <c r="K142">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="O142">
         <v>3.1</v>
       </c>
       <c r="P142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q142">
         <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13169,16 +13169,16 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13186,7 +13186,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6838018</v>
+        <v>6838125</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13198,10 +13198,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F143" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G143" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13213,43 +13213,43 @@
         <v>54</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N143">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
         <v>3.1</v>
       </c>
       <c r="P143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q143">
         <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S143">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13258,16 +13258,16 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -16034,7 +16034,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6838031</v>
+        <v>6836552</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16046,76 +16046,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K175">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L175">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="N175">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="O175">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P175">
-        <v>4.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S175">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U175">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA175">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16123,7 +16123,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6836552</v>
+        <v>6838031</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16135,76 +16135,76 @@
         <v>45248.60416666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K176">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L176">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M176">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="N176">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>4.2</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V176">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W176">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z176">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB176">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6838134</v>
+        <v>6839288</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16402,73 +16402,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F179" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H179">
         <v>2</v>
       </c>
       <c r="I179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K179">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L179">
+        <v>3.2</v>
+      </c>
+      <c r="M179">
+        <v>3.75</v>
+      </c>
+      <c r="N179">
+        <v>2.1</v>
+      </c>
+      <c r="O179">
         <v>3.1</v>
       </c>
-      <c r="M179">
-        <v>2.625</v>
-      </c>
-      <c r="N179">
-        <v>2.55</v>
-      </c>
-      <c r="O179">
-        <v>2.9</v>
-      </c>
       <c r="P179">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
         <v>1.75</v>
       </c>
-      <c r="S179">
-        <v>2.125</v>
-      </c>
       <c r="T179">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V179">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X179">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y179">
         <v>-1</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
         <v>0.75</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
       <c r="AB179">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16479,7 +16479,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6839288</v>
+        <v>6838134</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16491,73 +16491,73 @@
         <v>45249.51041666666</v>
       </c>
       <c r="F180" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>2</v>
       </c>
       <c r="I180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K180">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L180">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M180">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="O180">
+        <v>2.9</v>
+      </c>
+      <c r="P180">
         <v>3.1</v>
       </c>
-      <c r="P180">
-        <v>3.8</v>
-      </c>
       <c r="Q180">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R180">
+        <v>1.75</v>
+      </c>
+      <c r="S180">
+        <v>2.125</v>
+      </c>
+      <c r="T180">
+        <v>1.75</v>
+      </c>
+      <c r="U180">
+        <v>1.8</v>
+      </c>
+      <c r="V180">
         <v>2.05</v>
       </c>
-      <c r="S180">
-        <v>1.75</v>
-      </c>
-      <c r="T180">
-        <v>2.25</v>
-      </c>
-      <c r="U180">
-        <v>2.025</v>
-      </c>
-      <c r="V180">
-        <v>1.825</v>
-      </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X180">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y180">
         <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA180">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16568,7 +16568,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6838133</v>
+        <v>6838029</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16580,76 +16580,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F181" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
         <v>52</v>
       </c>
       <c r="K181">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="L181">
+        <v>3.1</v>
+      </c>
+      <c r="M181">
+        <v>2.5</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
         <v>3.2</v>
       </c>
-      <c r="M181">
-        <v>2.6</v>
-      </c>
-      <c r="N181">
-        <v>2.6</v>
-      </c>
-      <c r="O181">
-        <v>3.4</v>
-      </c>
       <c r="P181">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q181">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>1.9</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
         <v>1.85</v>
       </c>
-      <c r="S181">
-        <v>2</v>
-      </c>
-      <c r="T181">
-        <v>2.5</v>
-      </c>
-      <c r="U181">
-        <v>1.85</v>
-      </c>
-      <c r="V181">
-        <v>2</v>
-      </c>
       <c r="W181">
         <v>-1</v>
       </c>
       <c r="X181">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Y181">
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA181">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC181">
-        <v>1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16657,7 +16657,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>6838029</v>
+        <v>6838133</v>
       </c>
       <c r="C182" t="s">
         <v>28</v>
@@ -16669,76 +16669,76 @@
         <v>45249.60416666666</v>
       </c>
       <c r="F182" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J182" t="s">
         <v>52</v>
       </c>
       <c r="K182">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="L182">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M182">
+        <v>2.6</v>
+      </c>
+      <c r="N182">
+        <v>2.6</v>
+      </c>
+      <c r="O182">
+        <v>3.4</v>
+      </c>
+      <c r="P182">
+        <v>2.7</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>2</v>
+      </c>
+      <c r="T182">
         <v>2.5</v>
       </c>
-      <c r="N182">
-        <v>3.6</v>
-      </c>
-      <c r="O182">
-        <v>3.2</v>
-      </c>
-      <c r="P182">
-        <v>2.2</v>
-      </c>
-      <c r="Q182">
-        <v>0.25</v>
-      </c>
-      <c r="R182">
-        <v>1.95</v>
-      </c>
-      <c r="S182">
-        <v>1.9</v>
-      </c>
-      <c r="T182">
-        <v>2.25</v>
-      </c>
       <c r="U182">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V182">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W182">
         <v>-1</v>
       </c>
       <c r="X182">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y182">
         <v>-1</v>
       </c>
       <c r="Z182">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA182">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB182">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC182">
-        <v>0.425</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:29">
@@ -16924,7 +16924,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6838035</v>
+        <v>6838137</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16936,76 +16936,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K185">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="L185">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M185">
         <v>3.6</v>
       </c>
       <c r="N185">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O185">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U185">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V185">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X185">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA185">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17013,7 +17013,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6838137</v>
+        <v>6838035</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17025,76 +17025,76 @@
         <v>45255.51041666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186">
         <v>0</v>
       </c>
       <c r="J186" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K186">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="L186">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
         <v>3.6</v>
       </c>
       <c r="N186">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O186">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
+        <v>-0.25</v>
+      </c>
+      <c r="R186">
+        <v>1.975</v>
+      </c>
+      <c r="S186">
+        <v>1.875</v>
+      </c>
+      <c r="T186">
+        <v>2.25</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>1.775</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>2.1</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
         <v>-0.5</v>
       </c>
-      <c r="R186">
-        <v>1.8</v>
-      </c>
-      <c r="S186">
-        <v>2.05</v>
-      </c>
-      <c r="T186">
-        <v>2.75</v>
-      </c>
-      <c r="U186">
-        <v>1.925</v>
-      </c>
-      <c r="V186">
-        <v>1.925</v>
-      </c>
-      <c r="W186">
-        <v>0.8</v>
-      </c>
-      <c r="X186">
-        <v>-1</v>
-      </c>
-      <c r="Y186">
-        <v>-1</v>
-      </c>
-      <c r="Z186">
-        <v>0.8</v>
-      </c>
       <c r="AA186">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB186">
         <v>-1</v>
       </c>
       <c r="AC186">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6838136</v>
+        <v>6836554</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17381,58 +17381,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H190">
         <v>2</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J190" t="s">
         <v>54</v>
       </c>
       <c r="K190">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M190">
-        <v>2.6</v>
+        <v>7</v>
       </c>
       <c r="N190">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="O190">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="P190">
-        <v>2.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q190">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R190">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S190">
-        <v>2.125</v>
+        <v>1.9</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W190">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17441,16 +17441,16 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6836554</v>
+        <v>6838136</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17470,58 +17470,58 @@
         <v>45256.51041666666</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H191">
         <v>2</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
         <v>54</v>
       </c>
       <c r="K191">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N191">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O191">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="P191">
-        <v>9.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q191">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>2.125</v>
       </c>
       <c r="T191">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W191">
-        <v>0.3999999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="X191">
         <v>-1</v>
@@ -17530,16 +17530,16 @@
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="AA191">
         <v>-1</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC191">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6838138</v>
+        <v>6839283</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G202" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J202" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L202">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M202">
+        <v>3.1</v>
+      </c>
+      <c r="N202">
+        <v>2.8</v>
+      </c>
+      <c r="O202">
         <v>3</v>
       </c>
-      <c r="N202">
-        <v>2.375</v>
-      </c>
-      <c r="O202">
-        <v>3.25</v>
-      </c>
       <c r="P202">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S202">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X202">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA202">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC202">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6839283</v>
+        <v>6838138</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,76 +18538,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H203">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I203">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K203">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L203">
+        <v>3.2</v>
+      </c>
+      <c r="M203">
         <v>3</v>
       </c>
-      <c r="M203">
+      <c r="N203">
+        <v>2.375</v>
+      </c>
+      <c r="O203">
+        <v>3.25</v>
+      </c>
+      <c r="P203">
         <v>3.1</v>
       </c>
-      <c r="N203">
-        <v>2.8</v>
-      </c>
-      <c r="O203">
-        <v>3</v>
-      </c>
-      <c r="P203">
-        <v>2.7</v>
-      </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R203">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T203">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V203">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W203">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X203">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19416,7 +19416,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6838141</v>
+        <v>6839282</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19428,62 +19428,62 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F213" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G213" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>52</v>
       </c>
       <c r="K213">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L213">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M213">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="N213">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O213">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P213">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
         <v>-0.75</v>
       </c>
       <c r="R213">
+        <v>2.025</v>
+      </c>
+      <c r="S213">
         <v>1.825</v>
       </c>
-      <c r="S213">
-        <v>2.025</v>
-      </c>
       <c r="T213">
+        <v>2</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
         <v>2.25</v>
       </c>
-      <c r="U213">
-        <v>1.925</v>
-      </c>
-      <c r="V213">
-        <v>1.925</v>
-      </c>
-      <c r="W213">
-        <v>-1</v>
-      </c>
-      <c r="X213">
-        <v>2.75</v>
-      </c>
       <c r="Y213">
         <v>-1</v>
       </c>
@@ -19491,13 +19491,13 @@
         <v>-1</v>
       </c>
       <c r="AA213">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB213">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC213">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19505,7 +19505,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>6839282</v>
+        <v>6838141</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19517,61 +19517,61 @@
         <v>45270.60416666666</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>52</v>
       </c>
       <c r="K214">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L214">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M214">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="N214">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O214">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P214">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q214">
         <v>-0.75</v>
       </c>
       <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
         <v>2.025</v>
       </c>
-      <c r="S214">
-        <v>1.825</v>
-      </c>
       <c r="T214">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y214">
         <v>-1</v>
@@ -19580,13 +19580,13 @@
         <v>-1</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB214">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC214">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K228">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N228">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P228">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
         <v>2.025</v>
-      </c>
-      <c r="S228">
-        <v>1.825</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
         <v>1.025</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L229">
+        <v>3.2</v>
+      </c>
+      <c r="M229">
+        <v>3.1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>3.75</v>
       </c>
-      <c r="M229">
-        <v>5.5</v>
-      </c>
-      <c r="N229">
-        <v>1.65</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>5.5</v>
-      </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
+        <v>2.025</v>
+      </c>
+      <c r="S229">
         <v>1.825</v>
-      </c>
-      <c r="S229">
-        <v>2.025</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X229">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,56 +21564,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
+        <v>2.2</v>
+      </c>
+      <c r="L237">
+        <v>3.2</v>
+      </c>
+      <c r="M237">
+        <v>3.4</v>
+      </c>
+      <c r="N237">
+        <v>2.15</v>
+      </c>
+      <c r="O237">
+        <v>3.1</v>
+      </c>
+      <c r="P237">
+        <v>3.8</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.85</v>
       </c>
-      <c r="L237">
-        <v>3.4</v>
-      </c>
-      <c r="M237">
-        <v>4.333</v>
-      </c>
-      <c r="N237">
-        <v>1.8</v>
-      </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.75</v>
-      </c>
-      <c r="Q237">
-        <v>-0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.875</v>
-      </c>
-      <c r="S237">
-        <v>1.975</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.95</v>
-      </c>
-      <c r="V237">
-        <v>1.9</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,55 +21653,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N238">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21997,7 +21997,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>6838056</v>
+        <v>6836563</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -22009,76 +22009,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F242" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242">
         <v>1</v>
       </c>
       <c r="J242" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K242">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L242">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M242">
+        <v>5.5</v>
+      </c>
+      <c r="N242">
+        <v>1.727</v>
+      </c>
+      <c r="O242">
         <v>3.4</v>
       </c>
-      <c r="N242">
-        <v>2</v>
-      </c>
-      <c r="O242">
-        <v>3.1</v>
-      </c>
       <c r="P242">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>1.9</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
+        <v>1.825</v>
+      </c>
+      <c r="V242">
         <v>2.025</v>
       </c>
-      <c r="S242">
-        <v>1.825</v>
-      </c>
-      <c r="T242">
-        <v>2</v>
-      </c>
-      <c r="U242">
-        <v>1.975</v>
-      </c>
-      <c r="V242">
-        <v>1.875</v>
-      </c>
       <c r="W242">
         <v>-1</v>
       </c>
       <c r="X242">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y242">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
         <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB242">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC242">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22086,7 +22086,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6836563</v>
+        <v>6838056</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22098,76 +22098,76 @@
         <v>45304.60416666666</v>
       </c>
       <c r="F243" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243">
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L243">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M243">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N243">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O243">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P243">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q243">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T243">
         <v>2</v>
       </c>
       <c r="U243">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V243">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W243">
         <v>-1</v>
       </c>
       <c r="X243">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z243">
         <v>-1</v>
       </c>
       <c r="AA243">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC243">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7729226</v>
+        <v>7729197</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F267" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G267" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K267">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L267">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M267">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N267">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O267">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P267">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q267">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R267">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S267">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V267">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y267">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7729197</v>
+        <v>7729226</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F268" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K268">
+        <v>2.6</v>
+      </c>
+      <c r="L268">
+        <v>3.1</v>
+      </c>
+      <c r="M268">
         <v>2.8</v>
       </c>
-      <c r="L268">
-        <v>3.2</v>
-      </c>
-      <c r="M268">
-        <v>2.5</v>
-      </c>
       <c r="N268">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O268">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P268">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q268">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R268">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S268">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T268">
         <v>2</v>
       </c>
       <c r="U268">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V268">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y268">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA268">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB268">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC268">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>6838160</v>
+        <v>6836568</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24857,13 +24857,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G274" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H274">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I274">
         <v>0</v>
@@ -24872,40 +24872,40 @@
         <v>54</v>
       </c>
       <c r="K274">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L274">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M274">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N274">
         <v>2.05</v>
       </c>
       <c r="O274">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P274">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q274">
         <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S274">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U274">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V274">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W274">
         <v>1.05</v>
@@ -24917,16 +24917,16 @@
         <v>-1</v>
       </c>
       <c r="Z274">
-        <v>1.025</v>
+        <v>1.1</v>
       </c>
       <c r="AA274">
         <v>-1</v>
       </c>
       <c r="AB274">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC274">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="275" spans="1:29">
@@ -24934,7 +24934,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>6836568</v>
+        <v>6838160</v>
       </c>
       <c r="C275" t="s">
         <v>28</v>
@@ -24946,13 +24946,13 @@
         <v>45325.51041666666</v>
       </c>
       <c r="F275" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G275" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I275">
         <v>0</v>
@@ -24961,40 +24961,40 @@
         <v>54</v>
       </c>
       <c r="K275">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L275">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M275">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N275">
         <v>2.05</v>
       </c>
       <c r="O275">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P275">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q275">
         <v>-0.5</v>
       </c>
       <c r="R275">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S275">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T275">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U275">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V275">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W275">
         <v>1.05</v>
@@ -25006,16 +25006,16 @@
         <v>-1</v>
       </c>
       <c r="Z275">
-        <v>1.1</v>
+        <v>1.025</v>
       </c>
       <c r="AA275">
         <v>-1</v>
       </c>
       <c r="AB275">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC275">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:29">
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7759317</v>
+        <v>7759323</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,49 +25302,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F279" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I279">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K279">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L279">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M279">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N279">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O279">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P279">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R279">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S279">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T279">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U279">
         <v>1.975</v>
@@ -25356,22 +25356,22 @@
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y279">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB279">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC279">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7759323</v>
+        <v>7759317</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,49 +25391,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G280" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K280">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L280">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M280">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N280">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O280">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P280">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R280">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S280">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T280">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U280">
         <v>1.975</v>
@@ -25445,22 +25445,22 @@
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC280">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25735,7 +25735,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>6839267</v>
+        <v>6836570</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25747,76 +25747,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F284" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284">
         <v>0</v>
       </c>
       <c r="J284" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K284">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>2.2</v>
+      </c>
+      <c r="N284">
+        <v>4.2</v>
+      </c>
+      <c r="O284">
+        <v>3.1</v>
+      </c>
+      <c r="P284">
+        <v>2.05</v>
+      </c>
+      <c r="Q284">
+        <v>0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
+        <v>2</v>
+      </c>
+      <c r="U284">
+        <v>2.05</v>
+      </c>
+      <c r="V284">
+        <v>1.8</v>
+      </c>
+      <c r="W284">
         <v>3.2</v>
       </c>
-      <c r="M284">
-        <v>3.6</v>
-      </c>
-      <c r="N284">
-        <v>2.1</v>
-      </c>
-      <c r="O284">
-        <v>3</v>
-      </c>
-      <c r="P284">
-        <v>4.2</v>
-      </c>
-      <c r="Q284">
-        <v>-0.25</v>
-      </c>
-      <c r="R284">
-        <v>1.775</v>
-      </c>
-      <c r="S284">
-        <v>2.1</v>
-      </c>
-      <c r="T284">
-        <v>1.75</v>
-      </c>
-      <c r="U284">
-        <v>1.9</v>
-      </c>
-      <c r="V284">
-        <v>1.95</v>
-      </c>
-      <c r="W284">
-        <v>-1</v>
-      </c>
       <c r="X284">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
         <v>-1</v>
       </c>
       <c r="Z284">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA284">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="AB284">
         <v>-1</v>
       </c>
       <c r="AC284">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25824,7 +25824,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>6836570</v>
+        <v>6839267</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25836,76 +25836,76 @@
         <v>45332.51041666666</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285">
         <v>0</v>
       </c>
       <c r="J285" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K285">
+        <v>2.1</v>
+      </c>
+      <c r="L285">
+        <v>3.2</v>
+      </c>
+      <c r="M285">
         <v>3.6</v>
       </c>
-      <c r="L285">
+      <c r="N285">
+        <v>2.1</v>
+      </c>
+      <c r="O285">
         <v>3</v>
       </c>
-      <c r="M285">
-        <v>2.2</v>
-      </c>
-      <c r="N285">
+      <c r="P285">
         <v>4.2</v>
       </c>
-      <c r="O285">
-        <v>3.1</v>
-      </c>
-      <c r="P285">
-        <v>2.05</v>
-      </c>
       <c r="Q285">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T285">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U285">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V285">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W285">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y285">
         <v>-1</v>
       </c>
       <c r="Z285">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA285">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="AB285">
         <v>-1</v>
       </c>
       <c r="AC285">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26180,7 +26180,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>6836569</v>
+        <v>6838161</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26192,10 +26192,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F289" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G289" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H289">
         <v>1</v>
@@ -26207,43 +26207,43 @@
         <v>54</v>
       </c>
       <c r="K289">
+        <v>2.6</v>
+      </c>
+      <c r="L289">
+        <v>2.9</v>
+      </c>
+      <c r="M289">
+        <v>3</v>
+      </c>
+      <c r="N289">
         <v>2.25</v>
       </c>
-      <c r="L289">
-        <v>3.1</v>
-      </c>
-      <c r="M289">
-        <v>3.4</v>
-      </c>
-      <c r="N289">
+      <c r="O289">
         <v>3</v>
       </c>
-      <c r="O289">
-        <v>2.875</v>
-      </c>
       <c r="P289">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="Q289">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S289">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T289">
         <v>2</v>
       </c>
       <c r="U289">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V289">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W289">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="X289">
         <v>-1</v>
@@ -26252,7 +26252,7 @@
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>1.05</v>
+        <v>0.925</v>
       </c>
       <c r="AA289">
         <v>-1</v>
@@ -26261,7 +26261,7 @@
         <v>-1</v>
       </c>
       <c r="AC289">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26269,7 +26269,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>6838161</v>
+        <v>6836569</v>
       </c>
       <c r="C290" t="s">
         <v>28</v>
@@ -26281,10 +26281,10 @@
         <v>45333.51041666666</v>
       </c>
       <c r="F290" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G290" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H290">
         <v>1</v>
@@ -26296,43 +26296,43 @@
         <v>54</v>
       </c>
       <c r="K290">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L290">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M290">
+        <v>3.4</v>
+      </c>
+      <c r="N290">
         <v>3</v>
       </c>
-      <c r="N290">
-        <v>2.25</v>
-      </c>
       <c r="O290">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P290">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q290">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R290">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S290">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T290">
         <v>2</v>
       </c>
       <c r="U290">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V290">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W290">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="X290">
         <v>-1</v>
@@ -26341,7 +26341,7 @@
         <v>-1</v>
       </c>
       <c r="Z290">
-        <v>0.925</v>
+        <v>1.05</v>
       </c>
       <c r="AA290">
         <v>-1</v>
@@ -26350,7 +26350,7 @@
         <v>-1</v>
       </c>
       <c r="AC290">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="291" spans="1:29">
@@ -26714,7 +26714,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>6838163</v>
+        <v>6838080</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26726,76 +26726,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G295" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K295">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L295">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M295">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N295">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O295">
         <v>3.3</v>
       </c>
       <c r="P295">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q295">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T295">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V295">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W295">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X295">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y295">
         <v>-1</v>
       </c>
       <c r="Z295">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA295">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB295">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC295">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26803,7 +26803,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>6838080</v>
+        <v>6838163</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26815,76 +26815,76 @@
         <v>45339.51041666666</v>
       </c>
       <c r="F296" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G296" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H296">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K296">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L296">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M296">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N296">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O296">
         <v>3.3</v>
       </c>
       <c r="P296">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q296">
+        <v>-0.75</v>
+      </c>
+      <c r="R296">
+        <v>2.025</v>
+      </c>
+      <c r="S296">
+        <v>1.825</v>
+      </c>
+      <c r="T296">
+        <v>2.25</v>
+      </c>
+      <c r="U296">
+        <v>1.925</v>
+      </c>
+      <c r="V296">
+        <v>1.925</v>
+      </c>
+      <c r="W296">
+        <v>-1</v>
+      </c>
+      <c r="X296">
+        <v>2.3</v>
+      </c>
+      <c r="Y296">
+        <v>-1</v>
+      </c>
+      <c r="Z296">
+        <v>-1</v>
+      </c>
+      <c r="AA296">
+        <v>0.825</v>
+      </c>
+      <c r="AB296">
         <v>-0.5</v>
       </c>
-      <c r="R296">
-        <v>1.9</v>
-      </c>
-      <c r="S296">
-        <v>1.95</v>
-      </c>
-      <c r="T296">
-        <v>2</v>
-      </c>
-      <c r="U296">
-        <v>1.8</v>
-      </c>
-      <c r="V296">
-        <v>2.05</v>
-      </c>
-      <c r="W296">
-        <v>0.909</v>
-      </c>
-      <c r="X296">
-        <v>-1</v>
-      </c>
-      <c r="Y296">
-        <v>-1</v>
-      </c>
-      <c r="Z296">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA296">
-        <v>-1</v>
-      </c>
-      <c r="AB296">
-        <v>0.8</v>
-      </c>
       <c r="AC296">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -29651,7 +29651,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>6838094</v>
+        <v>6873347</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29663,58 +29663,58 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F328" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G328" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328" t="s">
         <v>54</v>
       </c>
       <c r="K328">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L328">
         <v>3.1</v>
       </c>
       <c r="M328">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="N328">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O328">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P328">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q328">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R328">
-        <v>1.85</v>
+        <v>2.125</v>
       </c>
       <c r="S328">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T328">
         <v>1.75</v>
       </c>
       <c r="U328">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V328">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W328">
-        <v>0.833</v>
+        <v>1.5</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29723,16 +29723,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8500000000000001</v>
+        <v>1.125</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>0.4125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC328">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29740,7 +29740,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>6873347</v>
+        <v>6838094</v>
       </c>
       <c r="C329" t="s">
         <v>28</v>
@@ -29752,58 +29752,58 @@
         <v>45360.60416666666</v>
       </c>
       <c r="F329" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G329" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="s">
         <v>54</v>
       </c>
       <c r="K329">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L329">
         <v>3.1</v>
       </c>
       <c r="M329">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="N329">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O329">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P329">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q329">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R329">
-        <v>2.125</v>
+        <v>1.85</v>
       </c>
       <c r="S329">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T329">
         <v>1.75</v>
       </c>
       <c r="U329">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V329">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W329">
-        <v>1.5</v>
+        <v>0.833</v>
       </c>
       <c r="X329">
         <v>-1</v>
@@ -29812,16 +29812,16 @@
         <v>-1</v>
       </c>
       <c r="Z329">
-        <v>1.125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA329">
         <v>-1</v>
       </c>
       <c r="AB329">
-        <v>0.7749999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC329">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -31253,7 +31253,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7060713</v>
+        <v>7060550</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31265,40 +31265,40 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F346" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G346" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H346">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J346" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K346">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L346">
         <v>3.25</v>
       </c>
       <c r="M346">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N346">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O346">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P346">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q346">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R346">
         <v>1.925</v>
@@ -31307,34 +31307,34 @@
         <v>1.925</v>
       </c>
       <c r="T346">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U346">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V346">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W346">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z346">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31342,7 +31342,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7060550</v>
+        <v>7060713</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31354,40 +31354,40 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F347" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G347" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K347">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L347">
         <v>3.25</v>
       </c>
       <c r="M347">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N347">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O347">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P347">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q347">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R347">
         <v>1.925</v>
@@ -31396,34 +31396,34 @@
         <v>1.925</v>
       </c>
       <c r="T347">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V347">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA347">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC347">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31965,7 +31965,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>7093627</v>
+        <v>7089359</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31977,58 +31977,58 @@
         <v>45375.51041666666</v>
       </c>
       <c r="F354" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="G354" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H354">
         <v>3</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J354" t="s">
         <v>54</v>
       </c>
       <c r="K354">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="L354">
+        <v>3</v>
+      </c>
+      <c r="M354">
+        <v>3.1</v>
+      </c>
+      <c r="N354">
+        <v>2.6</v>
+      </c>
+      <c r="O354">
+        <v>3.1</v>
+      </c>
+      <c r="P354">
         <v>2.875</v>
       </c>
-      <c r="M354">
-        <v>2.75</v>
-      </c>
-      <c r="N354">
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
+        <v>1.825</v>
+      </c>
+      <c r="S354">
+        <v>2.025</v>
+      </c>
+      <c r="T354">
         <v>2.25</v>
       </c>
-      <c r="O354">
-        <v>2.9</v>
-      </c>
-      <c r="P354">
-        <v>3.8</v>
-      </c>
-      <c r="Q354">
-        <v>-0.25</v>
-      </c>
-      <c r="R354">
-        <v>1.875</v>
-      </c>
-      <c r="S354">
-        <v>1.975</v>
-      </c>
-      <c r="T354">
-        <v>1.75</v>
-      </c>
       <c r="U354">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V354">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W354">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="X354">
         <v>-1</v>
@@ -32037,13 +32037,13 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA354">
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC354">
         <v>-1</v>
@@ -32054,7 +32054,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>7089359</v>
+        <v>7093627</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32066,58 +32066,58 @@
         <v>45375.51041666666</v>
       </c>
       <c r="F355" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="G355" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H355">
         <v>3</v>
       </c>
       <c r="I355">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
         <v>54</v>
       </c>
       <c r="K355">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L355">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M355">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="N355">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O355">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P355">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="Q355">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R355">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S355">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U355">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W355">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -32126,13 +32126,13 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA355">
         <v>-1</v>
       </c>
       <c r="AB355">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC355">
         <v>-1</v>
@@ -32143,7 +32143,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7089358</v>
+        <v>7092412</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32155,76 +32155,76 @@
         <v>45375.60416666666</v>
       </c>
       <c r="F356" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G356" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I356">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J356" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K356">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L356">
         <v>2.875</v>
       </c>
       <c r="M356">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N356">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O356">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P356">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q356">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R356">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S356">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T356">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V356">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W356">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X356">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA356">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB356">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC356">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32232,7 +32232,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7092412</v>
+        <v>7089358</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32244,76 +32244,76 @@
         <v>45375.60416666666</v>
       </c>
       <c r="F357" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G357" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H357">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J357" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K357">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L357">
         <v>2.875</v>
       </c>
       <c r="M357">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N357">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O357">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P357">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q357">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R357">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S357">
+        <v>1.75</v>
+      </c>
+      <c r="T357">
+        <v>1.75</v>
+      </c>
+      <c r="U357">
+        <v>2</v>
+      </c>
+      <c r="V357">
+        <v>1.85</v>
+      </c>
+      <c r="W357">
+        <v>-1</v>
+      </c>
+      <c r="X357">
         <v>1.8</v>
       </c>
-      <c r="T357">
-        <v>2.25</v>
-      </c>
-      <c r="U357">
-        <v>2.1</v>
-      </c>
-      <c r="V357">
-        <v>1.775</v>
-      </c>
-      <c r="W357">
-        <v>2</v>
-      </c>
-      <c r="X357">
-        <v>-1</v>
-      </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA357">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB357">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC357">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32526,31 +32526,31 @@
         <v>2.9</v>
       </c>
       <c r="N360">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O360">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P360">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q360">
         <v>0</v>
       </c>
       <c r="R360">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S360">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U360">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="V360">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32600,31 +32600,31 @@
         <v>4.5</v>
       </c>
       <c r="N361">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O361">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q361">
         <v>-0.5</v>
       </c>
       <c r="R361">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V361">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32674,31 +32674,31 @@
         <v>4.5</v>
       </c>
       <c r="N362">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O362">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P362">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q362">
         <v>-0.75</v>
       </c>
       <c r="R362">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S362">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T362">
         <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V362">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32754,7 +32754,7 @@
         <v>3.1</v>
       </c>
       <c r="P363">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q363">
         <v>-0.5</v>
@@ -32822,22 +32822,22 @@
         <v>5.5</v>
       </c>
       <c r="N364">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O364">
         <v>3.5</v>
       </c>
       <c r="P364">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q364">
         <v>-0.75</v>
       </c>
       <c r="R364">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S364">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T364">
         <v>2</v>
@@ -32896,31 +32896,31 @@
         <v>3.75</v>
       </c>
       <c r="N365">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O365">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P365">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q365">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R365">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S365">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T365">
         <v>2</v>
       </c>
       <c r="U365">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V365">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32976,7 +32976,7 @@
         <v>3.25</v>
       </c>
       <c r="P366">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q366">
         <v>-0.25</v>
@@ -32991,10 +32991,10 @@
         <v>2.25</v>
       </c>
       <c r="U366">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V366">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W366">
         <v>0</v>
@@ -33044,13 +33044,13 @@
         <v>4.333</v>
       </c>
       <c r="N367">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O367">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P367">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q367">
         <v>-0.25</v>
@@ -33118,13 +33118,13 @@
         <v>3.2</v>
       </c>
       <c r="N368">
+        <v>3.1</v>
+      </c>
+      <c r="O368">
         <v>2.9</v>
       </c>
-      <c r="O368">
-        <v>2.8</v>
-      </c>
       <c r="P368">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="Q368">
         <v>0</v>
@@ -33139,10 +33139,10 @@
         <v>2</v>
       </c>
       <c r="U368">
+        <v>1.95</v>
+      </c>
+      <c r="V368">
         <v>1.9</v>
-      </c>
-      <c r="V368">
-        <v>1.95</v>
       </c>
       <c r="W368">
         <v>0</v>
@@ -33192,22 +33192,22 @@
         <v>3.75</v>
       </c>
       <c r="N369">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O369">
         <v>2.75</v>
       </c>
       <c r="P369">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q369">
         <v>-0.25</v>
       </c>
       <c r="R369">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S369">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T369">
         <v>1.75</v>
@@ -33266,13 +33266,13 @@
         <v>6</v>
       </c>
       <c r="N370">
-        <v>1.5</v>
+        <v>1.533</v>
       </c>
       <c r="O370">
         <v>4</v>
       </c>
       <c r="P370">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q370">
         <v>-1</v>
@@ -33287,10 +33287,10 @@
         <v>2.5</v>
       </c>
       <c r="U370">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V370">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W370">
         <v>0</v>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC370"/>
+  <dimension ref="A1:AC369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K58">
+        <v>2.2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3.3</v>
+      </c>
+      <c r="N58">
         <v>1.909</v>
       </c>
-      <c r="L58">
-        <v>3.1</v>
-      </c>
-      <c r="M58">
-        <v>4.2</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,73 +11151,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
         <v>2.875</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N120">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y120">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB120">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11240,73 +11240,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
         <v>2.875</v>
       </c>
       <c r="M121">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,19 +12575,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G136" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>0</v>
-      </c>
       <c r="J136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12596,52 +12596,52 @@
         <v>3.2</v>
       </c>
       <c r="M136">
+        <v>3.75</v>
+      </c>
+      <c r="N136">
+        <v>2.15</v>
+      </c>
+      <c r="O136">
+        <v>3.2</v>
+      </c>
+      <c r="P136">
         <v>3.6</v>
       </c>
-      <c r="N136">
-        <v>2.05</v>
-      </c>
-      <c r="O136">
-        <v>3.25</v>
-      </c>
-      <c r="P136">
-        <v>4</v>
-      </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R136">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.975</v>
+      </c>
+      <c r="V136">
         <v>1.875</v>
       </c>
-      <c r="V136">
-        <v>1.975</v>
-      </c>
       <c r="W136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z136">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB136">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,19 +12664,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12685,52 +12685,52 @@
         <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O137">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
+        <v>1.875</v>
+      </c>
+      <c r="V137">
         <v>1.975</v>
       </c>
-      <c r="V137">
-        <v>1.875</v>
-      </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA137">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>3.1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
         <v>3.75</v>
       </c>
-      <c r="M228">
-        <v>5.5</v>
-      </c>
-      <c r="N228">
-        <v>1.65</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>5.5</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>2.025</v>
+      </c>
+      <c r="S228">
         <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X228">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
         <v>2.025</v>
-      </c>
-      <c r="S229">
-        <v>1.825</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
         <v>1.025</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N233">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O233">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P233">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q233">
+        <v>-0.25</v>
+      </c>
+      <c r="R233">
+        <v>1.975</v>
+      </c>
+      <c r="S233">
+        <v>1.875</v>
+      </c>
+      <c r="T233">
+        <v>1.75</v>
+      </c>
+      <c r="U233">
+        <v>2.05</v>
+      </c>
+      <c r="V233">
+        <v>1.8</v>
+      </c>
+      <c r="W233">
+        <v>-1</v>
+      </c>
+      <c r="X233">
+        <v>1.8</v>
+      </c>
+      <c r="Y233">
+        <v>-1</v>
+      </c>
+      <c r="Z233">
         <v>-0.5</v>
       </c>
-      <c r="R233">
-        <v>1.95</v>
-      </c>
-      <c r="S233">
-        <v>1.9</v>
-      </c>
-      <c r="T233">
-        <v>2.25</v>
-      </c>
-      <c r="U233">
-        <v>1.975</v>
-      </c>
-      <c r="V233">
-        <v>1.875</v>
-      </c>
-      <c r="W233">
-        <v>-1</v>
-      </c>
-      <c r="X233">
-        <v>2.5</v>
-      </c>
-      <c r="Y233">
-        <v>-1</v>
-      </c>
-      <c r="Z233">
-        <v>-1</v>
-      </c>
       <c r="AA233">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB233">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC233">
         <v>-0.5</v>
-      </c>
-      <c r="AC233">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G234" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
+        <v>4.2</v>
+      </c>
+      <c r="N234">
+        <v>1.909</v>
+      </c>
+      <c r="O234">
+        <v>3.5</v>
+      </c>
+      <c r="P234">
         <v>4</v>
       </c>
-      <c r="N234">
-        <v>2.3</v>
-      </c>
-      <c r="O234">
-        <v>2.8</v>
-      </c>
-      <c r="P234">
-        <v>3.6</v>
-      </c>
       <c r="Q234">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R234">
+        <v>1.95</v>
+      </c>
+      <c r="S234">
+        <v>1.9</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
         <v>1.975</v>
       </c>
-      <c r="S234">
+      <c r="V234">
         <v>1.875</v>
       </c>
-      <c r="T234">
-        <v>1.75</v>
-      </c>
-      <c r="U234">
-        <v>2.05</v>
-      </c>
-      <c r="V234">
-        <v>1.8</v>
-      </c>
       <c r="W234">
         <v>-1</v>
       </c>
       <c r="X234">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y234">
         <v>-1</v>
       </c>
       <c r="Z234">
+        <v>-1</v>
+      </c>
+      <c r="AA234">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB234">
         <v>-0.5</v>
       </c>
-      <c r="AA234">
+      <c r="AC234">
         <v>0.4375</v>
-      </c>
-      <c r="AB234">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC234">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K235">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236">
+        <v>2.6</v>
+      </c>
+      <c r="L236">
+        <v>3.2</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236" t="s">
-        <v>54</v>
-      </c>
-      <c r="K236">
-        <v>2.2</v>
-      </c>
-      <c r="L236">
-        <v>3.1</v>
-      </c>
-      <c r="M236">
-        <v>3.6</v>
-      </c>
-      <c r="N236">
-        <v>2.05</v>
-      </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,55 +21564,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G237" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
         <v>1</v>
-      </c>
-      <c r="I237">
-        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N237">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q237">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V237">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W237">
         <v>-1</v>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB237">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,56 +21653,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G238" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
+        <v>2.2</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>3.4</v>
+      </c>
+      <c r="N238">
+        <v>2.15</v>
+      </c>
+      <c r="O238">
+        <v>3.1</v>
+      </c>
+      <c r="P238">
+        <v>3.8</v>
+      </c>
+      <c r="Q238">
+        <v>-0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>2.025</v>
+      </c>
+      <c r="T238">
+        <v>2</v>
+      </c>
+      <c r="U238">
+        <v>2</v>
+      </c>
+      <c r="V238">
         <v>1.85</v>
       </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>4.333</v>
-      </c>
-      <c r="N238">
-        <v>1.8</v>
-      </c>
-      <c r="O238">
-        <v>3.6</v>
-      </c>
-      <c r="P238">
-        <v>4.75</v>
-      </c>
-      <c r="Q238">
-        <v>-0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.875</v>
-      </c>
-      <c r="S238">
-        <v>1.975</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>1.95</v>
-      </c>
-      <c r="V238">
-        <v>1.9</v>
-      </c>
       <c r="W238">
         <v>-1</v>
       </c>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC238">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G253" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
         <v>1</v>
       </c>
-      <c r="I253">
-        <v>2</v>
-      </c>
       <c r="J253" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L253">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N253">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P253">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R253">
+        <v>1.95</v>
+      </c>
+      <c r="S253">
+        <v>1.9</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
         <v>1.825</v>
       </c>
-      <c r="S253">
+      <c r="V253">
         <v>2.025</v>
       </c>
-      <c r="T253">
-        <v>1.75</v>
-      </c>
-      <c r="U253">
-        <v>1.8</v>
-      </c>
-      <c r="V253">
-        <v>2.05</v>
-      </c>
       <c r="W253">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA253">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB253">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G254" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L254">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M254">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O254">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P254">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S254">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U254">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V254">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W254">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA254">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB254">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -31609,7 +31609,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7093629</v>
+        <v>7088593</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31621,76 +31621,76 @@
         <v>45374.60416666666</v>
       </c>
       <c r="F350" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G350" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H350">
         <v>1</v>
       </c>
       <c r="I350">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J350" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K350">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L350">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M350">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N350">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O350">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P350">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q350">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R350">
+        <v>1.925</v>
+      </c>
+      <c r="S350">
+        <v>1.925</v>
+      </c>
+      <c r="T350">
+        <v>2</v>
+      </c>
+      <c r="U350">
+        <v>2.025</v>
+      </c>
+      <c r="V350">
         <v>1.825</v>
       </c>
-      <c r="S350">
-        <v>2.025</v>
-      </c>
-      <c r="T350">
-        <v>2</v>
-      </c>
-      <c r="U350">
-        <v>1.875</v>
-      </c>
-      <c r="V350">
-        <v>1.975</v>
-      </c>
       <c r="W350">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z350">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA350">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC350">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31698,7 +31698,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7088593</v>
+        <v>7093629</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31710,76 +31710,76 @@
         <v>45374.60416666666</v>
       </c>
       <c r="F351" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G351" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H351">
         <v>1</v>
       </c>
       <c r="I351">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J351" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K351">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L351">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M351">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N351">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O351">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P351">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R351">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S351">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T351">
         <v>2</v>
       </c>
       <c r="U351">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V351">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W351">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z351">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB351">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC351">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -32143,7 +32143,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7092412</v>
+        <v>7089358</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32155,76 +32155,76 @@
         <v>45375.60416666666</v>
       </c>
       <c r="F356" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G356" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H356">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J356" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K356">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L356">
         <v>2.875</v>
       </c>
       <c r="M356">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N356">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="O356">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P356">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q356">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R356">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="S356">
+        <v>1.75</v>
+      </c>
+      <c r="T356">
+        <v>1.75</v>
+      </c>
+      <c r="U356">
+        <v>2</v>
+      </c>
+      <c r="V356">
+        <v>1.85</v>
+      </c>
+      <c r="W356">
+        <v>-1</v>
+      </c>
+      <c r="X356">
         <v>1.8</v>
       </c>
-      <c r="T356">
-        <v>2.25</v>
-      </c>
-      <c r="U356">
-        <v>2.1</v>
-      </c>
-      <c r="V356">
-        <v>1.775</v>
-      </c>
-      <c r="W356">
-        <v>2</v>
-      </c>
-      <c r="X356">
-        <v>-1</v>
-      </c>
       <c r="Y356">
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA356">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB356">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AC356">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:29">
@@ -32232,7 +32232,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>7089358</v>
+        <v>7092412</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32244,76 +32244,76 @@
         <v>45375.60416666666</v>
       </c>
       <c r="F357" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G357" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I357">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J357" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K357">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="L357">
         <v>2.875</v>
       </c>
       <c r="M357">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N357">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="O357">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P357">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q357">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R357">
-        <v>2.125</v>
+        <v>2.05</v>
       </c>
       <c r="S357">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T357">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U357">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V357">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W357">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X357">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y357">
         <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA357">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB357">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AC357">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7128453</v>
+        <v>7124295</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32508,43 +32508,43 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45380.6875</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G360" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K360">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="L360">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M360">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="N360">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O360">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P360">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q360">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R360">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S360">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T360">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U360">
         <v>1.975</v>
@@ -32573,7 +32573,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7124295</v>
+        <v>7137690</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32582,49 +32582,49 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45381.41666666666</v>
+        <v>45381.51041666666</v>
       </c>
       <c r="F361" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G361" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K361">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L361">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M361">
         <v>4.5</v>
       </c>
       <c r="N361">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O361">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P361">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q361">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R361">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S361">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T361">
         <v>2.25</v>
       </c>
       <c r="U361">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V361">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32647,7 +32647,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7137690</v>
+        <v>7133797</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32659,46 +32659,46 @@
         <v>45381.51041666666</v>
       </c>
       <c r="F362" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G362" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="K362">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L362">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M362">
         <v>4.5</v>
       </c>
       <c r="N362">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O362">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P362">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q362">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S362">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T362">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U362">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V362">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7133797</v>
+        <v>7124294</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32733,46 +32733,46 @@
         <v>45381.51041666666</v>
       </c>
       <c r="F363" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G363" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K363">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L363">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M363">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="N363">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O363">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q363">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R363">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S363">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T363">
         <v>2</v>
       </c>
       <c r="U363">
+        <v>1.975</v>
+      </c>
+      <c r="V363">
         <v>1.875</v>
-      </c>
-      <c r="V363">
-        <v>1.975</v>
       </c>
       <c r="W363">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7124294</v>
+        <v>7133796</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32804,34 +32804,34 @@
         <v>28</v>
       </c>
       <c r="E364" s="2">
-        <v>45381.51041666666</v>
+        <v>45381.60416666666</v>
       </c>
       <c r="F364" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G364" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K364">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L364">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M364">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N364">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O364">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P364">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q364">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R364">
         <v>1.825</v>
@@ -32843,10 +32843,10 @@
         <v>2</v>
       </c>
       <c r="U364">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V364">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W364">
         <v>0</v>
@@ -32869,7 +32869,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7133796</v>
+        <v>7133055</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32881,46 +32881,46 @@
         <v>45381.60416666666</v>
       </c>
       <c r="F365" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G365" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K365">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L365">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M365">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N365">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O365">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P365">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q365">
         <v>-0.25</v>
       </c>
       <c r="R365">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S365">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T365">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U365">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="V365">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W365">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>7133055</v>
+        <v>7129606</v>
       </c>
       <c r="C366" t="s">
         <v>28</v>
@@ -32952,49 +32952,49 @@
         <v>28</v>
       </c>
       <c r="E366" s="2">
-        <v>45381.60416666666</v>
+        <v>45382.375</v>
       </c>
       <c r="F366" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G366" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K366">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L366">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M366">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N366">
         <v>2.2</v>
       </c>
       <c r="O366">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P366">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q366">
         <v>-0.25</v>
       </c>
       <c r="R366">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S366">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T366">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U366">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="V366">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W366">
         <v>0</v>
@@ -33017,7 +33017,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>7129606</v>
+        <v>7129607</v>
       </c>
       <c r="C367" t="s">
         <v>28</v>
@@ -33026,49 +33026,49 @@
         <v>28</v>
       </c>
       <c r="E367" s="2">
-        <v>45382.375</v>
+        <v>45382.46875</v>
       </c>
       <c r="F367" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G367" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K367">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L367">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M367">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N367">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O367">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P367">
-        <v>3.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q367">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R367">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S367">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T367">
         <v>2</v>
       </c>
       <c r="U367">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V367">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W367">
         <v>0</v>
@@ -33091,7 +33091,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>7129607</v>
+        <v>7129608</v>
       </c>
       <c r="C368" t="s">
         <v>28</v>
@@ -33103,46 +33103,46 @@
         <v>45382.46875</v>
       </c>
       <c r="F368" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G368" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K368">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L368">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="M368">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N368">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O368">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="P368">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q368">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R368">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S368">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T368">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U368">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V368">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W368">
         <v>0</v>
@@ -33165,7 +33165,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>7129608</v>
+        <v>7128454</v>
       </c>
       <c r="C369" t="s">
         <v>28</v>
@@ -33174,49 +33174,49 @@
         <v>28</v>
       </c>
       <c r="E369" s="2">
-        <v>45382.46875</v>
+        <v>45382.5625</v>
       </c>
       <c r="F369" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G369" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="K369">
-        <v>2.3</v>
+        <v>1.533</v>
       </c>
       <c r="L369">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M369">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N369">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="O369">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="P369">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q369">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R369">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S369">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T369">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U369">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V369">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W369">
         <v>0</v>
@@ -33231,80 +33231,6 @@
         <v>0</v>
       </c>
       <c r="AA369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:27">
-      <c r="A370" s="1">
-        <v>368</v>
-      </c>
-      <c r="B370">
-        <v>7128454</v>
-      </c>
-      <c r="C370" t="s">
-        <v>28</v>
-      </c>
-      <c r="D370" t="s">
-        <v>28</v>
-      </c>
-      <c r="E370" s="2">
-        <v>45382.5625</v>
-      </c>
-      <c r="F370" t="s">
-        <v>46</v>
-      </c>
-      <c r="G370" t="s">
-        <v>48</v>
-      </c>
-      <c r="K370">
-        <v>1.533</v>
-      </c>
-      <c r="L370">
-        <v>4</v>
-      </c>
-      <c r="M370">
-        <v>6</v>
-      </c>
-      <c r="N370">
-        <v>1.533</v>
-      </c>
-      <c r="O370">
-        <v>4</v>
-      </c>
-      <c r="P370">
-        <v>6.5</v>
-      </c>
-      <c r="Q370">
-        <v>-1</v>
-      </c>
-      <c r="R370">
-        <v>1.925</v>
-      </c>
-      <c r="S370">
-        <v>1.925</v>
-      </c>
-      <c r="T370">
-        <v>2.5</v>
-      </c>
-      <c r="U370">
-        <v>2</v>
-      </c>
-      <c r="V370">
-        <v>1.85</v>
-      </c>
-      <c r="W370">
-        <v>0</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>0</v>
-      </c>
-      <c r="Z370">
-        <v>0</v>
-      </c>
-      <c r="AA370">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC369"/>
+  <dimension ref="A1:AC363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6839317</v>
+        <v>6837956</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1717,76 +1717,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="L14">
         <v>3.1</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
+        <v>1.95</v>
+      </c>
+      <c r="V14">
         <v>1.9</v>
       </c>
-      <c r="V14">
-        <v>1.95</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.475</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6837956</v>
+        <v>6839317</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1806,76 +1806,76 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K15">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
         <v>3.1</v>
       </c>
       <c r="M15">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.9</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.9</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.475</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M45">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K57">
+        <v>2.2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3.3</v>
+      </c>
+      <c r="N57">
         <v>1.909</v>
       </c>
-      <c r="L57">
-        <v>3.1</v>
-      </c>
-      <c r="M57">
-        <v>4.2</v>
-      </c>
-      <c r="N57">
-        <v>1.8</v>
-      </c>
       <c r="O57">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P57">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K58">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M58">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA58">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -11139,7 +11139,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6838006</v>
+        <v>6838121</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11151,73 +11151,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F120" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>2</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L120">
         <v>2.875</v>
       </c>
       <c r="M120">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11228,7 +11228,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6838121</v>
+        <v>6838006</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11240,73 +11240,73 @@
         <v>45213.5625</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
         <v>2.875</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y121">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -12563,7 +12563,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6838008</v>
+        <v>6838011</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12575,19 +12575,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K136">
         <v>2.1</v>
@@ -12596,52 +12596,52 @@
         <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q136">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S136">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.25</v>
       </c>
       <c r="U136">
+        <v>1.875</v>
+      </c>
+      <c r="V136">
         <v>1.975</v>
       </c>
-      <c r="V136">
-        <v>1.875</v>
-      </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12652,7 +12652,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6838011</v>
+        <v>6838008</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12664,19 +12664,19 @@
         <v>45221.5625</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>0</v>
-      </c>
       <c r="J137" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K137">
         <v>2.1</v>
@@ -12685,52 +12685,52 @@
         <v>3.2</v>
       </c>
       <c r="M137">
+        <v>3.75</v>
+      </c>
+      <c r="N137">
+        <v>2.15</v>
+      </c>
+      <c r="O137">
+        <v>3.2</v>
+      </c>
+      <c r="P137">
         <v>3.6</v>
       </c>
-      <c r="N137">
-        <v>2.05</v>
-      </c>
-      <c r="O137">
-        <v>3.25</v>
-      </c>
-      <c r="P137">
-        <v>4</v>
-      </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T137">
         <v>2.25</v>
       </c>
       <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
         <v>1.875</v>
       </c>
-      <c r="V137">
-        <v>1.975</v>
-      </c>
       <c r="W137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB137">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6838024</v>
+        <v>6839289</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L164">
+        <v>3.1</v>
+      </c>
+      <c r="M164">
+        <v>3.1</v>
+      </c>
+      <c r="N164">
+        <v>2.4</v>
+      </c>
+      <c r="O164">
+        <v>3.1</v>
+      </c>
+      <c r="P164">
         <v>3.2</v>
       </c>
-      <c r="M164">
-        <v>3.75</v>
-      </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>3.3</v>
-      </c>
-      <c r="P164">
-        <v>4</v>
-      </c>
       <c r="Q164">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>1.85</v>
+      </c>
+      <c r="T164">
+        <v>2</v>
+      </c>
+      <c r="U164">
+        <v>1.825</v>
+      </c>
+      <c r="V164">
         <v>2.025</v>
       </c>
-      <c r="S164">
-        <v>1.825</v>
-      </c>
-      <c r="T164">
-        <v>2.25</v>
-      </c>
-      <c r="U164">
-        <v>2.05</v>
-      </c>
-      <c r="V164">
-        <v>1.8</v>
-      </c>
       <c r="W164">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z164">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB164">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC164">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6839289</v>
+        <v>6838024</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L165">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M165">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q165">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R165">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V165">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA165">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15500,7 +15500,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6838028</v>
+        <v>6838026</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15512,76 +15512,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F169" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G169" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K169">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M169">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N169">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O169">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q169">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
+        <v>1.975</v>
+      </c>
+      <c r="S169">
         <v>1.875</v>
       </c>
-      <c r="S169">
-        <v>1.975</v>
-      </c>
       <c r="T169">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
+        <v>1.95</v>
+      </c>
+      <c r="V169">
         <v>1.9</v>
       </c>
-      <c r="V169">
-        <v>1.95</v>
-      </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Z169">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB169">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15589,7 +15589,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>6838026</v>
+        <v>6838028</v>
       </c>
       <c r="C170" t="s">
         <v>28</v>
@@ -15601,76 +15601,76 @@
         <v>45242.60416666666</v>
       </c>
       <c r="F170" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G170" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I170">
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K170">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L170">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M170">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N170">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O170">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P170">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q170">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R170">
+        <v>1.875</v>
+      </c>
+      <c r="S170">
         <v>1.975</v>
       </c>
-      <c r="S170">
-        <v>1.875</v>
-      </c>
       <c r="T170">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U170">
+        <v>1.9</v>
+      </c>
+      <c r="V170">
         <v>1.95</v>
       </c>
-      <c r="V170">
-        <v>1.9</v>
-      </c>
       <c r="W170">
         <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y170">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z170">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA170">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB170">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC170">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="171" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G228" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K228">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L228">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M228">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N228">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O228">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P228">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
         <v>2.025</v>
-      </c>
-      <c r="S228">
-        <v>1.825</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
+        <v>-1</v>
+      </c>
+      <c r="AA228">
         <v>1.025</v>
-      </c>
-      <c r="AA228">
-        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G229" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K229">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L229">
+        <v>3.2</v>
+      </c>
+      <c r="M229">
+        <v>3.1</v>
+      </c>
+      <c r="N229">
+        <v>2</v>
+      </c>
+      <c r="O229">
+        <v>3.5</v>
+      </c>
+      <c r="P229">
         <v>3.75</v>
       </c>
-      <c r="M229">
-        <v>5.5</v>
-      </c>
-      <c r="N229">
-        <v>1.65</v>
-      </c>
-      <c r="O229">
-        <v>3.8</v>
-      </c>
-      <c r="P229">
-        <v>5.5</v>
-      </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
+        <v>2.025</v>
+      </c>
+      <c r="S229">
         <v>1.825</v>
-      </c>
-      <c r="S229">
-        <v>2.025</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X229">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -21196,7 +21196,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>6838051</v>
+        <v>6838050</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21208,10 +21208,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F233" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21223,61 +21223,61 @@
         <v>52</v>
       </c>
       <c r="K233">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L233">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
+        <v>4.2</v>
+      </c>
+      <c r="N233">
+        <v>1.909</v>
+      </c>
+      <c r="O233">
+        <v>3.5</v>
+      </c>
+      <c r="P233">
         <v>4</v>
       </c>
-      <c r="N233">
-        <v>2.3</v>
-      </c>
-      <c r="O233">
-        <v>2.8</v>
-      </c>
-      <c r="P233">
-        <v>3.6</v>
-      </c>
       <c r="Q233">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R233">
+        <v>1.95</v>
+      </c>
+      <c r="S233">
+        <v>1.9</v>
+      </c>
+      <c r="T233">
+        <v>2.25</v>
+      </c>
+      <c r="U233">
         <v>1.975</v>
       </c>
-      <c r="S233">
+      <c r="V233">
         <v>1.875</v>
       </c>
-      <c r="T233">
-        <v>1.75</v>
-      </c>
-      <c r="U233">
-        <v>2.05</v>
-      </c>
-      <c r="V233">
-        <v>1.8</v>
-      </c>
       <c r="W233">
         <v>-1</v>
       </c>
       <c r="X233">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="Y233">
         <v>-1</v>
       </c>
       <c r="Z233">
+        <v>-1</v>
+      </c>
+      <c r="AA233">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB233">
         <v>-0.5</v>
       </c>
-      <c r="AA233">
+      <c r="AC233">
         <v>0.4375</v>
-      </c>
-      <c r="AB233">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AC233">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21285,7 +21285,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>6838050</v>
+        <v>6838051</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21297,10 +21297,10 @@
         <v>45280.72916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H234">
         <v>1</v>
@@ -21312,61 +21312,61 @@
         <v>52</v>
       </c>
       <c r="K234">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L234">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M234">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N234">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O234">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P234">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q234">
+        <v>-0.25</v>
+      </c>
+      <c r="R234">
+        <v>1.975</v>
+      </c>
+      <c r="S234">
+        <v>1.875</v>
+      </c>
+      <c r="T234">
+        <v>1.75</v>
+      </c>
+      <c r="U234">
+        <v>2.05</v>
+      </c>
+      <c r="V234">
+        <v>1.8</v>
+      </c>
+      <c r="W234">
+        <v>-1</v>
+      </c>
+      <c r="X234">
+        <v>1.8</v>
+      </c>
+      <c r="Y234">
+        <v>-1</v>
+      </c>
+      <c r="Z234">
         <v>-0.5</v>
       </c>
-      <c r="R234">
-        <v>1.95</v>
-      </c>
-      <c r="S234">
-        <v>1.9</v>
-      </c>
-      <c r="T234">
-        <v>2.25</v>
-      </c>
-      <c r="U234">
-        <v>1.975</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
-      </c>
-      <c r="W234">
-        <v>-1</v>
-      </c>
-      <c r="X234">
-        <v>2.5</v>
-      </c>
-      <c r="Y234">
-        <v>-1</v>
-      </c>
-      <c r="Z234">
-        <v>-1</v>
-      </c>
       <c r="AA234">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB234">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AC234">
         <v>-0.5</v>
-      </c>
-      <c r="AC234">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235">
+        <v>2.6</v>
+      </c>
+      <c r="L235">
+        <v>3.2</v>
+      </c>
+      <c r="M235">
+        <v>2.75</v>
+      </c>
+      <c r="N235">
         <v>3</v>
       </c>
-      <c r="I235">
-        <v>0</v>
-      </c>
-      <c r="J235" t="s">
-        <v>54</v>
-      </c>
-      <c r="K235">
-        <v>2.2</v>
-      </c>
-      <c r="L235">
-        <v>3.1</v>
-      </c>
-      <c r="M235">
-        <v>3.6</v>
-      </c>
-      <c r="N235">
-        <v>2.05</v>
-      </c>
       <c r="O235">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P235">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB235">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC235">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G236" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K236">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L236">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M236">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N236">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O236">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P236">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X236">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7124295</v>
+        <v>7129606</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32508,49 +32508,49 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45381.41666666666</v>
+        <v>45382.375</v>
       </c>
       <c r="F360" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G360" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K360">
+        <v>2</v>
+      </c>
+      <c r="L360">
+        <v>3</v>
+      </c>
+      <c r="M360">
+        <v>4.333</v>
+      </c>
+      <c r="N360">
+        <v>2.15</v>
+      </c>
+      <c r="O360">
+        <v>3</v>
+      </c>
+      <c r="P360">
+        <v>4</v>
+      </c>
+      <c r="Q360">
+        <v>-0.25</v>
+      </c>
+      <c r="R360">
         <v>1.85</v>
       </c>
-      <c r="L360">
-        <v>3.3</v>
-      </c>
-      <c r="M360">
-        <v>4.5</v>
-      </c>
-      <c r="N360">
-        <v>1.85</v>
-      </c>
-      <c r="O360">
-        <v>3.4</v>
-      </c>
-      <c r="P360">
-        <v>4.75</v>
-      </c>
-      <c r="Q360">
-        <v>-0.5</v>
-      </c>
-      <c r="R360">
-        <v>1.875</v>
-      </c>
       <c r="S360">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U360">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V360">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W360">
         <v>0</v>
@@ -32573,7 +32573,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7137690</v>
+        <v>7129608</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32582,49 +32582,49 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45381.51041666666</v>
+        <v>45382.46875</v>
       </c>
       <c r="F361" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G361" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K361">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L361">
+        <v>2.75</v>
+      </c>
+      <c r="M361">
         <v>3.75</v>
       </c>
-      <c r="M361">
-        <v>4.5</v>
-      </c>
       <c r="N361">
+        <v>2.45</v>
+      </c>
+      <c r="O361">
+        <v>2.6</v>
+      </c>
+      <c r="P361">
+        <v>3.75</v>
+      </c>
+      <c r="Q361">
+        <v>-0.25</v>
+      </c>
+      <c r="R361">
+        <v>2</v>
+      </c>
+      <c r="S361">
+        <v>1.85</v>
+      </c>
+      <c r="T361">
+        <v>1.75</v>
+      </c>
+      <c r="U361">
+        <v>2.05</v>
+      </c>
+      <c r="V361">
         <v>1.8</v>
-      </c>
-      <c r="O361">
-        <v>3.6</v>
-      </c>
-      <c r="P361">
-        <v>4.5</v>
-      </c>
-      <c r="Q361">
-        <v>-0.75</v>
-      </c>
-      <c r="R361">
-        <v>2.025</v>
-      </c>
-      <c r="S361">
-        <v>1.825</v>
-      </c>
-      <c r="T361">
-        <v>2.25</v>
-      </c>
-      <c r="U361">
-        <v>2</v>
-      </c>
-      <c r="V361">
-        <v>1.85</v>
       </c>
       <c r="W361">
         <v>0</v>
@@ -32647,7 +32647,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7133797</v>
+        <v>7129607</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32656,49 +32656,49 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45381.51041666666</v>
+        <v>45382.46875</v>
       </c>
       <c r="F362" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G362" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K362">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L362">
+        <v>2.8</v>
+      </c>
+      <c r="M362">
+        <v>3.2</v>
+      </c>
+      <c r="N362">
         <v>3.1</v>
       </c>
-      <c r="M362">
-        <v>4.5</v>
-      </c>
-      <c r="N362">
-        <v>1.909</v>
-      </c>
       <c r="O362">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P362">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q362">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R362">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S362">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T362">
         <v>2</v>
       </c>
       <c r="U362">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V362">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W362">
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7124294</v>
+        <v>7128454</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32730,43 +32730,43 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45381.51041666666</v>
+        <v>45382.5625</v>
       </c>
       <c r="F363" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G363" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="K363">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L363">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M363">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N363">
-        <v>1.615</v>
+        <v>1.533</v>
       </c>
       <c r="O363">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P363">
         <v>6.5</v>
       </c>
       <c r="Q363">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R363">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S363">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T363">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U363">
         <v>1.975</v>
@@ -32787,450 +32787,6 @@
         <v>0</v>
       </c>
       <c r="AA363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:29">
-      <c r="A364" s="1">
-        <v>362</v>
-      </c>
-      <c r="B364">
-        <v>7133796</v>
-      </c>
-      <c r="C364" t="s">
-        <v>28</v>
-      </c>
-      <c r="D364" t="s">
-        <v>28</v>
-      </c>
-      <c r="E364" s="2">
-        <v>45381.60416666666</v>
-      </c>
-      <c r="F364" t="s">
-        <v>30</v>
-      </c>
-      <c r="G364" t="s">
-        <v>49</v>
-      </c>
-      <c r="K364">
-        <v>2.25</v>
-      </c>
-      <c r="L364">
-        <v>2.8</v>
-      </c>
-      <c r="M364">
-        <v>3.75</v>
-      </c>
-      <c r="N364">
-        <v>2.15</v>
-      </c>
-      <c r="O364">
-        <v>2.875</v>
-      </c>
-      <c r="P364">
-        <v>4</v>
-      </c>
-      <c r="Q364">
-        <v>-0.25</v>
-      </c>
-      <c r="R364">
-        <v>1.825</v>
-      </c>
-      <c r="S364">
-        <v>2.025</v>
-      </c>
-      <c r="T364">
-        <v>2</v>
-      </c>
-      <c r="U364">
-        <v>2.1</v>
-      </c>
-      <c r="V364">
-        <v>1.775</v>
-      </c>
-      <c r="W364">
-        <v>0</v>
-      </c>
-      <c r="X364">
-        <v>0</v>
-      </c>
-      <c r="Y364">
-        <v>0</v>
-      </c>
-      <c r="Z364">
-        <v>0</v>
-      </c>
-      <c r="AA364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:29">
-      <c r="A365" s="1">
-        <v>363</v>
-      </c>
-      <c r="B365">
-        <v>7133055</v>
-      </c>
-      <c r="C365" t="s">
-        <v>28</v>
-      </c>
-      <c r="D365" t="s">
-        <v>28</v>
-      </c>
-      <c r="E365" s="2">
-        <v>45381.60416666666</v>
-      </c>
-      <c r="F365" t="s">
-        <v>47</v>
-      </c>
-      <c r="G365" t="s">
-        <v>35</v>
-      </c>
-      <c r="K365">
-        <v>2.15</v>
-      </c>
-      <c r="L365">
-        <v>3.25</v>
-      </c>
-      <c r="M365">
-        <v>3.4</v>
-      </c>
-      <c r="N365">
-        <v>2.2</v>
-      </c>
-      <c r="O365">
-        <v>3.25</v>
-      </c>
-      <c r="P365">
-        <v>3.4</v>
-      </c>
-      <c r="Q365">
-        <v>-0.25</v>
-      </c>
-      <c r="R365">
-        <v>1.9</v>
-      </c>
-      <c r="S365">
-        <v>1.95</v>
-      </c>
-      <c r="T365">
-        <v>2.25</v>
-      </c>
-      <c r="U365">
-        <v>1.8</v>
-      </c>
-      <c r="V365">
-        <v>2.05</v>
-      </c>
-      <c r="W365">
-        <v>0</v>
-      </c>
-      <c r="X365">
-        <v>0</v>
-      </c>
-      <c r="Y365">
-        <v>0</v>
-      </c>
-      <c r="Z365">
-        <v>0</v>
-      </c>
-      <c r="AA365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:29">
-      <c r="A366" s="1">
-        <v>364</v>
-      </c>
-      <c r="B366">
-        <v>7129606</v>
-      </c>
-      <c r="C366" t="s">
-        <v>28</v>
-      </c>
-      <c r="D366" t="s">
-        <v>28</v>
-      </c>
-      <c r="E366" s="2">
-        <v>45382.375</v>
-      </c>
-      <c r="F366" t="s">
-        <v>45</v>
-      </c>
-      <c r="G366" t="s">
-        <v>33</v>
-      </c>
-      <c r="K366">
-        <v>2</v>
-      </c>
-      <c r="L366">
-        <v>3</v>
-      </c>
-      <c r="M366">
-        <v>4.333</v>
-      </c>
-      <c r="N366">
-        <v>2.2</v>
-      </c>
-      <c r="O366">
-        <v>3</v>
-      </c>
-      <c r="P366">
-        <v>3.8</v>
-      </c>
-      <c r="Q366">
-        <v>-0.25</v>
-      </c>
-      <c r="R366">
-        <v>1.85</v>
-      </c>
-      <c r="S366">
-        <v>2</v>
-      </c>
-      <c r="T366">
-        <v>2</v>
-      </c>
-      <c r="U366">
-        <v>2.1</v>
-      </c>
-      <c r="V366">
-        <v>1.775</v>
-      </c>
-      <c r="W366">
-        <v>0</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>0</v>
-      </c>
-      <c r="Z366">
-        <v>0</v>
-      </c>
-      <c r="AA366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:29">
-      <c r="A367" s="1">
-        <v>365</v>
-      </c>
-      <c r="B367">
-        <v>7129607</v>
-      </c>
-      <c r="C367" t="s">
-        <v>28</v>
-      </c>
-      <c r="D367" t="s">
-        <v>28</v>
-      </c>
-      <c r="E367" s="2">
-        <v>45382.46875</v>
-      </c>
-      <c r="F367" t="s">
-        <v>50</v>
-      </c>
-      <c r="G367" t="s">
-        <v>37</v>
-      </c>
-      <c r="K367">
-        <v>2.5</v>
-      </c>
-      <c r="L367">
-        <v>2.8</v>
-      </c>
-      <c r="M367">
-        <v>3.2</v>
-      </c>
-      <c r="N367">
-        <v>3.1</v>
-      </c>
-      <c r="O367">
-        <v>2.9</v>
-      </c>
-      <c r="P367">
-        <v>2.625</v>
-      </c>
-      <c r="Q367">
-        <v>0</v>
-      </c>
-      <c r="R367">
-        <v>2.1</v>
-      </c>
-      <c r="S367">
-        <v>1.775</v>
-      </c>
-      <c r="T367">
-        <v>2</v>
-      </c>
-      <c r="U367">
-        <v>1.95</v>
-      </c>
-      <c r="V367">
-        <v>1.9</v>
-      </c>
-      <c r="W367">
-        <v>0</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>0</v>
-      </c>
-      <c r="Z367">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:29">
-      <c r="A368" s="1">
-        <v>366</v>
-      </c>
-      <c r="B368">
-        <v>7129608</v>
-      </c>
-      <c r="C368" t="s">
-        <v>28</v>
-      </c>
-      <c r="D368" t="s">
-        <v>28</v>
-      </c>
-      <c r="E368" s="2">
-        <v>45382.46875</v>
-      </c>
-      <c r="F368" t="s">
-        <v>36</v>
-      </c>
-      <c r="G368" t="s">
-        <v>42</v>
-      </c>
-      <c r="K368">
-        <v>2.3</v>
-      </c>
-      <c r="L368">
-        <v>2.75</v>
-      </c>
-      <c r="M368">
-        <v>3.75</v>
-      </c>
-      <c r="N368">
-        <v>2.45</v>
-      </c>
-      <c r="O368">
-        <v>2.75</v>
-      </c>
-      <c r="P368">
-        <v>3.5</v>
-      </c>
-      <c r="Q368">
-        <v>-0.25</v>
-      </c>
-      <c r="R368">
-        <v>2.05</v>
-      </c>
-      <c r="S368">
-        <v>1.8</v>
-      </c>
-      <c r="T368">
-        <v>1.75</v>
-      </c>
-      <c r="U368">
-        <v>2.05</v>
-      </c>
-      <c r="V368">
-        <v>1.8</v>
-      </c>
-      <c r="W368">
-        <v>0</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>0</v>
-      </c>
-      <c r="Z368">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:27">
-      <c r="A369" s="1">
-        <v>367</v>
-      </c>
-      <c r="B369">
-        <v>7128454</v>
-      </c>
-      <c r="C369" t="s">
-        <v>28</v>
-      </c>
-      <c r="D369" t="s">
-        <v>28</v>
-      </c>
-      <c r="E369" s="2">
-        <v>45382.5625</v>
-      </c>
-      <c r="F369" t="s">
-        <v>46</v>
-      </c>
-      <c r="G369" t="s">
-        <v>48</v>
-      </c>
-      <c r="K369">
-        <v>1.533</v>
-      </c>
-      <c r="L369">
-        <v>4</v>
-      </c>
-      <c r="M369">
-        <v>6</v>
-      </c>
-      <c r="N369">
-        <v>1.533</v>
-      </c>
-      <c r="O369">
-        <v>4</v>
-      </c>
-      <c r="P369">
-        <v>6.5</v>
-      </c>
-      <c r="Q369">
-        <v>-1</v>
-      </c>
-      <c r="R369">
-        <v>1.9</v>
-      </c>
-      <c r="S369">
-        <v>1.95</v>
-      </c>
-      <c r="T369">
-        <v>2.5</v>
-      </c>
-      <c r="U369">
-        <v>2.025</v>
-      </c>
-      <c r="V369">
-        <v>1.825</v>
-      </c>
-      <c r="W369">
-        <v>0</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>0</v>
-      </c>
-      <c r="Z369">
-        <v>0</v>
-      </c>
-      <c r="AA369">
         <v>0</v>
       </c>
     </row>

--- a/Spain Segunda/Spain Segunda.xlsx
+++ b/Spain Segunda/Spain Segunda.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1853" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -540,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC363"/>
+  <dimension ref="A1:AC366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3663,7 +3663,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6837969</v>
+        <v>6836522</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3675,76 +3675,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L36">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M36">
         <v>2.3</v>
       </c>
       <c r="N36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O36">
         <v>3</v>
       </c>
       <c r="P36">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q36">
         <v>0.25</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3752,7 +3752,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6836522</v>
+        <v>6837969</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3764,76 +3764,76 @@
         <v>45165.60416666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K37">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M37">
         <v>2.3</v>
       </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O37">
         <v>3</v>
       </c>
       <c r="P37">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q37">
         <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V37">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z37">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6838103</v>
+        <v>6838106</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4476,76 +4476,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="O45">
         <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q45">
         <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4553,7 +4553,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6838106</v>
+        <v>6838103</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4565,76 +4565,76 @@
         <v>45171.66666666666</v>
       </c>
       <c r="F46" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O46">
         <v>3.4</v>
       </c>
       <c r="P46">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q46">
         <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6839309</v>
+        <v>6836525</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5544,76 +5544,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K57">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M57">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA57">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6836525</v>
+        <v>6839309</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5633,76 +5633,76 @@
         <v>45179.46875</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K58">
+        <v>2.2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3.3</v>
+      </c>
+      <c r="N58">
         <v>1.909</v>
       </c>
-      <c r="L58">
-        <v>3.1</v>
-      </c>
-      <c r="M58">
-        <v>4.2</v>
-      </c>
-      <c r="N58">
-        <v>1.8</v>
-      </c>
       <c r="O58">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P58">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6244,7 +6244,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6836526</v>
+        <v>7184008</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6256,40 +6256,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F65" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K65">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="N65">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6298,34 +6298,34 @@
         <v>1.875</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA65">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6333,7 +6333,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7184008</v>
+        <v>6836526</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6345,40 +6345,40 @@
         <v>45185.5625</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66">
+        <v>3.4</v>
+      </c>
+      <c r="L66">
+        <v>2.9</v>
+      </c>
+      <c r="M66">
         <v>2.2</v>
       </c>
-      <c r="L66">
+      <c r="N66">
+        <v>2.3</v>
+      </c>
+      <c r="O66">
         <v>3</v>
       </c>
-      <c r="M66">
-        <v>3.3</v>
-      </c>
-      <c r="N66">
-        <v>1.75</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
       <c r="P66">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6387,34 +6387,34 @@
         <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z66">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6839307</v>
+        <v>6838110</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6701,76 +6701,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>54</v>
+      </c>
+      <c r="K70">
+        <v>1.909</v>
+      </c>
+      <c r="L70">
         <v>3</v>
       </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70" t="s">
-        <v>52</v>
-      </c>
-      <c r="K70">
-        <v>1.363</v>
-      </c>
-      <c r="L70">
-        <v>4</v>
-      </c>
       <c r="M70">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N70">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X70">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6838110</v>
+        <v>6839307</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6790,76 +6790,76 @@
         <v>45186.5625</v>
       </c>
       <c r="F71" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>9.5</v>
+      </c>
+      <c r="N71">
+        <v>1.5</v>
+      </c>
+      <c r="O71">
+        <v>4</v>
+      </c>
+      <c r="P71">
+        <v>7</v>
+      </c>
+      <c r="Q71">
+        <v>-1</v>
+      </c>
+      <c r="R71">
+        <v>1.95</v>
+      </c>
+      <c r="S71">
+        <v>1.9</v>
+      </c>
+      <c r="T71">
+        <v>2.25</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
+        <v>2.025</v>
+      </c>
+      <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
         <v>3</v>
       </c>
-      <c r="M71">
-        <v>4.2</v>
-      </c>
-      <c r="N71">
-        <v>1.8</v>
-      </c>
-      <c r="O71">
-        <v>3.4</v>
-      </c>
-      <c r="P71">
-        <v>5</v>
-      </c>
-      <c r="Q71">
-        <v>-0.5</v>
-      </c>
-      <c r="R71">
-        <v>1.85</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2</v>
-      </c>
-      <c r="U71">
-        <v>1.8</v>
-      </c>
-      <c r="V71">
-        <v>2.05</v>
-      </c>
-      <c r="W71">
-        <v>0.8</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -8291,7 +8291,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6837988</v>
+        <v>6836531</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8303,73 +8303,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K88">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M88">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N88">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T88">
         <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8380,7 +8380,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6836531</v>
+        <v>6837988</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8392,73 +8392,73 @@
         <v>45199.66666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L89">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M89">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="O89">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S89">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
         <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X89">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -9003,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6838116</v>
+        <v>6836539</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9015,76 +9015,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K96">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="N96">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="O96">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S96">
-        <v>2.025</v>
+        <v>2.075</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.025</v>
+        <v>1.075</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9092,7 +9092,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6836539</v>
+        <v>6838116</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9104,76 +9104,76 @@
         <v>45202.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K97">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="O97">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P97">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="T97">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y97">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1.075</v>
+        <v>1.025</v>
       </c>
       <c r="AB97">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9626,7 +9626,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6837993</v>
+        <v>6838117</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9638,52 +9638,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="N103">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.75</v>
-      </c>
-      <c r="S103">
-        <v>2.125</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.8</v>
       </c>
       <c r="V103">
         <v>2.05</v>
@@ -9695,19 +9695,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.125</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC103">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9715,7 +9715,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6838117</v>
+        <v>6837993</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9727,52 +9727,52 @@
         <v>45204.58333333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>53</v>
       </c>
       <c r="K104">
+        <v>2.3</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
         <v>3.1</v>
       </c>
-      <c r="L104">
+      <c r="N104">
+        <v>2.5</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
         <v>3.1</v>
       </c>
-      <c r="M104">
-        <v>2.25</v>
-      </c>
-      <c r="N104">
-        <v>3.75</v>
-      </c>
-      <c r="O104">
-        <v>3.2</v>
-      </c>
-      <c r="P104">
-        <v>2.1</v>
-      </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="S104">
+        <v>2.125</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.75</v>
       </c>
       <c r="V104">
         <v>2.05</v>
@@ -9784,19 +9784,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.8</v>
+        <v>1.125</v>
       </c>
       <c r="AB104">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10516,7 +10516,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6838000</v>
+        <v>6839299</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10528,76 +10528,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K113">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L113">
         <v>3.25</v>
       </c>
       <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>1.909</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
         <v>4.5</v>
       </c>
-      <c r="N113">
-        <v>1.75</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>5.75</v>
-      </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T113">
         <v>2</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V113">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10605,7 +10605,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6839299</v>
+        <v>6838000</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10617,76 +10617,76 @@
         <v>45207.5625</v>
       </c>
       <c r="F114" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L114">
         <v>3.25</v>
       </c>
       <c r="M114">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N114">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O114">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P114">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q114">
+        <v>-0.75</v>
+      </c>
+      <c r="R114">
+        <v>2</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>2</v>
+      </c>
+      <c r="U114">
+        <v>1.925</v>
+      </c>
+      <c r="V114">
+        <v>1.925</v>
+      </c>
+      <c r="W114">
+        <v>0.75</v>
+      </c>
+      <c r="X114">
+        <v>-1</v>
+      </c>
+      <c r="Y114">
+        <v>-1</v>
+      </c>
+      <c r="Z114">
+        <v>0.5</v>
+      </c>
+      <c r="AA114">
         <v>-0.5</v>
       </c>
-      <c r="R114">
-        <v>1.85</v>
-      </c>
-      <c r="S114">
-        <v>2</v>
-      </c>
-      <c r="T114">
-        <v>2</v>
-      </c>
-      <c r="U114">
-        <v>1.8</v>
-      </c>
-      <c r="V114">
-        <v>2.05</v>
-      </c>
-      <c r="W114">
-        <v>-1</v>
-      </c>
-      <c r="X114">
-        <v>2.4</v>
-      </c>
-      <c r="Y114">
-        <v>-1</v>
-      </c>
-      <c r="Z114">
-        <v>-1</v>
-      </c>
-      <c r="AA114">
-        <v>1</v>
-      </c>
       <c r="AB114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC114">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11495,7 +11495,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6839297</v>
+        <v>6836542</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11507,76 +11507,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K124">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L124">
         <v>2.9</v>
       </c>
       <c r="M124">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="N124">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P124">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.9</v>
       </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.925</v>
-      </c>
-      <c r="V124">
-        <v>1.925</v>
-      </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC124">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11584,7 +11584,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6836542</v>
+        <v>6839297</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11596,76 +11596,76 @@
         <v>45214.46875</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G125" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L125">
         <v>2.9</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N125">
+        <v>3.5</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
         <v>2.2</v>
       </c>
-      <c r="O125">
-        <v>2.9</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11673,7 +11673,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6838122</v>
+        <v>6836543</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11685,46 +11685,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K126">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>5.75</v>
+      </c>
+      <c r="N126">
+        <v>1.7</v>
+      </c>
+      <c r="O126">
         <v>3.5</v>
       </c>
-      <c r="M126">
-        <v>6.5</v>
-      </c>
-      <c r="N126">
-        <v>1.6</v>
-      </c>
-      <c r="O126">
-        <v>3.6</v>
-      </c>
       <c r="P126">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q126">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T126">
         <v>2.25</v>
@@ -11736,25 +11736,25 @@
         <v>1.8</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X126">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA126">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11762,7 +11762,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6836543</v>
+        <v>6838122</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11774,46 +11774,46 @@
         <v>45214.5625</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K127">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="L127">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P127">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
         <v>2.25</v>
@@ -11825,25 +11825,25 @@
         <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -14521,7 +14521,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6836547</v>
+        <v>6838128</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14533,73 +14533,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F158" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
         <v>3</v>
       </c>
-      <c r="I158">
-        <v>1</v>
-      </c>
       <c r="J158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K158">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M158">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="N158">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W158">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB158">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14610,7 +14610,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6838128</v>
+        <v>6836547</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14622,73 +14622,73 @@
         <v>45235.60416666666</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K159">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L159">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M159">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="N159">
+        <v>2.5</v>
+      </c>
+      <c r="O159">
+        <v>3.25</v>
+      </c>
+      <c r="P159">
         <v>2.9</v>
       </c>
-      <c r="O159">
-        <v>3</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
-      </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X159">
         <v>-1</v>
       </c>
       <c r="Y159">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA159">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15055,7 +15055,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6839289</v>
+        <v>6838024</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15067,76 +15067,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G164" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K164">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L164">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P164">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="Q164">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V164">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA164">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC164">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15144,7 +15144,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6838024</v>
+        <v>6839289</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15156,76 +15156,76 @@
         <v>45241.60416666666</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K165">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="L165">
+        <v>3.1</v>
+      </c>
+      <c r="M165">
+        <v>3.1</v>
+      </c>
+      <c r="N165">
+        <v>2.4</v>
+      </c>
+      <c r="O165">
+        <v>3.1</v>
+      </c>
+      <c r="P165">
         <v>3.2</v>
       </c>
-      <c r="M165">
-        <v>3.75</v>
-      </c>
-      <c r="N165">
-        <v>2.05</v>
-      </c>
-      <c r="O165">
-        <v>3.3</v>
-      </c>
-      <c r="P165">
-        <v>4</v>
-      </c>
       <c r="Q165">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>1.85</v>
+      </c>
+      <c r="T165">
+        <v>2</v>
+      </c>
+      <c r="U165">
+        <v>1.825</v>
+      </c>
+      <c r="V165">
         <v>2.025</v>
       </c>
-      <c r="S165">
-        <v>1.825</v>
-      </c>
-      <c r="T165">
-        <v>2.25</v>
-      </c>
-      <c r="U165">
-        <v>2.05</v>
-      </c>
-      <c r="V165">
-        <v>1.8</v>
-      </c>
       <c r="W165">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z165">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB165">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC165">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -18437,7 +18437,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6839283</v>
+        <v>6838138</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18449,76 +18449,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F202" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H202">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I202">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K202">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
+        <v>3.2</v>
+      </c>
+      <c r="M202">
         <v>3</v>
       </c>
-      <c r="M202">
+      <c r="N202">
+        <v>2.375</v>
+      </c>
+      <c r="O202">
+        <v>3.25</v>
+      </c>
+      <c r="P202">
         <v>3.1</v>
       </c>
-      <c r="N202">
-        <v>2.8</v>
-      </c>
-      <c r="O202">
-        <v>3</v>
-      </c>
-      <c r="P202">
-        <v>2.7</v>
-      </c>
       <c r="Q202">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T202">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W202">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y202">
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB202">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC202">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18526,7 +18526,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6838138</v>
+        <v>6839283</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18538,76 +18538,76 @@
         <v>45263.60416666666</v>
       </c>
       <c r="F203" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J203" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K203">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L203">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M203">
+        <v>3.1</v>
+      </c>
+      <c r="N203">
+        <v>2.8</v>
+      </c>
+      <c r="O203">
         <v>3</v>
       </c>
-      <c r="N203">
-        <v>2.375</v>
-      </c>
-      <c r="O203">
-        <v>3.25</v>
-      </c>
       <c r="P203">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V203">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W203">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X203">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA203">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC203">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -20039,7 +20039,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>6838049</v>
+        <v>6838048</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20051,76 +20051,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K220">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L220">
         <v>3</v>
       </c>
       <c r="M220">
+        <v>3.4</v>
+      </c>
+      <c r="N220">
+        <v>2.3</v>
+      </c>
+      <c r="O220">
+        <v>2.875</v>
+      </c>
+      <c r="P220">
         <v>3.6</v>
       </c>
-      <c r="N220">
-        <v>2</v>
-      </c>
-      <c r="O220">
-        <v>3</v>
-      </c>
-      <c r="P220">
-        <v>4.5</v>
-      </c>
       <c r="Q220">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S220">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T220">
         <v>1.75</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V220">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W220">
         <v>-1</v>
       </c>
       <c r="X220">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z220">
         <v>-1</v>
       </c>
       <c r="AA220">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB220">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AC220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20128,7 +20128,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>6838048</v>
+        <v>6838049</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20140,76 +20140,76 @@
         <v>45276.60416666666</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G221" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K221">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L221">
         <v>3</v>
       </c>
       <c r="M221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O221">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P221">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S221">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T221">
         <v>1.75</v>
       </c>
       <c r="U221">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V221">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W221">
         <v>-1</v>
       </c>
       <c r="X221">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y221">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
         <v>-1</v>
       </c>
       <c r="AA221">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB221">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20751,7 +20751,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>6839278</v>
+        <v>6838147</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20763,46 +20763,46 @@
         <v>45279.625</v>
       </c>
       <c r="F228" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G228" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K228">
-        <v>1.615</v>
+        <v>2.35</v>
       </c>
       <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>3.1</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228">
+        <v>3.5</v>
+      </c>
+      <c r="P228">
         <v>3.75</v>
       </c>
-      <c r="M228">
-        <v>5.5</v>
-      </c>
-      <c r="N228">
-        <v>1.65</v>
-      </c>
-      <c r="O228">
-        <v>3.8</v>
-      </c>
-      <c r="P228">
-        <v>5.5</v>
-      </c>
       <c r="Q228">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
+        <v>2.025</v>
+      </c>
+      <c r="S228">
         <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>2.025</v>
       </c>
       <c r="T228">
         <v>2.25</v>
@@ -20814,19 +20814,19 @@
         <v>2.025</v>
       </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X228">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-0.5</v>
@@ -20840,7 +20840,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>6838147</v>
+        <v>6839278</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20852,46 +20852,46 @@
         <v>45279.625</v>
       </c>
       <c r="F229" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G229" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K229">
-        <v>2.35</v>
+        <v>1.615</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N229">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O229">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P229">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q229">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R229">
+        <v>1.825</v>
+      </c>
+      <c r="S229">
         <v>2.025</v>
-      </c>
-      <c r="S229">
-        <v>1.825</v>
       </c>
       <c r="T229">
         <v>2.25</v>
@@ -20903,19 +20903,19 @@
         <v>2.025</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
         <v>1.025</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
       </c>
       <c r="AB229">
         <v>-0.5</v>
@@ -20929,7 +20929,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>6838146</v>
+        <v>6838052</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20941,61 +20941,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F230" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I230">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J230" t="s">
         <v>52</v>
       </c>
       <c r="K230">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L230">
         <v>3.75</v>
       </c>
       <c r="M230">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T230">
         <v>2.25</v>
       </c>
       <c r="U230">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V230">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>-1</v>
       </c>
       <c r="X230">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y230">
         <v>-1</v>
@@ -21004,13 +21004,13 @@
         <v>-1</v>
       </c>
       <c r="AA230">
+        <v>1.025</v>
+      </c>
+      <c r="AB230">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB230">
-        <v>-1</v>
-      </c>
       <c r="AC230">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21018,7 +21018,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6838052</v>
+        <v>6838146</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21030,61 +21030,61 @@
         <v>45279.72916666666</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>52</v>
       </c>
       <c r="K231">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L231">
         <v>3.75</v>
       </c>
       <c r="M231">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N231">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.25</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y231">
         <v>-1</v>
@@ -21093,13 +21093,13 @@
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21374,7 +21374,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6838149</v>
+        <v>6838148</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21386,40 +21386,40 @@
         <v>45281.625</v>
       </c>
       <c r="F235" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G235" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K235">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L235">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M235">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O235">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P235">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
         <v>2.025</v>
@@ -21428,7 +21428,7 @@
         <v>1.825</v>
       </c>
       <c r="T235">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U235">
         <v>1.95</v>
@@ -21437,25 +21437,25 @@
         <v>1.9</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X235">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC235">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21463,7 +21463,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6838148</v>
+        <v>6838149</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21475,40 +21475,40 @@
         <v>45281.625</v>
       </c>
       <c r="F236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236">
+        <v>2.6</v>
+      </c>
+      <c r="L236">
+        <v>3.2</v>
+      </c>
+      <c r="M236">
+        <v>2.75</v>
+      </c>
+      <c r="N236">
         <v>3</v>
       </c>
-      <c r="I236">
-        <v>0</v>
-      </c>
-      <c r="J236" t="s">
-        <v>54</v>
-      </c>
-      <c r="K236">
-        <v>2.2</v>
-      </c>
-      <c r="L236">
-        <v>3.1</v>
-      </c>
-      <c r="M236">
-        <v>3.6</v>
-      </c>
-      <c r="N236">
-        <v>2.05</v>
-      </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
         <v>2.025</v>
@@ -21517,7 +21517,7 @@
         <v>1.825</v>
       </c>
       <c r="T236">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U236">
         <v>1.95</v>
@@ -21526,25 +21526,25 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB236">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC236">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21552,7 +21552,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>6839277</v>
+        <v>6836561</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21564,56 +21564,56 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F237" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G237" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>53</v>
       </c>
       <c r="K237">
+        <v>2.2</v>
+      </c>
+      <c r="L237">
+        <v>3.2</v>
+      </c>
+      <c r="M237">
+        <v>3.4</v>
+      </c>
+      <c r="N237">
+        <v>2.15</v>
+      </c>
+      <c r="O237">
+        <v>3.1</v>
+      </c>
+      <c r="P237">
+        <v>3.8</v>
+      </c>
+      <c r="Q237">
+        <v>-0.25</v>
+      </c>
+      <c r="R237">
+        <v>1.825</v>
+      </c>
+      <c r="S237">
+        <v>2.025</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
         <v>1.85</v>
       </c>
-      <c r="L237">
-        <v>3.4</v>
-      </c>
-      <c r="M237">
-        <v>4.333</v>
-      </c>
-      <c r="N237">
-        <v>1.8</v>
-      </c>
-      <c r="O237">
-        <v>3.6</v>
-      </c>
-      <c r="P237">
-        <v>4.75</v>
-      </c>
-      <c r="Q237">
-        <v>-0.5</v>
-      </c>
-      <c r="R237">
-        <v>1.875</v>
-      </c>
-      <c r="S237">
-        <v>1.975</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>1.95</v>
-      </c>
-      <c r="V237">
-        <v>1.9</v>
-      </c>
       <c r="W237">
         <v>-1</v>
       </c>
@@ -21621,19 +21621,19 @@
         <v>-1</v>
       </c>
       <c r="Y237">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC237">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21641,7 +21641,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>6836561</v>
+        <v>6839277</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21653,55 +21653,55 @@
         <v>45281.72916666666</v>
       </c>
       <c r="F238" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G238" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
         <v>1</v>
-      </c>
-      <c r="I238">
-        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N238">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q238">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
@@ -21710,19 +21710,19 @@
         <v>-1</v>
       </c>
       <c r="Y238">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB238">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -22175,7 +22175,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6839275</v>
+        <v>6838054</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22187,49 +22187,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F244" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>0</v>
       </c>
       <c r="J244" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K244">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="N244">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="O244">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q244">
         <v>0</v>
       </c>
       <c r="R244">
+        <v>2.05</v>
+      </c>
+      <c r="S244">
         <v>1.8</v>
       </c>
-      <c r="S244">
-        <v>2.05</v>
-      </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U244">
         <v>2.05</v>
@@ -22238,19 +22238,19 @@
         <v>1.8</v>
       </c>
       <c r="W244">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X244">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y244">
         <v>-1</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB244">
         <v>-1</v>
@@ -22264,7 +22264,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>6838054</v>
+        <v>6839275</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22276,49 +22276,49 @@
         <v>45304.70833333334</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245">
         <v>0</v>
       </c>
       <c r="J245" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K245">
-        <v>2.5</v>
+        <v>2.375</v>
       </c>
       <c r="L245">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M245">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N245">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="O245">
+        <v>3.1</v>
+      </c>
+      <c r="P245">
         <v>2.9</v>
       </c>
-      <c r="P245">
-        <v>2.7</v>
-      </c>
       <c r="Q245">
         <v>0</v>
       </c>
       <c r="R245">
+        <v>1.8</v>
+      </c>
+      <c r="S245">
         <v>2.05</v>
       </c>
-      <c r="S245">
-        <v>1.8</v>
-      </c>
       <c r="T245">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
         <v>2.05</v>
@@ -22327,19 +22327,19 @@
         <v>1.8</v>
       </c>
       <c r="W245">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X245">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y245">
         <v>-1</v>
       </c>
       <c r="Z245">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA245">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB245">
         <v>-1</v>
@@ -22442,7 +22442,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6838151</v>
+        <v>6838057</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22454,76 +22454,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F247" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H247">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K247">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M247">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N247">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P247">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T247">
         <v>2</v>
       </c>
       <c r="U247">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="V247">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W247">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
       </c>
       <c r="Z247">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA247">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB247">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC247">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22531,7 +22531,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>6838057</v>
+        <v>6838151</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22543,76 +22543,76 @@
         <v>45305.51041666666</v>
       </c>
       <c r="F248" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G248" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J248" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K248">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L248">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M248">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N248">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O248">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P248">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q248">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R248">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S248">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T248">
         <v>2</v>
       </c>
       <c r="U248">
+        <v>1.75</v>
+      </c>
+      <c r="V248">
         <v>2.05</v>
       </c>
-      <c r="V248">
-        <v>1.8</v>
-      </c>
       <c r="W248">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X248">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
         <v>-1</v>
       </c>
       <c r="Z248">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA248">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB248">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC248">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22798,7 +22798,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6839274</v>
+        <v>6838060</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22810,70 +22810,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G251" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K251">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="L251">
         <v>3.1</v>
       </c>
       <c r="M251">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="N251">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O251">
         <v>3</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S251">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T251">
         <v>2</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V251">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W251">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA251">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
         <v>0</v>
@@ -22887,7 +22887,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>6838060</v>
+        <v>6839274</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22899,70 +22899,70 @@
         <v>45311.51041666666</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G252" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L252">
         <v>3.1</v>
       </c>
       <c r="M252">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="N252">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O252">
         <v>3</v>
       </c>
       <c r="P252">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q252">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R252">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>2</v>
       </c>
       <c r="U252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V252">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W252">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X252">
         <v>-1</v>
       </c>
       <c r="Y252">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z252">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA252">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
         <v>0</v>
@@ -22976,7 +22976,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7701027</v>
+        <v>6838062</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22988,73 +22988,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F253" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G253" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L253">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N253">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="O253">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P253">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q253">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S253">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T253">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U253">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V253">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W253">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X253">
         <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA253">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB253">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AC253">
         <v>-1</v>
@@ -23065,7 +23065,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>6838062</v>
+        <v>7701027</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23077,73 +23077,73 @@
         <v>45311.60416666666</v>
       </c>
       <c r="F254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G254" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
         <v>1</v>
       </c>
-      <c r="I254">
-        <v>2</v>
-      </c>
       <c r="J254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L254">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M254">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N254">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P254">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
+        <v>1.9</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
         <v>1.825</v>
       </c>
-      <c r="S254">
+      <c r="V254">
         <v>2.025</v>
       </c>
-      <c r="T254">
-        <v>1.75</v>
-      </c>
-      <c r="U254">
-        <v>1.8</v>
-      </c>
-      <c r="V254">
-        <v>2.05</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X254">
         <v>-1</v>
       </c>
       <c r="Y254">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA254">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB254">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
         <v>-1</v>
@@ -24222,7 +24222,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>7729197</v>
+        <v>7729226</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24234,76 +24234,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F267" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I267">
         <v>1</v>
       </c>
       <c r="J267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K267">
+        <v>2.6</v>
+      </c>
+      <c r="L267">
+        <v>3.1</v>
+      </c>
+      <c r="M267">
         <v>2.8</v>
       </c>
-      <c r="L267">
-        <v>3.2</v>
-      </c>
-      <c r="M267">
-        <v>2.5</v>
-      </c>
       <c r="N267">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O267">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P267">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="Q267">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R267">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S267">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T267">
         <v>2</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
         <v>-1</v>
       </c>
       <c r="X267">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y267">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA267">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB267">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC267">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24311,7 +24311,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>7729226</v>
+        <v>7729197</v>
       </c>
       <c r="C268" t="s">
         <v>28</v>
@@ -24323,76 +24323,76 @@
         <v>45319.51041666666</v>
       </c>
       <c r="F268" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G268" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268">
         <v>1</v>
       </c>
       <c r="J268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K268">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L268">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M268">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N268">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O268">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P268">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q268">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R268">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S268">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T268">
         <v>2</v>
       </c>
       <c r="U268">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V268">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W268">
         <v>-1</v>
       </c>
       <c r="X268">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y268">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA268">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB268">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC268">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="269" spans="1:29">
@@ -25290,7 +25290,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7759323</v>
+        <v>7759317</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25302,49 +25302,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F279" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G279" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279">
         <v>1</v>
       </c>
       <c r="J279" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K279">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="L279">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M279">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N279">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="O279">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P279">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q279">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R279">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S279">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T279">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U279">
         <v>1.975</v>
@@ -25356,22 +25356,22 @@
         <v>-1</v>
       </c>
       <c r="X279">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z279">
         <v>-1</v>
       </c>
       <c r="AA279">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC279">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25379,7 +25379,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7759317</v>
+        <v>7759323</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25391,49 +25391,49 @@
         <v>45326.51041666666</v>
       </c>
       <c r="F280" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G280" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I280">
         <v>1</v>
       </c>
       <c r="J280" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K280">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L280">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M280">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N280">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="O280">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P280">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U280">
         <v>1.975</v>
@@ -25445,22 +25445,22 @@
         <v>-1</v>
       </c>
       <c r="X280">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y280">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
         <v>-1</v>
       </c>
       <c r="AA280">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AB280">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC280">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -28049,7 +28049,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6838082</v>
+        <v>6836574</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28061,76 +28061,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F310" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H310">
         <v>1</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K310">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="L310">
         <v>3</v>
       </c>
       <c r="M310">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="N310">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="O310">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P310">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S310">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T310">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U310">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V310">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X310">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y310">
         <v>-1</v>
       </c>
       <c r="Z310">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB310">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC310">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28138,7 +28138,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>6836574</v>
+        <v>6838082</v>
       </c>
       <c r="C311" t="s">
         <v>28</v>
@@ -28150,76 +28150,76 @@
         <v>45347.51041666666</v>
       </c>
       <c r="F311" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G311" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H311">
         <v>1</v>
       </c>
       <c r="I311">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J311" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K311">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="L311">
         <v>3</v>
       </c>
       <c r="M311">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="N311">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O311">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P311">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q311">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R311">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S311">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T311">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U311">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V311">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W311">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X311">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y311">
         <v>-1</v>
       </c>
       <c r="Z311">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA311">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB311">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC311">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="312" spans="1:29">
@@ -30007,7 +30007,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>6838174</v>
+        <v>6838172</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -30019,76 +30019,76 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F332" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I332">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K332">
+        <v>2.15</v>
+      </c>
+      <c r="L332">
+        <v>3.1</v>
+      </c>
+      <c r="M332">
+        <v>3.75</v>
+      </c>
+      <c r="N332">
+        <v>2</v>
+      </c>
+      <c r="O332">
         <v>3.2</v>
       </c>
-      <c r="L332">
-        <v>3.25</v>
-      </c>
-      <c r="M332">
-        <v>2.3</v>
-      </c>
-      <c r="N332">
-        <v>4</v>
-      </c>
-      <c r="O332">
-        <v>3.1</v>
-      </c>
       <c r="P332">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q332">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S332">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T332">
         <v>2.25</v>
       </c>
       <c r="U332">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W332">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X332">
         <v>-1</v>
       </c>
       <c r="Y332">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z332">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA332">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB332">
         <v>-1</v>
       </c>
       <c r="AC332">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="333" spans="1:29">
@@ -30096,7 +30096,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>6838172</v>
+        <v>6838174</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30108,76 +30108,76 @@
         <v>45361.51041666666</v>
       </c>
       <c r="F333" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G333" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H333">
+        <v>0</v>
+      </c>
+      <c r="I333">
         <v>1</v>
       </c>
-      <c r="I333">
-        <v>0</v>
-      </c>
       <c r="J333" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K333">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="L333">
+        <v>3.25</v>
+      </c>
+      <c r="M333">
+        <v>2.3</v>
+      </c>
+      <c r="N333">
+        <v>4</v>
+      </c>
+      <c r="O333">
         <v>3.1</v>
       </c>
-      <c r="M333">
-        <v>3.75</v>
-      </c>
-      <c r="N333">
-        <v>2</v>
-      </c>
-      <c r="O333">
-        <v>3.2</v>
-      </c>
       <c r="P333">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R333">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S333">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T333">
         <v>2.25</v>
       </c>
       <c r="U333">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V333">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W333">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X333">
         <v>-1</v>
       </c>
       <c r="Y333">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z333">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA333">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB333">
         <v>-1</v>
       </c>
       <c r="AC333">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="334" spans="1:29">
@@ -31253,7 +31253,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7060550</v>
+        <v>7060713</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31265,40 +31265,40 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F346" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G346" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K346">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L346">
         <v>3.25</v>
       </c>
       <c r="M346">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="N346">
-        <v>2.875</v>
+        <v>1.7</v>
       </c>
       <c r="O346">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="P346">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q346">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R346">
         <v>1.925</v>
@@ -31307,34 +31307,34 @@
         <v>1.925</v>
       </c>
       <c r="T346">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U346">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V346">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA346">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC346">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31342,7 +31342,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7060713</v>
+        <v>7060550</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31354,40 +31354,40 @@
         <v>45368.60416666666</v>
       </c>
       <c r="F347" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H347">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J347" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K347">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L347">
         <v>3.25</v>
       </c>
       <c r="M347">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N347">
-        <v>1.7</v>
+        <v>2.875</v>
       </c>
       <c r="O347">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P347">
-        <v>5.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q347">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R347">
         <v>1.925</v>
@@ -31396,34 +31396,34 @@
         <v>1.925</v>
       </c>
       <c r="T347">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U347">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V347">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W347">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z347">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31609,7 +31609,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>7088593</v>
+        <v>7093629</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31621,76 +31621,76 @@
         <v>45374.60416666666</v>
       </c>
       <c r="F350" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G350" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H350">
         <v>1</v>
       </c>
       <c r="I350">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K350">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="L350">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M350">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N350">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O350">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="P350">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q350">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R350">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S350">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T350">
         <v>2</v>
       </c>
       <c r="U350">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V350">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W350">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X350">
         <v>-1</v>
       </c>
       <c r="Y350">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z350">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB350">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC350">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351" spans="1:29">
@@ -31698,7 +31698,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>7093629</v>
+        <v>7088593</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31710,76 +31710,76 @@
         <v>45374.60416666666</v>
       </c>
       <c r="F351" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G351" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H351">
         <v>1</v>
       </c>
       <c r="I351">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J351" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K351">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="L351">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M351">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N351">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O351">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="P351">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q351">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R351">
+        <v>1.925</v>
+      </c>
+      <c r="S351">
+        <v>1.925</v>
+      </c>
+      <c r="T351">
+        <v>2</v>
+      </c>
+      <c r="U351">
+        <v>2.025</v>
+      </c>
+      <c r="V351">
         <v>1.825</v>
       </c>
-      <c r="S351">
-        <v>2.025</v>
-      </c>
-      <c r="T351">
-        <v>2</v>
-      </c>
-      <c r="U351">
-        <v>1.875</v>
-      </c>
-      <c r="V351">
-        <v>1.975</v>
-      </c>
       <c r="W351">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X351">
         <v>-1</v>
       </c>
       <c r="Y351">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z351">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA351">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC351">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="352" spans="1:29">
@@ -32499,7 +32499,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7129606</v>
+        <v>7128453</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32508,64 +32508,79 @@
         <v>28</v>
       </c>
       <c r="E360" s="2">
-        <v>45382.375</v>
+        <v>45380.6875</v>
       </c>
       <c r="F360" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G360" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="H360">
+        <v>0</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360" t="s">
+        <v>52</v>
       </c>
       <c r="K360">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L360">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M360">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="N360">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O360">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P360">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="Q360">
         <v>-0.25</v>
       </c>
       <c r="R360">
+        <v>2.1</v>
+      </c>
+      <c r="S360">
+        <v>1.775</v>
+      </c>
+      <c r="T360">
+        <v>2</v>
+      </c>
+      <c r="U360">
         <v>1.85</v>
       </c>
-      <c r="S360">
-        <v>2</v>
-      </c>
-      <c r="T360">
-        <v>1.75</v>
-      </c>
-      <c r="U360">
-        <v>1.8</v>
-      </c>
       <c r="V360">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X360">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y360">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA360">
-        <v>0</v>
+        <v>0.3875</v>
+      </c>
+      <c r="AB360">
+        <v>-1</v>
+      </c>
+      <c r="AC360">
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32573,7 +32588,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>7129608</v>
+        <v>7124295</v>
       </c>
       <c r="C361" t="s">
         <v>28</v>
@@ -32582,64 +32597,79 @@
         <v>28</v>
       </c>
       <c r="E361" s="2">
-        <v>45382.46875</v>
+        <v>45381.41666666666</v>
       </c>
       <c r="F361" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G361" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="H361">
+        <v>0</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361" t="s">
+        <v>52</v>
       </c>
       <c r="K361">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L361">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="M361">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N361">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O361">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="P361">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q361">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R361">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S361">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T361">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U361">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V361">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X361">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z361">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA361">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB361">
+        <v>-1</v>
+      </c>
+      <c r="AC361">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="362" spans="1:29">
@@ -32647,7 +32677,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>7129607</v>
+        <v>7133797</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32656,64 +32686,79 @@
         <v>28</v>
       </c>
       <c r="E362" s="2">
-        <v>45382.46875</v>
+        <v>45381.51041666666</v>
       </c>
       <c r="F362" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G362" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362" t="s">
+        <v>54</v>
       </c>
       <c r="K362">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L362">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M362">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N362">
+        <v>1.909</v>
+      </c>
+      <c r="O362">
         <v>3.1</v>
       </c>
-      <c r="O362">
-        <v>2.9</v>
-      </c>
       <c r="P362">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="Q362">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R362">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S362">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T362">
         <v>2</v>
       </c>
       <c r="U362">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V362">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W362">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y362">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA362">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB362">
+        <v>-1</v>
+      </c>
+      <c r="AC362">
+        <v>1.025</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32721,7 +32766,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>7128454</v>
+        <v>7124294</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32730,64 +32775,346 @@
         <v>28</v>
       </c>
       <c r="E363" s="2">
-        <v>45382.5625</v>
+        <v>45381.51041666666</v>
       </c>
       <c r="F363" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G363" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="H363">
+        <v>0</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363" t="s">
+        <v>52</v>
       </c>
       <c r="K363">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L363">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M363">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N363">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="O363">
-        <v>4</v>
+        <v>3.6</v>
       </c>
     